--- a/Hoàng/2025/T5/BIDV QUẢNG NAM (62-2025)/DANH MỤC BIDV QUẢNG NAM - điều chỉnh DM FINAL.xlsx
+++ b/Hoàng/2025/T5/BIDV QUẢNG NAM (62-2025)/DANH MỤC BIDV QUẢNG NAM - điều chỉnh DM FINAL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\DATA-TN\Hoàng\2025\T5\BIDV QUẢNG NAM (62-2025)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D17B58-7A42-49F4-BDD3-6D8FEAE2B804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D229569C-712A-4034-A6D0-4823060F3423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FIX NĂM SINH" sheetId="11" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3059" uniqueCount="752">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3062" uniqueCount="755">
   <si>
     <t>Ghi chú</t>
   </si>
@@ -2339,9 +2339,6 @@
     <t>Mức phí khám</t>
   </si>
   <si>
-    <t>ĐÃ XUẤT HOÁ ĐƠN 1.968.000 đồng (NỘI SOI)</t>
-  </si>
-  <si>
     <t>XUẤT HOÁ ĐƠN LẺ PHẦN VƯỢT HẠN MỨC</t>
   </si>
   <si>
@@ -2361,6 +2358,18 @@
   </si>
   <si>
     <t>THỜI GIAN ĐI KHÁM</t>
+  </si>
+  <si>
+    <t>XUÂT HOÁ ĐƠN PHẦN HẠN MỨC THEO THÔNG TIN CCCD ĐÃ LƯU</t>
+  </si>
+  <si>
+    <t>XUẤT HOÁ ĐƠN PHẦN CHÊNH LỆCH, ĐÃ XUẤT HOÁ ĐƠN LẺ</t>
+  </si>
+  <si>
+    <t>ĐÃ XUẤT HOÁ ĐƠN LẺ NỘI SOI DẠ DÀY</t>
+  </si>
+  <si>
+    <t>ĐÃ XUẤT HOÁ ĐƠN LẺ 1.968.000 đồng (NỘI SOI)</t>
   </si>
 </sst>
 </file>
@@ -2579,7 +2588,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2643,6 +2652,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3028,7 +3055,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="308">
+  <cellXfs count="351">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3522,9 +3549,6 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="25" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -3629,6 +3653,25 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3857,32 +3900,115 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="25" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="25" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="25" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="12" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="25" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="13" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="25" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="14" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="25" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -4338,34 +4464,34 @@
     <col min="6" max="8" width="9.140625" style="15"/>
     <col min="9" max="9" width="30.28515625" style="15" bestFit="1" customWidth="1"/>
     <col min="10" max="12" width="9.140625" style="15"/>
-    <col min="13" max="13" width="11.85546875" style="213" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" style="212" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="224" t="s">
+      <c r="A1" s="230" t="s">
         <v>260</v>
       </c>
-      <c r="B1" s="225" t="s">
+      <c r="B1" s="231" t="s">
         <v>654</v>
       </c>
-      <c r="C1" s="224" t="s">
+      <c r="C1" s="230" t="s">
         <v>421</v>
       </c>
-      <c r="D1" s="224" t="s">
+      <c r="D1" s="230" t="s">
         <v>422</v>
       </c>
-      <c r="E1" s="225" t="s">
+      <c r="E1" s="231" t="s">
         <v>735</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="129" customFormat="1" ht="195.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="224"/>
-      <c r="B2" s="226"/>
-      <c r="C2" s="224"/>
-      <c r="D2" s="224"/>
-      <c r="E2" s="226"/>
-      <c r="M2" s="214"/>
+      <c r="A2" s="230"/>
+      <c r="B2" s="232"/>
+      <c r="C2" s="230"/>
+      <c r="D2" s="230"/>
+      <c r="E2" s="232"/>
+      <c r="M2" s="213"/>
     </row>
     <row r="3" spans="1:14" s="136" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="149" t="s">
@@ -4375,22 +4501,22 @@
       <c r="C3" s="149"/>
       <c r="D3" s="130"/>
       <c r="E3" s="130"/>
-      <c r="H3" s="216" t="s">
+      <c r="H3" s="215" t="s">
         <v>260</v>
       </c>
-      <c r="I3" s="216" t="s">
+      <c r="I3" s="215" t="s">
         <v>740</v>
       </c>
-      <c r="J3" s="216" t="s">
+      <c r="J3" s="215" t="s">
         <v>742</v>
       </c>
-      <c r="K3" s="216" t="s">
+      <c r="K3" s="215" t="s">
         <v>741</v>
       </c>
-      <c r="L3" s="217" t="s">
+      <c r="L3" s="216" t="s">
         <v>0</v>
       </c>
-      <c r="M3" s="217" t="s">
+      <c r="M3" s="216" t="s">
         <v>743</v>
       </c>
     </row>
@@ -4410,23 +4536,23 @@
       <c r="E4" s="153">
         <v>1972</v>
       </c>
-      <c r="H4" s="218">
+      <c r="H4" s="217">
         <v>1</v>
       </c>
-      <c r="I4" s="219" t="s">
+      <c r="I4" s="218" t="s">
         <v>431</v>
       </c>
-      <c r="J4" s="219">
+      <c r="J4" s="218">
         <f>VLOOKUP(I4,$C$4:$E$83,3,0)</f>
         <v>1983</v>
       </c>
-      <c r="K4" s="218" t="s">
+      <c r="K4" s="217" t="s">
         <v>432</v>
       </c>
-      <c r="L4" s="220" t="s">
+      <c r="L4" s="219" t="s">
         <v>433</v>
       </c>
-      <c r="M4" s="221">
+      <c r="M4" s="220">
         <v>2000000</v>
       </c>
       <c r="N4" s="136" t="str">
@@ -4435,13 +4561,13 @@
       </c>
     </row>
     <row r="5" spans="1:14" s="136" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="211">
+      <c r="A5" s="210">
         <v>2</v>
       </c>
       <c r="B5" s="153" t="s">
         <v>656</v>
       </c>
-      <c r="C5" s="210" t="s">
+      <c r="C5" s="209" t="s">
         <v>431</v>
       </c>
       <c r="D5" s="153" t="s">
@@ -4450,23 +4576,23 @@
       <c r="E5" s="153">
         <v>1983</v>
       </c>
-      <c r="H5" s="218">
+      <c r="H5" s="217">
         <v>2</v>
       </c>
-      <c r="I5" s="219" t="s">
+      <c r="I5" s="218" t="s">
         <v>434</v>
       </c>
-      <c r="J5" s="219">
+      <c r="J5" s="218">
         <f t="shared" ref="J5:J68" si="0">VLOOKUP(I5,$C$4:$E$83,3,0)</f>
         <v>1979</v>
       </c>
-      <c r="K5" s="218" t="s">
+      <c r="K5" s="217" t="s">
         <v>432</v>
       </c>
-      <c r="L5" s="220" t="s">
+      <c r="L5" s="219" t="s">
         <v>433</v>
       </c>
-      <c r="M5" s="221">
+      <c r="M5" s="220">
         <v>2000000</v>
       </c>
       <c r="N5" s="136" t="str">
@@ -4490,23 +4616,23 @@
       <c r="E6" s="153">
         <v>1979</v>
       </c>
-      <c r="H6" s="218">
+      <c r="H6" s="217">
         <v>3</v>
       </c>
-      <c r="I6" s="219" t="s">
+      <c r="I6" s="218" t="s">
         <v>614</v>
       </c>
-      <c r="J6" s="219">
+      <c r="J6" s="218">
         <f t="shared" si="0"/>
         <v>1972</v>
       </c>
-      <c r="K6" s="218" t="s">
+      <c r="K6" s="217" t="s">
         <v>437</v>
       </c>
-      <c r="L6" s="220" t="s">
+      <c r="L6" s="219" t="s">
         <v>433</v>
       </c>
-      <c r="M6" s="221">
+      <c r="M6" s="220">
         <v>3500000</v>
       </c>
       <c r="N6" s="136" t="str">
@@ -4530,23 +4656,23 @@
       <c r="E7" s="153">
         <v>1979</v>
       </c>
-      <c r="H7" s="218">
+      <c r="H7" s="217">
         <v>4</v>
       </c>
-      <c r="I7" s="219" t="s">
+      <c r="I7" s="218" t="s">
         <v>435</v>
       </c>
-      <c r="J7" s="219">
+      <c r="J7" s="218">
         <f t="shared" si="0"/>
         <v>1979</v>
       </c>
-      <c r="K7" s="218" t="s">
+      <c r="K7" s="217" t="s">
         <v>432</v>
       </c>
-      <c r="L7" s="220" t="s">
+      <c r="L7" s="219" t="s">
         <v>433</v>
       </c>
-      <c r="M7" s="221">
+      <c r="M7" s="220">
         <v>2000000</v>
       </c>
       <c r="N7" s="136" t="str">
@@ -4570,23 +4696,23 @@
       <c r="E8" s="153">
         <v>1987</v>
       </c>
-      <c r="H8" s="218">
+      <c r="H8" s="217">
         <v>5</v>
       </c>
-      <c r="I8" s="219" t="s">
+      <c r="I8" s="218" t="s">
         <v>436</v>
       </c>
-      <c r="J8" s="219">
+      <c r="J8" s="218">
         <f t="shared" si="0"/>
         <v>1987</v>
       </c>
-      <c r="K8" s="218" t="s">
+      <c r="K8" s="217" t="s">
         <v>437</v>
       </c>
-      <c r="L8" s="220" t="s">
+      <c r="L8" s="219" t="s">
         <v>433</v>
       </c>
-      <c r="M8" s="221">
+      <c r="M8" s="220">
         <v>3500000</v>
       </c>
       <c r="N8" s="136" t="str">
@@ -4610,23 +4736,23 @@
       <c r="E9" s="153">
         <v>1990</v>
       </c>
-      <c r="H9" s="218">
+      <c r="H9" s="217">
         <v>6</v>
       </c>
-      <c r="I9" s="219" t="s">
+      <c r="I9" s="218" t="s">
         <v>438</v>
       </c>
-      <c r="J9" s="219">
+      <c r="J9" s="218">
         <f t="shared" si="0"/>
         <v>1990</v>
       </c>
-      <c r="K9" s="218" t="s">
+      <c r="K9" s="217" t="s">
         <v>432</v>
       </c>
-      <c r="L9" s="220" t="s">
+      <c r="L9" s="219" t="s">
         <v>433</v>
       </c>
-      <c r="M9" s="221">
+      <c r="M9" s="220">
         <v>2000000</v>
       </c>
       <c r="N9" s="136" t="str">
@@ -4650,23 +4776,23 @@
       <c r="E10" s="153">
         <v>1987</v>
       </c>
-      <c r="H10" s="218">
+      <c r="H10" s="217">
         <v>7</v>
       </c>
-      <c r="I10" s="219" t="s">
+      <c r="I10" s="218" t="s">
         <v>439</v>
       </c>
-      <c r="J10" s="219">
+      <c r="J10" s="218">
         <f t="shared" si="0"/>
         <v>1987</v>
       </c>
-      <c r="K10" s="218" t="s">
+      <c r="K10" s="217" t="s">
         <v>437</v>
       </c>
-      <c r="L10" s="220" t="s">
+      <c r="L10" s="219" t="s">
         <v>433</v>
       </c>
-      <c r="M10" s="221">
+      <c r="M10" s="220">
         <v>3500000</v>
       </c>
       <c r="N10" s="136" t="str">
@@ -4675,13 +4801,13 @@
       </c>
     </row>
     <row r="11" spans="1:14" s="136" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="211">
+      <c r="A11" s="210">
         <v>8</v>
       </c>
       <c r="B11" s="153" t="s">
         <v>662</v>
       </c>
-      <c r="C11" s="210" t="s">
+      <c r="C11" s="209" t="s">
         <v>440</v>
       </c>
       <c r="D11" s="153" t="s">
@@ -4690,23 +4816,23 @@
       <c r="E11" s="153">
         <v>1985</v>
       </c>
-      <c r="H11" s="218">
+      <c r="H11" s="217">
         <v>8</v>
       </c>
-      <c r="I11" s="219" t="s">
+      <c r="I11" s="218" t="s">
         <v>440</v>
       </c>
-      <c r="J11" s="219">
+      <c r="J11" s="218">
         <f t="shared" si="0"/>
         <v>1985</v>
       </c>
-      <c r="K11" s="218" t="s">
+      <c r="K11" s="217" t="s">
         <v>437</v>
       </c>
-      <c r="L11" s="220" t="s">
+      <c r="L11" s="219" t="s">
         <v>433</v>
       </c>
-      <c r="M11" s="221">
+      <c r="M11" s="220">
         <v>3500000</v>
       </c>
       <c r="N11" s="136" t="str">
@@ -4730,23 +4856,23 @@
       <c r="E12" s="153">
         <v>1985</v>
       </c>
-      <c r="H12" s="218">
+      <c r="H12" s="217">
         <v>9</v>
       </c>
-      <c r="I12" s="219" t="s">
+      <c r="I12" s="218" t="s">
         <v>441</v>
       </c>
-      <c r="J12" s="219">
+      <c r="J12" s="218">
         <f t="shared" si="0"/>
         <v>1985</v>
       </c>
-      <c r="K12" s="218" t="s">
+      <c r="K12" s="217" t="s">
         <v>437</v>
       </c>
-      <c r="L12" s="220" t="s">
+      <c r="L12" s="219" t="s">
         <v>433</v>
       </c>
-      <c r="M12" s="221">
+      <c r="M12" s="220">
         <v>3500000</v>
       </c>
       <c r="N12" s="136" t="str">
@@ -4770,23 +4896,23 @@
       <c r="E13" s="153">
         <v>1997</v>
       </c>
-      <c r="H13" s="218">
+      <c r="H13" s="217">
         <v>10</v>
       </c>
-      <c r="I13" s="219" t="s">
+      <c r="I13" s="218" t="s">
         <v>442</v>
       </c>
-      <c r="J13" s="219">
+      <c r="J13" s="218">
         <f t="shared" si="0"/>
         <v>1997</v>
       </c>
-      <c r="K13" s="218" t="s">
+      <c r="K13" s="217" t="s">
         <v>437</v>
       </c>
-      <c r="L13" s="220" t="s">
+      <c r="L13" s="219" t="s">
         <v>433</v>
       </c>
-      <c r="M13" s="221">
+      <c r="M13" s="220">
         <v>3500000</v>
       </c>
       <c r="N13" s="136" t="str">
@@ -4810,23 +4936,23 @@
       <c r="E14" s="153">
         <v>1982</v>
       </c>
-      <c r="H14" s="218">
+      <c r="H14" s="217">
         <v>11</v>
       </c>
-      <c r="I14" s="219" t="s">
+      <c r="I14" s="218" t="s">
         <v>443</v>
       </c>
-      <c r="J14" s="219">
+      <c r="J14" s="218">
         <f t="shared" si="0"/>
         <v>1982</v>
       </c>
-      <c r="K14" s="218" t="s">
+      <c r="K14" s="217" t="s">
         <v>437</v>
       </c>
-      <c r="L14" s="220" t="s">
+      <c r="L14" s="219" t="s">
         <v>433</v>
       </c>
-      <c r="M14" s="221">
+      <c r="M14" s="220">
         <v>3500000</v>
       </c>
       <c r="N14" s="136" t="str">
@@ -4835,13 +4961,13 @@
       </c>
     </row>
     <row r="15" spans="1:14" s="136" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="211">
+      <c r="A15" s="210">
         <v>12</v>
       </c>
       <c r="B15" s="153" t="s">
         <v>666</v>
       </c>
-      <c r="C15" s="210" t="s">
+      <c r="C15" s="209" t="s">
         <v>444</v>
       </c>
       <c r="D15" s="153" t="s">
@@ -4850,23 +4976,23 @@
       <c r="E15" s="153">
         <v>1989</v>
       </c>
-      <c r="H15" s="218">
+      <c r="H15" s="217">
         <v>12</v>
       </c>
-      <c r="I15" s="219" t="s">
+      <c r="I15" s="218" t="s">
         <v>444</v>
       </c>
-      <c r="J15" s="219">
+      <c r="J15" s="218">
         <f t="shared" si="0"/>
         <v>1989</v>
       </c>
-      <c r="K15" s="218" t="s">
+      <c r="K15" s="217" t="s">
         <v>437</v>
       </c>
-      <c r="L15" s="220" t="s">
+      <c r="L15" s="219" t="s">
         <v>433</v>
       </c>
-      <c r="M15" s="221">
+      <c r="M15" s="220">
         <v>3500000</v>
       </c>
       <c r="N15" s="136" t="str">
@@ -4890,23 +5016,23 @@
       <c r="E16" s="153">
         <v>1989</v>
       </c>
-      <c r="H16" s="218">
+      <c r="H16" s="217">
         <v>13</v>
       </c>
-      <c r="I16" s="219" t="s">
+      <c r="I16" s="218" t="s">
         <v>445</v>
       </c>
-      <c r="J16" s="219">
+      <c r="J16" s="218">
         <f t="shared" si="0"/>
         <v>1989</v>
       </c>
-      <c r="K16" s="218" t="s">
+      <c r="K16" s="217" t="s">
         <v>437</v>
       </c>
-      <c r="L16" s="220" t="s">
+      <c r="L16" s="219" t="s">
         <v>433</v>
       </c>
-      <c r="M16" s="221">
+      <c r="M16" s="220">
         <v>3500000</v>
       </c>
       <c r="N16" s="136" t="str">
@@ -4930,23 +5056,23 @@
       <c r="E17" s="153">
         <v>1992</v>
       </c>
-      <c r="H17" s="218">
+      <c r="H17" s="217">
         <v>14</v>
       </c>
-      <c r="I17" s="219" t="s">
+      <c r="I17" s="218" t="s">
         <v>446</v>
       </c>
-      <c r="J17" s="219">
+      <c r="J17" s="218">
         <f t="shared" si="0"/>
         <v>1992</v>
       </c>
-      <c r="K17" s="218" t="s">
+      <c r="K17" s="217" t="s">
         <v>432</v>
       </c>
-      <c r="L17" s="220" t="s">
+      <c r="L17" s="219" t="s">
         <v>433</v>
       </c>
-      <c r="M17" s="221">
+      <c r="M17" s="220">
         <v>2000000</v>
       </c>
       <c r="N17" s="136" t="str">
@@ -4954,39 +5080,39 @@
         <v>Hồ Xuân Khôi</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="203" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="192">
+    <row r="18" spans="1:14" s="202" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="191">
         <v>15</v>
       </c>
-      <c r="B18" s="192" t="s">
+      <c r="B18" s="191" t="s">
         <v>669</v>
       </c>
-      <c r="C18" s="193" t="s">
+      <c r="C18" s="192" t="s">
         <v>447</v>
       </c>
-      <c r="D18" s="192" t="s">
+      <c r="D18" s="191" t="s">
         <v>437</v>
       </c>
-      <c r="E18" s="192">
+      <c r="E18" s="191">
         <v>1986</v>
       </c>
-      <c r="H18" s="218">
+      <c r="H18" s="217">
         <v>15</v>
       </c>
-      <c r="I18" s="219" t="s">
+      <c r="I18" s="218" t="s">
         <v>447</v>
       </c>
-      <c r="J18" s="219">
+      <c r="J18" s="218">
         <f t="shared" si="0"/>
         <v>1986</v>
       </c>
-      <c r="K18" s="218" t="s">
+      <c r="K18" s="217" t="s">
         <v>437</v>
       </c>
-      <c r="L18" s="220" t="s">
+      <c r="L18" s="219" t="s">
         <v>433</v>
       </c>
-      <c r="M18" s="221">
+      <c r="M18" s="220">
         <v>3500000</v>
       </c>
       <c r="N18" s="136" t="str">
@@ -5010,23 +5136,23 @@
       <c r="E19" s="153">
         <v>2000</v>
       </c>
-      <c r="H19" s="218">
+      <c r="H19" s="217">
         <v>16</v>
       </c>
-      <c r="I19" s="219" t="s">
+      <c r="I19" s="218" t="s">
         <v>448</v>
       </c>
-      <c r="J19" s="219">
+      <c r="J19" s="218">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="K19" s="218" t="s">
+      <c r="K19" s="217" t="s">
         <v>437</v>
       </c>
-      <c r="L19" s="220" t="s">
+      <c r="L19" s="219" t="s">
         <v>433</v>
       </c>
-      <c r="M19" s="221">
+      <c r="M19" s="220">
         <v>3500000</v>
       </c>
       <c r="N19" s="136" t="str">
@@ -5050,23 +5176,23 @@
       <c r="E20" s="153">
         <v>1992</v>
       </c>
-      <c r="H20" s="218">
+      <c r="H20" s="217">
         <v>17</v>
       </c>
-      <c r="I20" s="219" t="s">
+      <c r="I20" s="218" t="s">
         <v>449</v>
       </c>
-      <c r="J20" s="219">
+      <c r="J20" s="218">
         <f t="shared" si="0"/>
         <v>1992</v>
       </c>
-      <c r="K20" s="218" t="s">
+      <c r="K20" s="217" t="s">
         <v>432</v>
       </c>
-      <c r="L20" s="220" t="s">
+      <c r="L20" s="219" t="s">
         <v>433</v>
       </c>
-      <c r="M20" s="221">
+      <c r="M20" s="220">
         <v>2000000</v>
       </c>
       <c r="N20" s="136" t="str">
@@ -5090,23 +5216,23 @@
       <c r="E21" s="153">
         <v>1990</v>
       </c>
-      <c r="H21" s="218">
+      <c r="H21" s="217">
         <v>18</v>
       </c>
-      <c r="I21" s="219" t="s">
+      <c r="I21" s="218" t="s">
         <v>450</v>
       </c>
-      <c r="J21" s="219">
+      <c r="J21" s="218">
         <f t="shared" si="0"/>
         <v>1990</v>
       </c>
-      <c r="K21" s="218" t="s">
+      <c r="K21" s="217" t="s">
         <v>432</v>
       </c>
-      <c r="L21" s="220" t="s">
+      <c r="L21" s="219" t="s">
         <v>433</v>
       </c>
-      <c r="M21" s="221">
+      <c r="M21" s="220">
         <v>2000000</v>
       </c>
       <c r="N21" s="136" t="str">
@@ -5130,23 +5256,23 @@
       <c r="E22" s="153">
         <v>1986</v>
       </c>
-      <c r="H22" s="218">
+      <c r="H22" s="217">
         <v>19</v>
       </c>
-      <c r="I22" s="219" t="s">
+      <c r="I22" s="218" t="s">
         <v>451</v>
       </c>
-      <c r="J22" s="219">
+      <c r="J22" s="218">
         <f t="shared" si="0"/>
         <v>1986</v>
       </c>
-      <c r="K22" s="218" t="s">
+      <c r="K22" s="217" t="s">
         <v>432</v>
       </c>
-      <c r="L22" s="220" t="s">
+      <c r="L22" s="219" t="s">
         <v>433</v>
       </c>
-      <c r="M22" s="221">
+      <c r="M22" s="220">
         <v>2000000</v>
       </c>
       <c r="N22" s="136" t="str">
@@ -5154,39 +5280,39 @@
         <v>Trần Đức Phú</v>
       </c>
     </row>
-    <row r="23" spans="1:14" s="203" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="192">
+    <row r="23" spans="1:14" s="202" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="191">
         <v>20</v>
       </c>
-      <c r="B23" s="192" t="s">
+      <c r="B23" s="191" t="s">
         <v>674</v>
       </c>
-      <c r="C23" s="193" t="s">
+      <c r="C23" s="192" t="s">
         <v>452</v>
       </c>
-      <c r="D23" s="192" t="s">
+      <c r="D23" s="191" t="s">
         <v>437</v>
       </c>
-      <c r="E23" s="192">
+      <c r="E23" s="191">
         <v>1982</v>
       </c>
-      <c r="H23" s="218">
+      <c r="H23" s="217">
         <v>20</v>
       </c>
-      <c r="I23" s="219" t="s">
+      <c r="I23" s="218" t="s">
         <v>452</v>
       </c>
-      <c r="J23" s="219">
+      <c r="J23" s="218">
         <f t="shared" si="0"/>
         <v>1982</v>
       </c>
-      <c r="K23" s="218" t="s">
+      <c r="K23" s="217" t="s">
         <v>437</v>
       </c>
-      <c r="L23" s="220" t="s">
+      <c r="L23" s="219" t="s">
         <v>433</v>
       </c>
-      <c r="M23" s="221">
+      <c r="M23" s="220">
         <v>3500000</v>
       </c>
       <c r="N23" s="136" t="str">
@@ -5210,23 +5336,23 @@
       <c r="E24" s="153">
         <v>1985</v>
       </c>
-      <c r="H24" s="218">
+      <c r="H24" s="217">
         <v>21</v>
       </c>
-      <c r="I24" s="219" t="s">
+      <c r="I24" s="218" t="s">
         <v>453</v>
       </c>
-      <c r="J24" s="219">
+      <c r="J24" s="218">
         <f t="shared" si="0"/>
         <v>1985</v>
       </c>
-      <c r="K24" s="218" t="s">
+      <c r="K24" s="217" t="s">
         <v>432</v>
       </c>
-      <c r="L24" s="220" t="s">
+      <c r="L24" s="219" t="s">
         <v>433</v>
       </c>
-      <c r="M24" s="221">
+      <c r="M24" s="220">
         <v>2000000</v>
       </c>
       <c r="N24" s="136" t="str">
@@ -5250,23 +5376,23 @@
       <c r="E25" s="153">
         <v>1981</v>
       </c>
-      <c r="H25" s="218">
+      <c r="H25" s="217">
         <v>22</v>
       </c>
-      <c r="I25" s="219" t="s">
+      <c r="I25" s="218" t="s">
         <v>454</v>
       </c>
-      <c r="J25" s="219">
+      <c r="J25" s="218">
         <f t="shared" si="0"/>
         <v>1981</v>
       </c>
-      <c r="K25" s="218" t="s">
+      <c r="K25" s="217" t="s">
         <v>432</v>
       </c>
-      <c r="L25" s="220" t="s">
+      <c r="L25" s="219" t="s">
         <v>433</v>
       </c>
-      <c r="M25" s="221">
+      <c r="M25" s="220">
         <v>2000000</v>
       </c>
       <c r="N25" s="136" t="str">
@@ -5290,23 +5416,23 @@
       <c r="E26" s="153">
         <v>1987</v>
       </c>
-      <c r="H26" s="218">
+      <c r="H26" s="217">
         <v>23</v>
       </c>
-      <c r="I26" s="219" t="s">
+      <c r="I26" s="218" t="s">
         <v>455</v>
       </c>
-      <c r="J26" s="219">
+      <c r="J26" s="218">
         <f t="shared" si="0"/>
         <v>1987</v>
       </c>
-      <c r="K26" s="218" t="s">
+      <c r="K26" s="217" t="s">
         <v>437</v>
       </c>
-      <c r="L26" s="220" t="s">
+      <c r="L26" s="219" t="s">
         <v>433</v>
       </c>
-      <c r="M26" s="221">
+      <c r="M26" s="220">
         <v>3500000</v>
       </c>
       <c r="N26" s="136" t="str">
@@ -5330,23 +5456,23 @@
       <c r="E27" s="153">
         <v>1990</v>
       </c>
-      <c r="H27" s="218">
+      <c r="H27" s="217">
         <v>24</v>
       </c>
-      <c r="I27" s="219" t="s">
+      <c r="I27" s="218" t="s">
         <v>456</v>
       </c>
-      <c r="J27" s="219">
+      <c r="J27" s="218">
         <f t="shared" si="0"/>
         <v>1990</v>
       </c>
-      <c r="K27" s="218" t="s">
+      <c r="K27" s="217" t="s">
         <v>432</v>
       </c>
-      <c r="L27" s="220" t="s">
+      <c r="L27" s="219" t="s">
         <v>433</v>
       </c>
-      <c r="M27" s="221">
+      <c r="M27" s="220">
         <v>2000000</v>
       </c>
       <c r="N27" s="136" t="str">
@@ -5370,23 +5496,23 @@
       <c r="E28" s="153">
         <v>1988</v>
       </c>
-      <c r="H28" s="218">
+      <c r="H28" s="217">
         <v>25</v>
       </c>
-      <c r="I28" s="219" t="s">
+      <c r="I28" s="218" t="s">
         <v>457</v>
       </c>
-      <c r="J28" s="219">
+      <c r="J28" s="218">
         <f t="shared" si="0"/>
         <v>1988</v>
       </c>
-      <c r="K28" s="218" t="s">
+      <c r="K28" s="217" t="s">
         <v>437</v>
       </c>
-      <c r="L28" s="220" t="s">
+      <c r="L28" s="219" t="s">
         <v>433</v>
       </c>
-      <c r="M28" s="221">
+      <c r="M28" s="220">
         <v>3500000</v>
       </c>
       <c r="N28" s="136" t="str">
@@ -5410,23 +5536,23 @@
       <c r="E29" s="153">
         <v>1987</v>
       </c>
-      <c r="H29" s="218">
+      <c r="H29" s="217">
         <v>26</v>
       </c>
-      <c r="I29" s="219" t="s">
+      <c r="I29" s="218" t="s">
         <v>458</v>
       </c>
-      <c r="J29" s="219">
+      <c r="J29" s="218">
         <f t="shared" si="0"/>
         <v>1987</v>
       </c>
-      <c r="K29" s="218" t="s">
+      <c r="K29" s="217" t="s">
         <v>432</v>
       </c>
-      <c r="L29" s="220" t="s">
+      <c r="L29" s="219" t="s">
         <v>433</v>
       </c>
-      <c r="M29" s="221">
+      <c r="M29" s="220">
         <v>2000000</v>
       </c>
       <c r="N29" s="136" t="str">
@@ -5450,23 +5576,23 @@
       <c r="E30" s="153">
         <v>1991</v>
       </c>
-      <c r="H30" s="218">
+      <c r="H30" s="217">
         <v>27</v>
       </c>
-      <c r="I30" s="219" t="s">
+      <c r="I30" s="218" t="s">
         <v>459</v>
       </c>
-      <c r="J30" s="219">
+      <c r="J30" s="218">
         <f t="shared" si="0"/>
         <v>1991</v>
       </c>
-      <c r="K30" s="218" t="s">
+      <c r="K30" s="217" t="s">
         <v>437</v>
       </c>
-      <c r="L30" s="220" t="s">
+      <c r="L30" s="219" t="s">
         <v>433</v>
       </c>
-      <c r="M30" s="221">
+      <c r="M30" s="220">
         <v>3500000</v>
       </c>
       <c r="N30" s="136" t="str">
@@ -5490,23 +5616,23 @@
       <c r="E31" s="153">
         <v>2001</v>
       </c>
-      <c r="H31" s="218">
+      <c r="H31" s="217">
         <v>28</v>
       </c>
-      <c r="I31" s="219" t="s">
+      <c r="I31" s="218" t="s">
         <v>460</v>
       </c>
-      <c r="J31" s="219">
+      <c r="J31" s="218">
         <f t="shared" si="0"/>
         <v>2001</v>
       </c>
-      <c r="K31" s="218" t="s">
+      <c r="K31" s="217" t="s">
         <v>437</v>
       </c>
-      <c r="L31" s="220" t="s">
+      <c r="L31" s="219" t="s">
         <v>433</v>
       </c>
-      <c r="M31" s="221">
+      <c r="M31" s="220">
         <v>3500000</v>
       </c>
       <c r="N31" s="136" t="str">
@@ -5530,23 +5656,23 @@
       <c r="E32" s="153">
         <v>1990</v>
       </c>
-      <c r="H32" s="218">
+      <c r="H32" s="217">
         <v>29</v>
       </c>
-      <c r="I32" s="219" t="s">
+      <c r="I32" s="218" t="s">
         <v>461</v>
       </c>
-      <c r="J32" s="219">
+      <c r="J32" s="218">
         <f t="shared" si="0"/>
         <v>1990</v>
       </c>
-      <c r="K32" s="218" t="s">
+      <c r="K32" s="217" t="s">
         <v>437</v>
       </c>
-      <c r="L32" s="220" t="s">
+      <c r="L32" s="219" t="s">
         <v>433</v>
       </c>
-      <c r="M32" s="221">
+      <c r="M32" s="220">
         <v>3500000</v>
       </c>
       <c r="N32" s="136" t="str">
@@ -5570,23 +5696,23 @@
       <c r="E33" s="153">
         <v>1986</v>
       </c>
-      <c r="H33" s="218">
+      <c r="H33" s="217">
         <v>30</v>
       </c>
-      <c r="I33" s="219" t="s">
+      <c r="I33" s="218" t="s">
         <v>462</v>
       </c>
-      <c r="J33" s="219">
+      <c r="J33" s="218">
         <f t="shared" si="0"/>
         <v>1986</v>
       </c>
-      <c r="K33" s="218" t="s">
+      <c r="K33" s="217" t="s">
         <v>437</v>
       </c>
-      <c r="L33" s="220" t="s">
+      <c r="L33" s="219" t="s">
         <v>433</v>
       </c>
-      <c r="M33" s="221">
+      <c r="M33" s="220">
         <v>3500000</v>
       </c>
       <c r="N33" s="136" t="str">
@@ -5610,23 +5736,23 @@
       <c r="E34" s="153">
         <v>1989</v>
       </c>
-      <c r="H34" s="218">
+      <c r="H34" s="217">
         <v>31</v>
       </c>
-      <c r="I34" s="219" t="s">
+      <c r="I34" s="218" t="s">
         <v>463</v>
       </c>
-      <c r="J34" s="219">
+      <c r="J34" s="218">
         <f t="shared" si="0"/>
         <v>1989</v>
       </c>
-      <c r="K34" s="218" t="s">
+      <c r="K34" s="217" t="s">
         <v>437</v>
       </c>
-      <c r="L34" s="220" t="s">
+      <c r="L34" s="219" t="s">
         <v>433</v>
       </c>
-      <c r="M34" s="221">
+      <c r="M34" s="220">
         <v>3500000</v>
       </c>
       <c r="N34" s="136" t="str">
@@ -5650,23 +5776,23 @@
       <c r="E35" s="153">
         <v>1991</v>
       </c>
-      <c r="H35" s="218">
+      <c r="H35" s="217">
         <v>32</v>
       </c>
-      <c r="I35" s="219" t="s">
+      <c r="I35" s="218" t="s">
         <v>464</v>
       </c>
-      <c r="J35" s="219">
+      <c r="J35" s="218">
         <f t="shared" si="0"/>
         <v>1991</v>
       </c>
-      <c r="K35" s="218" t="s">
+      <c r="K35" s="217" t="s">
         <v>437</v>
       </c>
-      <c r="L35" s="220" t="s">
+      <c r="L35" s="219" t="s">
         <v>433</v>
       </c>
-      <c r="M35" s="221">
+      <c r="M35" s="220">
         <v>3500000</v>
       </c>
       <c r="N35" s="136" t="str">
@@ -5690,23 +5816,23 @@
       <c r="E36" s="153">
         <v>1990</v>
       </c>
-      <c r="H36" s="218">
+      <c r="H36" s="217">
         <v>33</v>
       </c>
-      <c r="I36" s="219" t="s">
+      <c r="I36" s="218" t="s">
         <v>465</v>
       </c>
-      <c r="J36" s="219">
+      <c r="J36" s="218">
         <f t="shared" si="0"/>
         <v>1990</v>
       </c>
-      <c r="K36" s="218" t="s">
+      <c r="K36" s="217" t="s">
         <v>437</v>
       </c>
-      <c r="L36" s="220" t="s">
+      <c r="L36" s="219" t="s">
         <v>433</v>
       </c>
-      <c r="M36" s="221">
+      <c r="M36" s="220">
         <v>3500000</v>
       </c>
       <c r="N36" s="136" t="str">
@@ -5730,23 +5856,23 @@
       <c r="E37" s="153">
         <v>1999</v>
       </c>
-      <c r="H37" s="218">
+      <c r="H37" s="217">
         <v>34</v>
       </c>
-      <c r="I37" s="219" t="s">
+      <c r="I37" s="218" t="s">
         <v>466</v>
       </c>
-      <c r="J37" s="219">
+      <c r="J37" s="218">
         <f t="shared" si="0"/>
         <v>1999</v>
       </c>
-      <c r="K37" s="218" t="s">
+      <c r="K37" s="217" t="s">
         <v>437</v>
       </c>
-      <c r="L37" s="220" t="s">
+      <c r="L37" s="219" t="s">
         <v>433</v>
       </c>
-      <c r="M37" s="221">
+      <c r="M37" s="220">
         <v>3500000</v>
       </c>
       <c r="N37" s="136" t="str">
@@ -5770,23 +5896,23 @@
       <c r="E38" s="153">
         <v>1978</v>
       </c>
-      <c r="H38" s="218">
+      <c r="H38" s="217">
         <v>35</v>
       </c>
-      <c r="I38" s="219" t="s">
+      <c r="I38" s="218" t="s">
         <v>467</v>
       </c>
-      <c r="J38" s="219">
+      <c r="J38" s="218">
         <f t="shared" si="0"/>
         <v>1978</v>
       </c>
-      <c r="K38" s="218" t="s">
+      <c r="K38" s="217" t="s">
         <v>432</v>
       </c>
-      <c r="L38" s="220" t="s">
+      <c r="L38" s="219" t="s">
         <v>433</v>
       </c>
-      <c r="M38" s="221">
+      <c r="M38" s="220">
         <v>2000000</v>
       </c>
       <c r="N38" s="136" t="str">
@@ -5810,23 +5936,23 @@
       <c r="E39" s="153">
         <v>1982</v>
       </c>
-      <c r="H39" s="218">
+      <c r="H39" s="217">
         <v>36</v>
       </c>
-      <c r="I39" s="219" t="s">
+      <c r="I39" s="218" t="s">
         <v>468</v>
       </c>
-      <c r="J39" s="219">
+      <c r="J39" s="218">
         <f t="shared" si="0"/>
         <v>1982</v>
       </c>
-      <c r="K39" s="218" t="s">
+      <c r="K39" s="217" t="s">
         <v>437</v>
       </c>
-      <c r="L39" s="220" t="s">
+      <c r="L39" s="219" t="s">
         <v>433</v>
       </c>
-      <c r="M39" s="221">
+      <c r="M39" s="220">
         <v>3500000</v>
       </c>
       <c r="N39" s="136" t="str">
@@ -5850,23 +5976,23 @@
       <c r="E40" s="153">
         <v>1994</v>
       </c>
-      <c r="H40" s="218">
+      <c r="H40" s="217">
         <v>37</v>
       </c>
-      <c r="I40" s="219" t="s">
+      <c r="I40" s="218" t="s">
         <v>469</v>
       </c>
-      <c r="J40" s="219">
+      <c r="J40" s="218">
         <f t="shared" si="0"/>
         <v>1994</v>
       </c>
-      <c r="K40" s="218" t="s">
+      <c r="K40" s="217" t="s">
         <v>437</v>
       </c>
-      <c r="L40" s="220" t="s">
+      <c r="L40" s="219" t="s">
         <v>433</v>
       </c>
-      <c r="M40" s="221">
+      <c r="M40" s="220">
         <v>3500000</v>
       </c>
       <c r="N40" s="136" t="str">
@@ -5890,23 +6016,23 @@
       <c r="E41" s="153">
         <v>1994</v>
       </c>
-      <c r="H41" s="218">
+      <c r="H41" s="217">
         <v>38</v>
       </c>
-      <c r="I41" s="219" t="s">
+      <c r="I41" s="218" t="s">
         <v>470</v>
       </c>
-      <c r="J41" s="219">
+      <c r="J41" s="218">
         <f t="shared" si="0"/>
         <v>1994</v>
       </c>
-      <c r="K41" s="218" t="s">
+      <c r="K41" s="217" t="s">
         <v>432</v>
       </c>
-      <c r="L41" s="220" t="s">
+      <c r="L41" s="219" t="s">
         <v>433</v>
       </c>
-      <c r="M41" s="221">
+      <c r="M41" s="220">
         <v>2000000</v>
       </c>
       <c r="N41" s="136" t="str">
@@ -5930,23 +6056,23 @@
       <c r="E42" s="153">
         <v>1996</v>
       </c>
-      <c r="H42" s="218">
+      <c r="H42" s="217">
         <v>39</v>
       </c>
-      <c r="I42" s="219" t="s">
+      <c r="I42" s="218" t="s">
         <v>471</v>
       </c>
-      <c r="J42" s="219">
+      <c r="J42" s="218">
         <f t="shared" si="0"/>
         <v>1996</v>
       </c>
-      <c r="K42" s="218" t="s">
+      <c r="K42" s="217" t="s">
         <v>437</v>
       </c>
-      <c r="L42" s="220" t="s">
+      <c r="L42" s="219" t="s">
         <v>433</v>
       </c>
-      <c r="M42" s="221">
+      <c r="M42" s="220">
         <v>3500000</v>
       </c>
       <c r="N42" s="136" t="str">
@@ -5970,23 +6096,23 @@
       <c r="E43" s="153">
         <v>1989</v>
       </c>
-      <c r="H43" s="218">
+      <c r="H43" s="217">
         <v>40</v>
       </c>
-      <c r="I43" s="219" t="s">
+      <c r="I43" s="218" t="s">
         <v>472</v>
       </c>
-      <c r="J43" s="219">
+      <c r="J43" s="218">
         <f t="shared" si="0"/>
         <v>1989</v>
       </c>
-      <c r="K43" s="218" t="s">
+      <c r="K43" s="217" t="s">
         <v>432</v>
       </c>
-      <c r="L43" s="220" t="s">
+      <c r="L43" s="219" t="s">
         <v>433</v>
       </c>
-      <c r="M43" s="221">
+      <c r="M43" s="220">
         <v>2000000</v>
       </c>
       <c r="N43" s="136" t="str">
@@ -6010,23 +6136,23 @@
       <c r="E44" s="153">
         <v>1987</v>
       </c>
-      <c r="H44" s="218">
+      <c r="H44" s="217">
         <v>41</v>
       </c>
-      <c r="I44" s="219" t="s">
+      <c r="I44" s="218" t="s">
         <v>473</v>
       </c>
-      <c r="J44" s="219">
+      <c r="J44" s="218">
         <f t="shared" si="0"/>
         <v>1987</v>
       </c>
-      <c r="K44" s="218" t="s">
+      <c r="K44" s="217" t="s">
         <v>437</v>
       </c>
-      <c r="L44" s="220" t="s">
+      <c r="L44" s="219" t="s">
         <v>433</v>
       </c>
-      <c r="M44" s="221">
+      <c r="M44" s="220">
         <v>3500000</v>
       </c>
       <c r="N44" s="136" t="str">
@@ -6050,23 +6176,23 @@
       <c r="E45" s="153">
         <v>1993</v>
       </c>
-      <c r="H45" s="218">
+      <c r="H45" s="217">
         <v>42</v>
       </c>
-      <c r="I45" s="219" t="s">
+      <c r="I45" s="218" t="s">
         <v>474</v>
       </c>
-      <c r="J45" s="219">
+      <c r="J45" s="218">
         <f t="shared" si="0"/>
         <v>1993</v>
       </c>
-      <c r="K45" s="218" t="s">
+      <c r="K45" s="217" t="s">
         <v>432</v>
       </c>
-      <c r="L45" s="220" t="s">
+      <c r="L45" s="219" t="s">
         <v>433</v>
       </c>
-      <c r="M45" s="221">
+      <c r="M45" s="220">
         <v>2000000</v>
       </c>
       <c r="N45" s="136" t="str">
@@ -6090,23 +6216,23 @@
       <c r="E46" s="153">
         <v>1994</v>
       </c>
-      <c r="H46" s="218">
+      <c r="H46" s="217">
         <v>43</v>
       </c>
-      <c r="I46" s="219" t="s">
+      <c r="I46" s="218" t="s">
         <v>475</v>
       </c>
-      <c r="J46" s="219">
+      <c r="J46" s="218">
         <f t="shared" si="0"/>
         <v>1994</v>
       </c>
-      <c r="K46" s="218" t="s">
+      <c r="K46" s="217" t="s">
         <v>432</v>
       </c>
-      <c r="L46" s="220" t="s">
+      <c r="L46" s="219" t="s">
         <v>433</v>
       </c>
-      <c r="M46" s="221">
+      <c r="M46" s="220">
         <v>2000000</v>
       </c>
       <c r="N46" s="136" t="str">
@@ -6130,23 +6256,23 @@
       <c r="E47" s="153">
         <v>1996</v>
       </c>
-      <c r="H47" s="218">
+      <c r="H47" s="217">
         <v>44</v>
       </c>
-      <c r="I47" s="219" t="s">
+      <c r="I47" s="218" t="s">
         <v>476</v>
       </c>
-      <c r="J47" s="219">
+      <c r="J47" s="218">
         <f t="shared" si="0"/>
         <v>1996</v>
       </c>
-      <c r="K47" s="218" t="s">
+      <c r="K47" s="217" t="s">
         <v>437</v>
       </c>
-      <c r="L47" s="220" t="s">
+      <c r="L47" s="219" t="s">
         <v>433</v>
       </c>
-      <c r="M47" s="221">
+      <c r="M47" s="220">
         <v>3500000</v>
       </c>
       <c r="N47" s="136" t="str">
@@ -6170,23 +6296,23 @@
       <c r="E48" s="153">
         <v>1979</v>
       </c>
-      <c r="H48" s="218">
+      <c r="H48" s="217">
         <v>45</v>
       </c>
-      <c r="I48" s="219" t="s">
+      <c r="I48" s="218" t="s">
         <v>477</v>
       </c>
-      <c r="J48" s="219">
+      <c r="J48" s="218">
         <f t="shared" si="0"/>
         <v>1979</v>
       </c>
-      <c r="K48" s="218" t="s">
+      <c r="K48" s="217" t="s">
         <v>437</v>
       </c>
-      <c r="L48" s="220" t="s">
+      <c r="L48" s="219" t="s">
         <v>433</v>
       </c>
-      <c r="M48" s="221">
+      <c r="M48" s="220">
         <v>3500000</v>
       </c>
       <c r="N48" s="136" t="str">
@@ -6194,39 +6320,39 @@
         <v>Ngô Thị Lan</v>
       </c>
     </row>
-    <row r="49" spans="1:14" s="203" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="192">
+    <row r="49" spans="1:14" s="202" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="191">
         <v>46</v>
       </c>
-      <c r="B49" s="192" t="s">
+      <c r="B49" s="191" t="s">
         <v>700</v>
       </c>
-      <c r="C49" s="193" t="s">
+      <c r="C49" s="192" t="s">
         <v>478</v>
       </c>
-      <c r="D49" s="192" t="s">
+      <c r="D49" s="191" t="s">
         <v>437</v>
       </c>
-      <c r="E49" s="192">
+      <c r="E49" s="191">
         <v>1983</v>
       </c>
-      <c r="H49" s="218">
+      <c r="H49" s="217">
         <v>46</v>
       </c>
-      <c r="I49" s="219" t="s">
+      <c r="I49" s="218" t="s">
         <v>478</v>
       </c>
-      <c r="J49" s="219">
+      <c r="J49" s="218">
         <f t="shared" si="0"/>
         <v>1983</v>
       </c>
-      <c r="K49" s="218" t="s">
+      <c r="K49" s="217" t="s">
         <v>437</v>
       </c>
-      <c r="L49" s="220" t="s">
+      <c r="L49" s="219" t="s">
         <v>433</v>
       </c>
-      <c r="M49" s="221">
+      <c r="M49" s="220">
         <v>3500000</v>
       </c>
       <c r="N49" s="136" t="str">
@@ -6250,23 +6376,23 @@
       <c r="E50" s="153">
         <v>1979</v>
       </c>
-      <c r="H50" s="218">
+      <c r="H50" s="217">
         <v>47</v>
       </c>
-      <c r="I50" s="219" t="s">
+      <c r="I50" s="218" t="s">
         <v>479</v>
       </c>
-      <c r="J50" s="219">
+      <c r="J50" s="218">
         <f t="shared" si="0"/>
         <v>1979</v>
       </c>
-      <c r="K50" s="218" t="s">
+      <c r="K50" s="217" t="s">
         <v>437</v>
       </c>
-      <c r="L50" s="220" t="s">
+      <c r="L50" s="219" t="s">
         <v>433</v>
       </c>
-      <c r="M50" s="221">
+      <c r="M50" s="220">
         <v>3500000</v>
       </c>
       <c r="N50" s="136" t="str">
@@ -6290,23 +6416,23 @@
       <c r="E51" s="153">
         <v>1994</v>
       </c>
-      <c r="H51" s="218">
+      <c r="H51" s="217">
         <v>48</v>
       </c>
-      <c r="I51" s="219" t="s">
+      <c r="I51" s="218" t="s">
         <v>480</v>
       </c>
-      <c r="J51" s="219">
+      <c r="J51" s="218">
         <f t="shared" si="0"/>
         <v>1994</v>
       </c>
-      <c r="K51" s="218" t="s">
+      <c r="K51" s="217" t="s">
         <v>437</v>
       </c>
-      <c r="L51" s="220" t="s">
+      <c r="L51" s="219" t="s">
         <v>433</v>
       </c>
-      <c r="M51" s="221">
+      <c r="M51" s="220">
         <v>3500000</v>
       </c>
       <c r="N51" s="136" t="str">
@@ -6330,23 +6456,23 @@
       <c r="E52" s="153">
         <v>1981</v>
       </c>
-      <c r="H52" s="218">
+      <c r="H52" s="217">
         <v>49</v>
       </c>
-      <c r="I52" s="219" t="s">
+      <c r="I52" s="218" t="s">
         <v>481</v>
       </c>
-      <c r="J52" s="219">
+      <c r="J52" s="218">
         <f t="shared" si="0"/>
         <v>1981</v>
       </c>
-      <c r="K52" s="218" t="s">
+      <c r="K52" s="217" t="s">
         <v>432</v>
       </c>
-      <c r="L52" s="220" t="s">
+      <c r="L52" s="219" t="s">
         <v>433</v>
       </c>
-      <c r="M52" s="221">
+      <c r="M52" s="220">
         <v>2000000</v>
       </c>
       <c r="N52" s="136" t="str">
@@ -6370,23 +6496,23 @@
       <c r="E53" s="153">
         <v>2001</v>
       </c>
-      <c r="H53" s="218">
+      <c r="H53" s="217">
         <v>50</v>
       </c>
-      <c r="I53" s="219" t="s">
+      <c r="I53" s="218" t="s">
         <v>482</v>
       </c>
-      <c r="J53" s="219">
+      <c r="J53" s="218">
         <f t="shared" si="0"/>
         <v>2001</v>
       </c>
-      <c r="K53" s="218" t="s">
+      <c r="K53" s="217" t="s">
         <v>437</v>
       </c>
-      <c r="L53" s="220" t="s">
+      <c r="L53" s="219" t="s">
         <v>433</v>
       </c>
-      <c r="M53" s="221">
+      <c r="M53" s="220">
         <v>3500000</v>
       </c>
       <c r="N53" s="136" t="str">
@@ -6410,23 +6536,23 @@
       <c r="E54" s="153">
         <v>1998</v>
       </c>
-      <c r="H54" s="218">
+      <c r="H54" s="217">
         <v>51</v>
       </c>
-      <c r="I54" s="219" t="s">
+      <c r="I54" s="218" t="s">
         <v>483</v>
       </c>
-      <c r="J54" s="219">
+      <c r="J54" s="218">
         <f t="shared" si="0"/>
         <v>1998</v>
       </c>
-      <c r="K54" s="218" t="s">
+      <c r="K54" s="217" t="s">
         <v>437</v>
       </c>
-      <c r="L54" s="220" t="s">
+      <c r="L54" s="219" t="s">
         <v>433</v>
       </c>
-      <c r="M54" s="221">
+      <c r="M54" s="220">
         <v>3500000</v>
       </c>
       <c r="N54" s="136" t="str">
@@ -6441,32 +6567,32 @@
       <c r="B55" s="153" t="s">
         <v>706</v>
       </c>
-      <c r="C55" s="185" t="s">
+      <c r="C55" s="184" t="s">
         <v>484</v>
       </c>
-      <c r="D55" s="186" t="s">
+      <c r="D55" s="185" t="s">
         <v>437</v>
       </c>
       <c r="E55" s="153">
         <v>1988</v>
       </c>
-      <c r="H55" s="218">
+      <c r="H55" s="217">
         <v>52</v>
       </c>
-      <c r="I55" s="219" t="s">
+      <c r="I55" s="218" t="s">
         <v>484</v>
       </c>
-      <c r="J55" s="219">
+      <c r="J55" s="218">
         <f t="shared" si="0"/>
         <v>1988</v>
       </c>
-      <c r="K55" s="218" t="s">
+      <c r="K55" s="217" t="s">
         <v>437</v>
       </c>
-      <c r="L55" s="220" t="s">
+      <c r="L55" s="219" t="s">
         <v>433</v>
       </c>
-      <c r="M55" s="221">
+      <c r="M55" s="220">
         <v>3500000</v>
       </c>
       <c r="N55" s="136" t="str">
@@ -6481,32 +6607,32 @@
       <c r="B56" s="153" t="s">
         <v>707</v>
       </c>
-      <c r="C56" s="184" t="s">
+      <c r="C56" s="183" t="s">
         <v>485</v>
       </c>
-      <c r="D56" s="183" t="s">
+      <c r="D56" s="182" t="s">
         <v>437</v>
       </c>
       <c r="E56" s="153">
         <v>1991</v>
       </c>
-      <c r="H56" s="218">
+      <c r="H56" s="217">
         <v>53</v>
       </c>
-      <c r="I56" s="219" t="s">
+      <c r="I56" s="218" t="s">
         <v>485</v>
       </c>
-      <c r="J56" s="219">
+      <c r="J56" s="218">
         <f t="shared" si="0"/>
         <v>1991</v>
       </c>
-      <c r="K56" s="218" t="s">
+      <c r="K56" s="217" t="s">
         <v>437</v>
       </c>
-      <c r="L56" s="220" t="s">
+      <c r="L56" s="219" t="s">
         <v>433</v>
       </c>
-      <c r="M56" s="221">
+      <c r="M56" s="220">
         <v>3500000</v>
       </c>
       <c r="N56" s="136" t="str">
@@ -6530,23 +6656,23 @@
       <c r="E57" s="153">
         <v>1989</v>
       </c>
-      <c r="H57" s="218">
+      <c r="H57" s="217">
         <v>54</v>
       </c>
-      <c r="I57" s="219" t="s">
+      <c r="I57" s="218" t="s">
         <v>486</v>
       </c>
-      <c r="J57" s="219">
+      <c r="J57" s="218">
         <f t="shared" si="0"/>
         <v>1989</v>
       </c>
-      <c r="K57" s="218" t="s">
+      <c r="K57" s="217" t="s">
         <v>437</v>
       </c>
-      <c r="L57" s="220" t="s">
+      <c r="L57" s="219" t="s">
         <v>433</v>
       </c>
-      <c r="M57" s="221">
+      <c r="M57" s="220">
         <v>3500000</v>
       </c>
       <c r="N57" s="136" t="str">
@@ -6570,23 +6696,23 @@
       <c r="E58" s="153">
         <v>1969</v>
       </c>
-      <c r="H58" s="218">
+      <c r="H58" s="217">
         <v>55</v>
       </c>
-      <c r="I58" s="219" t="s">
+      <c r="I58" s="218" t="s">
         <v>487</v>
       </c>
-      <c r="J58" s="219">
+      <c r="J58" s="218">
         <f t="shared" si="0"/>
         <v>1969</v>
       </c>
-      <c r="K58" s="218" t="s">
+      <c r="K58" s="217" t="s">
         <v>432</v>
       </c>
-      <c r="L58" s="220" t="s">
+      <c r="L58" s="219" t="s">
         <v>433</v>
       </c>
-      <c r="M58" s="221">
+      <c r="M58" s="220">
         <v>2000000</v>
       </c>
       <c r="N58" s="136" t="str">
@@ -6610,23 +6736,23 @@
       <c r="E59" s="153">
         <v>1977</v>
       </c>
-      <c r="H59" s="218">
+      <c r="H59" s="217">
         <v>56</v>
       </c>
-      <c r="I59" s="219" t="s">
+      <c r="I59" s="218" t="s">
         <v>488</v>
       </c>
-      <c r="J59" s="219">
+      <c r="J59" s="218">
         <f t="shared" si="0"/>
         <v>1977</v>
       </c>
-      <c r="K59" s="218" t="s">
+      <c r="K59" s="217" t="s">
         <v>432</v>
       </c>
-      <c r="L59" s="220" t="s">
+      <c r="L59" s="219" t="s">
         <v>433</v>
       </c>
-      <c r="M59" s="221">
+      <c r="M59" s="220">
         <v>2000000</v>
       </c>
       <c r="N59" s="136" t="str">
@@ -6650,23 +6776,23 @@
       <c r="E60" s="153">
         <v>1977</v>
       </c>
-      <c r="H60" s="218">
+      <c r="H60" s="217">
         <v>57</v>
       </c>
-      <c r="I60" s="219" t="s">
+      <c r="I60" s="218" t="s">
         <v>489</v>
       </c>
-      <c r="J60" s="219">
+      <c r="J60" s="218">
         <f t="shared" si="0"/>
         <v>1977</v>
       </c>
-      <c r="K60" s="218" t="s">
+      <c r="K60" s="217" t="s">
         <v>432</v>
       </c>
-      <c r="L60" s="220" t="s">
+      <c r="L60" s="219" t="s">
         <v>433</v>
       </c>
-      <c r="M60" s="221">
+      <c r="M60" s="220">
         <v>2000000</v>
       </c>
       <c r="N60" s="136" t="str">
@@ -6690,23 +6816,23 @@
       <c r="E61" s="153">
         <v>1991</v>
       </c>
-      <c r="H61" s="218">
+      <c r="H61" s="217">
         <v>58</v>
       </c>
-      <c r="I61" s="219" t="s">
+      <c r="I61" s="218" t="s">
         <v>490</v>
       </c>
-      <c r="J61" s="219">
+      <c r="J61" s="218">
         <f t="shared" si="0"/>
         <v>1991</v>
       </c>
-      <c r="K61" s="218" t="s">
+      <c r="K61" s="217" t="s">
         <v>437</v>
       </c>
-      <c r="L61" s="220" t="s">
+      <c r="L61" s="219" t="s">
         <v>433</v>
       </c>
-      <c r="M61" s="221">
+      <c r="M61" s="220">
         <v>3500000</v>
       </c>
       <c r="N61" s="136" t="str">
@@ -6730,23 +6856,23 @@
       <c r="E62" s="153">
         <v>1993</v>
       </c>
-      <c r="H62" s="218">
+      <c r="H62" s="217">
         <v>59</v>
       </c>
-      <c r="I62" s="219" t="s">
+      <c r="I62" s="218" t="s">
         <v>491</v>
       </c>
-      <c r="J62" s="219">
+      <c r="J62" s="218">
         <f t="shared" si="0"/>
         <v>1993</v>
       </c>
-      <c r="K62" s="218" t="s">
+      <c r="K62" s="217" t="s">
         <v>437</v>
       </c>
-      <c r="L62" s="220" t="s">
+      <c r="L62" s="219" t="s">
         <v>433</v>
       </c>
-      <c r="M62" s="221">
+      <c r="M62" s="220">
         <v>3500000</v>
       </c>
       <c r="N62" s="136" t="str">
@@ -6754,39 +6880,39 @@
         <v>Trần Bảo Ngọc</v>
       </c>
     </row>
-    <row r="63" spans="1:14" s="203" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="192">
+    <row r="63" spans="1:14" s="202" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="191">
         <v>60</v>
       </c>
-      <c r="B63" s="192" t="s">
+      <c r="B63" s="191" t="s">
         <v>714</v>
       </c>
-      <c r="C63" s="193" t="s">
+      <c r="C63" s="192" t="s">
         <v>492</v>
       </c>
-      <c r="D63" s="192" t="s">
+      <c r="D63" s="191" t="s">
         <v>437</v>
       </c>
-      <c r="E63" s="192">
+      <c r="E63" s="191">
         <v>1997</v>
       </c>
-      <c r="H63" s="218">
+      <c r="H63" s="217">
         <v>60</v>
       </c>
-      <c r="I63" s="219" t="s">
+      <c r="I63" s="218" t="s">
         <v>492</v>
       </c>
-      <c r="J63" s="219">
+      <c r="J63" s="218">
         <f t="shared" si="0"/>
         <v>1997</v>
       </c>
-      <c r="K63" s="218" t="s">
+      <c r="K63" s="217" t="s">
         <v>437</v>
       </c>
-      <c r="L63" s="220" t="s">
+      <c r="L63" s="219" t="s">
         <v>433</v>
       </c>
-      <c r="M63" s="221">
+      <c r="M63" s="220">
         <v>3500000</v>
       </c>
       <c r="N63" s="136" t="str">
@@ -6810,23 +6936,23 @@
       <c r="E64" s="153">
         <v>1978</v>
       </c>
-      <c r="H64" s="218">
+      <c r="H64" s="217">
         <v>61</v>
       </c>
-      <c r="I64" s="219" t="s">
+      <c r="I64" s="218" t="s">
         <v>493</v>
       </c>
-      <c r="J64" s="219">
+      <c r="J64" s="218">
         <f t="shared" si="0"/>
         <v>1978</v>
       </c>
-      <c r="K64" s="218" t="s">
+      <c r="K64" s="217" t="s">
         <v>437</v>
       </c>
-      <c r="L64" s="220" t="s">
+      <c r="L64" s="219" t="s">
         <v>433</v>
       </c>
-      <c r="M64" s="221">
+      <c r="M64" s="220">
         <v>3500000</v>
       </c>
       <c r="N64" s="136" t="str">
@@ -6850,23 +6976,23 @@
       <c r="E65" s="153">
         <v>1981</v>
       </c>
-      <c r="H65" s="218">
+      <c r="H65" s="217">
         <v>62</v>
       </c>
-      <c r="I65" s="219" t="s">
+      <c r="I65" s="218" t="s">
         <v>494</v>
       </c>
-      <c r="J65" s="219">
+      <c r="J65" s="218">
         <f t="shared" si="0"/>
         <v>1981</v>
       </c>
-      <c r="K65" s="218" t="s">
+      <c r="K65" s="217" t="s">
         <v>437</v>
       </c>
-      <c r="L65" s="220" t="s">
+      <c r="L65" s="219" t="s">
         <v>433</v>
       </c>
-      <c r="M65" s="221">
+      <c r="M65" s="220">
         <v>3500000</v>
       </c>
       <c r="N65" s="136" t="str">
@@ -6890,23 +7016,23 @@
       <c r="E66" s="153">
         <v>1985</v>
       </c>
-      <c r="H66" s="218">
+      <c r="H66" s="217">
         <v>63</v>
       </c>
-      <c r="I66" s="219" t="s">
+      <c r="I66" s="218" t="s">
         <v>495</v>
       </c>
-      <c r="J66" s="219">
+      <c r="J66" s="218">
         <f t="shared" si="0"/>
         <v>1985</v>
       </c>
-      <c r="K66" s="218" t="s">
+      <c r="K66" s="217" t="s">
         <v>432</v>
       </c>
-      <c r="L66" s="220" t="s">
+      <c r="L66" s="219" t="s">
         <v>433</v>
       </c>
-      <c r="M66" s="221">
+      <c r="M66" s="220">
         <v>2000000</v>
       </c>
       <c r="N66" s="136" t="str">
@@ -6930,23 +7056,23 @@
       <c r="E67" s="153">
         <v>1986</v>
       </c>
-      <c r="H67" s="218">
+      <c r="H67" s="217">
         <v>64</v>
       </c>
-      <c r="I67" s="219" t="s">
+      <c r="I67" s="218" t="s">
         <v>496</v>
       </c>
-      <c r="J67" s="219">
+      <c r="J67" s="218">
         <f t="shared" si="0"/>
         <v>1986</v>
       </c>
-      <c r="K67" s="218" t="s">
+      <c r="K67" s="217" t="s">
         <v>437</v>
       </c>
-      <c r="L67" s="220" t="s">
+      <c r="L67" s="219" t="s">
         <v>433</v>
       </c>
-      <c r="M67" s="221">
+      <c r="M67" s="220">
         <v>3500000</v>
       </c>
       <c r="N67" s="136" t="str">
@@ -6970,23 +7096,23 @@
       <c r="E68" s="153">
         <v>1975</v>
       </c>
-      <c r="H68" s="218">
+      <c r="H68" s="217">
         <v>65</v>
       </c>
-      <c r="I68" s="219" t="s">
+      <c r="I68" s="218" t="s">
         <v>497</v>
       </c>
-      <c r="J68" s="219">
+      <c r="J68" s="218">
         <f t="shared" si="0"/>
         <v>1975</v>
       </c>
-      <c r="K68" s="218" t="s">
+      <c r="K68" s="217" t="s">
         <v>432</v>
       </c>
-      <c r="L68" s="220" t="s">
+      <c r="L68" s="219" t="s">
         <v>433</v>
       </c>
-      <c r="M68" s="221">
+      <c r="M68" s="220">
         <v>2000000</v>
       </c>
       <c r="N68" s="136" t="str">
@@ -7010,23 +7136,23 @@
       <c r="E69" s="153">
         <v>1978</v>
       </c>
-      <c r="H69" s="218">
+      <c r="H69" s="217">
         <v>66</v>
       </c>
-      <c r="I69" s="219" t="s">
+      <c r="I69" s="218" t="s">
         <v>498</v>
       </c>
-      <c r="J69" s="219">
+      <c r="J69" s="218">
         <f t="shared" ref="J69:J83" si="2">VLOOKUP(I69,$C$4:$E$83,3,0)</f>
         <v>1978</v>
       </c>
-      <c r="K69" s="218" t="s">
+      <c r="K69" s="217" t="s">
         <v>437</v>
       </c>
-      <c r="L69" s="220" t="s">
+      <c r="L69" s="219" t="s">
         <v>433</v>
       </c>
-      <c r="M69" s="221">
+      <c r="M69" s="220">
         <v>3500000</v>
       </c>
       <c r="N69" s="136" t="str">
@@ -7050,23 +7176,23 @@
       <c r="E70" s="153">
         <v>1977</v>
       </c>
-      <c r="H70" s="218">
+      <c r="H70" s="217">
         <v>67</v>
       </c>
-      <c r="I70" s="219" t="s">
+      <c r="I70" s="218" t="s">
         <v>499</v>
       </c>
-      <c r="J70" s="219">
+      <c r="J70" s="218">
         <f t="shared" si="2"/>
         <v>1977</v>
       </c>
-      <c r="K70" s="218" t="s">
+      <c r="K70" s="217" t="s">
         <v>437</v>
       </c>
-      <c r="L70" s="220" t="s">
+      <c r="L70" s="219" t="s">
         <v>433</v>
       </c>
-      <c r="M70" s="221">
+      <c r="M70" s="220">
         <v>3500000</v>
       </c>
       <c r="N70" s="136" t="str">
@@ -7090,23 +7216,23 @@
       <c r="E71" s="153">
         <v>1985</v>
       </c>
-      <c r="H71" s="218">
+      <c r="H71" s="217">
         <v>68</v>
       </c>
-      <c r="I71" s="219" t="s">
+      <c r="I71" s="218" t="s">
         <v>500</v>
       </c>
-      <c r="J71" s="219">
+      <c r="J71" s="218">
         <f t="shared" si="2"/>
         <v>1985</v>
       </c>
-      <c r="K71" s="218" t="s">
+      <c r="K71" s="217" t="s">
         <v>432</v>
       </c>
-      <c r="L71" s="220" t="s">
+      <c r="L71" s="219" t="s">
         <v>433</v>
       </c>
-      <c r="M71" s="221">
+      <c r="M71" s="220">
         <v>2000000</v>
       </c>
       <c r="N71" s="136" t="str">
@@ -7130,23 +7256,23 @@
       <c r="E72" s="153">
         <v>1978</v>
       </c>
-      <c r="H72" s="218">
+      <c r="H72" s="217">
         <v>69</v>
       </c>
-      <c r="I72" s="219" t="s">
+      <c r="I72" s="218" t="s">
         <v>501</v>
       </c>
-      <c r="J72" s="219">
+      <c r="J72" s="218">
         <f t="shared" si="2"/>
         <v>1978</v>
       </c>
-      <c r="K72" s="218" t="s">
+      <c r="K72" s="217" t="s">
         <v>437</v>
       </c>
-      <c r="L72" s="220" t="s">
+      <c r="L72" s="219" t="s">
         <v>433</v>
       </c>
-      <c r="M72" s="221">
+      <c r="M72" s="220">
         <v>3500000</v>
       </c>
       <c r="N72" s="136" t="str">
@@ -7170,23 +7296,23 @@
       <c r="E73" s="153">
         <v>1977</v>
       </c>
-      <c r="H73" s="218">
+      <c r="H73" s="217">
         <v>70</v>
       </c>
-      <c r="I73" s="219" t="s">
+      <c r="I73" s="218" t="s">
         <v>502</v>
       </c>
-      <c r="J73" s="219">
+      <c r="J73" s="218">
         <f t="shared" si="2"/>
         <v>1977</v>
       </c>
-      <c r="K73" s="218" t="s">
+      <c r="K73" s="217" t="s">
         <v>437</v>
       </c>
-      <c r="L73" s="220" t="s">
+      <c r="L73" s="219" t="s">
         <v>433</v>
       </c>
-      <c r="M73" s="221">
+      <c r="M73" s="220">
         <v>3500000</v>
       </c>
       <c r="N73" s="136" t="str">
@@ -7210,23 +7336,23 @@
       <c r="E74" s="153">
         <v>1965</v>
       </c>
-      <c r="H74" s="218">
+      <c r="H74" s="217">
         <v>71</v>
       </c>
-      <c r="I74" s="220" t="s">
+      <c r="I74" s="219" t="s">
         <v>503</v>
       </c>
-      <c r="J74" s="219">
+      <c r="J74" s="218">
         <f t="shared" si="2"/>
         <v>1965</v>
       </c>
-      <c r="K74" s="218" t="s">
+      <c r="K74" s="217" t="s">
         <v>437</v>
       </c>
-      <c r="L74" s="220" t="s">
+      <c r="L74" s="219" t="s">
         <v>504</v>
       </c>
-      <c r="M74" s="221">
+      <c r="M74" s="220">
         <v>2000000</v>
       </c>
       <c r="N74" s="136" t="str">
@@ -7250,23 +7376,23 @@
       <c r="E75" s="153">
         <v>1962</v>
       </c>
-      <c r="H75" s="218">
+      <c r="H75" s="217">
         <v>72</v>
       </c>
-      <c r="I75" s="220" t="s">
+      <c r="I75" s="219" t="s">
         <v>505</v>
       </c>
-      <c r="J75" s="219">
+      <c r="J75" s="218">
         <f t="shared" si="2"/>
         <v>1962</v>
       </c>
-      <c r="K75" s="218" t="s">
+      <c r="K75" s="217" t="s">
         <v>437</v>
       </c>
-      <c r="L75" s="220" t="s">
+      <c r="L75" s="219" t="s">
         <v>504</v>
       </c>
-      <c r="M75" s="221">
+      <c r="M75" s="220">
         <v>2000000</v>
       </c>
       <c r="N75" s="136" t="str">
@@ -7290,23 +7416,23 @@
       <c r="E76" s="153">
         <v>1964</v>
       </c>
-      <c r="H76" s="218">
+      <c r="H76" s="217">
         <v>73</v>
       </c>
-      <c r="I76" s="220" t="s">
+      <c r="I76" s="219" t="s">
         <v>506</v>
       </c>
-      <c r="J76" s="219">
+      <c r="J76" s="218">
         <f t="shared" si="2"/>
         <v>1964</v>
       </c>
-      <c r="K76" s="218" t="s">
+      <c r="K76" s="217" t="s">
         <v>437</v>
       </c>
-      <c r="L76" s="220" t="s">
+      <c r="L76" s="219" t="s">
         <v>504</v>
       </c>
-      <c r="M76" s="221">
+      <c r="M76" s="220">
         <v>2000000</v>
       </c>
       <c r="N76" s="136" t="str">
@@ -7330,23 +7456,23 @@
       <c r="E77" s="153">
         <v>1962</v>
       </c>
-      <c r="H77" s="218">
+      <c r="H77" s="217">
         <v>74</v>
       </c>
-      <c r="I77" s="220" t="s">
+      <c r="I77" s="219" t="s">
         <v>507</v>
       </c>
-      <c r="J77" s="219">
+      <c r="J77" s="218">
         <f t="shared" si="2"/>
         <v>1962</v>
       </c>
-      <c r="K77" s="218" t="s">
+      <c r="K77" s="217" t="s">
         <v>432</v>
       </c>
-      <c r="L77" s="220" t="s">
+      <c r="L77" s="219" t="s">
         <v>504</v>
       </c>
-      <c r="M77" s="221">
+      <c r="M77" s="220">
         <v>2000000</v>
       </c>
       <c r="N77" s="136" t="str">
@@ -7370,23 +7496,23 @@
       <c r="E78" s="153">
         <v>1962</v>
       </c>
-      <c r="H78" s="218">
+      <c r="H78" s="217">
         <v>75</v>
       </c>
-      <c r="I78" s="220" t="s">
+      <c r="I78" s="219" t="s">
         <v>508</v>
       </c>
-      <c r="J78" s="219">
+      <c r="J78" s="218">
         <f t="shared" si="2"/>
         <v>1962</v>
       </c>
-      <c r="K78" s="218" t="s">
+      <c r="K78" s="217" t="s">
         <v>437</v>
       </c>
-      <c r="L78" s="220" t="s">
+      <c r="L78" s="219" t="s">
         <v>504</v>
       </c>
-      <c r="M78" s="221">
+      <c r="M78" s="220">
         <v>2000000</v>
       </c>
       <c r="N78" s="136" t="str">
@@ -7410,23 +7536,23 @@
       <c r="E79" s="153">
         <v>1957</v>
       </c>
-      <c r="H79" s="218">
+      <c r="H79" s="217">
         <v>76</v>
       </c>
-      <c r="I79" s="220" t="s">
+      <c r="I79" s="219" t="s">
         <v>509</v>
       </c>
-      <c r="J79" s="219">
+      <c r="J79" s="218">
         <f t="shared" si="2"/>
         <v>1957</v>
       </c>
-      <c r="K79" s="218" t="s">
+      <c r="K79" s="217" t="s">
         <v>437</v>
       </c>
-      <c r="L79" s="220" t="s">
+      <c r="L79" s="219" t="s">
         <v>504</v>
       </c>
-      <c r="M79" s="221">
+      <c r="M79" s="220">
         <v>2000000</v>
       </c>
       <c r="N79" s="136" t="str">
@@ -7450,23 +7576,23 @@
       <c r="E80" s="153">
         <v>1956</v>
       </c>
-      <c r="H80" s="218">
+      <c r="H80" s="217">
         <v>77</v>
       </c>
-      <c r="I80" s="220" t="s">
+      <c r="I80" s="219" t="s">
         <v>510</v>
       </c>
-      <c r="J80" s="219">
+      <c r="J80" s="218">
         <f t="shared" si="2"/>
         <v>1956</v>
       </c>
-      <c r="K80" s="218" t="s">
+      <c r="K80" s="217" t="s">
         <v>437</v>
       </c>
-      <c r="L80" s="220" t="s">
+      <c r="L80" s="219" t="s">
         <v>504</v>
       </c>
-      <c r="M80" s="221">
+      <c r="M80" s="220">
         <v>2000000</v>
       </c>
       <c r="N80" s="136" t="str">
@@ -7490,23 +7616,23 @@
       <c r="E81" s="153">
         <v>1954</v>
       </c>
-      <c r="H81" s="218">
+      <c r="H81" s="217">
         <v>78</v>
       </c>
-      <c r="I81" s="220" t="s">
+      <c r="I81" s="219" t="s">
         <v>511</v>
       </c>
-      <c r="J81" s="219">
+      <c r="J81" s="218">
         <f t="shared" si="2"/>
         <v>1954</v>
       </c>
-      <c r="K81" s="218" t="s">
+      <c r="K81" s="217" t="s">
         <v>437</v>
       </c>
-      <c r="L81" s="220" t="s">
+      <c r="L81" s="219" t="s">
         <v>504</v>
       </c>
-      <c r="M81" s="221">
+      <c r="M81" s="220">
         <v>2000000</v>
       </c>
       <c r="N81" s="136" t="str">
@@ -7530,23 +7656,23 @@
       <c r="E82" s="153">
         <v>1961</v>
       </c>
-      <c r="H82" s="218">
+      <c r="H82" s="217">
         <v>79</v>
       </c>
-      <c r="I82" s="220" t="s">
+      <c r="I82" s="219" t="s">
         <v>512</v>
       </c>
-      <c r="J82" s="219">
+      <c r="J82" s="218">
         <f t="shared" si="2"/>
         <v>1961</v>
       </c>
-      <c r="K82" s="218" t="s">
+      <c r="K82" s="217" t="s">
         <v>432</v>
       </c>
-      <c r="L82" s="220" t="s">
+      <c r="L82" s="219" t="s">
         <v>504</v>
       </c>
-      <c r="M82" s="221">
+      <c r="M82" s="220">
         <v>2000000</v>
       </c>
       <c r="N82" s="136" t="str">
@@ -7570,23 +7696,23 @@
       <c r="E83" s="153">
         <v>1958</v>
       </c>
-      <c r="H83" s="218">
+      <c r="H83" s="217">
         <v>80</v>
       </c>
-      <c r="I83" s="220" t="s">
+      <c r="I83" s="219" t="s">
         <v>513</v>
       </c>
-      <c r="J83" s="219">
+      <c r="J83" s="218">
         <f t="shared" si="2"/>
         <v>1958</v>
       </c>
-      <c r="K83" s="218" t="s">
+      <c r="K83" s="217" t="s">
         <v>437</v>
       </c>
-      <c r="L83" s="220" t="s">
+      <c r="L83" s="219" t="s">
         <v>504</v>
       </c>
-      <c r="M83" s="221">
+      <c r="M83" s="220">
         <v>2000000</v>
       </c>
       <c r="N83" s="136" t="str">
@@ -7595,14 +7721,14 @@
       </c>
     </row>
     <row r="84" spans="1:14" s="137" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="222" t="s">
+      <c r="A84" s="228" t="s">
         <v>414</v>
       </c>
-      <c r="B84" s="223"/>
-      <c r="C84" s="223"/>
-      <c r="D84" s="223"/>
-      <c r="E84" s="223"/>
-      <c r="M84" s="215"/>
+      <c r="B84" s="229"/>
+      <c r="C84" s="229"/>
+      <c r="D84" s="229"/>
+      <c r="E84" s="229"/>
+      <c r="M84" s="214"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:E84" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
@@ -7647,43 +7773,43 @@
       <c r="A1" s="22"/>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
-      <c r="D1" s="228" t="s">
+      <c r="D1" s="234" t="s">
         <v>313</v>
       </c>
-      <c r="E1" s="228"/>
-      <c r="F1" s="228"/>
+      <c r="E1" s="234"/>
+      <c r="F1" s="234"/>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="24"/>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
-      <c r="D2" s="229"/>
-      <c r="E2" s="229"/>
-      <c r="F2" s="229"/>
+      <c r="D2" s="235"/>
+      <c r="E2" s="235"/>
+      <c r="F2" s="235"/>
     </row>
     <row r="3" spans="1:11" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="24"/>
       <c r="B3" s="24"/>
       <c r="C3" s="24"/>
-      <c r="D3" s="229"/>
-      <c r="E3" s="229"/>
-      <c r="F3" s="229"/>
+      <c r="D3" s="235"/>
+      <c r="E3" s="235"/>
+      <c r="F3" s="235"/>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
       <c r="B4" s="24"/>
       <c r="C4" s="24"/>
-      <c r="D4" s="229"/>
-      <c r="E4" s="229"/>
-      <c r="F4" s="229"/>
+      <c r="D4" s="235"/>
+      <c r="E4" s="235"/>
+      <c r="F4" s="235"/>
     </row>
     <row r="5" spans="1:11" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="24"/>
       <c r="B5" s="24"/>
       <c r="C5" s="24"/>
-      <c r="D5" s="229"/>
-      <c r="E5" s="229"/>
-      <c r="F5" s="229"/>
+      <c r="D5" s="235"/>
+      <c r="E5" s="235"/>
+      <c r="F5" s="235"/>
     </row>
     <row r="6" spans="1:11" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="23"/>
@@ -7694,14 +7820,14 @@
       <c r="F6" s="23"/>
     </row>
     <row r="7" spans="1:11" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="230" t="s">
+      <c r="A7" s="236" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="230"/>
-      <c r="C7" s="230"/>
-      <c r="D7" s="230"/>
-      <c r="E7" s="230"/>
-      <c r="F7" s="230"/>
+      <c r="B7" s="236"/>
+      <c r="C7" s="236"/>
+      <c r="D7" s="236"/>
+      <c r="E7" s="236"/>
+      <c r="F7" s="236"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -7723,27 +7849,27 @@
     </row>
     <row r="9" spans="1:11" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="28"/>
-      <c r="B9" s="238" t="s">
+      <c r="B9" s="244" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="238"/>
-      <c r="D9" s="238"/>
-      <c r="E9" s="238"/>
-      <c r="F9" s="238"/>
+      <c r="C9" s="244"/>
+      <c r="D9" s="244"/>
+      <c r="E9" s="244"/>
+      <c r="F9" s="244"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="239" t="s">
+      <c r="A10" s="245" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="240"/>
-      <c r="C10" s="240"/>
-      <c r="D10" s="240"/>
-      <c r="E10" s="240"/>
-      <c r="F10" s="241"/>
+      <c r="B10" s="246"/>
+      <c r="C10" s="246"/>
+      <c r="D10" s="246"/>
+      <c r="E10" s="246"/>
+      <c r="F10" s="247"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
@@ -7751,12 +7877,12 @@
       <c r="K10" s="8"/>
     </row>
     <row r="11" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="242"/>
-      <c r="B11" s="243"/>
-      <c r="C11" s="243"/>
-      <c r="D11" s="243"/>
-      <c r="E11" s="243"/>
-      <c r="F11" s="244"/>
+      <c r="A11" s="248"/>
+      <c r="B11" s="249"/>
+      <c r="C11" s="249"/>
+      <c r="D11" s="249"/>
+      <c r="E11" s="249"/>
+      <c r="F11" s="250"/>
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
@@ -7775,10 +7901,10 @@
       <c r="A13" s="33" t="s">
         <v>260</v>
       </c>
-      <c r="B13" s="236" t="s">
+      <c r="B13" s="242" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="236"/>
+      <c r="C13" s="242"/>
       <c r="D13" s="33" t="s">
         <v>4</v>
       </c>
@@ -7791,77 +7917,77 @@
       <c r="G13" s="10"/>
     </row>
     <row r="14" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="245">
+      <c r="A14" s="251">
         <v>1</v>
       </c>
-      <c r="B14" s="248" t="s">
+      <c r="B14" s="254" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="245" t="s">
+      <c r="C14" s="251" t="s">
         <v>328</v>
       </c>
       <c r="D14" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="251">
+      <c r="E14" s="257">
         <v>200000</v>
       </c>
-      <c r="F14" s="254"/>
+      <c r="F14" s="260"/>
       <c r="G14" s="11"/>
     </row>
     <row r="15" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="246"/>
-      <c r="B15" s="249"/>
-      <c r="C15" s="246"/>
+      <c r="A15" s="252"/>
+      <c r="B15" s="255"/>
+      <c r="C15" s="252"/>
       <c r="D15" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="252"/>
-      <c r="F15" s="255"/>
+      <c r="E15" s="258"/>
+      <c r="F15" s="261"/>
       <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:11" ht="33" x14ac:dyDescent="0.25">
-      <c r="A16" s="246"/>
-      <c r="B16" s="249"/>
-      <c r="C16" s="246"/>
+      <c r="A16" s="252"/>
+      <c r="B16" s="255"/>
+      <c r="C16" s="252"/>
       <c r="D16" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="252"/>
-      <c r="F16" s="255"/>
+      <c r="E16" s="258"/>
+      <c r="F16" s="261"/>
       <c r="G16" s="11"/>
     </row>
     <row r="17" spans="1:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="A17" s="246"/>
-      <c r="B17" s="249"/>
-      <c r="C17" s="246"/>
+      <c r="A17" s="252"/>
+      <c r="B17" s="255"/>
+      <c r="C17" s="252"/>
       <c r="D17" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="252"/>
-      <c r="F17" s="255"/>
+      <c r="E17" s="258"/>
+      <c r="F17" s="261"/>
       <c r="G17" s="12"/>
     </row>
     <row r="18" spans="1:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="A18" s="246"/>
-      <c r="B18" s="249"/>
-      <c r="C18" s="246"/>
+      <c r="A18" s="252"/>
+      <c r="B18" s="255"/>
+      <c r="C18" s="252"/>
       <c r="D18" s="36" t="s">
         <v>413</v>
       </c>
-      <c r="E18" s="252"/>
-      <c r="F18" s="255"/>
+      <c r="E18" s="258"/>
+      <c r="F18" s="261"/>
       <c r="G18" s="12"/>
     </row>
     <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="247"/>
-      <c r="B19" s="250"/>
-      <c r="C19" s="247"/>
+      <c r="A19" s="253"/>
+      <c r="B19" s="256"/>
+      <c r="C19" s="253"/>
       <c r="D19" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="253"/>
-      <c r="F19" s="256"/>
+      <c r="E19" s="259"/>
+      <c r="F19" s="262"/>
       <c r="G19" s="12"/>
     </row>
     <row r="20" spans="1:7" ht="33" x14ac:dyDescent="0.25">
@@ -7944,7 +8070,7 @@
       <c r="A24" s="38">
         <v>6</v>
       </c>
-      <c r="B24" s="227" t="s">
+      <c r="B24" s="233" t="s">
         <v>41</v>
       </c>
       <c r="C24" s="42" t="s">
@@ -7953,10 +8079,10 @@
       <c r="D24" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="233">
+      <c r="E24" s="239">
         <v>60000</v>
       </c>
-      <c r="F24" s="234" t="s">
+      <c r="F24" s="240" t="s">
         <v>383</v>
       </c>
       <c r="G24" s="12"/>
@@ -7965,15 +8091,15 @@
       <c r="A25" s="38">
         <v>7</v>
       </c>
-      <c r="B25" s="227"/>
+      <c r="B25" s="233"/>
       <c r="C25" s="42" t="s">
         <v>44</v>
       </c>
       <c r="D25" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="233"/>
-      <c r="F25" s="235"/>
+      <c r="E25" s="239"/>
+      <c r="F25" s="241"/>
       <c r="G25" s="12"/>
     </row>
     <row r="26" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
@@ -8013,12 +8139,12 @@
       <c r="G27" s="12"/>
     </row>
     <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="231" t="s">
+      <c r="A28" s="237" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="237"/>
-      <c r="C28" s="237"/>
-      <c r="D28" s="232"/>
+      <c r="B28" s="243"/>
+      <c r="C28" s="243"/>
+      <c r="D28" s="238"/>
       <c r="E28" s="34">
         <f>SUM(E14:E27)</f>
         <v>564000</v>
@@ -8059,10 +8185,10 @@
       <c r="A32" s="63" t="s">
         <v>260</v>
       </c>
-      <c r="B32" s="231" t="s">
+      <c r="B32" s="237" t="s">
         <v>3</v>
       </c>
-      <c r="C32" s="232"/>
+      <c r="C32" s="238"/>
       <c r="D32" s="63" t="s">
         <v>4</v>
       </c>
@@ -8165,7 +8291,7 @@
       <c r="A38" s="38">
         <v>5</v>
       </c>
-      <c r="B38" s="248" t="s">
+      <c r="B38" s="254" t="s">
         <v>45</v>
       </c>
       <c r="C38" s="42" t="s">
@@ -8186,7 +8312,7 @@
       <c r="A39" s="38">
         <v>6</v>
       </c>
-      <c r="B39" s="250"/>
+      <c r="B39" s="256"/>
       <c r="C39" s="42" t="s">
         <v>275</v>
       </c>
@@ -8205,7 +8331,7 @@
       <c r="A40" s="38">
         <v>7</v>
       </c>
-      <c r="B40" s="268" t="s">
+      <c r="B40" s="274" t="s">
         <v>61</v>
       </c>
       <c r="C40" s="42" t="s">
@@ -8217,7 +8343,7 @@
       <c r="E40" s="72">
         <v>41000</v>
       </c>
-      <c r="F40" s="265" t="s">
+      <c r="F40" s="271" t="s">
         <v>379</v>
       </c>
       <c r="G40" s="12"/>
@@ -8226,7 +8352,7 @@
       <c r="A41" s="38">
         <v>8</v>
       </c>
-      <c r="B41" s="268"/>
+      <c r="B41" s="274"/>
       <c r="C41" s="42" t="s">
         <v>64</v>
       </c>
@@ -8236,14 +8362,14 @@
       <c r="E41" s="72">
         <v>59000</v>
       </c>
-      <c r="F41" s="266"/>
+      <c r="F41" s="272"/>
       <c r="G41" s="12"/>
     </row>
     <row r="42" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A42" s="38">
         <v>9</v>
       </c>
-      <c r="B42" s="268"/>
+      <c r="B42" s="274"/>
       <c r="C42" s="42" t="s">
         <v>66</v>
       </c>
@@ -8253,14 +8379,14 @@
       <c r="E42" s="72">
         <v>59000</v>
       </c>
-      <c r="F42" s="266"/>
+      <c r="F42" s="272"/>
       <c r="G42" s="12"/>
     </row>
     <row r="43" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A43" s="38">
         <v>10</v>
       </c>
-      <c r="B43" s="268"/>
+      <c r="B43" s="274"/>
       <c r="C43" s="42" t="s">
         <v>68</v>
       </c>
@@ -8270,14 +8396,14 @@
       <c r="E43" s="72">
         <v>47000</v>
       </c>
-      <c r="F43" s="266"/>
+      <c r="F43" s="272"/>
       <c r="G43" s="12"/>
     </row>
     <row r="44" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A44" s="38">
         <v>11</v>
       </c>
-      <c r="B44" s="268"/>
+      <c r="B44" s="274"/>
       <c r="C44" s="42" t="s">
         <v>70</v>
       </c>
@@ -8287,7 +8413,7 @@
       <c r="E44" s="72">
         <v>41000</v>
       </c>
-      <c r="F44" s="267"/>
+      <c r="F44" s="273"/>
       <c r="G44" s="12"/>
     </row>
     <row r="45" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
@@ -8313,7 +8439,7 @@
       <c r="A46" s="38">
         <v>13</v>
       </c>
-      <c r="B46" s="248" t="s">
+      <c r="B46" s="254" t="s">
         <v>278</v>
       </c>
       <c r="C46" s="36" t="s">
@@ -8325,7 +8451,7 @@
       <c r="E46" s="75">
         <v>62000</v>
       </c>
-      <c r="F46" s="265" t="s">
+      <c r="F46" s="271" t="s">
         <v>380</v>
       </c>
       <c r="G46" s="12"/>
@@ -8334,7 +8460,7 @@
       <c r="A47" s="38">
         <v>14</v>
       </c>
-      <c r="B47" s="249"/>
+      <c r="B47" s="255"/>
       <c r="C47" s="36" t="s">
         <v>197</v>
       </c>
@@ -8344,14 +8470,14 @@
       <c r="E47" s="75">
         <v>165000</v>
       </c>
-      <c r="F47" s="266"/>
+      <c r="F47" s="272"/>
       <c r="G47" s="12"/>
     </row>
     <row r="48" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A48" s="38">
         <v>15</v>
       </c>
-      <c r="B48" s="250"/>
+      <c r="B48" s="256"/>
       <c r="C48" s="36" t="s">
         <v>202</v>
       </c>
@@ -8361,14 +8487,14 @@
       <c r="E48" s="75">
         <v>116000</v>
       </c>
-      <c r="F48" s="267"/>
+      <c r="F48" s="273"/>
       <c r="G48" s="12"/>
     </row>
     <row r="49" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A49" s="38">
         <v>16</v>
       </c>
-      <c r="B49" s="248" t="s">
+      <c r="B49" s="254" t="s">
         <v>273</v>
       </c>
       <c r="C49" s="36" t="s">
@@ -8387,7 +8513,7 @@
       <c r="A50" s="38">
         <v>17</v>
       </c>
-      <c r="B50" s="249"/>
+      <c r="B50" s="255"/>
       <c r="C50" s="36" t="s">
         <v>270</v>
       </c>
@@ -8397,7 +8523,7 @@
       <c r="E50" s="75">
         <v>130000</v>
       </c>
-      <c r="F50" s="265" t="s">
+      <c r="F50" s="271" t="s">
         <v>380</v>
       </c>
       <c r="G50" s="12"/>
@@ -8406,7 +8532,7 @@
       <c r="A51" s="38">
         <v>18</v>
       </c>
-      <c r="B51" s="249"/>
+      <c r="B51" s="255"/>
       <c r="C51" s="36" t="s">
         <v>271</v>
       </c>
@@ -8416,14 +8542,14 @@
       <c r="E51" s="75">
         <v>120000</v>
       </c>
-      <c r="F51" s="266"/>
+      <c r="F51" s="272"/>
       <c r="G51" s="12"/>
     </row>
     <row r="52" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A52" s="38">
         <v>19</v>
       </c>
-      <c r="B52" s="250"/>
+      <c r="B52" s="256"/>
       <c r="C52" s="36" t="s">
         <v>272</v>
       </c>
@@ -8433,7 +8559,7 @@
       <c r="E52" s="75">
         <v>282000</v>
       </c>
-      <c r="F52" s="267"/>
+      <c r="F52" s="273"/>
       <c r="G52" s="12"/>
     </row>
     <row r="53" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
@@ -8459,7 +8585,7 @@
       <c r="A54" s="38">
         <v>21</v>
       </c>
-      <c r="B54" s="271" t="s">
+      <c r="B54" s="277" t="s">
         <v>131</v>
       </c>
       <c r="C54" s="36" t="s">
@@ -8471,7 +8597,7 @@
       <c r="E54" s="75">
         <v>71000</v>
       </c>
-      <c r="F54" s="234" t="s">
+      <c r="F54" s="240" t="s">
         <v>382</v>
       </c>
       <c r="G54" s="12"/>
@@ -8480,7 +8606,7 @@
       <c r="A55" s="38">
         <v>22</v>
       </c>
-      <c r="B55" s="273"/>
+      <c r="B55" s="279"/>
       <c r="C55" s="36" t="s">
         <v>134</v>
       </c>
@@ -8490,7 +8616,7 @@
       <c r="E55" s="71">
         <v>138000</v>
       </c>
-      <c r="F55" s="235"/>
+      <c r="F55" s="241"/>
       <c r="G55" s="12"/>
     </row>
     <row r="56" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
@@ -8516,7 +8642,7 @@
       <c r="A57" s="38">
         <v>24</v>
       </c>
-      <c r="B57" s="289" t="s">
+      <c r="B57" s="295" t="s">
         <v>206</v>
       </c>
       <c r="C57" s="36" t="s">
@@ -8528,7 +8654,7 @@
       <c r="E57" s="75">
         <v>30000</v>
       </c>
-      <c r="F57" s="282" t="s">
+      <c r="F57" s="288" t="s">
         <v>384</v>
       </c>
       <c r="G57" s="13"/>
@@ -8537,7 +8663,7 @@
       <c r="A58" s="38">
         <v>25</v>
       </c>
-      <c r="B58" s="289"/>
+      <c r="B58" s="295"/>
       <c r="C58" s="36" t="s">
         <v>279</v>
       </c>
@@ -8547,16 +8673,16 @@
       <c r="E58" s="75">
         <v>20000</v>
       </c>
-      <c r="F58" s="283"/>
+      <c r="F58" s="289"/>
       <c r="G58" s="13"/>
     </row>
     <row r="59" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="261" t="s">
+      <c r="A59" s="267" t="s">
         <v>209</v>
       </c>
-      <c r="B59" s="262"/>
-      <c r="C59" s="262"/>
-      <c r="D59" s="263"/>
+      <c r="B59" s="268"/>
+      <c r="C59" s="268"/>
+      <c r="D59" s="269"/>
       <c r="E59" s="69"/>
       <c r="F59" s="70"/>
       <c r="G59" s="12"/>
@@ -8565,7 +8691,7 @@
       <c r="A60" s="38">
         <v>26</v>
       </c>
-      <c r="B60" s="284" t="s">
+      <c r="B60" s="290" t="s">
         <v>261</v>
       </c>
       <c r="C60" s="76" t="s">
@@ -8584,7 +8710,7 @@
       <c r="A61" s="38">
         <v>27</v>
       </c>
-      <c r="B61" s="285"/>
+      <c r="B61" s="291"/>
       <c r="C61" s="76" t="s">
         <v>84</v>
       </c>
@@ -8601,7 +8727,7 @@
       <c r="A62" s="38">
         <v>28</v>
       </c>
-      <c r="B62" s="285"/>
+      <c r="B62" s="291"/>
       <c r="C62" s="76" t="s">
         <v>86</v>
       </c>
@@ -8618,7 +8744,7 @@
       <c r="A63" s="38">
         <v>29</v>
       </c>
-      <c r="B63" s="285"/>
+      <c r="B63" s="291"/>
       <c r="C63" s="76" t="s">
         <v>80</v>
       </c>
@@ -8635,7 +8761,7 @@
       <c r="A64" s="38">
         <v>30</v>
       </c>
-      <c r="B64" s="285"/>
+      <c r="B64" s="291"/>
       <c r="C64" s="76" t="s">
         <v>94</v>
       </c>
@@ -8652,7 +8778,7 @@
       <c r="A65" s="38">
         <v>31</v>
       </c>
-      <c r="B65" s="285"/>
+      <c r="B65" s="291"/>
       <c r="C65" s="76" t="s">
         <v>81</v>
       </c>
@@ -8669,7 +8795,7 @@
       <c r="A66" s="38">
         <v>32</v>
       </c>
-      <c r="B66" s="285"/>
+      <c r="B66" s="291"/>
       <c r="C66" s="76" t="s">
         <v>83</v>
       </c>
@@ -8688,7 +8814,7 @@
       <c r="A67" s="38">
         <v>33</v>
       </c>
-      <c r="B67" s="285"/>
+      <c r="B67" s="291"/>
       <c r="C67" s="80" t="s">
         <v>235</v>
       </c>
@@ -8705,7 +8831,7 @@
       <c r="A68" s="38">
         <v>34</v>
       </c>
-      <c r="B68" s="285"/>
+      <c r="B68" s="291"/>
       <c r="C68" s="76" t="s">
         <v>74</v>
       </c>
@@ -8724,7 +8850,7 @@
       <c r="A69" s="38">
         <v>35</v>
       </c>
-      <c r="B69" s="285"/>
+      <c r="B69" s="291"/>
       <c r="C69" s="76" t="s">
         <v>76</v>
       </c>
@@ -8741,7 +8867,7 @@
       <c r="A70" s="38">
         <v>36</v>
       </c>
-      <c r="B70" s="285"/>
+      <c r="B70" s="291"/>
       <c r="C70" s="76" t="s">
         <v>78</v>
       </c>
@@ -8758,7 +8884,7 @@
       <c r="A71" s="38">
         <v>37</v>
       </c>
-      <c r="B71" s="285"/>
+      <c r="B71" s="291"/>
       <c r="C71" s="76" t="s">
         <v>88</v>
       </c>
@@ -8775,7 +8901,7 @@
       <c r="A72" s="38">
         <v>38</v>
       </c>
-      <c r="B72" s="286"/>
+      <c r="B72" s="292"/>
       <c r="C72" s="76" t="s">
         <v>96</v>
       </c>
@@ -8792,19 +8918,19 @@
       <c r="A73" s="38">
         <v>39</v>
       </c>
-      <c r="B73" s="284" t="s">
+      <c r="B73" s="290" t="s">
         <v>91</v>
       </c>
       <c r="C73" s="76" t="s">
         <v>90</v>
       </c>
-      <c r="D73" s="290" t="s">
+      <c r="D73" s="296" t="s">
         <v>398</v>
       </c>
       <c r="E73" s="78">
         <v>137000</v>
       </c>
-      <c r="F73" s="265" t="s">
+      <c r="F73" s="271" t="s">
         <v>381</v>
       </c>
       <c r="G73" s="13"/>
@@ -8813,43 +8939,43 @@
       <c r="A74" s="38">
         <v>40</v>
       </c>
-      <c r="B74" s="285"/>
+      <c r="B74" s="291"/>
       <c r="C74" s="76" t="s">
         <v>92</v>
       </c>
-      <c r="D74" s="291"/>
+      <c r="D74" s="297"/>
       <c r="E74" s="78">
         <v>137000</v>
       </c>
-      <c r="F74" s="266"/>
+      <c r="F74" s="272"/>
       <c r="G74" s="13"/>
     </row>
     <row r="75" spans="1:7" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A75" s="38">
         <v>41</v>
       </c>
-      <c r="B75" s="286"/>
+      <c r="B75" s="292"/>
       <c r="C75" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="D75" s="292"/>
+      <c r="D75" s="298"/>
       <c r="E75" s="78">
         <v>208000</v>
       </c>
-      <c r="F75" s="267"/>
+      <c r="F75" s="273"/>
       <c r="G75" s="13"/>
     </row>
     <row r="76" spans="1:7" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A76" s="38">
         <v>42</v>
       </c>
-      <c r="B76" s="284" t="s">
+      <c r="B76" s="290" t="s">
         <v>399</v>
       </c>
       <c r="C76" s="76" t="s">
         <v>400</v>
       </c>
-      <c r="D76" s="287" t="s">
+      <c r="D76" s="293" t="s">
         <v>402</v>
       </c>
       <c r="E76" s="78">
@@ -8862,11 +8988,11 @@
       <c r="A77" s="38">
         <v>43</v>
       </c>
-      <c r="B77" s="285"/>
+      <c r="B77" s="291"/>
       <c r="C77" s="76" t="s">
         <v>401</v>
       </c>
-      <c r="D77" s="288"/>
+      <c r="D77" s="294"/>
       <c r="E77" s="78">
         <v>323000</v>
       </c>
@@ -8877,7 +9003,7 @@
       <c r="A78" s="38">
         <v>44</v>
       </c>
-      <c r="B78" s="285"/>
+      <c r="B78" s="291"/>
       <c r="C78" s="76" t="s">
         <v>404</v>
       </c>
@@ -8894,7 +9020,7 @@
       <c r="A79" s="38">
         <v>45</v>
       </c>
-      <c r="B79" s="286"/>
+      <c r="B79" s="292"/>
       <c r="C79" s="76" t="s">
         <v>405</v>
       </c>
@@ -8908,12 +9034,12 @@
       <c r="G79" s="13"/>
     </row>
     <row r="80" spans="1:7" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A80" s="261" t="s">
+      <c r="A80" s="267" t="s">
         <v>208</v>
       </c>
-      <c r="B80" s="262"/>
-      <c r="C80" s="262"/>
-      <c r="D80" s="263"/>
+      <c r="B80" s="268"/>
+      <c r="C80" s="268"/>
+      <c r="D80" s="269"/>
       <c r="E80" s="69"/>
       <c r="F80" s="70"/>
       <c r="G80" s="13"/>
@@ -8922,7 +9048,7 @@
       <c r="A81" s="38">
         <v>46</v>
       </c>
-      <c r="B81" s="268" t="s">
+      <c r="B81" s="274" t="s">
         <v>98</v>
       </c>
       <c r="C81" s="36" t="s">
@@ -8941,7 +9067,7 @@
       <c r="A82" s="38">
         <v>47</v>
       </c>
-      <c r="B82" s="268"/>
+      <c r="B82" s="274"/>
       <c r="C82" s="36" t="s">
         <v>101</v>
       </c>
@@ -8958,7 +9084,7 @@
       <c r="A83" s="38">
         <v>48</v>
       </c>
-      <c r="B83" s="268"/>
+      <c r="B83" s="274"/>
       <c r="C83" s="36" t="s">
         <v>103</v>
       </c>
@@ -8977,7 +9103,7 @@
       <c r="A84" s="38">
         <v>49</v>
       </c>
-      <c r="B84" s="268"/>
+      <c r="B84" s="274"/>
       <c r="C84" s="36" t="s">
         <v>106</v>
       </c>
@@ -8996,7 +9122,7 @@
       <c r="A85" s="38">
         <v>50</v>
       </c>
-      <c r="B85" s="268"/>
+      <c r="B85" s="274"/>
       <c r="C85" s="36" t="s">
         <v>407</v>
       </c>
@@ -9013,7 +9139,7 @@
       <c r="A86" s="38">
         <v>51</v>
       </c>
-      <c r="B86" s="268"/>
+      <c r="B86" s="274"/>
       <c r="C86" s="36" t="s">
         <v>108</v>
       </c>
@@ -9032,7 +9158,7 @@
       <c r="A87" s="38">
         <v>52</v>
       </c>
-      <c r="B87" s="268"/>
+      <c r="B87" s="274"/>
       <c r="C87" s="36" t="s">
         <v>111</v>
       </c>
@@ -9051,7 +9177,7 @@
       <c r="A88" s="38">
         <v>53</v>
       </c>
-      <c r="B88" s="268"/>
+      <c r="B88" s="274"/>
       <c r="C88" s="36" t="s">
         <v>114</v>
       </c>
@@ -9070,7 +9196,7 @@
       <c r="A89" s="38">
         <v>54</v>
       </c>
-      <c r="B89" s="268" t="s">
+      <c r="B89" s="274" t="s">
         <v>117</v>
       </c>
       <c r="C89" s="36" t="s">
@@ -9089,7 +9215,7 @@
       <c r="A90" s="38">
         <v>55</v>
       </c>
-      <c r="B90" s="268"/>
+      <c r="B90" s="274"/>
       <c r="C90" s="36" t="s">
         <v>120</v>
       </c>
@@ -9106,7 +9232,7 @@
       <c r="A91" s="38">
         <v>56</v>
       </c>
-      <c r="B91" s="271" t="s">
+      <c r="B91" s="277" t="s">
         <v>122</v>
       </c>
       <c r="C91" s="36" t="s">
@@ -9125,7 +9251,7 @@
       <c r="A92" s="38">
         <v>57</v>
       </c>
-      <c r="B92" s="272"/>
+      <c r="B92" s="278"/>
       <c r="C92" s="36" t="s">
         <v>390</v>
       </c>
@@ -9142,7 +9268,7 @@
       <c r="A93" s="38">
         <v>58</v>
       </c>
-      <c r="B93" s="273"/>
+      <c r="B93" s="279"/>
       <c r="C93" s="36" t="s">
         <v>126</v>
       </c>
@@ -9156,12 +9282,12 @@
       <c r="G93" s="12"/>
     </row>
     <row r="94" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A94" s="261" t="s">
+      <c r="A94" s="267" t="s">
         <v>262</v>
       </c>
-      <c r="B94" s="262"/>
-      <c r="C94" s="262"/>
-      <c r="D94" s="263"/>
+      <c r="B94" s="268"/>
+      <c r="C94" s="268"/>
+      <c r="D94" s="269"/>
       <c r="E94" s="83"/>
       <c r="F94" s="70"/>
       <c r="G94" s="12"/>
@@ -9170,7 +9296,7 @@
       <c r="A95" s="38">
         <v>59</v>
       </c>
-      <c r="B95" s="271" t="s">
+      <c r="B95" s="277" t="s">
         <v>241</v>
       </c>
       <c r="C95" s="36" t="s">
@@ -9189,7 +9315,7 @@
       <c r="A96" s="38">
         <v>60</v>
       </c>
-      <c r="B96" s="273"/>
+      <c r="B96" s="279"/>
       <c r="C96" s="36" t="s">
         <v>240</v>
       </c>
@@ -9206,7 +9332,7 @@
       <c r="A97" s="38">
         <v>61</v>
       </c>
-      <c r="B97" s="271" t="s">
+      <c r="B97" s="277" t="s">
         <v>244</v>
       </c>
       <c r="C97" s="36" t="s">
@@ -9223,7 +9349,7 @@
       <c r="A98" s="38">
         <v>62</v>
       </c>
-      <c r="B98" s="273"/>
+      <c r="B98" s="279"/>
       <c r="C98" s="36" t="s">
         <v>243</v>
       </c>
@@ -9257,7 +9383,7 @@
       <c r="A100" s="38">
         <v>64</v>
       </c>
-      <c r="B100" s="271" t="s">
+      <c r="B100" s="277" t="s">
         <v>259</v>
       </c>
       <c r="C100" s="36" t="s">
@@ -9274,7 +9400,7 @@
       <c r="A101" s="38">
         <v>65</v>
       </c>
-      <c r="B101" s="272"/>
+      <c r="B101" s="278"/>
       <c r="C101" s="36" t="s">
         <v>246</v>
       </c>
@@ -9289,7 +9415,7 @@
       <c r="A102" s="38">
         <v>66</v>
       </c>
-      <c r="B102" s="272"/>
+      <c r="B102" s="278"/>
       <c r="C102" s="36" t="s">
         <v>247</v>
       </c>
@@ -9304,7 +9430,7 @@
       <c r="A103" s="38">
         <v>67</v>
       </c>
-      <c r="B103" s="272"/>
+      <c r="B103" s="278"/>
       <c r="C103" s="36" t="s">
         <v>248</v>
       </c>
@@ -9319,7 +9445,7 @@
       <c r="A104" s="38">
         <v>68</v>
       </c>
-      <c r="B104" s="272"/>
+      <c r="B104" s="278"/>
       <c r="C104" s="36" t="s">
         <v>249</v>
       </c>
@@ -9334,7 +9460,7 @@
       <c r="A105" s="38">
         <v>69</v>
       </c>
-      <c r="B105" s="272"/>
+      <c r="B105" s="278"/>
       <c r="C105" s="36" t="s">
         <v>250</v>
       </c>
@@ -9349,7 +9475,7 @@
       <c r="A106" s="38">
         <v>70</v>
       </c>
-      <c r="B106" s="272"/>
+      <c r="B106" s="278"/>
       <c r="C106" s="36" t="s">
         <v>251</v>
       </c>
@@ -9364,7 +9490,7 @@
       <c r="A107" s="38">
         <v>71</v>
       </c>
-      <c r="B107" s="272"/>
+      <c r="B107" s="278"/>
       <c r="C107" s="36" t="s">
         <v>252</v>
       </c>
@@ -9379,7 +9505,7 @@
       <c r="A108" s="38">
         <v>72</v>
       </c>
-      <c r="B108" s="272"/>
+      <c r="B108" s="278"/>
       <c r="C108" s="36" t="s">
         <v>253</v>
       </c>
@@ -9394,7 +9520,7 @@
       <c r="A109" s="38">
         <v>73</v>
       </c>
-      <c r="B109" s="272"/>
+      <c r="B109" s="278"/>
       <c r="C109" s="36" t="s">
         <v>254</v>
       </c>
@@ -9409,7 +9535,7 @@
       <c r="A110" s="38">
         <v>74</v>
       </c>
-      <c r="B110" s="272"/>
+      <c r="B110" s="278"/>
       <c r="C110" s="36" t="s">
         <v>255</v>
       </c>
@@ -9424,7 +9550,7 @@
       <c r="A111" s="38">
         <v>75</v>
       </c>
-      <c r="B111" s="272"/>
+      <c r="B111" s="278"/>
       <c r="C111" s="36" t="s">
         <v>256</v>
       </c>
@@ -9439,7 +9565,7 @@
       <c r="A112" s="38">
         <v>76</v>
       </c>
-      <c r="B112" s="272"/>
+      <c r="B112" s="278"/>
       <c r="C112" s="36" t="s">
         <v>257</v>
       </c>
@@ -9454,7 +9580,7 @@
       <c r="A113" s="38">
         <v>77</v>
       </c>
-      <c r="B113" s="273"/>
+      <c r="B113" s="279"/>
       <c r="C113" s="36" t="s">
         <v>258</v>
       </c>
@@ -9466,12 +9592,12 @@
       <c r="G113" s="12"/>
     </row>
     <row r="114" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A114" s="261" t="s">
+      <c r="A114" s="267" t="s">
         <v>227</v>
       </c>
-      <c r="B114" s="262"/>
-      <c r="C114" s="262"/>
-      <c r="D114" s="263"/>
+      <c r="B114" s="268"/>
+      <c r="C114" s="268"/>
+      <c r="D114" s="269"/>
       <c r="E114" s="69"/>
       <c r="F114" s="70"/>
       <c r="G114" s="12"/>
@@ -9515,12 +9641,12 @@
       <c r="G116" s="12"/>
     </row>
     <row r="117" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="258" t="s">
+      <c r="A117" s="264" t="s">
         <v>263</v>
       </c>
-      <c r="B117" s="258"/>
-      <c r="C117" s="258"/>
-      <c r="D117" s="258"/>
+      <c r="B117" s="264"/>
+      <c r="C117" s="264"/>
+      <c r="D117" s="264"/>
       <c r="E117" s="84"/>
       <c r="F117" s="70"/>
       <c r="G117" s="12"/>
@@ -9529,7 +9655,7 @@
       <c r="A118" s="38">
         <v>80</v>
       </c>
-      <c r="B118" s="279" t="s">
+      <c r="B118" s="285" t="s">
         <v>205</v>
       </c>
       <c r="C118" s="37" t="s">
@@ -9548,7 +9674,7 @@
       <c r="A119" s="38">
         <v>81</v>
       </c>
-      <c r="B119" s="280"/>
+      <c r="B119" s="286"/>
       <c r="C119" s="37" t="s">
         <v>35</v>
       </c>
@@ -9565,7 +9691,7 @@
       <c r="A120" s="38">
         <v>82</v>
       </c>
-      <c r="B120" s="280"/>
+      <c r="B120" s="286"/>
       <c r="C120" s="37" t="s">
         <v>326</v>
       </c>
@@ -9579,10 +9705,10 @@
       <c r="G120" s="12"/>
     </row>
     <row r="121" spans="1:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="A121" s="274">
+      <c r="A121" s="280">
         <v>83</v>
       </c>
-      <c r="B121" s="280"/>
+      <c r="B121" s="286"/>
       <c r="C121" s="36" t="s">
         <v>409</v>
       </c>
@@ -9594,8 +9720,8 @@
       <c r="G121" s="12"/>
     </row>
     <row r="122" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A122" s="275"/>
-      <c r="B122" s="280"/>
+      <c r="A122" s="281"/>
+      <c r="B122" s="286"/>
       <c r="C122" s="36" t="s">
         <v>410</v>
       </c>
@@ -9607,8 +9733,8 @@
       <c r="G122" s="12"/>
     </row>
     <row r="123" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A123" s="276"/>
-      <c r="B123" s="280"/>
+      <c r="A123" s="282"/>
+      <c r="B123" s="286"/>
       <c r="C123" s="36" t="s">
         <v>411</v>
       </c>
@@ -9623,7 +9749,7 @@
       <c r="A124" s="38">
         <v>84</v>
       </c>
-      <c r="B124" s="280"/>
+      <c r="B124" s="286"/>
       <c r="C124" s="37" t="s">
         <v>412</v>
       </c>
@@ -9640,7 +9766,7 @@
       <c r="A125" s="38">
         <v>85</v>
       </c>
-      <c r="B125" s="280"/>
+      <c r="B125" s="286"/>
       <c r="C125" s="37" t="s">
         <v>139</v>
       </c>
@@ -9657,7 +9783,7 @@
       <c r="A126" s="38">
         <v>86</v>
       </c>
-      <c r="B126" s="281"/>
+      <c r="B126" s="287"/>
       <c r="C126" s="37" t="s">
         <v>140</v>
       </c>
@@ -9674,7 +9800,7 @@
       <c r="A127" s="38">
         <v>87</v>
       </c>
-      <c r="B127" s="248" t="s">
+      <c r="B127" s="254" t="s">
         <v>283</v>
       </c>
       <c r="C127" s="36" t="s">
@@ -9693,7 +9819,7 @@
       <c r="A128" s="38">
         <v>88</v>
       </c>
-      <c r="B128" s="249"/>
+      <c r="B128" s="255"/>
       <c r="C128" s="36" t="s">
         <v>144</v>
       </c>
@@ -9710,7 +9836,7 @@
       <c r="A129" s="38">
         <v>89</v>
       </c>
-      <c r="B129" s="249"/>
+      <c r="B129" s="255"/>
       <c r="C129" s="36" t="s">
         <v>394</v>
       </c>
@@ -9727,7 +9853,7 @@
       <c r="A130" s="38">
         <v>90</v>
       </c>
-      <c r="B130" s="249"/>
+      <c r="B130" s="255"/>
       <c r="C130" s="36" t="s">
         <v>396</v>
       </c>
@@ -9744,7 +9870,7 @@
       <c r="A131" s="38">
         <v>91</v>
       </c>
-      <c r="B131" s="249"/>
+      <c r="B131" s="255"/>
       <c r="C131" s="36" t="s">
         <v>371</v>
       </c>
@@ -9761,7 +9887,7 @@
       <c r="A132" s="38">
         <v>92</v>
       </c>
-      <c r="B132" s="250"/>
+      <c r="B132" s="256"/>
       <c r="C132" s="36" t="s">
         <v>146</v>
       </c>
@@ -9776,7 +9902,7 @@
       <c r="A133" s="38">
         <v>93</v>
       </c>
-      <c r="B133" s="249" t="s">
+      <c r="B133" s="255" t="s">
         <v>284</v>
       </c>
       <c r="C133" s="36" t="s">
@@ -9793,7 +9919,7 @@
       <c r="A134" s="38">
         <v>94</v>
       </c>
-      <c r="B134" s="249"/>
+      <c r="B134" s="255"/>
       <c r="C134" s="36" t="s">
         <v>332</v>
       </c>
@@ -9810,7 +9936,7 @@
       <c r="A135" s="38">
         <v>95</v>
       </c>
-      <c r="B135" s="249"/>
+      <c r="B135" s="255"/>
       <c r="C135" s="36" t="s">
         <v>152</v>
       </c>
@@ -9827,7 +9953,7 @@
       <c r="A136" s="38">
         <v>96</v>
       </c>
-      <c r="B136" s="249"/>
+      <c r="B136" s="255"/>
       <c r="C136" s="36" t="s">
         <v>154</v>
       </c>
@@ -9844,7 +9970,7 @@
       <c r="A137" s="38">
         <v>97</v>
       </c>
-      <c r="B137" s="249"/>
+      <c r="B137" s="255"/>
       <c r="C137" s="36" t="s">
         <v>156</v>
       </c>
@@ -9861,7 +9987,7 @@
       <c r="A138" s="38">
         <v>98</v>
       </c>
-      <c r="B138" s="249"/>
+      <c r="B138" s="255"/>
       <c r="C138" s="36" t="s">
         <v>158</v>
       </c>
@@ -9878,7 +10004,7 @@
       <c r="A139" s="38">
         <v>99</v>
       </c>
-      <c r="B139" s="249"/>
+      <c r="B139" s="255"/>
       <c r="C139" s="36" t="s">
         <v>159</v>
       </c>
@@ -9893,7 +10019,7 @@
       <c r="A140" s="38">
         <v>100</v>
       </c>
-      <c r="B140" s="227" t="s">
+      <c r="B140" s="233" t="s">
         <v>305</v>
       </c>
       <c r="C140" s="36" t="s">
@@ -9906,16 +10032,16 @@
         <v>3420000</v>
       </c>
       <c r="F140" s="41"/>
-      <c r="G140" s="269" t="s">
+      <c r="G140" s="275" t="s">
         <v>336</v>
       </c>
-      <c r="H140" s="270"/>
+      <c r="H140" s="276"/>
     </row>
     <row r="141" spans="1:8" ht="33" x14ac:dyDescent="0.25">
       <c r="A141" s="38">
         <v>101</v>
       </c>
-      <c r="B141" s="227"/>
+      <c r="B141" s="233"/>
       <c r="C141" s="36" t="s">
         <v>344</v>
       </c>
@@ -9932,7 +10058,7 @@
       <c r="A142" s="38">
         <v>102</v>
       </c>
-      <c r="B142" s="227"/>
+      <c r="B142" s="233"/>
       <c r="C142" s="36" t="s">
         <v>345</v>
       </c>
@@ -9943,16 +10069,16 @@
         <v>3420000</v>
       </c>
       <c r="F142" s="41"/>
-      <c r="G142" s="269" t="s">
+      <c r="G142" s="275" t="s">
         <v>336</v>
       </c>
-      <c r="H142" s="270"/>
+      <c r="H142" s="276"/>
     </row>
     <row r="143" spans="1:8" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A143" s="38">
         <v>103</v>
       </c>
-      <c r="B143" s="227"/>
+      <c r="B143" s="233"/>
       <c r="C143" s="36" t="s">
         <v>346</v>
       </c>
@@ -9969,7 +10095,7 @@
       <c r="A144" s="38">
         <v>104</v>
       </c>
-      <c r="B144" s="227"/>
+      <c r="B144" s="233"/>
       <c r="C144" s="36" t="s">
         <v>347</v>
       </c>
@@ -9986,7 +10112,7 @@
       <c r="A145" s="38">
         <v>105</v>
       </c>
-      <c r="B145" s="227"/>
+      <c r="B145" s="233"/>
       <c r="C145" s="118" t="s">
         <v>374</v>
       </c>
@@ -10003,7 +10129,7 @@
       <c r="A146" s="38">
         <v>106</v>
       </c>
-      <c r="B146" s="227"/>
+      <c r="B146" s="233"/>
       <c r="C146" s="36" t="s">
         <v>348</v>
       </c>
@@ -10020,7 +10146,7 @@
       <c r="A147" s="38">
         <v>107</v>
       </c>
-      <c r="B147" s="227"/>
+      <c r="B147" s="233"/>
       <c r="C147" s="36" t="s">
         <v>349</v>
       </c>
@@ -10037,7 +10163,7 @@
       <c r="A148" s="38">
         <v>108</v>
       </c>
-      <c r="B148" s="227"/>
+      <c r="B148" s="233"/>
       <c r="C148" s="36" t="s">
         <v>350</v>
       </c>
@@ -10054,7 +10180,7 @@
       <c r="A149" s="38">
         <v>109</v>
       </c>
-      <c r="B149" s="227"/>
+      <c r="B149" s="233"/>
       <c r="C149" s="118" t="s">
         <v>373</v>
       </c>
@@ -10071,7 +10197,7 @@
       <c r="A150" s="38">
         <v>110</v>
       </c>
-      <c r="B150" s="227"/>
+      <c r="B150" s="233"/>
       <c r="C150" s="36" t="s">
         <v>351</v>
       </c>
@@ -10090,7 +10216,7 @@
       <c r="A151" s="38">
         <v>111</v>
       </c>
-      <c r="B151" s="227"/>
+      <c r="B151" s="233"/>
       <c r="C151" s="36" t="s">
         <v>352</v>
       </c>
@@ -10107,7 +10233,7 @@
       <c r="A152" s="38">
         <v>112</v>
       </c>
-      <c r="B152" s="227"/>
+      <c r="B152" s="233"/>
       <c r="C152" s="36" t="s">
         <v>353</v>
       </c>
@@ -10124,7 +10250,7 @@
       <c r="A153" s="38">
         <v>113</v>
       </c>
-      <c r="B153" s="227"/>
+      <c r="B153" s="233"/>
       <c r="C153" s="36" t="s">
         <v>354</v>
       </c>
@@ -10141,7 +10267,7 @@
       <c r="A154" s="38">
         <v>114</v>
       </c>
-      <c r="B154" s="227"/>
+      <c r="B154" s="233"/>
       <c r="C154" s="36" t="s">
         <v>355</v>
       </c>
@@ -10158,7 +10284,7 @@
       <c r="A155" s="38">
         <v>115</v>
       </c>
-      <c r="B155" s="227"/>
+      <c r="B155" s="233"/>
       <c r="C155" s="36" t="s">
         <v>356</v>
       </c>
@@ -10175,7 +10301,7 @@
       <c r="A156" s="38">
         <v>116</v>
       </c>
-      <c r="B156" s="227"/>
+      <c r="B156" s="233"/>
       <c r="C156" s="36" t="s">
         <v>357</v>
       </c>
@@ -10192,7 +10318,7 @@
       <c r="A157" s="38">
         <v>117</v>
       </c>
-      <c r="B157" s="227"/>
+      <c r="B157" s="233"/>
       <c r="C157" s="36" t="s">
         <v>358</v>
       </c>
@@ -10209,7 +10335,7 @@
       <c r="A158" s="38">
         <v>118</v>
       </c>
-      <c r="B158" s="227"/>
+      <c r="B158" s="233"/>
       <c r="C158" s="36" t="s">
         <v>359</v>
       </c>
@@ -10226,7 +10352,7 @@
       <c r="A159" s="38">
         <v>119</v>
       </c>
-      <c r="B159" s="227"/>
+      <c r="B159" s="233"/>
       <c r="C159" s="36" t="s">
         <v>360</v>
       </c>
@@ -10243,7 +10369,7 @@
       <c r="A160" s="38">
         <v>120</v>
       </c>
-      <c r="B160" s="227"/>
+      <c r="B160" s="233"/>
       <c r="C160" s="36" t="s">
         <v>361</v>
       </c>
@@ -10260,7 +10386,7 @@
       <c r="A161" s="38">
         <v>121</v>
       </c>
-      <c r="B161" s="227"/>
+      <c r="B161" s="233"/>
       <c r="C161" s="36" t="s">
         <v>362</v>
       </c>
@@ -10277,7 +10403,7 @@
       <c r="A162" s="38">
         <v>122</v>
       </c>
-      <c r="B162" s="227"/>
+      <c r="B162" s="233"/>
       <c r="C162" s="36" t="s">
         <v>363</v>
       </c>
@@ -10294,7 +10420,7 @@
       <c r="A163" s="38">
         <v>123</v>
       </c>
-      <c r="B163" s="227"/>
+      <c r="B163" s="233"/>
       <c r="C163" s="36" t="s">
         <v>364</v>
       </c>
@@ -10311,7 +10437,7 @@
       <c r="A164" s="38">
         <v>124</v>
       </c>
-      <c r="B164" s="227"/>
+      <c r="B164" s="233"/>
       <c r="C164" s="36" t="s">
         <v>365</v>
       </c>
@@ -10326,7 +10452,7 @@
       <c r="A165" s="38">
         <v>125</v>
       </c>
-      <c r="B165" s="227"/>
+      <c r="B165" s="233"/>
       <c r="C165" s="36" t="s">
         <v>366</v>
       </c>
@@ -10341,7 +10467,7 @@
       <c r="A166" s="38">
         <v>126</v>
       </c>
-      <c r="B166" s="227"/>
+      <c r="B166" s="233"/>
       <c r="C166" s="36" t="s">
         <v>367</v>
       </c>
@@ -10358,7 +10484,7 @@
       <c r="A167" s="38">
         <v>127</v>
       </c>
-      <c r="B167" s="227"/>
+      <c r="B167" s="233"/>
       <c r="C167" s="36" t="s">
         <v>368</v>
       </c>
@@ -10375,7 +10501,7 @@
       <c r="A168" s="38">
         <v>128</v>
       </c>
-      <c r="B168" s="227"/>
+      <c r="B168" s="233"/>
       <c r="C168" s="36" t="s">
         <v>369</v>
       </c>
@@ -10392,7 +10518,7 @@
       <c r="A169" s="38">
         <v>129</v>
       </c>
-      <c r="B169" s="227"/>
+      <c r="B169" s="233"/>
       <c r="C169" s="36" t="s">
         <v>370</v>
       </c>
@@ -10406,12 +10532,12 @@
       <c r="G169" s="12"/>
     </row>
     <row r="170" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A170" s="258" t="s">
+      <c r="A170" s="264" t="s">
         <v>207</v>
       </c>
-      <c r="B170" s="258"/>
-      <c r="C170" s="258"/>
-      <c r="D170" s="258"/>
+      <c r="B170" s="264"/>
+      <c r="C170" s="264"/>
+      <c r="D170" s="264"/>
       <c r="E170" s="84"/>
       <c r="F170" s="70"/>
       <c r="G170" s="12"/>
@@ -10472,7 +10598,7 @@
       <c r="A174" s="38">
         <v>133</v>
       </c>
-      <c r="B174" s="248" t="s">
+      <c r="B174" s="254" t="s">
         <v>204</v>
       </c>
       <c r="C174" s="36" t="s">
@@ -10490,7 +10616,7 @@
       <c r="A175" s="38">
         <v>134</v>
       </c>
-      <c r="B175" s="250"/>
+      <c r="B175" s="256"/>
       <c r="C175" s="36" t="s">
         <v>225</v>
       </c>
@@ -10503,12 +10629,12 @@
       <c r="F175" s="41"/>
     </row>
     <row r="176" spans="1:8" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A176" s="261" t="s">
+      <c r="A176" s="267" t="s">
         <v>164</v>
       </c>
-      <c r="B176" s="262"/>
-      <c r="C176" s="262"/>
-      <c r="D176" s="263"/>
+      <c r="B176" s="268"/>
+      <c r="C176" s="268"/>
+      <c r="D176" s="269"/>
       <c r="E176" s="65"/>
       <c r="F176" s="65"/>
     </row>
@@ -10526,7 +10652,7 @@
       <c r="E177" s="90">
         <v>71000</v>
       </c>
-      <c r="F177" s="277" t="s">
+      <c r="F177" s="283" t="s">
         <v>385</v>
       </c>
     </row>
@@ -10544,15 +10670,15 @@
       <c r="E178" s="90">
         <v>86000</v>
       </c>
-      <c r="F178" s="278"/>
+      <c r="F178" s="284"/>
     </row>
     <row r="179" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A179" s="258" t="s">
+      <c r="A179" s="264" t="s">
         <v>169</v>
       </c>
-      <c r="B179" s="258"/>
-      <c r="C179" s="258"/>
-      <c r="D179" s="258"/>
+      <c r="B179" s="264"/>
+      <c r="C179" s="264"/>
+      <c r="D179" s="264"/>
       <c r="E179" s="84"/>
       <c r="F179" s="70"/>
       <c r="G179" s="12"/>
@@ -10571,7 +10697,7 @@
       <c r="E180" s="116">
         <v>1968000</v>
       </c>
-      <c r="F180" s="259" t="s">
+      <c r="F180" s="265" t="s">
         <v>327</v>
       </c>
       <c r="G180" s="12"/>
@@ -10590,7 +10716,7 @@
       <c r="E181" s="116">
         <v>2952000</v>
       </c>
-      <c r="F181" s="259"/>
+      <c r="F181" s="265"/>
       <c r="G181" s="12"/>
     </row>
     <row r="182" spans="1:7" ht="66" x14ac:dyDescent="0.25">
@@ -10607,7 +10733,7 @@
       <c r="E182" s="116">
         <v>4100000</v>
       </c>
-      <c r="F182" s="259"/>
+      <c r="F182" s="265"/>
       <c r="G182" s="12"/>
     </row>
     <row r="183" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
@@ -10698,12 +10824,12 @@
       <c r="G187" s="12"/>
     </row>
     <row r="188" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A188" s="258" t="s">
+      <c r="A188" s="264" t="s">
         <v>264</v>
       </c>
-      <c r="B188" s="258"/>
-      <c r="C188" s="258"/>
-      <c r="D188" s="258"/>
+      <c r="B188" s="264"/>
+      <c r="C188" s="264"/>
+      <c r="D188" s="264"/>
       <c r="E188" s="84"/>
       <c r="F188" s="70"/>
       <c r="G188" s="12"/>
@@ -10726,12 +10852,12 @@
       <c r="G189" s="12"/>
     </row>
     <row r="190" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A190" s="258" t="s">
+      <c r="A190" s="264" t="s">
         <v>234</v>
       </c>
-      <c r="B190" s="258"/>
-      <c r="C190" s="258"/>
-      <c r="D190" s="258"/>
+      <c r="B190" s="264"/>
+      <c r="C190" s="264"/>
+      <c r="D190" s="264"/>
       <c r="E190" s="84"/>
       <c r="F190" s="70"/>
       <c r="G190" s="12"/>
@@ -10907,12 +11033,12 @@
       <c r="G200" s="12"/>
     </row>
     <row r="201" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A201" s="261" t="s">
+      <c r="A201" s="267" t="s">
         <v>323</v>
       </c>
-      <c r="B201" s="262"/>
-      <c r="C201" s="262"/>
-      <c r="D201" s="263"/>
+      <c r="B201" s="268"/>
+      <c r="C201" s="268"/>
+      <c r="D201" s="269"/>
       <c r="E201" s="69"/>
       <c r="F201" s="70"/>
       <c r="G201" s="12"/>
@@ -11001,12 +11127,12 @@
       <c r="G206" s="12"/>
     </row>
     <row r="207" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A207" s="261" t="s">
+      <c r="A207" s="267" t="s">
         <v>222</v>
       </c>
-      <c r="B207" s="262"/>
-      <c r="C207" s="262"/>
-      <c r="D207" s="263"/>
+      <c r="B207" s="268"/>
+      <c r="C207" s="268"/>
+      <c r="D207" s="269"/>
       <c r="E207" s="69"/>
       <c r="F207" s="70"/>
       <c r="G207" s="12"/>
@@ -11063,12 +11189,12 @@
       <c r="G210" s="12"/>
     </row>
     <row r="211" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A211" s="261" t="s">
+      <c r="A211" s="267" t="s">
         <v>211</v>
       </c>
-      <c r="B211" s="262"/>
-      <c r="C211" s="262"/>
-      <c r="D211" s="263"/>
+      <c r="B211" s="268"/>
+      <c r="C211" s="268"/>
+      <c r="D211" s="269"/>
       <c r="E211" s="98"/>
       <c r="F211" s="70"/>
       <c r="G211" s="12"/>
@@ -11082,7 +11208,7 @@
         <v>212</v>
       </c>
       <c r="D212" s="36"/>
-      <c r="E212" s="251">
+      <c r="E212" s="257">
         <v>183000</v>
       </c>
       <c r="F212" s="41"/>
@@ -11097,7 +11223,7 @@
         <v>213</v>
       </c>
       <c r="D213" s="36"/>
-      <c r="E213" s="252"/>
+      <c r="E213" s="258"/>
       <c r="F213" s="41"/>
       <c r="G213" s="12"/>
     </row>
@@ -11110,7 +11236,7 @@
         <v>214</v>
       </c>
       <c r="D214" s="36"/>
-      <c r="E214" s="252"/>
+      <c r="E214" s="258"/>
       <c r="F214" s="41"/>
       <c r="G214" s="12"/>
     </row>
@@ -11123,17 +11249,17 @@
         <v>215</v>
       </c>
       <c r="D215" s="36"/>
-      <c r="E215" s="253"/>
+      <c r="E215" s="259"/>
       <c r="F215" s="41"/>
       <c r="G215" s="12"/>
     </row>
     <row r="216" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A216" s="261" t="s">
+      <c r="A216" s="267" t="s">
         <v>415</v>
       </c>
-      <c r="B216" s="262"/>
-      <c r="C216" s="262"/>
-      <c r="D216" s="263"/>
+      <c r="B216" s="268"/>
+      <c r="C216" s="268"/>
+      <c r="D216" s="269"/>
       <c r="E216" s="98"/>
       <c r="F216" s="70"/>
       <c r="G216" s="12"/>
@@ -11207,64 +11333,64 @@
       <c r="F221" s="102"/>
     </row>
     <row r="222" spans="1:7" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A222" s="260" t="s">
+      <c r="A222" s="266" t="s">
         <v>28</v>
       </c>
-      <c r="B222" s="260"/>
-      <c r="C222" s="260"/>
-      <c r="D222" s="260"/>
+      <c r="B222" s="266"/>
+      <c r="C222" s="266"/>
+      <c r="D222" s="266"/>
       <c r="E222" s="26"/>
       <c r="F222" s="103"/>
     </row>
     <row r="223" spans="1:7" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A223" s="104"/>
-      <c r="B223" s="257" t="s">
+      <c r="B223" s="263" t="s">
         <v>267</v>
       </c>
-      <c r="C223" s="257"/>
-      <c r="D223" s="257"/>
-      <c r="E223" s="257"/>
-      <c r="F223" s="257"/>
+      <c r="C223" s="263"/>
+      <c r="D223" s="263"/>
+      <c r="E223" s="263"/>
+      <c r="F223" s="263"/>
     </row>
     <row r="224" spans="1:7" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A224" s="104"/>
-      <c r="B224" s="257" t="s">
+      <c r="B224" s="263" t="s">
         <v>420</v>
       </c>
-      <c r="C224" s="257"/>
-      <c r="D224" s="257"/>
-      <c r="E224" s="257"/>
-      <c r="F224" s="257"/>
+      <c r="C224" s="263"/>
+      <c r="D224" s="263"/>
+      <c r="E224" s="263"/>
+      <c r="F224" s="263"/>
     </row>
     <row r="225" spans="1:6" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A225" s="105"/>
-      <c r="B225" s="257" t="s">
+      <c r="B225" s="263" t="s">
         <v>29</v>
       </c>
-      <c r="C225" s="257"/>
-      <c r="D225" s="257"/>
-      <c r="E225" s="257"/>
-      <c r="F225" s="257"/>
+      <c r="C225" s="263"/>
+      <c r="D225" s="263"/>
+      <c r="E225" s="263"/>
+      <c r="F225" s="263"/>
     </row>
     <row r="226" spans="1:6" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A226" s="106"/>
-      <c r="B226" s="264" t="s">
+      <c r="B226" s="270" t="s">
         <v>30</v>
       </c>
-      <c r="C226" s="264"/>
-      <c r="D226" s="264"/>
-      <c r="E226" s="264"/>
-      <c r="F226" s="264"/>
+      <c r="C226" s="270"/>
+      <c r="D226" s="270"/>
+      <c r="E226" s="270"/>
+      <c r="F226" s="270"/>
     </row>
     <row r="227" spans="1:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A227" s="103"/>
-      <c r="B227" s="257" t="s">
+      <c r="B227" s="263" t="s">
         <v>31</v>
       </c>
-      <c r="C227" s="257"/>
-      <c r="D227" s="257"/>
-      <c r="E227" s="257"/>
-      <c r="F227" s="257"/>
+      <c r="C227" s="263"/>
+      <c r="D227" s="263"/>
+      <c r="E227" s="263"/>
+      <c r="F227" s="263"/>
     </row>
     <row r="228" spans="1:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A228" s="103"/>
@@ -11421,11 +11547,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:DW84"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="10" ySplit="3" topLeftCell="K17" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="10" ySplit="3" topLeftCell="DQ10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" sqref="A1:I2"/>
+      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11450,39 +11576,39 @@
     <col min="124" max="124" width="15.5703125" style="15" customWidth="1"/>
     <col min="125" max="125" width="36.140625" style="15" customWidth="1"/>
     <col min="126" max="126" width="9.140625" style="15"/>
-    <col min="127" max="127" width="51" style="15" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="79.85546875" style="15" bestFit="1" customWidth="1"/>
     <col min="128" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:127" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="224" t="s">
+      <c r="A1" s="230" t="s">
         <v>260</v>
       </c>
-      <c r="B1" s="225" t="s">
+      <c r="B1" s="231" t="s">
         <v>654</v>
       </c>
-      <c r="C1" s="224" t="s">
+      <c r="C1" s="230" t="s">
         <v>421</v>
       </c>
-      <c r="D1" s="224" t="s">
+      <c r="D1" s="230" t="s">
         <v>422</v>
       </c>
-      <c r="E1" s="225" t="s">
+      <c r="E1" s="231" t="s">
         <v>735</v>
       </c>
-      <c r="F1" s="224" t="s">
+      <c r="F1" s="230" t="s">
         <v>423</v>
       </c>
-      <c r="G1" s="297" t="s">
+      <c r="G1" s="303" t="s">
         <v>514</v>
       </c>
-      <c r="H1" s="297" t="s">
+      <c r="H1" s="303" t="s">
         <v>424</v>
       </c>
-      <c r="I1" s="224" t="s">
+      <c r="I1" s="230" t="s">
         <v>425</v>
       </c>
-      <c r="J1" s="224" t="s">
+      <c r="J1" s="230" t="s">
         <v>426</v>
       </c>
       <c r="K1" s="125">
@@ -11695,11 +11821,11 @@
       <c r="CB1" s="126">
         <v>82</v>
       </c>
-      <c r="CC1" s="295">
+      <c r="CC1" s="301">
         <v>83</v>
       </c>
-      <c r="CD1" s="295"/>
-      <c r="CE1" s="295"/>
+      <c r="CD1" s="301"/>
+      <c r="CE1" s="301"/>
       <c r="CF1" s="126">
         <v>84</v>
       </c>
@@ -11817,21 +11943,21 @@
       <c r="DR1" s="126">
         <v>164</v>
       </c>
-      <c r="DS1" s="294" t="s">
+      <c r="DS1" s="300" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="2" spans="1:127" s="129" customFormat="1" ht="195.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="224"/>
-      <c r="B2" s="226"/>
-      <c r="C2" s="224"/>
-      <c r="D2" s="224"/>
-      <c r="E2" s="226"/>
-      <c r="F2" s="224"/>
-      <c r="G2" s="297"/>
-      <c r="H2" s="297"/>
-      <c r="I2" s="224"/>
-      <c r="J2" s="224"/>
+      <c r="A2" s="230"/>
+      <c r="B2" s="232"/>
+      <c r="C2" s="230"/>
+      <c r="D2" s="230"/>
+      <c r="E2" s="232"/>
+      <c r="F2" s="230"/>
+      <c r="G2" s="303"/>
+      <c r="H2" s="303"/>
+      <c r="I2" s="230"/>
+      <c r="J2" s="230"/>
       <c r="K2" s="128" t="s">
         <v>1</v>
       </c>
@@ -12168,8 +12294,8 @@
       <c r="DR2" s="128" t="s">
         <v>416</v>
       </c>
-      <c r="DS2" s="294"/>
-      <c r="DW2" s="212" t="s">
+      <c r="DS2" s="300"/>
+      <c r="DW2" s="211" t="s">
         <v>738</v>
       </c>
     </row>
@@ -12201,10 +12327,10 @@
       <c r="O3" s="131">
         <v>27000</v>
       </c>
-      <c r="P3" s="293">
+      <c r="P3" s="299">
         <v>60000</v>
       </c>
-      <c r="Q3" s="293"/>
+      <c r="Q3" s="299"/>
       <c r="R3" s="132">
         <v>41000</v>
       </c>
@@ -12518,7 +12644,7 @@
       <c r="DR3" s="131">
         <v>205000</v>
       </c>
-      <c r="DS3" s="294"/>
+      <c r="DS3" s="300"/>
     </row>
     <row r="4" spans="1:127" s="136" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="153">
@@ -12691,13 +12817,13 @@
       </c>
     </row>
     <row r="5" spans="1:127" s="136" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="211">
+      <c r="A5" s="210">
         <v>2</v>
       </c>
       <c r="B5" s="153" t="s">
         <v>656</v>
       </c>
-      <c r="C5" s="210" t="s">
+      <c r="C5" s="209" t="s">
         <v>431</v>
       </c>
       <c r="D5" s="153" t="s">
@@ -13282,181 +13408,181 @@
         <v>-743000</v>
       </c>
     </row>
-    <row r="8" spans="1:127" s="136" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="153">
+    <row r="8" spans="1:127" s="327" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="317">
         <v>5</v>
       </c>
-      <c r="B8" s="153" t="s">
+      <c r="B8" s="317" t="s">
         <v>659</v>
       </c>
-      <c r="C8" s="163" t="s">
+      <c r="C8" s="318" t="s">
         <v>436</v>
       </c>
-      <c r="D8" s="153" t="s">
+      <c r="D8" s="317" t="s">
         <v>437</v>
       </c>
-      <c r="E8" s="153">
+      <c r="E8" s="317">
         <v>1987</v>
       </c>
-      <c r="F8" s="155">
+      <c r="F8" s="319">
         <v>31952</v>
       </c>
-      <c r="G8" s="160" t="s">
+      <c r="G8" s="320" t="s">
         <v>433</v>
       </c>
-      <c r="H8" s="154" t="s">
+      <c r="H8" s="321" t="s">
         <v>531</v>
       </c>
-      <c r="I8" s="157">
+      <c r="I8" s="322">
         <v>935195953</v>
       </c>
-      <c r="J8" s="158" t="s">
+      <c r="J8" s="323" t="s">
         <v>532</v>
       </c>
-      <c r="K8" s="159" t="s">
-        <v>519</v>
-      </c>
-      <c r="L8" s="159" t="s">
-        <v>519</v>
-      </c>
-      <c r="M8" s="159" t="s">
-        <v>519</v>
-      </c>
-      <c r="N8" s="159" t="s">
-        <v>519</v>
-      </c>
-      <c r="O8" s="159" t="s">
-        <v>519</v>
-      </c>
-      <c r="P8" s="159" t="s">
-        <v>519</v>
-      </c>
-      <c r="Q8" s="159" t="s">
-        <v>519</v>
-      </c>
-      <c r="R8" s="159" t="s">
-        <v>519</v>
-      </c>
-      <c r="S8" s="159" t="s">
-        <v>519</v>
-      </c>
-      <c r="T8" s="160"/>
-      <c r="U8" s="160"/>
-      <c r="V8" s="160"/>
-      <c r="W8" s="160"/>
-      <c r="X8" s="160"/>
-      <c r="Y8" s="157"/>
-      <c r="Z8" s="157"/>
-      <c r="AA8" s="157"/>
-      <c r="AB8" s="157"/>
-      <c r="AC8" s="157"/>
-      <c r="AD8" s="157"/>
-      <c r="AE8" s="157"/>
-      <c r="AF8" s="157"/>
-      <c r="AG8" s="157"/>
-      <c r="AH8" s="157"/>
-      <c r="AI8" s="157"/>
-      <c r="AJ8" s="157"/>
-      <c r="AK8" s="157"/>
-      <c r="AL8" s="157"/>
-      <c r="AM8" s="157"/>
-      <c r="AN8" s="157"/>
-      <c r="AO8" s="157"/>
-      <c r="AP8" s="157"/>
-      <c r="AQ8" s="157"/>
-      <c r="AR8" s="157"/>
-      <c r="AS8" s="157"/>
-      <c r="AT8" s="157"/>
-      <c r="AU8" s="157"/>
-      <c r="AV8" s="157"/>
-      <c r="AW8" s="157"/>
-      <c r="AX8" s="157"/>
-      <c r="AY8" s="157"/>
-      <c r="AZ8" s="157"/>
-      <c r="BA8" s="157"/>
-      <c r="BB8" s="157"/>
-      <c r="BC8" s="157"/>
-      <c r="BD8" s="157"/>
-      <c r="BE8" s="157"/>
-      <c r="BF8" s="157"/>
-      <c r="BG8" s="157"/>
-      <c r="BH8" s="157"/>
-      <c r="BI8" s="157"/>
-      <c r="BJ8" s="157"/>
-      <c r="BK8" s="157"/>
-      <c r="BL8" s="157"/>
-      <c r="BM8" s="157"/>
-      <c r="BN8" s="157"/>
-      <c r="BO8" s="157"/>
-      <c r="BP8" s="157"/>
-      <c r="BQ8" s="157"/>
-      <c r="BR8" s="157"/>
-      <c r="BS8" s="157"/>
-      <c r="BT8" s="157"/>
-      <c r="BU8" s="157"/>
-      <c r="BV8" s="157"/>
-      <c r="BW8" s="157"/>
-      <c r="BX8" s="157"/>
-      <c r="BY8" s="157"/>
-      <c r="BZ8" s="157"/>
-      <c r="CA8" s="157"/>
-      <c r="CB8" s="157"/>
-      <c r="CC8" s="157"/>
-      <c r="CD8" s="157"/>
-      <c r="CE8" s="157"/>
-      <c r="CF8" s="157"/>
-      <c r="CG8" s="157"/>
-      <c r="CH8" s="157"/>
-      <c r="CI8" s="157"/>
-      <c r="CJ8" s="157"/>
-      <c r="CK8" s="157"/>
-      <c r="CL8" s="157"/>
-      <c r="CM8" s="157"/>
-      <c r="CN8" s="157"/>
-      <c r="CO8" s="157"/>
-      <c r="CP8" s="157"/>
-      <c r="CQ8" s="157"/>
-      <c r="CR8" s="157"/>
-      <c r="CS8" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="CT8" s="157"/>
-      <c r="CU8" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="CV8" s="157"/>
-      <c r="CW8" s="157"/>
-      <c r="CX8" s="157"/>
-      <c r="CY8" s="157"/>
-      <c r="CZ8" s="157"/>
-      <c r="DA8" s="157"/>
-      <c r="DB8" s="157"/>
-      <c r="DC8" s="157"/>
-      <c r="DD8" s="157"/>
-      <c r="DE8" s="157"/>
-      <c r="DF8" s="157"/>
-      <c r="DG8" s="157"/>
-      <c r="DH8" s="157"/>
-      <c r="DI8" s="157"/>
-      <c r="DJ8" s="157"/>
-      <c r="DK8" s="157"/>
-      <c r="DL8" s="157"/>
-      <c r="DM8" s="157"/>
-      <c r="DN8" s="157"/>
-      <c r="DO8" s="157"/>
-      <c r="DP8" s="157"/>
-      <c r="DQ8" s="157"/>
-      <c r="DR8" s="157"/>
-      <c r="DS8" s="161">
+      <c r="K8" s="324" t="s">
+        <v>519</v>
+      </c>
+      <c r="L8" s="324" t="s">
+        <v>519</v>
+      </c>
+      <c r="M8" s="324" t="s">
+        <v>519</v>
+      </c>
+      <c r="N8" s="324" t="s">
+        <v>519</v>
+      </c>
+      <c r="O8" s="324" t="s">
+        <v>519</v>
+      </c>
+      <c r="P8" s="324" t="s">
+        <v>519</v>
+      </c>
+      <c r="Q8" s="324" t="s">
+        <v>519</v>
+      </c>
+      <c r="R8" s="324" t="s">
+        <v>519</v>
+      </c>
+      <c r="S8" s="324" t="s">
+        <v>519</v>
+      </c>
+      <c r="T8" s="320"/>
+      <c r="U8" s="320"/>
+      <c r="V8" s="320"/>
+      <c r="W8" s="320"/>
+      <c r="X8" s="320"/>
+      <c r="Y8" s="322"/>
+      <c r="Z8" s="322"/>
+      <c r="AA8" s="322"/>
+      <c r="AB8" s="322"/>
+      <c r="AC8" s="322"/>
+      <c r="AD8" s="322"/>
+      <c r="AE8" s="322"/>
+      <c r="AF8" s="322"/>
+      <c r="AG8" s="322"/>
+      <c r="AH8" s="322"/>
+      <c r="AI8" s="322"/>
+      <c r="AJ8" s="322"/>
+      <c r="AK8" s="322"/>
+      <c r="AL8" s="322"/>
+      <c r="AM8" s="322"/>
+      <c r="AN8" s="322"/>
+      <c r="AO8" s="322"/>
+      <c r="AP8" s="322"/>
+      <c r="AQ8" s="322"/>
+      <c r="AR8" s="322"/>
+      <c r="AS8" s="322"/>
+      <c r="AT8" s="322"/>
+      <c r="AU8" s="322"/>
+      <c r="AV8" s="322"/>
+      <c r="AW8" s="322"/>
+      <c r="AX8" s="322"/>
+      <c r="AY8" s="322"/>
+      <c r="AZ8" s="322"/>
+      <c r="BA8" s="322"/>
+      <c r="BB8" s="322"/>
+      <c r="BC8" s="322"/>
+      <c r="BD8" s="322"/>
+      <c r="BE8" s="322"/>
+      <c r="BF8" s="322"/>
+      <c r="BG8" s="322"/>
+      <c r="BH8" s="322"/>
+      <c r="BI8" s="322"/>
+      <c r="BJ8" s="322"/>
+      <c r="BK8" s="322"/>
+      <c r="BL8" s="322"/>
+      <c r="BM8" s="322"/>
+      <c r="BN8" s="322"/>
+      <c r="BO8" s="322"/>
+      <c r="BP8" s="322"/>
+      <c r="BQ8" s="322"/>
+      <c r="BR8" s="322"/>
+      <c r="BS8" s="322"/>
+      <c r="BT8" s="322"/>
+      <c r="BU8" s="322"/>
+      <c r="BV8" s="322"/>
+      <c r="BW8" s="322"/>
+      <c r="BX8" s="322"/>
+      <c r="BY8" s="322"/>
+      <c r="BZ8" s="322"/>
+      <c r="CA8" s="322"/>
+      <c r="CB8" s="322"/>
+      <c r="CC8" s="322"/>
+      <c r="CD8" s="322"/>
+      <c r="CE8" s="322"/>
+      <c r="CF8" s="322"/>
+      <c r="CG8" s="322"/>
+      <c r="CH8" s="322"/>
+      <c r="CI8" s="322"/>
+      <c r="CJ8" s="322"/>
+      <c r="CK8" s="322"/>
+      <c r="CL8" s="322"/>
+      <c r="CM8" s="322"/>
+      <c r="CN8" s="322"/>
+      <c r="CO8" s="322"/>
+      <c r="CP8" s="322"/>
+      <c r="CQ8" s="322"/>
+      <c r="CR8" s="322"/>
+      <c r="CS8" s="322" t="s">
+        <v>519</v>
+      </c>
+      <c r="CT8" s="322"/>
+      <c r="CU8" s="322" t="s">
+        <v>519</v>
+      </c>
+      <c r="CV8" s="322"/>
+      <c r="CW8" s="322"/>
+      <c r="CX8" s="322"/>
+      <c r="CY8" s="322"/>
+      <c r="CZ8" s="322"/>
+      <c r="DA8" s="322"/>
+      <c r="DB8" s="322"/>
+      <c r="DC8" s="322"/>
+      <c r="DD8" s="322"/>
+      <c r="DE8" s="322"/>
+      <c r="DF8" s="322"/>
+      <c r="DG8" s="322"/>
+      <c r="DH8" s="322"/>
+      <c r="DI8" s="322"/>
+      <c r="DJ8" s="322"/>
+      <c r="DK8" s="322"/>
+      <c r="DL8" s="322"/>
+      <c r="DM8" s="322"/>
+      <c r="DN8" s="322"/>
+      <c r="DO8" s="322"/>
+      <c r="DP8" s="322"/>
+      <c r="DQ8" s="322"/>
+      <c r="DR8" s="322"/>
+      <c r="DS8" s="325">
         <f t="shared" si="0"/>
         <v>1102000</v>
       </c>
-      <c r="DT8" s="162">
+      <c r="DT8" s="326">
         <f>3000000-DS8</f>
         <v>1898000</v>
       </c>
-      <c r="DW8" s="136" t="s">
-        <v>745</v>
+      <c r="DW8" s="327" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="9" spans="1:127" s="136" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13840,13 +13966,13 @@
       </c>
     </row>
     <row r="11" spans="1:127" s="136" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="211">
+      <c r="A11" s="210">
         <v>8</v>
       </c>
       <c r="B11" s="153" t="s">
         <v>662</v>
       </c>
-      <c r="C11" s="210" t="s">
+      <c r="C11" s="209" t="s">
         <v>440</v>
       </c>
       <c r="D11" s="153" t="s">
@@ -14242,204 +14368,207 @@
         <v>-562000</v>
       </c>
     </row>
-    <row r="13" spans="1:127" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="153">
+    <row r="13" spans="1:127" s="327" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="317">
         <v>10</v>
       </c>
-      <c r="B13" s="153" t="s">
+      <c r="B13" s="317" t="s">
         <v>664</v>
       </c>
-      <c r="C13" s="163" t="s">
+      <c r="C13" s="318" t="s">
         <v>442</v>
       </c>
-      <c r="D13" s="153" t="s">
+      <c r="D13" s="317" t="s">
         <v>437</v>
       </c>
-      <c r="E13" s="153">
+      <c r="E13" s="317">
         <v>1997</v>
       </c>
-      <c r="F13" s="155">
+      <c r="F13" s="319">
         <v>35473</v>
       </c>
-      <c r="G13" s="160" t="s">
+      <c r="G13" s="320" t="s">
         <v>433</v>
       </c>
-      <c r="H13" s="154" t="s">
+      <c r="H13" s="321" t="s">
         <v>531</v>
       </c>
-      <c r="I13" s="157">
+      <c r="I13" s="322">
         <v>335115486</v>
       </c>
-      <c r="J13" s="158" t="s">
+      <c r="J13" s="323" t="s">
         <v>533</v>
       </c>
-      <c r="K13" s="159" t="s">
-        <v>519</v>
-      </c>
-      <c r="L13" s="159" t="s">
-        <v>519</v>
-      </c>
-      <c r="M13" s="159" t="s">
-        <v>519</v>
-      </c>
-      <c r="N13" s="159" t="s">
-        <v>519</v>
-      </c>
-      <c r="O13" s="159" t="s">
-        <v>519</v>
-      </c>
-      <c r="P13" s="159" t="s">
-        <v>519</v>
-      </c>
-      <c r="Q13" s="159" t="s">
-        <v>519</v>
-      </c>
-      <c r="R13" s="159" t="s">
-        <v>519</v>
-      </c>
-      <c r="S13" s="159" t="s">
-        <v>519</v>
-      </c>
-      <c r="T13" s="160"/>
-      <c r="U13" s="160"/>
-      <c r="V13" s="160"/>
-      <c r="W13" s="160"/>
-      <c r="X13" s="160" t="s">
-        <v>519</v>
-      </c>
-      <c r="Y13" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="Z13" s="157"/>
-      <c r="AA13" s="157"/>
-      <c r="AB13" s="157"/>
-      <c r="AC13" s="157"/>
-      <c r="AD13" s="157"/>
-      <c r="AE13" s="157"/>
-      <c r="AF13" s="157"/>
-      <c r="AG13" s="157"/>
-      <c r="AH13" s="157"/>
-      <c r="AI13" s="157"/>
-      <c r="AJ13" s="157"/>
-      <c r="AK13" s="157"/>
-      <c r="AL13" s="157"/>
-      <c r="AM13" s="157"/>
-      <c r="AN13" s="157"/>
-      <c r="AO13" s="157"/>
-      <c r="AP13" s="157"/>
-      <c r="AQ13" s="157"/>
-      <c r="AR13" s="157"/>
-      <c r="AS13" s="157"/>
-      <c r="AT13" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="AU13" s="157"/>
-      <c r="AV13" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="AW13" s="157"/>
-      <c r="AX13" s="157"/>
-      <c r="AY13" s="157"/>
-      <c r="AZ13" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="BA13" s="157"/>
-      <c r="BB13" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="BC13" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="BD13" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="BE13" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="BF13" s="157"/>
-      <c r="BG13" s="157"/>
-      <c r="BH13" s="157"/>
-      <c r="BI13" s="157"/>
-      <c r="BJ13" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="BK13" s="157"/>
-      <c r="BL13" s="157"/>
-      <c r="BM13" s="157"/>
-      <c r="BN13" s="157"/>
-      <c r="BO13" s="157"/>
-      <c r="BP13" s="157"/>
-      <c r="BQ13" s="157"/>
-      <c r="BR13" s="157"/>
-      <c r="BS13" s="157"/>
-      <c r="BT13" s="157"/>
-      <c r="BU13" s="157"/>
-      <c r="BV13" s="157"/>
-      <c r="BW13" s="157"/>
-      <c r="BX13" s="157"/>
-      <c r="BY13" s="157"/>
-      <c r="BZ13" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="CA13" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="CB13" s="157"/>
-      <c r="CC13" s="157"/>
-      <c r="CD13" s="157"/>
-      <c r="CE13" s="157"/>
-      <c r="CF13" s="157"/>
-      <c r="CG13" s="157"/>
-      <c r="CH13" s="157"/>
-      <c r="CI13" s="157"/>
-      <c r="CJ13" s="157"/>
-      <c r="CK13" s="157"/>
-      <c r="CL13" s="157"/>
-      <c r="CM13" s="157"/>
-      <c r="CN13" s="157"/>
-      <c r="CO13" s="157"/>
-      <c r="CP13" s="157"/>
-      <c r="CQ13" s="157"/>
-      <c r="CR13" s="157"/>
-      <c r="CS13" s="157"/>
-      <c r="CT13" s="157"/>
-      <c r="CU13" s="157"/>
-      <c r="CV13" s="157"/>
-      <c r="CW13" s="157"/>
-      <c r="CX13" s="157"/>
-      <c r="CY13" s="157"/>
-      <c r="CZ13" s="157"/>
-      <c r="DA13" s="157"/>
-      <c r="DB13" s="157"/>
-      <c r="DC13" s="157"/>
-      <c r="DD13" s="157"/>
-      <c r="DE13" s="157"/>
-      <c r="DF13" s="157"/>
-      <c r="DG13" s="157"/>
-      <c r="DH13" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="DI13" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="DJ13" s="157"/>
-      <c r="DK13" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="DL13" s="157"/>
-      <c r="DM13" s="157"/>
-      <c r="DN13" s="157"/>
-      <c r="DO13" s="157"/>
-      <c r="DP13" s="157"/>
-      <c r="DQ13" s="157"/>
-      <c r="DR13" s="157"/>
-      <c r="DS13" s="161">
+      <c r="K13" s="324" t="s">
+        <v>519</v>
+      </c>
+      <c r="L13" s="324" t="s">
+        <v>519</v>
+      </c>
+      <c r="M13" s="324" t="s">
+        <v>519</v>
+      </c>
+      <c r="N13" s="324" t="s">
+        <v>519</v>
+      </c>
+      <c r="O13" s="324" t="s">
+        <v>519</v>
+      </c>
+      <c r="P13" s="324" t="s">
+        <v>519</v>
+      </c>
+      <c r="Q13" s="324" t="s">
+        <v>519</v>
+      </c>
+      <c r="R13" s="324" t="s">
+        <v>519</v>
+      </c>
+      <c r="S13" s="324" t="s">
+        <v>519</v>
+      </c>
+      <c r="T13" s="320"/>
+      <c r="U13" s="320"/>
+      <c r="V13" s="320"/>
+      <c r="W13" s="320"/>
+      <c r="X13" s="320" t="s">
+        <v>519</v>
+      </c>
+      <c r="Y13" s="322" t="s">
+        <v>519</v>
+      </c>
+      <c r="Z13" s="322"/>
+      <c r="AA13" s="322"/>
+      <c r="AB13" s="322"/>
+      <c r="AC13" s="322"/>
+      <c r="AD13" s="322"/>
+      <c r="AE13" s="322"/>
+      <c r="AF13" s="322"/>
+      <c r="AG13" s="322"/>
+      <c r="AH13" s="322"/>
+      <c r="AI13" s="322"/>
+      <c r="AJ13" s="322"/>
+      <c r="AK13" s="322"/>
+      <c r="AL13" s="322"/>
+      <c r="AM13" s="322"/>
+      <c r="AN13" s="322"/>
+      <c r="AO13" s="322"/>
+      <c r="AP13" s="322"/>
+      <c r="AQ13" s="322"/>
+      <c r="AR13" s="322"/>
+      <c r="AS13" s="322"/>
+      <c r="AT13" s="322" t="s">
+        <v>519</v>
+      </c>
+      <c r="AU13" s="322"/>
+      <c r="AV13" s="322" t="s">
+        <v>519</v>
+      </c>
+      <c r="AW13" s="322"/>
+      <c r="AX13" s="322"/>
+      <c r="AY13" s="322"/>
+      <c r="AZ13" s="322" t="s">
+        <v>519</v>
+      </c>
+      <c r="BA13" s="322"/>
+      <c r="BB13" s="322" t="s">
+        <v>519</v>
+      </c>
+      <c r="BC13" s="322" t="s">
+        <v>519</v>
+      </c>
+      <c r="BD13" s="322" t="s">
+        <v>519</v>
+      </c>
+      <c r="BE13" s="322" t="s">
+        <v>519</v>
+      </c>
+      <c r="BF13" s="322"/>
+      <c r="BG13" s="322"/>
+      <c r="BH13" s="322"/>
+      <c r="BI13" s="322"/>
+      <c r="BJ13" s="322" t="s">
+        <v>519</v>
+      </c>
+      <c r="BK13" s="322"/>
+      <c r="BL13" s="322"/>
+      <c r="BM13" s="322"/>
+      <c r="BN13" s="322"/>
+      <c r="BO13" s="322"/>
+      <c r="BP13" s="322"/>
+      <c r="BQ13" s="322"/>
+      <c r="BR13" s="322"/>
+      <c r="BS13" s="322"/>
+      <c r="BT13" s="322"/>
+      <c r="BU13" s="322"/>
+      <c r="BV13" s="322"/>
+      <c r="BW13" s="322"/>
+      <c r="BX13" s="322"/>
+      <c r="BY13" s="322"/>
+      <c r="BZ13" s="322" t="s">
+        <v>519</v>
+      </c>
+      <c r="CA13" s="322" t="s">
+        <v>519</v>
+      </c>
+      <c r="CB13" s="322"/>
+      <c r="CC13" s="322"/>
+      <c r="CD13" s="322"/>
+      <c r="CE13" s="322"/>
+      <c r="CF13" s="322"/>
+      <c r="CG13" s="322"/>
+      <c r="CH13" s="322"/>
+      <c r="CI13" s="322"/>
+      <c r="CJ13" s="322"/>
+      <c r="CK13" s="322"/>
+      <c r="CL13" s="322"/>
+      <c r="CM13" s="322"/>
+      <c r="CN13" s="322"/>
+      <c r="CO13" s="322"/>
+      <c r="CP13" s="322"/>
+      <c r="CQ13" s="322"/>
+      <c r="CR13" s="322"/>
+      <c r="CS13" s="322"/>
+      <c r="CT13" s="322"/>
+      <c r="CU13" s="322"/>
+      <c r="CV13" s="322"/>
+      <c r="CW13" s="322"/>
+      <c r="CX13" s="322"/>
+      <c r="CY13" s="322"/>
+      <c r="CZ13" s="322"/>
+      <c r="DA13" s="322"/>
+      <c r="DB13" s="322"/>
+      <c r="DC13" s="322"/>
+      <c r="DD13" s="322"/>
+      <c r="DE13" s="322"/>
+      <c r="DF13" s="322"/>
+      <c r="DG13" s="322"/>
+      <c r="DH13" s="322" t="s">
+        <v>519</v>
+      </c>
+      <c r="DI13" s="322" t="s">
+        <v>519</v>
+      </c>
+      <c r="DJ13" s="322"/>
+      <c r="DK13" s="322" t="s">
+        <v>519</v>
+      </c>
+      <c r="DL13" s="322"/>
+      <c r="DM13" s="322"/>
+      <c r="DN13" s="322"/>
+      <c r="DO13" s="322"/>
+      <c r="DP13" s="322"/>
+      <c r="DQ13" s="322"/>
+      <c r="DR13" s="322"/>
+      <c r="DS13" s="325">
         <f t="shared" si="0"/>
         <v>3577000</v>
       </c>
-      <c r="DT13" s="162">
+      <c r="DT13" s="326">
         <f t="shared" si="2"/>
         <v>-577000</v>
+      </c>
+      <c r="DW13" s="327" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="14" spans="1:127" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -14634,212 +14763,212 @@
         <v>-631000</v>
       </c>
     </row>
-    <row r="15" spans="1:127" s="136" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="211">
+    <row r="15" spans="1:127" s="340" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="328">
         <v>12</v>
       </c>
-      <c r="B15" s="153" t="s">
+      <c r="B15" s="328" t="s">
         <v>666</v>
       </c>
-      <c r="C15" s="210" t="s">
+      <c r="C15" s="329" t="s">
         <v>444</v>
       </c>
-      <c r="D15" s="153" t="s">
+      <c r="D15" s="328" t="s">
         <v>437</v>
       </c>
-      <c r="E15" s="153">
+      <c r="E15" s="328">
         <v>1989</v>
       </c>
-      <c r="F15" s="153">
+      <c r="F15" s="328">
         <v>1989</v>
       </c>
-      <c r="G15" s="160" t="s">
+      <c r="G15" s="330" t="s">
         <v>433</v>
       </c>
-      <c r="H15" s="154" t="s">
+      <c r="H15" s="331" t="s">
         <v>552</v>
       </c>
-      <c r="I15" s="157" t="s">
+      <c r="I15" s="332" t="s">
         <v>555</v>
       </c>
-      <c r="J15" s="164"/>
-      <c r="K15" s="159" t="s">
-        <v>519</v>
-      </c>
-      <c r="L15" s="159" t="s">
-        <v>519</v>
-      </c>
-      <c r="M15" s="159" t="s">
-        <v>519</v>
-      </c>
-      <c r="N15" s="159" t="s">
-        <v>519</v>
-      </c>
-      <c r="O15" s="159" t="s">
-        <v>519</v>
-      </c>
-      <c r="P15" s="159" t="s">
-        <v>519</v>
-      </c>
-      <c r="Q15" s="159" t="s">
-        <v>519</v>
-      </c>
-      <c r="R15" s="159" t="s">
-        <v>519</v>
-      </c>
-      <c r="S15" s="159" t="s">
-        <v>519</v>
-      </c>
-      <c r="T15" s="160"/>
-      <c r="U15" s="160"/>
-      <c r="V15" s="160"/>
-      <c r="W15" s="160"/>
-      <c r="X15" s="160"/>
-      <c r="Y15" s="168"/>
-      <c r="Z15" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="AA15" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="AB15" s="157"/>
-      <c r="AC15" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="AD15" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="AE15" s="169"/>
-      <c r="AF15" s="157"/>
-      <c r="AG15" s="157"/>
-      <c r="AH15" s="157"/>
-      <c r="AI15" s="157" t="s">
+      <c r="J15" s="333"/>
+      <c r="K15" s="334" t="s">
+        <v>519</v>
+      </c>
+      <c r="L15" s="334" t="s">
+        <v>519</v>
+      </c>
+      <c r="M15" s="334" t="s">
+        <v>519</v>
+      </c>
+      <c r="N15" s="334" t="s">
+        <v>519</v>
+      </c>
+      <c r="O15" s="334" t="s">
+        <v>519</v>
+      </c>
+      <c r="P15" s="334" t="s">
+        <v>519</v>
+      </c>
+      <c r="Q15" s="334" t="s">
+        <v>519</v>
+      </c>
+      <c r="R15" s="334" t="s">
+        <v>519</v>
+      </c>
+      <c r="S15" s="334" t="s">
+        <v>519</v>
+      </c>
+      <c r="T15" s="330"/>
+      <c r="U15" s="330"/>
+      <c r="V15" s="330"/>
+      <c r="W15" s="330"/>
+      <c r="X15" s="330"/>
+      <c r="Y15" s="335"/>
+      <c r="Z15" s="332" t="s">
+        <v>519</v>
+      </c>
+      <c r="AA15" s="332" t="s">
+        <v>519</v>
+      </c>
+      <c r="AB15" s="332"/>
+      <c r="AC15" s="332" t="s">
+        <v>519</v>
+      </c>
+      <c r="AD15" s="332" t="s">
+        <v>519</v>
+      </c>
+      <c r="AE15" s="336"/>
+      <c r="AF15" s="332"/>
+      <c r="AG15" s="332"/>
+      <c r="AH15" s="332"/>
+      <c r="AI15" s="332" t="s">
         <v>647</v>
       </c>
-      <c r="AJ15" s="157"/>
-      <c r="AK15" s="157"/>
-      <c r="AL15" s="157"/>
-      <c r="AM15" s="157"/>
-      <c r="AN15" s="157"/>
-      <c r="AO15" s="157"/>
-      <c r="AP15" s="157"/>
-      <c r="AQ15" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="AR15" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="AS15" s="157"/>
-      <c r="AT15" s="157"/>
-      <c r="AU15" s="157"/>
-      <c r="AV15" s="157"/>
-      <c r="AW15" s="157"/>
-      <c r="AX15" s="157"/>
-      <c r="AY15" s="157"/>
-      <c r="AZ15" s="157"/>
-      <c r="BA15" s="157"/>
-      <c r="BB15" s="157"/>
-      <c r="BC15" s="157"/>
-      <c r="BD15" s="157"/>
-      <c r="BE15" s="157"/>
-      <c r="BF15" s="157"/>
-      <c r="BG15" s="157"/>
-      <c r="BH15" s="157"/>
-      <c r="BI15" s="157"/>
-      <c r="BJ15" s="157"/>
-      <c r="BK15" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="BL15" s="157"/>
-      <c r="BM15" s="157"/>
-      <c r="BN15" s="157"/>
-      <c r="BO15" s="157"/>
-      <c r="BP15" s="157"/>
-      <c r="BQ15" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="BR15" s="157"/>
-      <c r="BS15" s="157"/>
-      <c r="BT15" s="157"/>
-      <c r="BU15" s="157"/>
-      <c r="BV15" s="157"/>
-      <c r="BW15" s="157"/>
-      <c r="BX15" s="157"/>
-      <c r="BY15" s="157"/>
-      <c r="BZ15" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="CA15" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="CB15" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="CC15" s="157"/>
-      <c r="CD15" s="157"/>
-      <c r="CE15" s="157"/>
-      <c r="CF15" s="157"/>
-      <c r="CG15" s="157"/>
-      <c r="CH15" s="157"/>
-      <c r="CI15" s="157"/>
-      <c r="CJ15" s="157"/>
-      <c r="CK15" s="157"/>
-      <c r="CL15" s="157"/>
-      <c r="CM15" s="157"/>
-      <c r="CN15" s="157"/>
-      <c r="CO15" s="157"/>
-      <c r="CP15" s="157"/>
-      <c r="CQ15" s="157"/>
-      <c r="CR15" s="157"/>
-      <c r="CS15" s="157"/>
-      <c r="CT15" s="153" t="s">
+      <c r="AJ15" s="332"/>
+      <c r="AK15" s="332"/>
+      <c r="AL15" s="332"/>
+      <c r="AM15" s="332"/>
+      <c r="AN15" s="332"/>
+      <c r="AO15" s="332"/>
+      <c r="AP15" s="332"/>
+      <c r="AQ15" s="332" t="s">
+        <v>519</v>
+      </c>
+      <c r="AR15" s="332" t="s">
+        <v>519</v>
+      </c>
+      <c r="AS15" s="332"/>
+      <c r="AT15" s="332"/>
+      <c r="AU15" s="332"/>
+      <c r="AV15" s="332"/>
+      <c r="AW15" s="332"/>
+      <c r="AX15" s="332"/>
+      <c r="AY15" s="332"/>
+      <c r="AZ15" s="332"/>
+      <c r="BA15" s="332"/>
+      <c r="BB15" s="332"/>
+      <c r="BC15" s="332"/>
+      <c r="BD15" s="332"/>
+      <c r="BE15" s="332"/>
+      <c r="BF15" s="332"/>
+      <c r="BG15" s="332"/>
+      <c r="BH15" s="332"/>
+      <c r="BI15" s="332"/>
+      <c r="BJ15" s="332"/>
+      <c r="BK15" s="332" t="s">
+        <v>519</v>
+      </c>
+      <c r="BL15" s="332"/>
+      <c r="BM15" s="332"/>
+      <c r="BN15" s="332"/>
+      <c r="BO15" s="332"/>
+      <c r="BP15" s="332"/>
+      <c r="BQ15" s="332" t="s">
+        <v>519</v>
+      </c>
+      <c r="BR15" s="332"/>
+      <c r="BS15" s="332"/>
+      <c r="BT15" s="332"/>
+      <c r="BU15" s="332"/>
+      <c r="BV15" s="332"/>
+      <c r="BW15" s="332"/>
+      <c r="BX15" s="332"/>
+      <c r="BY15" s="332"/>
+      <c r="BZ15" s="332" t="s">
+        <v>519</v>
+      </c>
+      <c r="CA15" s="332" t="s">
+        <v>519</v>
+      </c>
+      <c r="CB15" s="332" t="s">
+        <v>519</v>
+      </c>
+      <c r="CC15" s="332"/>
+      <c r="CD15" s="332"/>
+      <c r="CE15" s="332"/>
+      <c r="CF15" s="332"/>
+      <c r="CG15" s="332"/>
+      <c r="CH15" s="332"/>
+      <c r="CI15" s="332"/>
+      <c r="CJ15" s="332"/>
+      <c r="CK15" s="332"/>
+      <c r="CL15" s="332"/>
+      <c r="CM15" s="332"/>
+      <c r="CN15" s="332"/>
+      <c r="CO15" s="332"/>
+      <c r="CP15" s="332"/>
+      <c r="CQ15" s="332"/>
+      <c r="CR15" s="332"/>
+      <c r="CS15" s="332"/>
+      <c r="CT15" s="328" t="s">
         <v>648</v>
       </c>
-      <c r="CU15" s="157"/>
-      <c r="CV15" s="157"/>
-      <c r="CW15" s="157"/>
-      <c r="CX15" s="157"/>
-      <c r="CY15" s="157"/>
-      <c r="CZ15" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="DA15" s="157"/>
-      <c r="DB15" s="157"/>
-      <c r="DC15" s="157"/>
-      <c r="DD15" s="157"/>
-      <c r="DE15" s="157"/>
-      <c r="DF15" s="157"/>
-      <c r="DG15" s="157"/>
-      <c r="DH15" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="DI15" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="DJ15" s="157"/>
-      <c r="DK15" s="170"/>
-      <c r="DL15" s="157"/>
-      <c r="DM15" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="DN15" s="157"/>
-      <c r="DO15" s="157"/>
-      <c r="DP15" s="157"/>
-      <c r="DQ15" s="157"/>
-      <c r="DR15" s="157"/>
-      <c r="DS15" s="161">
+      <c r="CU15" s="332"/>
+      <c r="CV15" s="332"/>
+      <c r="CW15" s="332"/>
+      <c r="CX15" s="332"/>
+      <c r="CY15" s="332"/>
+      <c r="CZ15" s="332" t="s">
+        <v>519</v>
+      </c>
+      <c r="DA15" s="332"/>
+      <c r="DB15" s="332"/>
+      <c r="DC15" s="332"/>
+      <c r="DD15" s="332"/>
+      <c r="DE15" s="332"/>
+      <c r="DF15" s="332"/>
+      <c r="DG15" s="332"/>
+      <c r="DH15" s="332" t="s">
+        <v>519</v>
+      </c>
+      <c r="DI15" s="332" t="s">
+        <v>519</v>
+      </c>
+      <c r="DJ15" s="332"/>
+      <c r="DK15" s="337"/>
+      <c r="DL15" s="332"/>
+      <c r="DM15" s="332" t="s">
+        <v>519</v>
+      </c>
+      <c r="DN15" s="332"/>
+      <c r="DO15" s="332"/>
+      <c r="DP15" s="332"/>
+      <c r="DQ15" s="332"/>
+      <c r="DR15" s="332"/>
+      <c r="DS15" s="338">
         <f t="shared" si="0"/>
         <v>4273000</v>
       </c>
-      <c r="DT15" s="162">
+      <c r="DT15" s="339">
         <f t="shared" si="2"/>
         <v>-1273000</v>
       </c>
-      <c r="DU15" s="136" t="s">
+      <c r="DU15" s="340" t="s">
         <v>649</v>
       </c>
-      <c r="DW15" s="136" t="s">
-        <v>744</v>
+      <c r="DW15" s="340" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="16" spans="1:127" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -15046,382 +15175,385 @@
         <v>-318000</v>
       </c>
     </row>
-    <row r="17" spans="1:125" s="136" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="153">
+    <row r="17" spans="1:127" s="350" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="341">
         <v>14</v>
       </c>
-      <c r="B17" s="153" t="s">
+      <c r="B17" s="341" t="s">
         <v>668</v>
       </c>
-      <c r="C17" s="163" t="s">
+      <c r="C17" s="342" t="s">
         <v>446</v>
       </c>
-      <c r="D17" s="153" t="s">
+      <c r="D17" s="341" t="s">
         <v>432</v>
       </c>
-      <c r="E17" s="153">
+      <c r="E17" s="341">
         <v>1992</v>
       </c>
-      <c r="F17" s="153">
+      <c r="F17" s="341">
         <v>1992</v>
       </c>
-      <c r="G17" s="160" t="s">
+      <c r="G17" s="343" t="s">
         <v>433</v>
       </c>
-      <c r="H17" s="154" t="s">
+      <c r="H17" s="344" t="s">
         <v>552</v>
       </c>
-      <c r="I17" s="157" t="s">
+      <c r="I17" s="345" t="s">
         <v>556</v>
       </c>
-      <c r="J17" s="164"/>
-      <c r="K17" s="159" t="s">
-        <v>519</v>
-      </c>
-      <c r="L17" s="159" t="s">
-        <v>519</v>
-      </c>
-      <c r="M17" s="159" t="s">
-        <v>519</v>
-      </c>
-      <c r="N17" s="159" t="s">
-        <v>519</v>
-      </c>
-      <c r="O17" s="159" t="s">
-        <v>519</v>
-      </c>
-      <c r="P17" s="159" t="s">
-        <v>519</v>
-      </c>
-      <c r="Q17" s="159" t="s">
-        <v>519</v>
-      </c>
-      <c r="R17" s="159" t="s">
-        <v>519</v>
-      </c>
-      <c r="S17" s="159" t="s">
-        <v>519</v>
-      </c>
-      <c r="T17" s="160"/>
-      <c r="U17" s="160"/>
-      <c r="V17" s="160"/>
-      <c r="W17" s="160"/>
-      <c r="X17" s="160"/>
-      <c r="Y17" s="157"/>
-      <c r="Z17" s="157"/>
-      <c r="AA17" s="157"/>
-      <c r="AB17" s="157"/>
-      <c r="AC17" s="157"/>
-      <c r="AD17" s="157"/>
-      <c r="AE17" s="157"/>
-      <c r="AF17" s="157"/>
-      <c r="AG17" s="157"/>
-      <c r="AH17" s="157"/>
-      <c r="AI17" s="157"/>
-      <c r="AJ17" s="157"/>
-      <c r="AK17" s="157"/>
-      <c r="AL17" s="157"/>
-      <c r="AM17" s="157"/>
-      <c r="AN17" s="157"/>
-      <c r="AO17" s="157"/>
-      <c r="AP17" s="157"/>
-      <c r="AQ17" s="157"/>
-      <c r="AR17" s="157"/>
-      <c r="AS17" s="157"/>
-      <c r="AT17" s="157"/>
-      <c r="AU17" s="157"/>
-      <c r="AV17" s="157"/>
-      <c r="AW17" s="157"/>
-      <c r="AX17" s="157"/>
-      <c r="AY17" s="157"/>
-      <c r="AZ17" s="157"/>
-      <c r="BA17" s="157"/>
-      <c r="BB17" s="157"/>
-      <c r="BC17" s="157"/>
-      <c r="BD17" s="157"/>
-      <c r="BE17" s="157"/>
-      <c r="BF17" s="157"/>
-      <c r="BG17" s="157"/>
-      <c r="BH17" s="157"/>
-      <c r="BI17" s="157"/>
-      <c r="BJ17" s="157"/>
-      <c r="BK17" s="157"/>
-      <c r="BL17" s="157"/>
-      <c r="BM17" s="157"/>
-      <c r="BN17" s="157"/>
-      <c r="BO17" s="157"/>
-      <c r="BP17" s="157"/>
-      <c r="BQ17" s="157"/>
-      <c r="BR17" s="157"/>
-      <c r="BS17" s="157"/>
-      <c r="BT17" s="157"/>
-      <c r="BU17" s="157"/>
-      <c r="BV17" s="157"/>
-      <c r="BW17" s="157"/>
-      <c r="BX17" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="BY17" s="157"/>
-      <c r="BZ17" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="CA17" s="157"/>
-      <c r="CB17" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="CC17" s="157"/>
-      <c r="CD17" s="157"/>
-      <c r="CE17" s="157"/>
-      <c r="CF17" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="CG17" s="157"/>
-      <c r="CH17" s="157"/>
-      <c r="CI17" s="157"/>
-      <c r="CJ17" s="157"/>
-      <c r="CK17" s="157"/>
-      <c r="CL17" s="157"/>
-      <c r="CM17" s="157"/>
-      <c r="CN17" s="157"/>
-      <c r="CO17" s="157"/>
-      <c r="CP17" s="157"/>
-      <c r="CQ17" s="157"/>
-      <c r="CR17" s="157"/>
-      <c r="CS17" s="157"/>
-      <c r="CT17" s="157"/>
-      <c r="CU17" s="157"/>
-      <c r="CV17" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="CW17" s="157"/>
-      <c r="CX17" s="157"/>
-      <c r="CY17" s="157"/>
-      <c r="CZ17" s="157"/>
-      <c r="DA17" s="157"/>
-      <c r="DB17" s="157"/>
-      <c r="DC17" s="157"/>
-      <c r="DD17" s="157"/>
-      <c r="DE17" s="157"/>
-      <c r="DF17" s="157"/>
-      <c r="DG17" s="157"/>
-      <c r="DH17" s="157"/>
-      <c r="DI17" s="157"/>
-      <c r="DJ17" s="157"/>
-      <c r="DK17" s="157"/>
-      <c r="DL17" s="157"/>
-      <c r="DM17" s="157"/>
-      <c r="DN17" s="157"/>
-      <c r="DO17" s="157"/>
-      <c r="DP17" s="157"/>
-      <c r="DQ17" s="157"/>
-      <c r="DR17" s="157"/>
-      <c r="DS17" s="161">
+      <c r="J17" s="346"/>
+      <c r="K17" s="347" t="s">
+        <v>519</v>
+      </c>
+      <c r="L17" s="347" t="s">
+        <v>519</v>
+      </c>
+      <c r="M17" s="347" t="s">
+        <v>519</v>
+      </c>
+      <c r="N17" s="347" t="s">
+        <v>519</v>
+      </c>
+      <c r="O17" s="347" t="s">
+        <v>519</v>
+      </c>
+      <c r="P17" s="347" t="s">
+        <v>519</v>
+      </c>
+      <c r="Q17" s="347" t="s">
+        <v>519</v>
+      </c>
+      <c r="R17" s="347" t="s">
+        <v>519</v>
+      </c>
+      <c r="S17" s="347" t="s">
+        <v>519</v>
+      </c>
+      <c r="T17" s="343"/>
+      <c r="U17" s="343"/>
+      <c r="V17" s="343"/>
+      <c r="W17" s="343"/>
+      <c r="X17" s="343"/>
+      <c r="Y17" s="345"/>
+      <c r="Z17" s="345"/>
+      <c r="AA17" s="345"/>
+      <c r="AB17" s="345"/>
+      <c r="AC17" s="345"/>
+      <c r="AD17" s="345"/>
+      <c r="AE17" s="345"/>
+      <c r="AF17" s="345"/>
+      <c r="AG17" s="345"/>
+      <c r="AH17" s="345"/>
+      <c r="AI17" s="345"/>
+      <c r="AJ17" s="345"/>
+      <c r="AK17" s="345"/>
+      <c r="AL17" s="345"/>
+      <c r="AM17" s="345"/>
+      <c r="AN17" s="345"/>
+      <c r="AO17" s="345"/>
+      <c r="AP17" s="345"/>
+      <c r="AQ17" s="345"/>
+      <c r="AR17" s="345"/>
+      <c r="AS17" s="345"/>
+      <c r="AT17" s="345"/>
+      <c r="AU17" s="345"/>
+      <c r="AV17" s="345"/>
+      <c r="AW17" s="345"/>
+      <c r="AX17" s="345"/>
+      <c r="AY17" s="345"/>
+      <c r="AZ17" s="345"/>
+      <c r="BA17" s="345"/>
+      <c r="BB17" s="345"/>
+      <c r="BC17" s="345"/>
+      <c r="BD17" s="345"/>
+      <c r="BE17" s="345"/>
+      <c r="BF17" s="345"/>
+      <c r="BG17" s="345"/>
+      <c r="BH17" s="345"/>
+      <c r="BI17" s="345"/>
+      <c r="BJ17" s="345"/>
+      <c r="BK17" s="345"/>
+      <c r="BL17" s="345"/>
+      <c r="BM17" s="345"/>
+      <c r="BN17" s="345"/>
+      <c r="BO17" s="345"/>
+      <c r="BP17" s="345"/>
+      <c r="BQ17" s="345"/>
+      <c r="BR17" s="345"/>
+      <c r="BS17" s="345"/>
+      <c r="BT17" s="345"/>
+      <c r="BU17" s="345"/>
+      <c r="BV17" s="345"/>
+      <c r="BW17" s="345"/>
+      <c r="BX17" s="345" t="s">
+        <v>519</v>
+      </c>
+      <c r="BY17" s="345"/>
+      <c r="BZ17" s="345" t="s">
+        <v>519</v>
+      </c>
+      <c r="CA17" s="345"/>
+      <c r="CB17" s="345" t="s">
+        <v>519</v>
+      </c>
+      <c r="CC17" s="345"/>
+      <c r="CD17" s="345"/>
+      <c r="CE17" s="345"/>
+      <c r="CF17" s="345" t="s">
+        <v>519</v>
+      </c>
+      <c r="CG17" s="345"/>
+      <c r="CH17" s="345"/>
+      <c r="CI17" s="345"/>
+      <c r="CJ17" s="345"/>
+      <c r="CK17" s="345"/>
+      <c r="CL17" s="345"/>
+      <c r="CM17" s="345"/>
+      <c r="CN17" s="345"/>
+      <c r="CO17" s="345"/>
+      <c r="CP17" s="345"/>
+      <c r="CQ17" s="345"/>
+      <c r="CR17" s="345"/>
+      <c r="CS17" s="345"/>
+      <c r="CT17" s="345"/>
+      <c r="CU17" s="345"/>
+      <c r="CV17" s="345" t="s">
+        <v>519</v>
+      </c>
+      <c r="CW17" s="345"/>
+      <c r="CX17" s="345"/>
+      <c r="CY17" s="345"/>
+      <c r="CZ17" s="345"/>
+      <c r="DA17" s="345"/>
+      <c r="DB17" s="345"/>
+      <c r="DC17" s="345"/>
+      <c r="DD17" s="345"/>
+      <c r="DE17" s="345"/>
+      <c r="DF17" s="345"/>
+      <c r="DG17" s="345"/>
+      <c r="DH17" s="345"/>
+      <c r="DI17" s="345"/>
+      <c r="DJ17" s="345"/>
+      <c r="DK17" s="345"/>
+      <c r="DL17" s="345"/>
+      <c r="DM17" s="345"/>
+      <c r="DN17" s="345"/>
+      <c r="DO17" s="345"/>
+      <c r="DP17" s="345"/>
+      <c r="DQ17" s="345"/>
+      <c r="DR17" s="345"/>
+      <c r="DS17" s="348">
         <f t="shared" si="0"/>
         <v>2103000</v>
       </c>
-      <c r="DT17" s="162">
+      <c r="DT17" s="349">
         <f>2000000-DS17</f>
         <v>-103000</v>
       </c>
-    </row>
-    <row r="18" spans="1:125" s="203" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="192">
+      <c r="DW17" s="350" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="18" spans="1:127" s="202" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="191">
         <v>15</v>
       </c>
-      <c r="B18" s="192" t="s">
+      <c r="B18" s="191" t="s">
         <v>669</v>
       </c>
-      <c r="C18" s="193" t="s">
+      <c r="C18" s="192" t="s">
         <v>447</v>
       </c>
-      <c r="D18" s="192" t="s">
+      <c r="D18" s="191" t="s">
         <v>437</v>
       </c>
-      <c r="E18" s="192">
+      <c r="E18" s="191">
         <v>1986</v>
       </c>
-      <c r="F18" s="192">
+      <c r="F18" s="191">
         <v>1986</v>
       </c>
-      <c r="G18" s="194" t="s">
+      <c r="G18" s="193" t="s">
         <v>433</v>
       </c>
-      <c r="H18" s="204" t="s">
+      <c r="H18" s="203" t="s">
         <v>552</v>
       </c>
-      <c r="I18" s="199" t="s">
+      <c r="I18" s="198" t="s">
         <v>561</v>
       </c>
-      <c r="J18" s="205"/>
-      <c r="K18" s="197" t="s">
-        <v>519</v>
-      </c>
-      <c r="L18" s="197" t="s">
-        <v>519</v>
-      </c>
-      <c r="M18" s="197" t="s">
-        <v>519</v>
-      </c>
-      <c r="N18" s="197" t="s">
-        <v>519</v>
-      </c>
-      <c r="O18" s="197" t="s">
-        <v>519</v>
-      </c>
-      <c r="P18" s="197" t="s">
-        <v>519</v>
-      </c>
-      <c r="Q18" s="197" t="s">
-        <v>519</v>
-      </c>
-      <c r="R18" s="197" t="s">
-        <v>519</v>
-      </c>
-      <c r="S18" s="197" t="s">
-        <v>519</v>
-      </c>
-      <c r="T18" s="194"/>
-      <c r="U18" s="194"/>
-      <c r="V18" s="194"/>
-      <c r="W18" s="194"/>
-      <c r="X18" s="194"/>
-      <c r="Y18" s="198"/>
-      <c r="Z18" s="199" t="s">
-        <v>519</v>
-      </c>
-      <c r="AA18" s="199" t="s">
-        <v>519</v>
-      </c>
-      <c r="AB18" s="199"/>
-      <c r="AC18" s="199" t="s">
-        <v>519</v>
-      </c>
-      <c r="AD18" s="199" t="s">
-        <v>519</v>
-      </c>
-      <c r="AE18" s="200"/>
-      <c r="AF18" s="199"/>
-      <c r="AG18" s="199"/>
-      <c r="AH18" s="199"/>
-      <c r="AI18" s="199" t="s">
+      <c r="J18" s="204"/>
+      <c r="K18" s="196" t="s">
+        <v>519</v>
+      </c>
+      <c r="L18" s="196" t="s">
+        <v>519</v>
+      </c>
+      <c r="M18" s="196" t="s">
+        <v>519</v>
+      </c>
+      <c r="N18" s="196" t="s">
+        <v>519</v>
+      </c>
+      <c r="O18" s="196" t="s">
+        <v>519</v>
+      </c>
+      <c r="P18" s="196" t="s">
+        <v>519</v>
+      </c>
+      <c r="Q18" s="196" t="s">
+        <v>519</v>
+      </c>
+      <c r="R18" s="196" t="s">
+        <v>519</v>
+      </c>
+      <c r="S18" s="196" t="s">
+        <v>519</v>
+      </c>
+      <c r="T18" s="193"/>
+      <c r="U18" s="193"/>
+      <c r="V18" s="193"/>
+      <c r="W18" s="193"/>
+      <c r="X18" s="193"/>
+      <c r="Y18" s="197"/>
+      <c r="Z18" s="198" t="s">
+        <v>519</v>
+      </c>
+      <c r="AA18" s="198" t="s">
+        <v>519</v>
+      </c>
+      <c r="AB18" s="198"/>
+      <c r="AC18" s="198" t="s">
+        <v>519</v>
+      </c>
+      <c r="AD18" s="198" t="s">
+        <v>519</v>
+      </c>
+      <c r="AE18" s="199"/>
+      <c r="AF18" s="198"/>
+      <c r="AG18" s="198"/>
+      <c r="AH18" s="198"/>
+      <c r="AI18" s="198" t="s">
         <v>647</v>
       </c>
-      <c r="AJ18" s="199"/>
-      <c r="AK18" s="199"/>
-      <c r="AL18" s="199"/>
-      <c r="AM18" s="199"/>
-      <c r="AN18" s="199"/>
-      <c r="AO18" s="199"/>
-      <c r="AP18" s="199"/>
-      <c r="AQ18" s="199" t="s">
-        <v>519</v>
-      </c>
-      <c r="AR18" s="199" t="s">
-        <v>519</v>
-      </c>
-      <c r="AS18" s="199"/>
-      <c r="AT18" s="199"/>
-      <c r="AU18" s="199"/>
-      <c r="AV18" s="199"/>
-      <c r="AW18" s="199"/>
-      <c r="AX18" s="199"/>
-      <c r="AY18" s="199"/>
-      <c r="AZ18" s="199"/>
-      <c r="BA18" s="199"/>
-      <c r="BB18" s="199"/>
-      <c r="BC18" s="199"/>
-      <c r="BD18" s="199"/>
-      <c r="BE18" s="199"/>
-      <c r="BF18" s="199"/>
-      <c r="BG18" s="199"/>
-      <c r="BH18" s="199"/>
-      <c r="BI18" s="199"/>
-      <c r="BJ18" s="199"/>
-      <c r="BK18" s="199" t="s">
-        <v>519</v>
-      </c>
-      <c r="BL18" s="199"/>
-      <c r="BM18" s="199"/>
-      <c r="BN18" s="199"/>
-      <c r="BO18" s="199"/>
-      <c r="BP18" s="199"/>
-      <c r="BQ18" s="199"/>
-      <c r="BR18" s="199"/>
-      <c r="BS18" s="199"/>
-      <c r="BT18" s="199"/>
-      <c r="BU18" s="199"/>
-      <c r="BV18" s="199"/>
-      <c r="BW18" s="199"/>
-      <c r="BX18" s="199"/>
-      <c r="BY18" s="199"/>
-      <c r="BZ18" s="199" t="s">
-        <v>519</v>
-      </c>
-      <c r="CA18" s="199"/>
-      <c r="CB18" s="199" t="s">
-        <v>519</v>
-      </c>
-      <c r="CC18" s="199" t="s">
-        <v>519</v>
-      </c>
-      <c r="CD18" s="199"/>
-      <c r="CE18" s="199"/>
-      <c r="CF18" s="199"/>
-      <c r="CG18" s="199"/>
-      <c r="CH18" s="199"/>
-      <c r="CI18" s="199"/>
-      <c r="CJ18" s="199"/>
-      <c r="CK18" s="199"/>
-      <c r="CL18" s="199"/>
-      <c r="CM18" s="199"/>
-      <c r="CN18" s="199"/>
-      <c r="CO18" s="199"/>
-      <c r="CP18" s="199"/>
-      <c r="CQ18" s="199"/>
-      <c r="CR18" s="199"/>
-      <c r="CS18" s="199"/>
-      <c r="CT18" s="199" t="s">
+      <c r="AJ18" s="198"/>
+      <c r="AK18" s="198"/>
+      <c r="AL18" s="198"/>
+      <c r="AM18" s="198"/>
+      <c r="AN18" s="198"/>
+      <c r="AO18" s="198"/>
+      <c r="AP18" s="198"/>
+      <c r="AQ18" s="198" t="s">
+        <v>519</v>
+      </c>
+      <c r="AR18" s="198" t="s">
+        <v>519</v>
+      </c>
+      <c r="AS18" s="198"/>
+      <c r="AT18" s="198"/>
+      <c r="AU18" s="198"/>
+      <c r="AV18" s="198"/>
+      <c r="AW18" s="198"/>
+      <c r="AX18" s="198"/>
+      <c r="AY18" s="198"/>
+      <c r="AZ18" s="198"/>
+      <c r="BA18" s="198"/>
+      <c r="BB18" s="198"/>
+      <c r="BC18" s="198"/>
+      <c r="BD18" s="198"/>
+      <c r="BE18" s="198"/>
+      <c r="BF18" s="198"/>
+      <c r="BG18" s="198"/>
+      <c r="BH18" s="198"/>
+      <c r="BI18" s="198"/>
+      <c r="BJ18" s="198"/>
+      <c r="BK18" s="198" t="s">
+        <v>519</v>
+      </c>
+      <c r="BL18" s="198"/>
+      <c r="BM18" s="198"/>
+      <c r="BN18" s="198"/>
+      <c r="BO18" s="198"/>
+      <c r="BP18" s="198"/>
+      <c r="BQ18" s="198"/>
+      <c r="BR18" s="198"/>
+      <c r="BS18" s="198"/>
+      <c r="BT18" s="198"/>
+      <c r="BU18" s="198"/>
+      <c r="BV18" s="198"/>
+      <c r="BW18" s="198"/>
+      <c r="BX18" s="198"/>
+      <c r="BY18" s="198"/>
+      <c r="BZ18" s="198" t="s">
+        <v>519</v>
+      </c>
+      <c r="CA18" s="198"/>
+      <c r="CB18" s="198" t="s">
+        <v>519</v>
+      </c>
+      <c r="CC18" s="198" t="s">
+        <v>519</v>
+      </c>
+      <c r="CD18" s="198"/>
+      <c r="CE18" s="198"/>
+      <c r="CF18" s="198"/>
+      <c r="CG18" s="198"/>
+      <c r="CH18" s="198"/>
+      <c r="CI18" s="198"/>
+      <c r="CJ18" s="198"/>
+      <c r="CK18" s="198"/>
+      <c r="CL18" s="198"/>
+      <c r="CM18" s="198"/>
+      <c r="CN18" s="198"/>
+      <c r="CO18" s="198"/>
+      <c r="CP18" s="198"/>
+      <c r="CQ18" s="198"/>
+      <c r="CR18" s="198"/>
+      <c r="CS18" s="198"/>
+      <c r="CT18" s="198" t="s">
         <v>647</v>
       </c>
-      <c r="CU18" s="199"/>
-      <c r="CV18" s="199"/>
-      <c r="CW18" s="199"/>
-      <c r="CX18" s="199"/>
-      <c r="CY18" s="199"/>
-      <c r="CZ18" s="199" t="s">
-        <v>519</v>
-      </c>
-      <c r="DA18" s="199"/>
-      <c r="DB18" s="199"/>
-      <c r="DC18" s="199"/>
-      <c r="DD18" s="199"/>
-      <c r="DE18" s="199"/>
-      <c r="DF18" s="199"/>
-      <c r="DG18" s="199"/>
-      <c r="DH18" s="199"/>
-      <c r="DI18" s="199"/>
-      <c r="DJ18" s="199"/>
-      <c r="DK18" s="199"/>
-      <c r="DL18" s="199"/>
-      <c r="DM18" s="199"/>
-      <c r="DN18" s="199"/>
-      <c r="DO18" s="199"/>
-      <c r="DP18" s="199"/>
-      <c r="DQ18" s="199"/>
-      <c r="DR18" s="199"/>
-      <c r="DS18" s="201">
+      <c r="CU18" s="198"/>
+      <c r="CV18" s="198"/>
+      <c r="CW18" s="198"/>
+      <c r="CX18" s="198"/>
+      <c r="CY18" s="198"/>
+      <c r="CZ18" s="198" t="s">
+        <v>519</v>
+      </c>
+      <c r="DA18" s="198"/>
+      <c r="DB18" s="198"/>
+      <c r="DC18" s="198"/>
+      <c r="DD18" s="198"/>
+      <c r="DE18" s="198"/>
+      <c r="DF18" s="198"/>
+      <c r="DG18" s="198"/>
+      <c r="DH18" s="198"/>
+      <c r="DI18" s="198"/>
+      <c r="DJ18" s="198"/>
+      <c r="DK18" s="198"/>
+      <c r="DL18" s="198"/>
+      <c r="DM18" s="198"/>
+      <c r="DN18" s="198"/>
+      <c r="DO18" s="198"/>
+      <c r="DP18" s="198"/>
+      <c r="DQ18" s="198"/>
+      <c r="DR18" s="198"/>
+      <c r="DS18" s="200">
         <f t="shared" si="0"/>
         <v>3769000</v>
       </c>
-      <c r="DT18" s="202">
+      <c r="DT18" s="201">
         <f t="shared" ref="DT18:DT19" si="3">3000000-DS18</f>
         <v>-769000</v>
       </c>
-      <c r="DU18" s="203" t="s">
+      <c r="DU18" s="202" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="19" spans="1:125" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:127" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="153">
         <v>16</v>
       </c>
@@ -15615,7 +15747,7 @@
         <v>-163000</v>
       </c>
     </row>
-    <row r="20" spans="1:125" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:127" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="153">
         <v>17</v>
       </c>
@@ -15805,7 +15937,7 @@
         <v>434000</v>
       </c>
     </row>
-    <row r="21" spans="1:125" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:127" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="153">
         <v>18</v>
       </c>
@@ -15983,7 +16115,7 @@
         <v>-331000</v>
       </c>
     </row>
-    <row r="22" spans="1:125" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:127" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="153">
         <v>19</v>
       </c>
@@ -16157,208 +16289,208 @@
         <v>-3000</v>
       </c>
     </row>
-    <row r="23" spans="1:125" s="203" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="192">
+    <row r="23" spans="1:127" s="202" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="191">
         <v>20</v>
       </c>
-      <c r="B23" s="192" t="s">
+      <c r="B23" s="191" t="s">
         <v>674</v>
       </c>
-      <c r="C23" s="193" t="s">
+      <c r="C23" s="192" t="s">
         <v>452</v>
       </c>
-      <c r="D23" s="192" t="s">
+      <c r="D23" s="191" t="s">
         <v>437</v>
       </c>
-      <c r="E23" s="192">
+      <c r="E23" s="191">
         <v>1982</v>
       </c>
-      <c r="F23" s="192">
+      <c r="F23" s="191">
         <v>1982</v>
       </c>
-      <c r="G23" s="194" t="s">
+      <c r="G23" s="193" t="s">
         <v>433</v>
       </c>
-      <c r="H23" s="195" t="s">
+      <c r="H23" s="194" t="s">
         <v>551</v>
       </c>
-      <c r="I23" s="196" t="s">
+      <c r="I23" s="195" t="s">
         <v>560</v>
       </c>
-      <c r="J23" s="195"/>
-      <c r="K23" s="197" t="s">
-        <v>519</v>
-      </c>
-      <c r="L23" s="197" t="s">
-        <v>519</v>
-      </c>
-      <c r="M23" s="197" t="s">
-        <v>519</v>
-      </c>
-      <c r="N23" s="197" t="s">
-        <v>519</v>
-      </c>
-      <c r="O23" s="197" t="s">
-        <v>519</v>
-      </c>
-      <c r="P23" s="197" t="s">
-        <v>519</v>
-      </c>
-      <c r="Q23" s="197" t="s">
-        <v>519</v>
-      </c>
-      <c r="R23" s="197" t="s">
-        <v>519</v>
-      </c>
-      <c r="S23" s="197" t="s">
-        <v>519</v>
-      </c>
-      <c r="T23" s="194"/>
-      <c r="U23" s="194"/>
-      <c r="V23" s="194"/>
-      <c r="W23" s="194"/>
-      <c r="X23" s="194"/>
-      <c r="Y23" s="198"/>
-      <c r="Z23" s="199" t="s">
-        <v>519</v>
-      </c>
-      <c r="AA23" s="199" t="s">
-        <v>519</v>
-      </c>
-      <c r="AB23" s="199"/>
-      <c r="AC23" s="199" t="s">
-        <v>519</v>
-      </c>
-      <c r="AD23" s="199" t="s">
-        <v>519</v>
-      </c>
-      <c r="AE23" s="200"/>
-      <c r="AF23" s="199"/>
-      <c r="AG23" s="199"/>
-      <c r="AH23" s="199"/>
-      <c r="AI23" s="199" t="s">
-        <v>519</v>
-      </c>
-      <c r="AJ23" s="199"/>
-      <c r="AK23" s="199"/>
-      <c r="AL23" s="199"/>
-      <c r="AM23" s="199"/>
-      <c r="AN23" s="199"/>
-      <c r="AO23" s="199"/>
-      <c r="AP23" s="199"/>
-      <c r="AQ23" s="199"/>
-      <c r="AR23" s="199"/>
-      <c r="AS23" s="199"/>
-      <c r="AT23" s="199"/>
-      <c r="AU23" s="199"/>
-      <c r="AV23" s="199"/>
-      <c r="AW23" s="199"/>
-      <c r="AX23" s="199"/>
-      <c r="AY23" s="199"/>
-      <c r="AZ23" s="199"/>
-      <c r="BA23" s="199"/>
-      <c r="BB23" s="199"/>
-      <c r="BC23" s="199"/>
-      <c r="BD23" s="199"/>
-      <c r="BE23" s="199"/>
-      <c r="BF23" s="199"/>
-      <c r="BG23" s="199"/>
-      <c r="BH23" s="199"/>
-      <c r="BI23" s="199"/>
-      <c r="BJ23" s="199"/>
-      <c r="BK23" s="199" t="s">
-        <v>519</v>
-      </c>
-      <c r="BL23" s="199"/>
-      <c r="BM23" s="199"/>
-      <c r="BN23" s="199"/>
-      <c r="BO23" s="199"/>
-      <c r="BP23" s="199"/>
-      <c r="BQ23" s="199"/>
-      <c r="BR23" s="199"/>
-      <c r="BS23" s="199"/>
-      <c r="BT23" s="199"/>
-      <c r="BU23" s="199"/>
-      <c r="BV23" s="199"/>
-      <c r="BW23" s="199" t="s">
-        <v>519</v>
-      </c>
-      <c r="BX23" s="199"/>
-      <c r="BY23" s="199"/>
-      <c r="BZ23" s="199" t="s">
-        <v>519</v>
-      </c>
-      <c r="CA23" s="199" t="s">
-        <v>519</v>
-      </c>
-      <c r="CB23" s="199" t="s">
-        <v>519</v>
-      </c>
-      <c r="CC23" s="199"/>
-      <c r="CD23" s="199"/>
-      <c r="CE23" s="199"/>
-      <c r="CF23" s="199"/>
-      <c r="CG23" s="199"/>
-      <c r="CH23" s="199"/>
-      <c r="CI23" s="199"/>
-      <c r="CJ23" s="199"/>
-      <c r="CK23" s="199"/>
-      <c r="CL23" s="199"/>
-      <c r="CM23" s="199"/>
-      <c r="CN23" s="199"/>
-      <c r="CO23" s="199"/>
-      <c r="CP23" s="199"/>
-      <c r="CQ23" s="199"/>
-      <c r="CR23" s="199"/>
-      <c r="CS23" s="199"/>
-      <c r="CT23" s="199" t="s">
-        <v>519</v>
-      </c>
-      <c r="CU23" s="199"/>
-      <c r="CV23" s="199"/>
-      <c r="CW23" s="199"/>
-      <c r="CX23" s="199"/>
-      <c r="CY23" s="199"/>
-      <c r="CZ23" s="199" t="s">
-        <v>519</v>
-      </c>
-      <c r="DA23" s="199"/>
-      <c r="DB23" s="199"/>
-      <c r="DC23" s="199"/>
-      <c r="DD23" s="199"/>
-      <c r="DE23" s="199"/>
-      <c r="DF23" s="199"/>
-      <c r="DG23" s="199"/>
-      <c r="DH23" s="199" t="s">
-        <v>519</v>
-      </c>
-      <c r="DI23" s="199" t="s">
-        <v>519</v>
-      </c>
-      <c r="DJ23" s="199"/>
-      <c r="DK23" s="199"/>
-      <c r="DL23" s="199"/>
-      <c r="DM23" s="199" t="s">
-        <v>519</v>
-      </c>
-      <c r="DN23" s="199"/>
-      <c r="DO23" s="199"/>
-      <c r="DP23" s="199"/>
-      <c r="DQ23" s="199"/>
-      <c r="DR23" s="199"/>
-      <c r="DS23" s="201">
+      <c r="J23" s="194"/>
+      <c r="K23" s="196" t="s">
+        <v>519</v>
+      </c>
+      <c r="L23" s="196" t="s">
+        <v>519</v>
+      </c>
+      <c r="M23" s="196" t="s">
+        <v>519</v>
+      </c>
+      <c r="N23" s="196" t="s">
+        <v>519</v>
+      </c>
+      <c r="O23" s="196" t="s">
+        <v>519</v>
+      </c>
+      <c r="P23" s="196" t="s">
+        <v>519</v>
+      </c>
+      <c r="Q23" s="196" t="s">
+        <v>519</v>
+      </c>
+      <c r="R23" s="196" t="s">
+        <v>519</v>
+      </c>
+      <c r="S23" s="196" t="s">
+        <v>519</v>
+      </c>
+      <c r="T23" s="193"/>
+      <c r="U23" s="193"/>
+      <c r="V23" s="193"/>
+      <c r="W23" s="193"/>
+      <c r="X23" s="193"/>
+      <c r="Y23" s="197"/>
+      <c r="Z23" s="198" t="s">
+        <v>519</v>
+      </c>
+      <c r="AA23" s="198" t="s">
+        <v>519</v>
+      </c>
+      <c r="AB23" s="198"/>
+      <c r="AC23" s="198" t="s">
+        <v>519</v>
+      </c>
+      <c r="AD23" s="198" t="s">
+        <v>519</v>
+      </c>
+      <c r="AE23" s="199"/>
+      <c r="AF23" s="198"/>
+      <c r="AG23" s="198"/>
+      <c r="AH23" s="198"/>
+      <c r="AI23" s="198" t="s">
+        <v>519</v>
+      </c>
+      <c r="AJ23" s="198"/>
+      <c r="AK23" s="198"/>
+      <c r="AL23" s="198"/>
+      <c r="AM23" s="198"/>
+      <c r="AN23" s="198"/>
+      <c r="AO23" s="198"/>
+      <c r="AP23" s="198"/>
+      <c r="AQ23" s="198"/>
+      <c r="AR23" s="198"/>
+      <c r="AS23" s="198"/>
+      <c r="AT23" s="198"/>
+      <c r="AU23" s="198"/>
+      <c r="AV23" s="198"/>
+      <c r="AW23" s="198"/>
+      <c r="AX23" s="198"/>
+      <c r="AY23" s="198"/>
+      <c r="AZ23" s="198"/>
+      <c r="BA23" s="198"/>
+      <c r="BB23" s="198"/>
+      <c r="BC23" s="198"/>
+      <c r="BD23" s="198"/>
+      <c r="BE23" s="198"/>
+      <c r="BF23" s="198"/>
+      <c r="BG23" s="198"/>
+      <c r="BH23" s="198"/>
+      <c r="BI23" s="198"/>
+      <c r="BJ23" s="198"/>
+      <c r="BK23" s="198" t="s">
+        <v>519</v>
+      </c>
+      <c r="BL23" s="198"/>
+      <c r="BM23" s="198"/>
+      <c r="BN23" s="198"/>
+      <c r="BO23" s="198"/>
+      <c r="BP23" s="198"/>
+      <c r="BQ23" s="198"/>
+      <c r="BR23" s="198"/>
+      <c r="BS23" s="198"/>
+      <c r="BT23" s="198"/>
+      <c r="BU23" s="198"/>
+      <c r="BV23" s="198"/>
+      <c r="BW23" s="198" t="s">
+        <v>519</v>
+      </c>
+      <c r="BX23" s="198"/>
+      <c r="BY23" s="198"/>
+      <c r="BZ23" s="198" t="s">
+        <v>519</v>
+      </c>
+      <c r="CA23" s="198" t="s">
+        <v>519</v>
+      </c>
+      <c r="CB23" s="198" t="s">
+        <v>519</v>
+      </c>
+      <c r="CC23" s="198"/>
+      <c r="CD23" s="198"/>
+      <c r="CE23" s="198"/>
+      <c r="CF23" s="198"/>
+      <c r="CG23" s="198"/>
+      <c r="CH23" s="198"/>
+      <c r="CI23" s="198"/>
+      <c r="CJ23" s="198"/>
+      <c r="CK23" s="198"/>
+      <c r="CL23" s="198"/>
+      <c r="CM23" s="198"/>
+      <c r="CN23" s="198"/>
+      <c r="CO23" s="198"/>
+      <c r="CP23" s="198"/>
+      <c r="CQ23" s="198"/>
+      <c r="CR23" s="198"/>
+      <c r="CS23" s="198"/>
+      <c r="CT23" s="198" t="s">
+        <v>519</v>
+      </c>
+      <c r="CU23" s="198"/>
+      <c r="CV23" s="198"/>
+      <c r="CW23" s="198"/>
+      <c r="CX23" s="198"/>
+      <c r="CY23" s="198"/>
+      <c r="CZ23" s="198" t="s">
+        <v>519</v>
+      </c>
+      <c r="DA23" s="198"/>
+      <c r="DB23" s="198"/>
+      <c r="DC23" s="198"/>
+      <c r="DD23" s="198"/>
+      <c r="DE23" s="198"/>
+      <c r="DF23" s="198"/>
+      <c r="DG23" s="198"/>
+      <c r="DH23" s="198" t="s">
+        <v>519</v>
+      </c>
+      <c r="DI23" s="198" t="s">
+        <v>519</v>
+      </c>
+      <c r="DJ23" s="198"/>
+      <c r="DK23" s="198"/>
+      <c r="DL23" s="198"/>
+      <c r="DM23" s="198" t="s">
+        <v>519</v>
+      </c>
+      <c r="DN23" s="198"/>
+      <c r="DO23" s="198"/>
+      <c r="DP23" s="198"/>
+      <c r="DQ23" s="198"/>
+      <c r="DR23" s="198"/>
+      <c r="DS23" s="200">
         <f t="shared" si="0"/>
         <v>4300000</v>
       </c>
-      <c r="DT23" s="202">
+      <c r="DT23" s="201">
         <f>3000000-DS23</f>
         <v>-1300000</v>
       </c>
-      <c r="DU23" s="203" t="s">
+      <c r="DU23" s="202" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="24" spans="1:125" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:127" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="153">
         <v>21</v>
       </c>
@@ -16546,7 +16678,7 @@
         <v>57000</v>
       </c>
     </row>
-    <row r="25" spans="1:125" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:127" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="153">
         <v>22</v>
       </c>
@@ -16734,7 +16866,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="26" spans="1:125" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:127" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="153">
         <v>23</v>
       </c>
@@ -16914,7 +17046,7 @@
         <v>-1485000</v>
       </c>
     </row>
-    <row r="27" spans="1:125" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:127" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="153">
         <v>24</v>
       </c>
@@ -17112,7 +17244,7 @@
         <v>-717000</v>
       </c>
     </row>
-    <row r="28" spans="1:125" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:127" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="153">
         <v>25</v>
       </c>
@@ -17316,7 +17448,7 @@
         <v>-1024000</v>
       </c>
     </row>
-    <row r="29" spans="1:125" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:127" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="153">
         <v>26</v>
       </c>
@@ -17490,7 +17622,7 @@
         <v>-2025000</v>
       </c>
     </row>
-    <row r="30" spans="1:125" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:127" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="153">
         <v>27</v>
       </c>
@@ -17674,7 +17806,7 @@
         <v>356000</v>
       </c>
     </row>
-    <row r="31" spans="1:125" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:127" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="153">
         <v>28</v>
       </c>
@@ -17860,7 +17992,7 @@
         <v>764000</v>
       </c>
     </row>
-    <row r="32" spans="1:125" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:127" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="153">
         <v>29</v>
       </c>
@@ -18965,6 +19097,9 @@
         <f t="shared" si="6"/>
         <v>659000</v>
       </c>
+      <c r="DW37" s="136" t="s">
+        <v>753</v>
+      </c>
     </row>
     <row r="38" spans="1:127" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="153">
@@ -20150,217 +20285,217 @@
         <v>-910000</v>
       </c>
     </row>
-    <row r="44" spans="1:127" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="153">
+    <row r="44" spans="1:127" s="316" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="305">
         <v>41</v>
       </c>
-      <c r="B44" s="153" t="s">
+      <c r="B44" s="305" t="s">
         <v>695</v>
       </c>
-      <c r="C44" s="163" t="s">
+      <c r="C44" s="306" t="s">
         <v>473</v>
       </c>
-      <c r="D44" s="153" t="s">
+      <c r="D44" s="305" t="s">
         <v>437</v>
       </c>
-      <c r="E44" s="153">
+      <c r="E44" s="305">
         <v>1987</v>
       </c>
-      <c r="F44" s="181" t="s">
+      <c r="F44" s="307" t="s">
         <v>523</v>
       </c>
-      <c r="G44" s="160" t="s">
+      <c r="G44" s="308" t="s">
         <v>433</v>
       </c>
-      <c r="H44" s="171" t="s">
+      <c r="H44" s="309" t="s">
         <v>521</v>
       </c>
-      <c r="I44" s="182" t="s">
+      <c r="I44" s="310" t="s">
         <v>524</v>
       </c>
-      <c r="J44" s="176"/>
-      <c r="K44" s="159" t="s">
-        <v>519</v>
-      </c>
-      <c r="L44" s="159" t="s">
-        <v>519</v>
-      </c>
-      <c r="M44" s="159" t="s">
-        <v>519</v>
-      </c>
-      <c r="N44" s="159" t="s">
-        <v>519</v>
-      </c>
-      <c r="O44" s="159" t="s">
-        <v>519</v>
-      </c>
-      <c r="P44" s="159" t="s">
-        <v>519</v>
-      </c>
-      <c r="Q44" s="159" t="s">
-        <v>519</v>
-      </c>
-      <c r="R44" s="159" t="s">
-        <v>519</v>
-      </c>
-      <c r="S44" s="159" t="s">
-        <v>519</v>
-      </c>
-      <c r="T44" s="160" t="s">
-        <v>519</v>
-      </c>
-      <c r="U44" s="160"/>
-      <c r="V44" s="160" t="s">
-        <v>519</v>
-      </c>
-      <c r="W44" s="160"/>
-      <c r="X44" s="160" t="s">
-        <v>519</v>
-      </c>
-      <c r="Y44" s="157"/>
-      <c r="Z44" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="AA44" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="AB44" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="AC44" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="AD44" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="AE44" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="AF44" s="157"/>
-      <c r="AG44" s="157"/>
-      <c r="AH44" s="157"/>
-      <c r="AI44" s="157"/>
-      <c r="AJ44" s="157"/>
-      <c r="AK44" s="157"/>
-      <c r="AL44" s="157"/>
-      <c r="AM44" s="157"/>
-      <c r="AN44" s="157"/>
-      <c r="AO44" s="157"/>
-      <c r="AP44" s="157"/>
-      <c r="AQ44" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="AR44" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="AS44" s="157"/>
-      <c r="AT44" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="AU44" s="157"/>
-      <c r="AV44" s="157"/>
-      <c r="AW44" s="157"/>
-      <c r="AX44" s="157"/>
-      <c r="AY44" s="157"/>
-      <c r="AZ44" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="BA44" s="157"/>
-      <c r="BB44" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="BC44" s="157"/>
-      <c r="BD44" s="157"/>
-      <c r="BE44" s="157"/>
-      <c r="BF44" s="157"/>
-      <c r="BG44" s="157"/>
-      <c r="BH44" s="157"/>
-      <c r="BI44" s="157"/>
-      <c r="BJ44" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="BK44" s="157"/>
-      <c r="BL44" s="157"/>
-      <c r="BM44" s="157"/>
-      <c r="BN44" s="157"/>
-      <c r="BO44" s="157"/>
-      <c r="BP44" s="157"/>
-      <c r="BQ44" s="157"/>
-      <c r="BR44" s="157"/>
-      <c r="BS44" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="BT44" s="157"/>
-      <c r="BU44" s="157"/>
-      <c r="BV44" s="157"/>
-      <c r="BW44" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="BX44" s="157"/>
-      <c r="BY44" s="157"/>
-      <c r="BZ44" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="CA44" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="CB44" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="CC44" s="157"/>
-      <c r="CD44" s="157"/>
-      <c r="CE44" s="157"/>
-      <c r="CF44" s="157"/>
-      <c r="CG44" s="157"/>
-      <c r="CH44" s="157"/>
-      <c r="CI44" s="157"/>
-      <c r="CJ44" s="157"/>
-      <c r="CK44" s="157"/>
-      <c r="CL44" s="157"/>
-      <c r="CM44" s="157"/>
-      <c r="CN44" s="157"/>
-      <c r="CO44" s="157"/>
-      <c r="CP44" s="157"/>
-      <c r="CQ44" s="157"/>
-      <c r="CR44" s="157"/>
-      <c r="CS44" s="157"/>
-      <c r="CT44" s="157"/>
-      <c r="CU44" s="157"/>
-      <c r="CV44" s="157"/>
-      <c r="CW44" s="157"/>
-      <c r="CX44" s="157"/>
-      <c r="CY44" s="157"/>
-      <c r="CZ44" s="157"/>
-      <c r="DA44" s="157"/>
-      <c r="DB44" s="157"/>
-      <c r="DC44" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="DD44" s="157"/>
-      <c r="DE44" s="157"/>
-      <c r="DF44" s="157"/>
-      <c r="DG44" s="157"/>
-      <c r="DH44" s="157"/>
-      <c r="DI44" s="157"/>
-      <c r="DJ44" s="157"/>
-      <c r="DK44" s="157"/>
-      <c r="DL44" s="157"/>
-      <c r="DM44" s="157"/>
-      <c r="DN44" s="157"/>
-      <c r="DO44" s="157"/>
-      <c r="DP44" s="157"/>
-      <c r="DQ44" s="157"/>
-      <c r="DR44" s="157"/>
-      <c r="DS44" s="161">
+      <c r="J44" s="311"/>
+      <c r="K44" s="312" t="s">
+        <v>519</v>
+      </c>
+      <c r="L44" s="312" t="s">
+        <v>519</v>
+      </c>
+      <c r="M44" s="312" t="s">
+        <v>519</v>
+      </c>
+      <c r="N44" s="312" t="s">
+        <v>519</v>
+      </c>
+      <c r="O44" s="312" t="s">
+        <v>519</v>
+      </c>
+      <c r="P44" s="312" t="s">
+        <v>519</v>
+      </c>
+      <c r="Q44" s="312" t="s">
+        <v>519</v>
+      </c>
+      <c r="R44" s="312" t="s">
+        <v>519</v>
+      </c>
+      <c r="S44" s="312" t="s">
+        <v>519</v>
+      </c>
+      <c r="T44" s="308" t="s">
+        <v>519</v>
+      </c>
+      <c r="U44" s="308"/>
+      <c r="V44" s="308" t="s">
+        <v>519</v>
+      </c>
+      <c r="W44" s="308"/>
+      <c r="X44" s="308" t="s">
+        <v>519</v>
+      </c>
+      <c r="Y44" s="313"/>
+      <c r="Z44" s="313" t="s">
+        <v>519</v>
+      </c>
+      <c r="AA44" s="313" t="s">
+        <v>519</v>
+      </c>
+      <c r="AB44" s="313" t="s">
+        <v>519</v>
+      </c>
+      <c r="AC44" s="313" t="s">
+        <v>519</v>
+      </c>
+      <c r="AD44" s="313" t="s">
+        <v>519</v>
+      </c>
+      <c r="AE44" s="313" t="s">
+        <v>519</v>
+      </c>
+      <c r="AF44" s="313"/>
+      <c r="AG44" s="313"/>
+      <c r="AH44" s="313"/>
+      <c r="AI44" s="313"/>
+      <c r="AJ44" s="313"/>
+      <c r="AK44" s="313"/>
+      <c r="AL44" s="313"/>
+      <c r="AM44" s="313"/>
+      <c r="AN44" s="313"/>
+      <c r="AO44" s="313"/>
+      <c r="AP44" s="313"/>
+      <c r="AQ44" s="313" t="s">
+        <v>519</v>
+      </c>
+      <c r="AR44" s="313" t="s">
+        <v>519</v>
+      </c>
+      <c r="AS44" s="313"/>
+      <c r="AT44" s="313" t="s">
+        <v>519</v>
+      </c>
+      <c r="AU44" s="313"/>
+      <c r="AV44" s="313"/>
+      <c r="AW44" s="313"/>
+      <c r="AX44" s="313"/>
+      <c r="AY44" s="313"/>
+      <c r="AZ44" s="313" t="s">
+        <v>519</v>
+      </c>
+      <c r="BA44" s="313"/>
+      <c r="BB44" s="313" t="s">
+        <v>519</v>
+      </c>
+      <c r="BC44" s="313"/>
+      <c r="BD44" s="313"/>
+      <c r="BE44" s="313"/>
+      <c r="BF44" s="313"/>
+      <c r="BG44" s="313"/>
+      <c r="BH44" s="313"/>
+      <c r="BI44" s="313"/>
+      <c r="BJ44" s="313" t="s">
+        <v>519</v>
+      </c>
+      <c r="BK44" s="313"/>
+      <c r="BL44" s="313"/>
+      <c r="BM44" s="313"/>
+      <c r="BN44" s="313"/>
+      <c r="BO44" s="313"/>
+      <c r="BP44" s="313"/>
+      <c r="BQ44" s="313"/>
+      <c r="BR44" s="313"/>
+      <c r="BS44" s="313" t="s">
+        <v>519</v>
+      </c>
+      <c r="BT44" s="313"/>
+      <c r="BU44" s="313"/>
+      <c r="BV44" s="313"/>
+      <c r="BW44" s="313" t="s">
+        <v>519</v>
+      </c>
+      <c r="BX44" s="313"/>
+      <c r="BY44" s="313"/>
+      <c r="BZ44" s="313" t="s">
+        <v>519</v>
+      </c>
+      <c r="CA44" s="313" t="s">
+        <v>519</v>
+      </c>
+      <c r="CB44" s="313" t="s">
+        <v>519</v>
+      </c>
+      <c r="CC44" s="313"/>
+      <c r="CD44" s="313"/>
+      <c r="CE44" s="313"/>
+      <c r="CF44" s="313"/>
+      <c r="CG44" s="313"/>
+      <c r="CH44" s="313"/>
+      <c r="CI44" s="313"/>
+      <c r="CJ44" s="313"/>
+      <c r="CK44" s="313"/>
+      <c r="CL44" s="313"/>
+      <c r="CM44" s="313"/>
+      <c r="CN44" s="313"/>
+      <c r="CO44" s="313"/>
+      <c r="CP44" s="313"/>
+      <c r="CQ44" s="313"/>
+      <c r="CR44" s="313"/>
+      <c r="CS44" s="313"/>
+      <c r="CT44" s="313"/>
+      <c r="CU44" s="313"/>
+      <c r="CV44" s="313"/>
+      <c r="CW44" s="313"/>
+      <c r="CX44" s="313"/>
+      <c r="CY44" s="313"/>
+      <c r="CZ44" s="313"/>
+      <c r="DA44" s="313"/>
+      <c r="DB44" s="313"/>
+      <c r="DC44" s="313" t="s">
+        <v>519</v>
+      </c>
+      <c r="DD44" s="313"/>
+      <c r="DE44" s="313"/>
+      <c r="DF44" s="313"/>
+      <c r="DG44" s="313"/>
+      <c r="DH44" s="313"/>
+      <c r="DI44" s="313"/>
+      <c r="DJ44" s="313"/>
+      <c r="DK44" s="313"/>
+      <c r="DL44" s="313"/>
+      <c r="DM44" s="313"/>
+      <c r="DN44" s="313"/>
+      <c r="DO44" s="313"/>
+      <c r="DP44" s="313"/>
+      <c r="DQ44" s="313"/>
+      <c r="DR44" s="313"/>
+      <c r="DS44" s="314">
         <f t="shared" si="0"/>
         <v>3595000</v>
       </c>
-      <c r="DT44" s="162">
+      <c r="DT44" s="315">
         <f>3000000-DS44</f>
         <v>-595000</v>
       </c>
-      <c r="DW44" s="136" t="s">
-        <v>746</v>
+      <c r="DW44" s="316" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="45" spans="1:127" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -21153,216 +21288,216 @@
         <v>-595000</v>
       </c>
     </row>
-    <row r="49" spans="1:127" s="203" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="192">
+    <row r="49" spans="1:127" s="202" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="191">
         <v>46</v>
       </c>
-      <c r="B49" s="192" t="s">
+      <c r="B49" s="191" t="s">
         <v>700</v>
       </c>
-      <c r="C49" s="193" t="s">
+      <c r="C49" s="192" t="s">
         <v>478</v>
       </c>
-      <c r="D49" s="192" t="s">
+      <c r="D49" s="191" t="s">
         <v>437</v>
       </c>
-      <c r="E49" s="192">
+      <c r="E49" s="191">
         <v>1983</v>
       </c>
-      <c r="F49" s="192">
+      <c r="F49" s="191">
         <v>1983</v>
       </c>
-      <c r="G49" s="194" t="s">
+      <c r="G49" s="193" t="s">
         <v>433</v>
       </c>
-      <c r="H49" s="195" t="s">
+      <c r="H49" s="194" t="s">
         <v>598</v>
       </c>
-      <c r="I49" s="196" t="s">
+      <c r="I49" s="195" t="s">
         <v>600</v>
       </c>
-      <c r="J49" s="206"/>
-      <c r="K49" s="197" t="s">
-        <v>519</v>
-      </c>
-      <c r="L49" s="197" t="s">
-        <v>519</v>
-      </c>
-      <c r="M49" s="197" t="s">
-        <v>519</v>
-      </c>
-      <c r="N49" s="197" t="s">
-        <v>519</v>
-      </c>
-      <c r="O49" s="197" t="s">
-        <v>519</v>
-      </c>
-      <c r="P49" s="197" t="s">
-        <v>519</v>
-      </c>
-      <c r="Q49" s="197" t="s">
-        <v>519</v>
-      </c>
-      <c r="R49" s="197" t="s">
-        <v>519</v>
-      </c>
-      <c r="S49" s="197" t="s">
-        <v>519</v>
-      </c>
-      <c r="T49" s="194"/>
-      <c r="U49" s="194"/>
-      <c r="V49" s="194"/>
-      <c r="W49" s="194"/>
-      <c r="X49" s="194"/>
-      <c r="Y49" s="199"/>
-      <c r="Z49" s="199"/>
-      <c r="AA49" s="199" t="s">
-        <v>519</v>
-      </c>
-      <c r="AB49" s="199"/>
-      <c r="AC49" s="199"/>
-      <c r="AD49" s="199" t="s">
-        <v>519</v>
-      </c>
-      <c r="AE49" s="199"/>
-      <c r="AF49" s="199"/>
-      <c r="AG49" s="199"/>
-      <c r="AH49" s="199"/>
-      <c r="AI49" s="199" t="s">
-        <v>519</v>
-      </c>
-      <c r="AJ49" s="199"/>
-      <c r="AK49" s="199"/>
-      <c r="AL49" s="199"/>
-      <c r="AM49" s="199"/>
-      <c r="AN49" s="199"/>
-      <c r="AO49" s="199"/>
-      <c r="AP49" s="199"/>
-      <c r="AQ49" s="199" t="s">
-        <v>519</v>
-      </c>
-      <c r="AR49" s="199" t="s">
-        <v>519</v>
-      </c>
-      <c r="AS49" s="199" t="s">
-        <v>519</v>
-      </c>
-      <c r="AT49" s="199"/>
-      <c r="AU49" s="199"/>
-      <c r="AV49" s="199"/>
-      <c r="AW49" s="199"/>
-      <c r="AX49" s="199"/>
-      <c r="AY49" s="199"/>
-      <c r="AZ49" s="199"/>
-      <c r="BA49" s="199"/>
-      <c r="BB49" s="199"/>
-      <c r="BC49" s="199"/>
-      <c r="BD49" s="199"/>
-      <c r="BE49" s="199"/>
-      <c r="BF49" s="199"/>
-      <c r="BG49" s="199"/>
-      <c r="BH49" s="199"/>
-      <c r="BI49" s="199"/>
-      <c r="BJ49" s="199"/>
-      <c r="BK49" s="199"/>
-      <c r="BL49" s="199"/>
-      <c r="BM49" s="199"/>
-      <c r="BN49" s="199"/>
-      <c r="BO49" s="199"/>
-      <c r="BP49" s="199"/>
-      <c r="BQ49" s="199"/>
-      <c r="BR49" s="199"/>
-      <c r="BS49" s="199"/>
-      <c r="BT49" s="199"/>
-      <c r="BU49" s="199"/>
-      <c r="BV49" s="199"/>
-      <c r="BW49" s="199"/>
-      <c r="BX49" s="199"/>
-      <c r="BY49" s="199"/>
-      <c r="BZ49" s="199" t="s">
-        <v>519</v>
-      </c>
-      <c r="CA49" s="199" t="s">
-        <v>519</v>
-      </c>
-      <c r="CB49" s="199" t="s">
-        <v>519</v>
-      </c>
-      <c r="CC49" s="199"/>
-      <c r="CD49" s="199"/>
-      <c r="CE49" s="199"/>
-      <c r="CF49" s="199"/>
-      <c r="CG49" s="199"/>
-      <c r="CH49" s="199"/>
-      <c r="CI49" s="199"/>
-      <c r="CJ49" s="199"/>
-      <c r="CK49" s="199"/>
-      <c r="CL49" s="199"/>
-      <c r="CM49" s="199"/>
-      <c r="CN49" s="199" t="s">
+      <c r="J49" s="205"/>
+      <c r="K49" s="196" t="s">
+        <v>519</v>
+      </c>
+      <c r="L49" s="196" t="s">
+        <v>519</v>
+      </c>
+      <c r="M49" s="196" t="s">
+        <v>519</v>
+      </c>
+      <c r="N49" s="196" t="s">
+        <v>519</v>
+      </c>
+      <c r="O49" s="196" t="s">
+        <v>519</v>
+      </c>
+      <c r="P49" s="196" t="s">
+        <v>519</v>
+      </c>
+      <c r="Q49" s="196" t="s">
+        <v>519</v>
+      </c>
+      <c r="R49" s="196" t="s">
+        <v>519</v>
+      </c>
+      <c r="S49" s="196" t="s">
+        <v>519</v>
+      </c>
+      <c r="T49" s="193"/>
+      <c r="U49" s="193"/>
+      <c r="V49" s="193"/>
+      <c r="W49" s="193"/>
+      <c r="X49" s="193"/>
+      <c r="Y49" s="198"/>
+      <c r="Z49" s="198"/>
+      <c r="AA49" s="198" t="s">
+        <v>519</v>
+      </c>
+      <c r="AB49" s="198"/>
+      <c r="AC49" s="198"/>
+      <c r="AD49" s="198" t="s">
+        <v>519</v>
+      </c>
+      <c r="AE49" s="198"/>
+      <c r="AF49" s="198"/>
+      <c r="AG49" s="198"/>
+      <c r="AH49" s="198"/>
+      <c r="AI49" s="198" t="s">
+        <v>519</v>
+      </c>
+      <c r="AJ49" s="198"/>
+      <c r="AK49" s="198"/>
+      <c r="AL49" s="198"/>
+      <c r="AM49" s="198"/>
+      <c r="AN49" s="198"/>
+      <c r="AO49" s="198"/>
+      <c r="AP49" s="198"/>
+      <c r="AQ49" s="198" t="s">
+        <v>519</v>
+      </c>
+      <c r="AR49" s="198" t="s">
+        <v>519</v>
+      </c>
+      <c r="AS49" s="198" t="s">
+        <v>519</v>
+      </c>
+      <c r="AT49" s="198"/>
+      <c r="AU49" s="198"/>
+      <c r="AV49" s="198"/>
+      <c r="AW49" s="198"/>
+      <c r="AX49" s="198"/>
+      <c r="AY49" s="198"/>
+      <c r="AZ49" s="198"/>
+      <c r="BA49" s="198"/>
+      <c r="BB49" s="198"/>
+      <c r="BC49" s="198"/>
+      <c r="BD49" s="198"/>
+      <c r="BE49" s="198"/>
+      <c r="BF49" s="198"/>
+      <c r="BG49" s="198"/>
+      <c r="BH49" s="198"/>
+      <c r="BI49" s="198"/>
+      <c r="BJ49" s="198"/>
+      <c r="BK49" s="198"/>
+      <c r="BL49" s="198"/>
+      <c r="BM49" s="198"/>
+      <c r="BN49" s="198"/>
+      <c r="BO49" s="198"/>
+      <c r="BP49" s="198"/>
+      <c r="BQ49" s="198"/>
+      <c r="BR49" s="198"/>
+      <c r="BS49" s="198"/>
+      <c r="BT49" s="198"/>
+      <c r="BU49" s="198"/>
+      <c r="BV49" s="198"/>
+      <c r="BW49" s="198"/>
+      <c r="BX49" s="198"/>
+      <c r="BY49" s="198"/>
+      <c r="BZ49" s="198" t="s">
+        <v>519</v>
+      </c>
+      <c r="CA49" s="198" t="s">
+        <v>519</v>
+      </c>
+      <c r="CB49" s="198" t="s">
+        <v>519</v>
+      </c>
+      <c r="CC49" s="198"/>
+      <c r="CD49" s="198"/>
+      <c r="CE49" s="198"/>
+      <c r="CF49" s="198"/>
+      <c r="CG49" s="198"/>
+      <c r="CH49" s="198"/>
+      <c r="CI49" s="198"/>
+      <c r="CJ49" s="198"/>
+      <c r="CK49" s="198"/>
+      <c r="CL49" s="198"/>
+      <c r="CM49" s="198"/>
+      <c r="CN49" s="198" t="s">
         <v>645</v>
       </c>
-      <c r="CO49" s="199"/>
-      <c r="CP49" s="199"/>
-      <c r="CQ49" s="199"/>
-      <c r="CR49" s="199"/>
-      <c r="CS49" s="199" t="s">
-        <v>519</v>
-      </c>
-      <c r="CT49" s="199" t="s">
-        <v>519</v>
-      </c>
-      <c r="CU49" s="199" t="s">
-        <v>519</v>
-      </c>
-      <c r="CV49" s="199" t="s">
-        <v>519</v>
-      </c>
-      <c r="CW49" s="199" t="s">
-        <v>519</v>
-      </c>
-      <c r="CX49" s="199" t="s">
-        <v>519</v>
-      </c>
-      <c r="CY49" s="199" t="s">
-        <v>519</v>
-      </c>
-      <c r="CZ49" s="199" t="s">
-        <v>519</v>
-      </c>
-      <c r="DA49" s="199"/>
-      <c r="DB49" s="199"/>
-      <c r="DC49" s="199"/>
-      <c r="DD49" s="199"/>
-      <c r="DE49" s="199"/>
-      <c r="DF49" s="199"/>
-      <c r="DG49" s="199"/>
-      <c r="DH49" s="199"/>
-      <c r="DI49" s="199" t="s">
-        <v>519</v>
-      </c>
-      <c r="DJ49" s="199"/>
-      <c r="DK49" s="199"/>
-      <c r="DL49" s="199"/>
-      <c r="DM49" s="199" t="s">
-        <v>519</v>
-      </c>
-      <c r="DN49" s="199" t="s">
-        <v>519</v>
-      </c>
-      <c r="DO49" s="199"/>
-      <c r="DP49" s="199"/>
-      <c r="DQ49" s="199"/>
-      <c r="DR49" s="199"/>
-      <c r="DS49" s="201">
+      <c r="CO49" s="198"/>
+      <c r="CP49" s="198"/>
+      <c r="CQ49" s="198"/>
+      <c r="CR49" s="198"/>
+      <c r="CS49" s="198" t="s">
+        <v>519</v>
+      </c>
+      <c r="CT49" s="198" t="s">
+        <v>519</v>
+      </c>
+      <c r="CU49" s="198" t="s">
+        <v>519</v>
+      </c>
+      <c r="CV49" s="198" t="s">
+        <v>519</v>
+      </c>
+      <c r="CW49" s="198" t="s">
+        <v>519</v>
+      </c>
+      <c r="CX49" s="198" t="s">
+        <v>519</v>
+      </c>
+      <c r="CY49" s="198" t="s">
+        <v>519</v>
+      </c>
+      <c r="CZ49" s="198" t="s">
+        <v>519</v>
+      </c>
+      <c r="DA49" s="198"/>
+      <c r="DB49" s="198"/>
+      <c r="DC49" s="198"/>
+      <c r="DD49" s="198"/>
+      <c r="DE49" s="198"/>
+      <c r="DF49" s="198"/>
+      <c r="DG49" s="198"/>
+      <c r="DH49" s="198"/>
+      <c r="DI49" s="198" t="s">
+        <v>519</v>
+      </c>
+      <c r="DJ49" s="198"/>
+      <c r="DK49" s="198"/>
+      <c r="DL49" s="198"/>
+      <c r="DM49" s="198" t="s">
+        <v>519</v>
+      </c>
+      <c r="DN49" s="198" t="s">
+        <v>519</v>
+      </c>
+      <c r="DO49" s="198"/>
+      <c r="DP49" s="198"/>
+      <c r="DQ49" s="198"/>
+      <c r="DR49" s="198"/>
+      <c r="DS49" s="200">
         <f t="shared" si="0"/>
         <v>5238000</v>
       </c>
-      <c r="DT49" s="202">
+      <c r="DT49" s="201">
         <f t="shared" si="9"/>
         <v>-2238000</v>
       </c>
-      <c r="DU49" s="203" t="s">
+      <c r="DU49" s="202" t="s">
         <v>736</v>
       </c>
     </row>
@@ -21759,10 +21894,10 @@
       <c r="H52" s="171" t="s">
         <v>598</v>
       </c>
-      <c r="I52" s="183" t="s">
+      <c r="I52" s="182" t="s">
         <v>603</v>
       </c>
-      <c r="J52" s="184"/>
+      <c r="J52" s="183"/>
       <c r="K52" s="159" t="s">
         <v>519</v>
       </c>
@@ -22307,196 +22442,196 @@
       <c r="B55" s="153" t="s">
         <v>706</v>
       </c>
-      <c r="C55" s="185" t="s">
+      <c r="C55" s="184" t="s">
         <v>484</v>
       </c>
-      <c r="D55" s="186" t="s">
+      <c r="D55" s="185" t="s">
         <v>437</v>
       </c>
       <c r="E55" s="153">
         <v>1988</v>
       </c>
-      <c r="F55" s="186">
+      <c r="F55" s="185">
         <v>1988</v>
       </c>
-      <c r="G55" s="187" t="s">
+      <c r="G55" s="186" t="s">
         <v>433</v>
       </c>
       <c r="H55" s="171" t="s">
         <v>598</v>
       </c>
-      <c r="I55" s="188" t="s">
+      <c r="I55" s="187" t="s">
         <v>564</v>
       </c>
-      <c r="J55" s="189"/>
-      <c r="K55" s="190" t="s">
-        <v>519</v>
-      </c>
-      <c r="L55" s="190" t="s">
-        <v>519</v>
-      </c>
-      <c r="M55" s="190" t="s">
-        <v>519</v>
-      </c>
-      <c r="N55" s="190" t="s">
-        <v>519</v>
-      </c>
-      <c r="O55" s="190" t="s">
-        <v>519</v>
-      </c>
-      <c r="P55" s="190" t="s">
-        <v>519</v>
-      </c>
-      <c r="Q55" s="190" t="s">
-        <v>519</v>
-      </c>
-      <c r="R55" s="190" t="s">
-        <v>519</v>
-      </c>
-      <c r="S55" s="190" t="s">
-        <v>519</v>
-      </c>
-      <c r="T55" s="187"/>
-      <c r="U55" s="187" t="s">
-        <v>519</v>
-      </c>
-      <c r="V55" s="187"/>
-      <c r="W55" s="187"/>
-      <c r="X55" s="187" t="s">
-        <v>519</v>
-      </c>
-      <c r="Y55" s="191" t="s">
-        <v>519</v>
-      </c>
-      <c r="Z55" s="191"/>
-      <c r="AA55" s="191" t="s">
-        <v>519</v>
-      </c>
-      <c r="AB55" s="191" t="s">
-        <v>519</v>
-      </c>
-      <c r="AC55" s="191" t="s">
+      <c r="J55" s="188"/>
+      <c r="K55" s="189" t="s">
+        <v>519</v>
+      </c>
+      <c r="L55" s="189" t="s">
+        <v>519</v>
+      </c>
+      <c r="M55" s="189" t="s">
+        <v>519</v>
+      </c>
+      <c r="N55" s="189" t="s">
+        <v>519</v>
+      </c>
+      <c r="O55" s="189" t="s">
+        <v>519</v>
+      </c>
+      <c r="P55" s="189" t="s">
+        <v>519</v>
+      </c>
+      <c r="Q55" s="189" t="s">
+        <v>519</v>
+      </c>
+      <c r="R55" s="189" t="s">
+        <v>519</v>
+      </c>
+      <c r="S55" s="189" t="s">
+        <v>519</v>
+      </c>
+      <c r="T55" s="186"/>
+      <c r="U55" s="186" t="s">
+        <v>519</v>
+      </c>
+      <c r="V55" s="186"/>
+      <c r="W55" s="186"/>
+      <c r="X55" s="186" t="s">
+        <v>519</v>
+      </c>
+      <c r="Y55" s="190" t="s">
+        <v>519</v>
+      </c>
+      <c r="Z55" s="190"/>
+      <c r="AA55" s="190" t="s">
+        <v>519</v>
+      </c>
+      <c r="AB55" s="190" t="s">
+        <v>519</v>
+      </c>
+      <c r="AC55" s="190" t="s">
         <v>519</v>
       </c>
       <c r="AD55" s="157" t="s">
         <v>519</v>
       </c>
-      <c r="AE55" s="191" t="s">
-        <v>519</v>
-      </c>
-      <c r="AF55" s="191"/>
-      <c r="AG55" s="191"/>
-      <c r="AH55" s="191"/>
-      <c r="AI55" s="191"/>
-      <c r="AJ55" s="191"/>
-      <c r="AK55" s="191"/>
-      <c r="AL55" s="191"/>
-      <c r="AM55" s="191"/>
-      <c r="AN55" s="191"/>
-      <c r="AO55" s="191"/>
-      <c r="AP55" s="191"/>
-      <c r="AQ55" s="191" t="s">
-        <v>519</v>
-      </c>
-      <c r="AR55" s="191" t="s">
-        <v>519</v>
-      </c>
-      <c r="AS55" s="191"/>
-      <c r="AT55" s="191"/>
-      <c r="AU55" s="191"/>
-      <c r="AV55" s="191"/>
-      <c r="AW55" s="191"/>
-      <c r="AX55" s="191"/>
-      <c r="AY55" s="191"/>
-      <c r="AZ55" s="191"/>
-      <c r="BA55" s="191" t="s">
-        <v>519</v>
-      </c>
-      <c r="BB55" s="191"/>
-      <c r="BC55" s="191"/>
-      <c r="BD55" s="191"/>
-      <c r="BE55" s="191"/>
-      <c r="BF55" s="191"/>
-      <c r="BG55" s="191"/>
-      <c r="BH55" s="191" t="s">
-        <v>519</v>
-      </c>
-      <c r="BI55" s="191"/>
-      <c r="BJ55" s="191"/>
-      <c r="BK55" s="191"/>
-      <c r="BL55" s="191"/>
-      <c r="BM55" s="191"/>
-      <c r="BN55" s="191"/>
-      <c r="BO55" s="191" t="s">
-        <v>519</v>
-      </c>
-      <c r="BP55" s="191"/>
-      <c r="BQ55" s="191"/>
-      <c r="BR55" s="191"/>
-      <c r="BS55" s="191" t="s">
-        <v>519</v>
-      </c>
-      <c r="BT55" s="191"/>
-      <c r="BU55" s="191"/>
-      <c r="BV55" s="191"/>
-      <c r="BW55" s="191"/>
-      <c r="BX55" s="191"/>
-      <c r="BY55" s="191"/>
-      <c r="BZ55" s="191"/>
-      <c r="CA55" s="191" t="s">
-        <v>519</v>
-      </c>
-      <c r="CB55" s="191"/>
-      <c r="CC55" s="191"/>
-      <c r="CD55" s="191"/>
-      <c r="CE55" s="191"/>
-      <c r="CF55" s="191"/>
-      <c r="CG55" s="191"/>
-      <c r="CH55" s="191"/>
-      <c r="CI55" s="191"/>
-      <c r="CJ55" s="191"/>
-      <c r="CK55" s="191"/>
-      <c r="CL55" s="191"/>
-      <c r="CM55" s="191"/>
-      <c r="CN55" s="191"/>
-      <c r="CO55" s="191"/>
-      <c r="CP55" s="191"/>
-      <c r="CQ55" s="191"/>
-      <c r="CR55" s="191"/>
-      <c r="CS55" s="191"/>
-      <c r="CT55" s="191"/>
-      <c r="CU55" s="191"/>
-      <c r="CV55" s="191"/>
-      <c r="CW55" s="191"/>
-      <c r="CX55" s="191"/>
-      <c r="CY55" s="191"/>
-      <c r="CZ55" s="191"/>
-      <c r="DA55" s="191"/>
-      <c r="DB55" s="191"/>
-      <c r="DC55" s="191"/>
-      <c r="DD55" s="191"/>
-      <c r="DE55" s="191"/>
-      <c r="DF55" s="191"/>
-      <c r="DG55" s="191"/>
-      <c r="DH55" s="191" t="s">
-        <v>519</v>
-      </c>
-      <c r="DI55" s="191"/>
-      <c r="DJ55" s="191" t="s">
-        <v>519</v>
-      </c>
-      <c r="DK55" s="191"/>
-      <c r="DL55" s="191"/>
-      <c r="DM55" s="191" t="s">
-        <v>519</v>
-      </c>
-      <c r="DN55" s="191" t="s">
-        <v>519</v>
-      </c>
-      <c r="DO55" s="191"/>
-      <c r="DP55" s="191"/>
-      <c r="DQ55" s="191"/>
-      <c r="DR55" s="191"/>
+      <c r="AE55" s="190" t="s">
+        <v>519</v>
+      </c>
+      <c r="AF55" s="190"/>
+      <c r="AG55" s="190"/>
+      <c r="AH55" s="190"/>
+      <c r="AI55" s="190"/>
+      <c r="AJ55" s="190"/>
+      <c r="AK55" s="190"/>
+      <c r="AL55" s="190"/>
+      <c r="AM55" s="190"/>
+      <c r="AN55" s="190"/>
+      <c r="AO55" s="190"/>
+      <c r="AP55" s="190"/>
+      <c r="AQ55" s="190" t="s">
+        <v>519</v>
+      </c>
+      <c r="AR55" s="190" t="s">
+        <v>519</v>
+      </c>
+      <c r="AS55" s="190"/>
+      <c r="AT55" s="190"/>
+      <c r="AU55" s="190"/>
+      <c r="AV55" s="190"/>
+      <c r="AW55" s="190"/>
+      <c r="AX55" s="190"/>
+      <c r="AY55" s="190"/>
+      <c r="AZ55" s="190"/>
+      <c r="BA55" s="190" t="s">
+        <v>519</v>
+      </c>
+      <c r="BB55" s="190"/>
+      <c r="BC55" s="190"/>
+      <c r="BD55" s="190"/>
+      <c r="BE55" s="190"/>
+      <c r="BF55" s="190"/>
+      <c r="BG55" s="190"/>
+      <c r="BH55" s="190" t="s">
+        <v>519</v>
+      </c>
+      <c r="BI55" s="190"/>
+      <c r="BJ55" s="190"/>
+      <c r="BK55" s="190"/>
+      <c r="BL55" s="190"/>
+      <c r="BM55" s="190"/>
+      <c r="BN55" s="190"/>
+      <c r="BO55" s="190" t="s">
+        <v>519</v>
+      </c>
+      <c r="BP55" s="190"/>
+      <c r="BQ55" s="190"/>
+      <c r="BR55" s="190"/>
+      <c r="BS55" s="190" t="s">
+        <v>519</v>
+      </c>
+      <c r="BT55" s="190"/>
+      <c r="BU55" s="190"/>
+      <c r="BV55" s="190"/>
+      <c r="BW55" s="190"/>
+      <c r="BX55" s="190"/>
+      <c r="BY55" s="190"/>
+      <c r="BZ55" s="190"/>
+      <c r="CA55" s="190" t="s">
+        <v>519</v>
+      </c>
+      <c r="CB55" s="190"/>
+      <c r="CC55" s="190"/>
+      <c r="CD55" s="190"/>
+      <c r="CE55" s="190"/>
+      <c r="CF55" s="190"/>
+      <c r="CG55" s="190"/>
+      <c r="CH55" s="190"/>
+      <c r="CI55" s="190"/>
+      <c r="CJ55" s="190"/>
+      <c r="CK55" s="190"/>
+      <c r="CL55" s="190"/>
+      <c r="CM55" s="190"/>
+      <c r="CN55" s="190"/>
+      <c r="CO55" s="190"/>
+      <c r="CP55" s="190"/>
+      <c r="CQ55" s="190"/>
+      <c r="CR55" s="190"/>
+      <c r="CS55" s="190"/>
+      <c r="CT55" s="190"/>
+      <c r="CU55" s="190"/>
+      <c r="CV55" s="190"/>
+      <c r="CW55" s="190"/>
+      <c r="CX55" s="190"/>
+      <c r="CY55" s="190"/>
+      <c r="CZ55" s="190"/>
+      <c r="DA55" s="190"/>
+      <c r="DB55" s="190"/>
+      <c r="DC55" s="190"/>
+      <c r="DD55" s="190"/>
+      <c r="DE55" s="190"/>
+      <c r="DF55" s="190"/>
+      <c r="DG55" s="190"/>
+      <c r="DH55" s="190" t="s">
+        <v>519</v>
+      </c>
+      <c r="DI55" s="190"/>
+      <c r="DJ55" s="190" t="s">
+        <v>519</v>
+      </c>
+      <c r="DK55" s="190"/>
+      <c r="DL55" s="190"/>
+      <c r="DM55" s="190" t="s">
+        <v>519</v>
+      </c>
+      <c r="DN55" s="190" t="s">
+        <v>519</v>
+      </c>
+      <c r="DO55" s="190"/>
+      <c r="DP55" s="190"/>
+      <c r="DQ55" s="190"/>
+      <c r="DR55" s="190"/>
       <c r="DS55" s="161">
         <f t="shared" si="0"/>
         <v>3180000</v>
@@ -22513,10 +22648,10 @@
       <c r="B56" s="153" t="s">
         <v>707</v>
       </c>
-      <c r="C56" s="184" t="s">
+      <c r="C56" s="183" t="s">
         <v>485</v>
       </c>
-      <c r="D56" s="183" t="s">
+      <c r="D56" s="182" t="s">
         <v>437</v>
       </c>
       <c r="E56" s="153">
@@ -22525,16 +22660,16 @@
       <c r="F56" s="170">
         <v>1991</v>
       </c>
-      <c r="G56" s="184" t="s">
+      <c r="G56" s="183" t="s">
         <v>433</v>
       </c>
       <c r="H56" s="171" t="s">
         <v>598</v>
       </c>
-      <c r="I56" s="183" t="s">
+      <c r="I56" s="182" t="s">
         <v>605</v>
       </c>
-      <c r="J56" s="184"/>
+      <c r="J56" s="183"/>
       <c r="K56" s="159" t="s">
         <v>519</v>
       </c>
@@ -23109,7 +23244,7 @@
       <c r="H59" s="171" t="s">
         <v>584</v>
       </c>
-      <c r="I59" s="182" t="s">
+      <c r="I59" s="181" t="s">
         <v>585</v>
       </c>
       <c r="J59" s="177" t="s">
@@ -23295,7 +23430,7 @@
       <c r="H60" s="171" t="s">
         <v>587</v>
       </c>
-      <c r="I60" s="182" t="s">
+      <c r="I60" s="181" t="s">
         <v>588</v>
       </c>
       <c r="J60" s="177" t="s">
@@ -23497,7 +23632,7 @@
       <c r="H61" s="171" t="s">
         <v>587</v>
       </c>
-      <c r="I61" s="182" t="s">
+      <c r="I61" s="181" t="s">
         <v>590</v>
       </c>
       <c r="J61" s="177" t="s">
@@ -23687,7 +23822,7 @@
       <c r="H62" s="171" t="s">
         <v>584</v>
       </c>
-      <c r="I62" s="182" t="s">
+      <c r="I62" s="181" t="s">
         <v>592</v>
       </c>
       <c r="J62" s="177" t="s">
@@ -23848,214 +23983,214 @@
         <v>-654000</v>
       </c>
     </row>
-    <row r="63" spans="1:127" s="203" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="192">
+    <row r="63" spans="1:127" s="202" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="191">
         <v>60</v>
       </c>
-      <c r="B63" s="192" t="s">
+      <c r="B63" s="191" t="s">
         <v>714</v>
       </c>
-      <c r="C63" s="193" t="s">
+      <c r="C63" s="192" t="s">
         <v>492</v>
       </c>
-      <c r="D63" s="192" t="s">
+      <c r="D63" s="191" t="s">
         <v>437</v>
       </c>
-      <c r="E63" s="192">
+      <c r="E63" s="191">
         <v>1997</v>
       </c>
-      <c r="F63" s="207">
+      <c r="F63" s="206">
         <v>35738</v>
       </c>
-      <c r="G63" s="194" t="s">
+      <c r="G63" s="193" t="s">
         <v>433</v>
       </c>
-      <c r="H63" s="195" t="s">
+      <c r="H63" s="194" t="s">
         <v>584</v>
       </c>
-      <c r="I63" s="208" t="s">
+      <c r="I63" s="207" t="s">
         <v>594</v>
       </c>
-      <c r="J63" s="209" t="s">
+      <c r="J63" s="208" t="s">
         <v>595</v>
       </c>
-      <c r="K63" s="197" t="s">
-        <v>519</v>
-      </c>
-      <c r="L63" s="197" t="s">
-        <v>519</v>
-      </c>
-      <c r="M63" s="197" t="s">
-        <v>519</v>
-      </c>
-      <c r="N63" s="197" t="s">
-        <v>519</v>
-      </c>
-      <c r="O63" s="197" t="s">
-        <v>519</v>
-      </c>
-      <c r="P63" s="197" t="s">
-        <v>519</v>
-      </c>
-      <c r="Q63" s="197" t="s">
-        <v>519</v>
-      </c>
-      <c r="R63" s="197" t="s">
-        <v>519</v>
-      </c>
-      <c r="S63" s="197" t="s">
-        <v>519</v>
-      </c>
-      <c r="T63" s="194"/>
-      <c r="U63" s="194" t="s">
-        <v>519</v>
-      </c>
-      <c r="V63" s="194" t="s">
-        <v>519</v>
-      </c>
-      <c r="W63" s="194"/>
-      <c r="X63" s="194" t="s">
-        <v>519</v>
-      </c>
-      <c r="Y63" s="199" t="s">
-        <v>519</v>
-      </c>
-      <c r="Z63" s="199" t="s">
-        <v>519</v>
-      </c>
-      <c r="AA63" s="199" t="s">
-        <v>519</v>
-      </c>
-      <c r="AB63" s="199" t="s">
-        <v>519</v>
-      </c>
-      <c r="AC63" s="199" t="s">
-        <v>519</v>
-      </c>
-      <c r="AD63" s="199" t="s">
-        <v>519</v>
-      </c>
-      <c r="AE63" s="199"/>
-      <c r="AF63" s="199"/>
-      <c r="AG63" s="199"/>
-      <c r="AH63" s="199"/>
-      <c r="AI63" s="199" t="s">
-        <v>519</v>
-      </c>
-      <c r="AJ63" s="199"/>
-      <c r="AK63" s="199"/>
-      <c r="AL63" s="199"/>
-      <c r="AM63" s="199"/>
-      <c r="AN63" s="199"/>
-      <c r="AO63" s="199"/>
-      <c r="AP63" s="199"/>
-      <c r="AQ63" s="199"/>
-      <c r="AR63" s="199"/>
-      <c r="AS63" s="199"/>
-      <c r="AT63" s="199"/>
-      <c r="AU63" s="199"/>
-      <c r="AV63" s="199"/>
-      <c r="AW63" s="199"/>
-      <c r="AX63" s="199"/>
-      <c r="AY63" s="199"/>
-      <c r="AZ63" s="199"/>
-      <c r="BA63" s="199"/>
-      <c r="BB63" s="199"/>
-      <c r="BC63" s="199"/>
-      <c r="BD63" s="199"/>
-      <c r="BE63" s="199"/>
-      <c r="BF63" s="199"/>
-      <c r="BG63" s="199"/>
-      <c r="BH63" s="199"/>
-      <c r="BI63" s="199"/>
-      <c r="BJ63" s="199"/>
-      <c r="BK63" s="199"/>
-      <c r="BL63" s="199"/>
-      <c r="BM63" s="199"/>
-      <c r="BN63" s="199"/>
-      <c r="BO63" s="199"/>
-      <c r="BP63" s="199"/>
-      <c r="BQ63" s="199"/>
-      <c r="BR63" s="199"/>
-      <c r="BS63" s="199"/>
-      <c r="BT63" s="199"/>
-      <c r="BU63" s="199"/>
-      <c r="BV63" s="199"/>
-      <c r="BW63" s="199"/>
-      <c r="BX63" s="199"/>
-      <c r="BY63" s="199"/>
-      <c r="BZ63" s="199"/>
-      <c r="CA63" s="199"/>
-      <c r="CB63" s="199"/>
-      <c r="CC63" s="199"/>
-      <c r="CD63" s="199"/>
-      <c r="CE63" s="199"/>
-      <c r="CF63" s="199"/>
-      <c r="CG63" s="199"/>
-      <c r="CH63" s="199"/>
-      <c r="CI63" s="199"/>
-      <c r="CJ63" s="199"/>
-      <c r="CK63" s="199"/>
-      <c r="CL63" s="199"/>
-      <c r="CM63" s="199"/>
-      <c r="CN63" s="199"/>
-      <c r="CO63" s="199"/>
-      <c r="CP63" s="199"/>
-      <c r="CQ63" s="199"/>
-      <c r="CR63" s="199"/>
-      <c r="CS63" s="199"/>
-      <c r="CT63" s="199" t="s">
-        <v>519</v>
-      </c>
-      <c r="CU63" s="199"/>
-      <c r="CV63" s="199"/>
-      <c r="CW63" s="199"/>
-      <c r="CX63" s="199"/>
-      <c r="CY63" s="199"/>
-      <c r="CZ63" s="199" t="s">
-        <v>519</v>
-      </c>
-      <c r="DA63" s="199"/>
-      <c r="DB63" s="199"/>
-      <c r="DC63" s="199"/>
-      <c r="DD63" s="199" t="s">
-        <v>519</v>
-      </c>
-      <c r="DE63" s="199"/>
-      <c r="DF63" s="199"/>
-      <c r="DG63" s="199"/>
-      <c r="DH63" s="199" t="s">
-        <v>519</v>
-      </c>
-      <c r="DI63" s="199" t="s">
-        <v>519</v>
-      </c>
-      <c r="DJ63" s="199"/>
-      <c r="DK63" s="199"/>
-      <c r="DL63" s="199"/>
-      <c r="DM63" s="199"/>
-      <c r="DN63" s="199" t="s">
-        <v>519</v>
-      </c>
-      <c r="DO63" s="199"/>
-      <c r="DP63" s="199"/>
-      <c r="DQ63" s="199"/>
-      <c r="DR63" s="199"/>
-      <c r="DS63" s="201">
+      <c r="K63" s="196" t="s">
+        <v>519</v>
+      </c>
+      <c r="L63" s="196" t="s">
+        <v>519</v>
+      </c>
+      <c r="M63" s="196" t="s">
+        <v>519</v>
+      </c>
+      <c r="N63" s="196" t="s">
+        <v>519</v>
+      </c>
+      <c r="O63" s="196" t="s">
+        <v>519</v>
+      </c>
+      <c r="P63" s="196" t="s">
+        <v>519</v>
+      </c>
+      <c r="Q63" s="196" t="s">
+        <v>519</v>
+      </c>
+      <c r="R63" s="196" t="s">
+        <v>519</v>
+      </c>
+      <c r="S63" s="196" t="s">
+        <v>519</v>
+      </c>
+      <c r="T63" s="193"/>
+      <c r="U63" s="193" t="s">
+        <v>519</v>
+      </c>
+      <c r="V63" s="193" t="s">
+        <v>519</v>
+      </c>
+      <c r="W63" s="193"/>
+      <c r="X63" s="193" t="s">
+        <v>519</v>
+      </c>
+      <c r="Y63" s="198" t="s">
+        <v>519</v>
+      </c>
+      <c r="Z63" s="198" t="s">
+        <v>519</v>
+      </c>
+      <c r="AA63" s="198" t="s">
+        <v>519</v>
+      </c>
+      <c r="AB63" s="198" t="s">
+        <v>519</v>
+      </c>
+      <c r="AC63" s="198" t="s">
+        <v>519</v>
+      </c>
+      <c r="AD63" s="198" t="s">
+        <v>519</v>
+      </c>
+      <c r="AE63" s="198"/>
+      <c r="AF63" s="198"/>
+      <c r="AG63" s="198"/>
+      <c r="AH63" s="198"/>
+      <c r="AI63" s="198" t="s">
+        <v>519</v>
+      </c>
+      <c r="AJ63" s="198"/>
+      <c r="AK63" s="198"/>
+      <c r="AL63" s="198"/>
+      <c r="AM63" s="198"/>
+      <c r="AN63" s="198"/>
+      <c r="AO63" s="198"/>
+      <c r="AP63" s="198"/>
+      <c r="AQ63" s="198"/>
+      <c r="AR63" s="198"/>
+      <c r="AS63" s="198"/>
+      <c r="AT63" s="198"/>
+      <c r="AU63" s="198"/>
+      <c r="AV63" s="198"/>
+      <c r="AW63" s="198"/>
+      <c r="AX63" s="198"/>
+      <c r="AY63" s="198"/>
+      <c r="AZ63" s="198"/>
+      <c r="BA63" s="198"/>
+      <c r="BB63" s="198"/>
+      <c r="BC63" s="198"/>
+      <c r="BD63" s="198"/>
+      <c r="BE63" s="198"/>
+      <c r="BF63" s="198"/>
+      <c r="BG63" s="198"/>
+      <c r="BH63" s="198"/>
+      <c r="BI63" s="198"/>
+      <c r="BJ63" s="198"/>
+      <c r="BK63" s="198"/>
+      <c r="BL63" s="198"/>
+      <c r="BM63" s="198"/>
+      <c r="BN63" s="198"/>
+      <c r="BO63" s="198"/>
+      <c r="BP63" s="198"/>
+      <c r="BQ63" s="198"/>
+      <c r="BR63" s="198"/>
+      <c r="BS63" s="198"/>
+      <c r="BT63" s="198"/>
+      <c r="BU63" s="198"/>
+      <c r="BV63" s="198"/>
+      <c r="BW63" s="198"/>
+      <c r="BX63" s="198"/>
+      <c r="BY63" s="198"/>
+      <c r="BZ63" s="198"/>
+      <c r="CA63" s="198"/>
+      <c r="CB63" s="198"/>
+      <c r="CC63" s="198"/>
+      <c r="CD63" s="198"/>
+      <c r="CE63" s="198"/>
+      <c r="CF63" s="198"/>
+      <c r="CG63" s="198"/>
+      <c r="CH63" s="198"/>
+      <c r="CI63" s="198"/>
+      <c r="CJ63" s="198"/>
+      <c r="CK63" s="198"/>
+      <c r="CL63" s="198"/>
+      <c r="CM63" s="198"/>
+      <c r="CN63" s="198"/>
+      <c r="CO63" s="198"/>
+      <c r="CP63" s="198"/>
+      <c r="CQ63" s="198"/>
+      <c r="CR63" s="198"/>
+      <c r="CS63" s="198"/>
+      <c r="CT63" s="198" t="s">
+        <v>519</v>
+      </c>
+      <c r="CU63" s="198"/>
+      <c r="CV63" s="198"/>
+      <c r="CW63" s="198"/>
+      <c r="CX63" s="198"/>
+      <c r="CY63" s="198"/>
+      <c r="CZ63" s="198" t="s">
+        <v>519</v>
+      </c>
+      <c r="DA63" s="198"/>
+      <c r="DB63" s="198"/>
+      <c r="DC63" s="198"/>
+      <c r="DD63" s="198" t="s">
+        <v>519</v>
+      </c>
+      <c r="DE63" s="198"/>
+      <c r="DF63" s="198"/>
+      <c r="DG63" s="198"/>
+      <c r="DH63" s="198" t="s">
+        <v>519</v>
+      </c>
+      <c r="DI63" s="198" t="s">
+        <v>519</v>
+      </c>
+      <c r="DJ63" s="198"/>
+      <c r="DK63" s="198"/>
+      <c r="DL63" s="198"/>
+      <c r="DM63" s="198"/>
+      <c r="DN63" s="198" t="s">
+        <v>519</v>
+      </c>
+      <c r="DO63" s="198"/>
+      <c r="DP63" s="198"/>
+      <c r="DQ63" s="198"/>
+      <c r="DR63" s="198"/>
+      <c r="DS63" s="200">
         <f t="shared" si="0"/>
         <v>3891000</v>
       </c>
-      <c r="DT63" s="202">
+      <c r="DT63" s="201">
         <f t="shared" si="12"/>
         <v>-891000</v>
       </c>
-      <c r="DU63" s="203" t="s">
+      <c r="DU63" s="202" t="s">
         <v>653</v>
       </c>
-      <c r="DV63" s="203" t="s">
+      <c r="DV63" s="202" t="s">
         <v>737</v>
       </c>
-      <c r="DW63" s="203" t="s">
+      <c r="DW63" s="202" t="s">
         <v>739</v>
       </c>
     </row>
@@ -27510,18 +27645,18 @@
       </c>
     </row>
     <row r="84" spans="1:124" s="137" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="222" t="s">
+      <c r="A84" s="228" t="s">
         <v>414</v>
       </c>
-      <c r="B84" s="223"/>
-      <c r="C84" s="223"/>
-      <c r="D84" s="223"/>
-      <c r="E84" s="223"/>
-      <c r="F84" s="223"/>
-      <c r="G84" s="223"/>
-      <c r="H84" s="223"/>
-      <c r="I84" s="223"/>
-      <c r="J84" s="296"/>
+      <c r="B84" s="229"/>
+      <c r="C84" s="229"/>
+      <c r="D84" s="229"/>
+      <c r="E84" s="229"/>
+      <c r="F84" s="229"/>
+      <c r="G84" s="229"/>
+      <c r="H84" s="229"/>
+      <c r="I84" s="229"/>
+      <c r="J84" s="302"/>
       <c r="K84" s="138">
         <f>COUNTA(K4:K83)</f>
         <v>70</v>
@@ -28026,7 +28161,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A43DB772-A7B7-4AF5-B575-B861E13F3981}">
   <dimension ref="A3:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:I7"/>
     </sheetView>
   </sheetViews>
@@ -28044,55 +28179,55 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="306" t="s">
-        <v>747</v>
-      </c>
-      <c r="B3" s="306"/>
-      <c r="C3" s="306"/>
-      <c r="D3" s="306"/>
-      <c r="E3" s="306"/>
-      <c r="F3" s="306"/>
-      <c r="G3" s="306"/>
-      <c r="H3" s="306"/>
-      <c r="I3" s="306"/>
+      <c r="A3" s="304" t="s">
+        <v>746</v>
+      </c>
+      <c r="B3" s="304"/>
+      <c r="C3" s="304"/>
+      <c r="D3" s="304"/>
+      <c r="E3" s="304"/>
+      <c r="F3" s="304"/>
+      <c r="G3" s="304"/>
+      <c r="H3" s="304"/>
+      <c r="I3" s="304"/>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="300" t="s">
+      <c r="A4" s="222" t="s">
         <v>260</v>
       </c>
-      <c r="B4" s="300" t="s">
+      <c r="B4" s="222" t="s">
         <v>654</v>
       </c>
-      <c r="C4" s="300" t="s">
+      <c r="C4" s="222" t="s">
         <v>421</v>
       </c>
-      <c r="D4" s="300" t="s">
+      <c r="D4" s="222" t="s">
         <v>422</v>
       </c>
-      <c r="E4" s="300" t="s">
+      <c r="E4" s="222" t="s">
         <v>735</v>
       </c>
-      <c r="F4" s="300" t="s">
+      <c r="F4" s="222" t="s">
         <v>514</v>
       </c>
-      <c r="G4" s="300" t="s">
+      <c r="G4" s="222" t="s">
         <v>424</v>
       </c>
-      <c r="H4" s="300" t="s">
+      <c r="H4" s="222" t="s">
         <v>425</v>
       </c>
-      <c r="I4" s="304" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="299" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I4" s="222" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="136" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="157">
         <v>14</v>
       </c>
       <c r="B5" s="157" t="s">
         <v>668</v>
       </c>
-      <c r="C5" s="298" t="s">
+      <c r="C5" s="221" t="s">
         <v>446</v>
       </c>
       <c r="D5" s="157" t="s">
@@ -28111,46 +28246,46 @@
         <v>556</v>
       </c>
       <c r="I5" s="157" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="303" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="301">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="225" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="223">
         <v>20</v>
       </c>
-      <c r="B6" s="301" t="s">
+      <c r="B6" s="223" t="s">
         <v>674</v>
       </c>
-      <c r="C6" s="302" t="s">
+      <c r="C6" s="224" t="s">
         <v>452</v>
       </c>
-      <c r="D6" s="301" t="s">
+      <c r="D6" s="223" t="s">
         <v>437</v>
       </c>
-      <c r="E6" s="301">
+      <c r="E6" s="223">
         <v>1982</v>
       </c>
-      <c r="F6" s="307" t="s">
+      <c r="F6" s="227" t="s">
         <v>433</v>
       </c>
-      <c r="G6" s="307" t="s">
+      <c r="G6" s="227" t="s">
         <v>551</v>
       </c>
-      <c r="H6" s="301" t="s">
+      <c r="H6" s="223" t="s">
         <v>560</v>
       </c>
-      <c r="I6" s="301" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="299" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I6" s="223" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="157">
         <v>34</v>
       </c>
       <c r="B7" s="157" t="s">
         <v>688</v>
       </c>
-      <c r="C7" s="298" t="s">
+      <c r="C7" s="221" t="s">
         <v>466</v>
       </c>
       <c r="D7" s="157" t="s">
@@ -28168,8 +28303,8 @@
       <c r="H7" s="178" t="s">
         <v>582</v>
       </c>
-      <c r="I7" s="305" t="s">
-        <v>748</v>
+      <c r="I7" s="226" t="s">
+        <v>747</v>
       </c>
     </row>
   </sheetData>

--- a/Hoàng/2025/T5/BIDV QUẢNG NAM (62-2025)/DANH MỤC BIDV QUẢNG NAM - điều chỉnh DM FINAL.xlsx
+++ b/Hoàng/2025/T5/BIDV QUẢNG NAM (62-2025)/DANH MỤC BIDV QUẢNG NAM - điều chỉnh DM FINAL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\DATA-TN\Hoàng\2025\T5\BIDV QUẢNG NAM (62-2025)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D229569C-712A-4034-A6D0-4823060F3423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E480464C-2437-4C9F-9CDF-D83D62C18B2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3062" uniqueCount="755">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3063" uniqueCount="756">
   <si>
     <t>Ghi chú</t>
   </si>
@@ -2369,7 +2369,10 @@
     <t>ĐÃ XUẤT HOÁ ĐƠN LẺ NỘI SOI DẠ DÀY</t>
   </si>
   <si>
-    <t>ĐÃ XUẤT HOÁ ĐƠN LẺ 1.968.000 đồng (NỘI SOI)</t>
+    <t>ĐÃ XUẤT HOÁ ĐƠN LẺ 1.968.000 đồng (NỘI SOI) - HUỶ HOÁ ĐƠN NÀY, CHỐT CP, LÀM BẢNG KÊ CHI TIẾT RIÊNG ĐỐI VỚI TH NÀY ( CÔNG TY THANH TOÁN ĐÚNG HẠN MỨC  3,5 triệu - KHÁCH HÀNG CÒN BAO NHIÊU … )</t>
+  </si>
+  <si>
+    <t>XUẤT HOÁ ĐƠN LẺ PHẦN NỘI SOI ( KHỎI CẦN, CHỈ CẦN GỬI BẢNG KÊ CHI PHÍ )</t>
   </si>
 </sst>
 </file>
@@ -2588,7 +2591,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2670,6 +2673,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3055,7 +3064,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="351">
+  <cellXfs count="364">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3543,9 +3552,6 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3672,237 +3678,6 @@
     <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="21" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="20" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="20" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="24" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4009,6 +3784,271 @@
     <xf numFmtId="165" fontId="24" fillId="14" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="25" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="25" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="25" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="15" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="25" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="21" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="24" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -4449,7 +4489,7 @@
   <dimension ref="A1:N84"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
@@ -4464,34 +4504,34 @@
     <col min="6" max="8" width="9.140625" style="15"/>
     <col min="9" max="9" width="30.28515625" style="15" bestFit="1" customWidth="1"/>
     <col min="10" max="12" width="9.140625" style="15"/>
-    <col min="13" max="13" width="11.85546875" style="212" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" style="211" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="230" t="s">
+      <c r="A1" s="289" t="s">
         <v>260</v>
       </c>
-      <c r="B1" s="231" t="s">
+      <c r="B1" s="290" t="s">
         <v>654</v>
       </c>
-      <c r="C1" s="230" t="s">
+      <c r="C1" s="289" t="s">
         <v>421</v>
       </c>
-      <c r="D1" s="230" t="s">
+      <c r="D1" s="289" t="s">
         <v>422</v>
       </c>
-      <c r="E1" s="231" t="s">
+      <c r="E1" s="290" t="s">
         <v>735</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="129" customFormat="1" ht="195.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="230"/>
-      <c r="B2" s="232"/>
-      <c r="C2" s="230"/>
-      <c r="D2" s="230"/>
-      <c r="E2" s="232"/>
-      <c r="M2" s="213"/>
+      <c r="A2" s="289"/>
+      <c r="B2" s="291"/>
+      <c r="C2" s="289"/>
+      <c r="D2" s="289"/>
+      <c r="E2" s="291"/>
+      <c r="M2" s="212"/>
     </row>
     <row r="3" spans="1:14" s="136" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="149" t="s">
@@ -4501,22 +4541,22 @@
       <c r="C3" s="149"/>
       <c r="D3" s="130"/>
       <c r="E3" s="130"/>
-      <c r="H3" s="215" t="s">
+      <c r="H3" s="214" t="s">
         <v>260</v>
       </c>
-      <c r="I3" s="215" t="s">
+      <c r="I3" s="214" t="s">
         <v>740</v>
       </c>
-      <c r="J3" s="215" t="s">
+      <c r="J3" s="214" t="s">
         <v>742</v>
       </c>
-      <c r="K3" s="215" t="s">
+      <c r="K3" s="214" t="s">
         <v>741</v>
       </c>
-      <c r="L3" s="216" t="s">
+      <c r="L3" s="215" t="s">
         <v>0</v>
       </c>
-      <c r="M3" s="216" t="s">
+      <c r="M3" s="215" t="s">
         <v>743</v>
       </c>
     </row>
@@ -4536,23 +4576,23 @@
       <c r="E4" s="153">
         <v>1972</v>
       </c>
-      <c r="H4" s="217">
+      <c r="H4" s="216">
         <v>1</v>
       </c>
-      <c r="I4" s="218" t="s">
+      <c r="I4" s="217" t="s">
         <v>431</v>
       </c>
-      <c r="J4" s="218">
+      <c r="J4" s="217">
         <f>VLOOKUP(I4,$C$4:$E$83,3,0)</f>
         <v>1983</v>
       </c>
-      <c r="K4" s="217" t="s">
+      <c r="K4" s="216" t="s">
         <v>432</v>
       </c>
-      <c r="L4" s="219" t="s">
+      <c r="L4" s="218" t="s">
         <v>433</v>
       </c>
-      <c r="M4" s="220">
+      <c r="M4" s="219">
         <v>2000000</v>
       </c>
       <c r="N4" s="136" t="str">
@@ -4561,13 +4601,13 @@
       </c>
     </row>
     <row r="5" spans="1:14" s="136" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="210">
+      <c r="A5" s="209">
         <v>2</v>
       </c>
       <c r="B5" s="153" t="s">
         <v>656</v>
       </c>
-      <c r="C5" s="209" t="s">
+      <c r="C5" s="208" t="s">
         <v>431</v>
       </c>
       <c r="D5" s="153" t="s">
@@ -4576,23 +4616,23 @@
       <c r="E5" s="153">
         <v>1983</v>
       </c>
-      <c r="H5" s="217">
+      <c r="H5" s="216">
         <v>2</v>
       </c>
-      <c r="I5" s="218" t="s">
+      <c r="I5" s="217" t="s">
         <v>434</v>
       </c>
-      <c r="J5" s="218">
+      <c r="J5" s="217">
         <f t="shared" ref="J5:J68" si="0">VLOOKUP(I5,$C$4:$E$83,3,0)</f>
         <v>1979</v>
       </c>
-      <c r="K5" s="217" t="s">
+      <c r="K5" s="216" t="s">
         <v>432</v>
       </c>
-      <c r="L5" s="219" t="s">
+      <c r="L5" s="218" t="s">
         <v>433</v>
       </c>
-      <c r="M5" s="220">
+      <c r="M5" s="219">
         <v>2000000</v>
       </c>
       <c r="N5" s="136" t="str">
@@ -4616,23 +4656,23 @@
       <c r="E6" s="153">
         <v>1979</v>
       </c>
-      <c r="H6" s="217">
+      <c r="H6" s="216">
         <v>3</v>
       </c>
-      <c r="I6" s="218" t="s">
+      <c r="I6" s="217" t="s">
         <v>614</v>
       </c>
-      <c r="J6" s="218">
+      <c r="J6" s="217">
         <f t="shared" si="0"/>
         <v>1972</v>
       </c>
-      <c r="K6" s="217" t="s">
+      <c r="K6" s="216" t="s">
         <v>437</v>
       </c>
-      <c r="L6" s="219" t="s">
+      <c r="L6" s="218" t="s">
         <v>433</v>
       </c>
-      <c r="M6" s="220">
+      <c r="M6" s="219">
         <v>3500000</v>
       </c>
       <c r="N6" s="136" t="str">
@@ -4656,23 +4696,23 @@
       <c r="E7" s="153">
         <v>1979</v>
       </c>
-      <c r="H7" s="217">
+      <c r="H7" s="216">
         <v>4</v>
       </c>
-      <c r="I7" s="218" t="s">
+      <c r="I7" s="217" t="s">
         <v>435</v>
       </c>
-      <c r="J7" s="218">
+      <c r="J7" s="217">
         <f t="shared" si="0"/>
         <v>1979</v>
       </c>
-      <c r="K7" s="217" t="s">
+      <c r="K7" s="216" t="s">
         <v>432</v>
       </c>
-      <c r="L7" s="219" t="s">
+      <c r="L7" s="218" t="s">
         <v>433</v>
       </c>
-      <c r="M7" s="220">
+      <c r="M7" s="219">
         <v>2000000</v>
       </c>
       <c r="N7" s="136" t="str">
@@ -4696,23 +4736,23 @@
       <c r="E8" s="153">
         <v>1987</v>
       </c>
-      <c r="H8" s="217">
+      <c r="H8" s="216">
         <v>5</v>
       </c>
-      <c r="I8" s="218" t="s">
+      <c r="I8" s="217" t="s">
         <v>436</v>
       </c>
-      <c r="J8" s="218">
+      <c r="J8" s="217">
         <f t="shared" si="0"/>
         <v>1987</v>
       </c>
-      <c r="K8" s="217" t="s">
+      <c r="K8" s="216" t="s">
         <v>437</v>
       </c>
-      <c r="L8" s="219" t="s">
+      <c r="L8" s="218" t="s">
         <v>433</v>
       </c>
-      <c r="M8" s="220">
+      <c r="M8" s="219">
         <v>3500000</v>
       </c>
       <c r="N8" s="136" t="str">
@@ -4736,23 +4776,23 @@
       <c r="E9" s="153">
         <v>1990</v>
       </c>
-      <c r="H9" s="217">
+      <c r="H9" s="216">
         <v>6</v>
       </c>
-      <c r="I9" s="218" t="s">
+      <c r="I9" s="217" t="s">
         <v>438</v>
       </c>
-      <c r="J9" s="218">
+      <c r="J9" s="217">
         <f t="shared" si="0"/>
         <v>1990</v>
       </c>
-      <c r="K9" s="217" t="s">
+      <c r="K9" s="216" t="s">
         <v>432</v>
       </c>
-      <c r="L9" s="219" t="s">
+      <c r="L9" s="218" t="s">
         <v>433</v>
       </c>
-      <c r="M9" s="220">
+      <c r="M9" s="219">
         <v>2000000</v>
       </c>
       <c r="N9" s="136" t="str">
@@ -4776,23 +4816,23 @@
       <c r="E10" s="153">
         <v>1987</v>
       </c>
-      <c r="H10" s="217">
+      <c r="H10" s="216">
         <v>7</v>
       </c>
-      <c r="I10" s="218" t="s">
+      <c r="I10" s="217" t="s">
         <v>439</v>
       </c>
-      <c r="J10" s="218">
+      <c r="J10" s="217">
         <f t="shared" si="0"/>
         <v>1987</v>
       </c>
-      <c r="K10" s="217" t="s">
+      <c r="K10" s="216" t="s">
         <v>437</v>
       </c>
-      <c r="L10" s="219" t="s">
+      <c r="L10" s="218" t="s">
         <v>433</v>
       </c>
-      <c r="M10" s="220">
+      <c r="M10" s="219">
         <v>3500000</v>
       </c>
       <c r="N10" s="136" t="str">
@@ -4801,13 +4841,13 @@
       </c>
     </row>
     <row r="11" spans="1:14" s="136" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="210">
+      <c r="A11" s="209">
         <v>8</v>
       </c>
       <c r="B11" s="153" t="s">
         <v>662</v>
       </c>
-      <c r="C11" s="209" t="s">
+      <c r="C11" s="208" t="s">
         <v>440</v>
       </c>
       <c r="D11" s="153" t="s">
@@ -4816,23 +4856,23 @@
       <c r="E11" s="153">
         <v>1985</v>
       </c>
-      <c r="H11" s="217">
+      <c r="H11" s="216">
         <v>8</v>
       </c>
-      <c r="I11" s="218" t="s">
+      <c r="I11" s="217" t="s">
         <v>440</v>
       </c>
-      <c r="J11" s="218">
+      <c r="J11" s="217">
         <f t="shared" si="0"/>
         <v>1985</v>
       </c>
-      <c r="K11" s="217" t="s">
+      <c r="K11" s="216" t="s">
         <v>437</v>
       </c>
-      <c r="L11" s="219" t="s">
+      <c r="L11" s="218" t="s">
         <v>433</v>
       </c>
-      <c r="M11" s="220">
+      <c r="M11" s="219">
         <v>3500000</v>
       </c>
       <c r="N11" s="136" t="str">
@@ -4856,23 +4896,23 @@
       <c r="E12" s="153">
         <v>1985</v>
       </c>
-      <c r="H12" s="217">
+      <c r="H12" s="216">
         <v>9</v>
       </c>
-      <c r="I12" s="218" t="s">
+      <c r="I12" s="217" t="s">
         <v>441</v>
       </c>
-      <c r="J12" s="218">
+      <c r="J12" s="217">
         <f t="shared" si="0"/>
         <v>1985</v>
       </c>
-      <c r="K12" s="217" t="s">
+      <c r="K12" s="216" t="s">
         <v>437</v>
       </c>
-      <c r="L12" s="219" t="s">
+      <c r="L12" s="218" t="s">
         <v>433</v>
       </c>
-      <c r="M12" s="220">
+      <c r="M12" s="219">
         <v>3500000</v>
       </c>
       <c r="N12" s="136" t="str">
@@ -4896,23 +4936,23 @@
       <c r="E13" s="153">
         <v>1997</v>
       </c>
-      <c r="H13" s="217">
+      <c r="H13" s="216">
         <v>10</v>
       </c>
-      <c r="I13" s="218" t="s">
+      <c r="I13" s="217" t="s">
         <v>442</v>
       </c>
-      <c r="J13" s="218">
+      <c r="J13" s="217">
         <f t="shared" si="0"/>
         <v>1997</v>
       </c>
-      <c r="K13" s="217" t="s">
+      <c r="K13" s="216" t="s">
         <v>437</v>
       </c>
-      <c r="L13" s="219" t="s">
+      <c r="L13" s="218" t="s">
         <v>433</v>
       </c>
-      <c r="M13" s="220">
+      <c r="M13" s="219">
         <v>3500000</v>
       </c>
       <c r="N13" s="136" t="str">
@@ -4936,23 +4976,23 @@
       <c r="E14" s="153">
         <v>1982</v>
       </c>
-      <c r="H14" s="217">
+      <c r="H14" s="216">
         <v>11</v>
       </c>
-      <c r="I14" s="218" t="s">
+      <c r="I14" s="217" t="s">
         <v>443</v>
       </c>
-      <c r="J14" s="218">
+      <c r="J14" s="217">
         <f t="shared" si="0"/>
         <v>1982</v>
       </c>
-      <c r="K14" s="217" t="s">
+      <c r="K14" s="216" t="s">
         <v>437</v>
       </c>
-      <c r="L14" s="219" t="s">
+      <c r="L14" s="218" t="s">
         <v>433</v>
       </c>
-      <c r="M14" s="220">
+      <c r="M14" s="219">
         <v>3500000</v>
       </c>
       <c r="N14" s="136" t="str">
@@ -4961,13 +5001,13 @@
       </c>
     </row>
     <row r="15" spans="1:14" s="136" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="210">
+      <c r="A15" s="209">
         <v>12</v>
       </c>
       <c r="B15" s="153" t="s">
         <v>666</v>
       </c>
-      <c r="C15" s="209" t="s">
+      <c r="C15" s="208" t="s">
         <v>444</v>
       </c>
       <c r="D15" s="153" t="s">
@@ -4976,23 +5016,23 @@
       <c r="E15" s="153">
         <v>1989</v>
       </c>
-      <c r="H15" s="217">
+      <c r="H15" s="216">
         <v>12</v>
       </c>
-      <c r="I15" s="218" t="s">
+      <c r="I15" s="217" t="s">
         <v>444</v>
       </c>
-      <c r="J15" s="218">
+      <c r="J15" s="217">
         <f t="shared" si="0"/>
         <v>1989</v>
       </c>
-      <c r="K15" s="217" t="s">
+      <c r="K15" s="216" t="s">
         <v>437</v>
       </c>
-      <c r="L15" s="219" t="s">
+      <c r="L15" s="218" t="s">
         <v>433</v>
       </c>
-      <c r="M15" s="220">
+      <c r="M15" s="219">
         <v>3500000</v>
       </c>
       <c r="N15" s="136" t="str">
@@ -5016,23 +5056,23 @@
       <c r="E16" s="153">
         <v>1989</v>
       </c>
-      <c r="H16" s="217">
+      <c r="H16" s="216">
         <v>13</v>
       </c>
-      <c r="I16" s="218" t="s">
+      <c r="I16" s="217" t="s">
         <v>445</v>
       </c>
-      <c r="J16" s="218">
+      <c r="J16" s="217">
         <f t="shared" si="0"/>
         <v>1989</v>
       </c>
-      <c r="K16" s="217" t="s">
+      <c r="K16" s="216" t="s">
         <v>437</v>
       </c>
-      <c r="L16" s="219" t="s">
+      <c r="L16" s="218" t="s">
         <v>433</v>
       </c>
-      <c r="M16" s="220">
+      <c r="M16" s="219">
         <v>3500000</v>
       </c>
       <c r="N16" s="136" t="str">
@@ -5056,23 +5096,23 @@
       <c r="E17" s="153">
         <v>1992</v>
       </c>
-      <c r="H17" s="217">
+      <c r="H17" s="216">
         <v>14</v>
       </c>
-      <c r="I17" s="218" t="s">
+      <c r="I17" s="217" t="s">
         <v>446</v>
       </c>
-      <c r="J17" s="218">
+      <c r="J17" s="217">
         <f t="shared" si="0"/>
         <v>1992</v>
       </c>
-      <c r="K17" s="217" t="s">
+      <c r="K17" s="216" t="s">
         <v>432</v>
       </c>
-      <c r="L17" s="219" t="s">
+      <c r="L17" s="218" t="s">
         <v>433</v>
       </c>
-      <c r="M17" s="220">
+      <c r="M17" s="219">
         <v>2000000</v>
       </c>
       <c r="N17" s="136" t="str">
@@ -5080,39 +5120,39 @@
         <v>Hồ Xuân Khôi</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="202" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="191">
+    <row r="18" spans="1:14" s="201" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="190">
         <v>15</v>
       </c>
-      <c r="B18" s="191" t="s">
+      <c r="B18" s="190" t="s">
         <v>669</v>
       </c>
-      <c r="C18" s="192" t="s">
+      <c r="C18" s="191" t="s">
         <v>447</v>
       </c>
-      <c r="D18" s="191" t="s">
+      <c r="D18" s="190" t="s">
         <v>437</v>
       </c>
-      <c r="E18" s="191">
+      <c r="E18" s="190">
         <v>1986</v>
       </c>
-      <c r="H18" s="217">
+      <c r="H18" s="216">
         <v>15</v>
       </c>
-      <c r="I18" s="218" t="s">
+      <c r="I18" s="217" t="s">
         <v>447</v>
       </c>
-      <c r="J18" s="218">
+      <c r="J18" s="217">
         <f t="shared" si="0"/>
         <v>1986</v>
       </c>
-      <c r="K18" s="217" t="s">
+      <c r="K18" s="216" t="s">
         <v>437</v>
       </c>
-      <c r="L18" s="219" t="s">
+      <c r="L18" s="218" t="s">
         <v>433</v>
       </c>
-      <c r="M18" s="220">
+      <c r="M18" s="219">
         <v>3500000</v>
       </c>
       <c r="N18" s="136" t="str">
@@ -5136,23 +5176,23 @@
       <c r="E19" s="153">
         <v>2000</v>
       </c>
-      <c r="H19" s="217">
+      <c r="H19" s="216">
         <v>16</v>
       </c>
-      <c r="I19" s="218" t="s">
+      <c r="I19" s="217" t="s">
         <v>448</v>
       </c>
-      <c r="J19" s="218">
+      <c r="J19" s="217">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="K19" s="217" t="s">
+      <c r="K19" s="216" t="s">
         <v>437</v>
       </c>
-      <c r="L19" s="219" t="s">
+      <c r="L19" s="218" t="s">
         <v>433</v>
       </c>
-      <c r="M19" s="220">
+      <c r="M19" s="219">
         <v>3500000</v>
       </c>
       <c r="N19" s="136" t="str">
@@ -5176,23 +5216,23 @@
       <c r="E20" s="153">
         <v>1992</v>
       </c>
-      <c r="H20" s="217">
+      <c r="H20" s="216">
         <v>17</v>
       </c>
-      <c r="I20" s="218" t="s">
+      <c r="I20" s="217" t="s">
         <v>449</v>
       </c>
-      <c r="J20" s="218">
+      <c r="J20" s="217">
         <f t="shared" si="0"/>
         <v>1992</v>
       </c>
-      <c r="K20" s="217" t="s">
+      <c r="K20" s="216" t="s">
         <v>432</v>
       </c>
-      <c r="L20" s="219" t="s">
+      <c r="L20" s="218" t="s">
         <v>433</v>
       </c>
-      <c r="M20" s="220">
+      <c r="M20" s="219">
         <v>2000000</v>
       </c>
       <c r="N20" s="136" t="str">
@@ -5216,23 +5256,23 @@
       <c r="E21" s="153">
         <v>1990</v>
       </c>
-      <c r="H21" s="217">
+      <c r="H21" s="216">
         <v>18</v>
       </c>
-      <c r="I21" s="218" t="s">
+      <c r="I21" s="217" t="s">
         <v>450</v>
       </c>
-      <c r="J21" s="218">
+      <c r="J21" s="217">
         <f t="shared" si="0"/>
         <v>1990</v>
       </c>
-      <c r="K21" s="217" t="s">
+      <c r="K21" s="216" t="s">
         <v>432</v>
       </c>
-      <c r="L21" s="219" t="s">
+      <c r="L21" s="218" t="s">
         <v>433</v>
       </c>
-      <c r="M21" s="220">
+      <c r="M21" s="219">
         <v>2000000</v>
       </c>
       <c r="N21" s="136" t="str">
@@ -5256,23 +5296,23 @@
       <c r="E22" s="153">
         <v>1986</v>
       </c>
-      <c r="H22" s="217">
+      <c r="H22" s="216">
         <v>19</v>
       </c>
-      <c r="I22" s="218" t="s">
+      <c r="I22" s="217" t="s">
         <v>451</v>
       </c>
-      <c r="J22" s="218">
+      <c r="J22" s="217">
         <f t="shared" si="0"/>
         <v>1986</v>
       </c>
-      <c r="K22" s="217" t="s">
+      <c r="K22" s="216" t="s">
         <v>432</v>
       </c>
-      <c r="L22" s="219" t="s">
+      <c r="L22" s="218" t="s">
         <v>433</v>
       </c>
-      <c r="M22" s="220">
+      <c r="M22" s="219">
         <v>2000000</v>
       </c>
       <c r="N22" s="136" t="str">
@@ -5280,39 +5320,39 @@
         <v>Trần Đức Phú</v>
       </c>
     </row>
-    <row r="23" spans="1:14" s="202" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="191">
+    <row r="23" spans="1:14" s="201" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="190">
         <v>20</v>
       </c>
-      <c r="B23" s="191" t="s">
+      <c r="B23" s="190" t="s">
         <v>674</v>
       </c>
-      <c r="C23" s="192" t="s">
+      <c r="C23" s="191" t="s">
         <v>452</v>
       </c>
-      <c r="D23" s="191" t="s">
+      <c r="D23" s="190" t="s">
         <v>437</v>
       </c>
-      <c r="E23" s="191">
+      <c r="E23" s="190">
         <v>1982</v>
       </c>
-      <c r="H23" s="217">
+      <c r="H23" s="216">
         <v>20</v>
       </c>
-      <c r="I23" s="218" t="s">
+      <c r="I23" s="217" t="s">
         <v>452</v>
       </c>
-      <c r="J23" s="218">
+      <c r="J23" s="217">
         <f t="shared" si="0"/>
         <v>1982</v>
       </c>
-      <c r="K23" s="217" t="s">
+      <c r="K23" s="216" t="s">
         <v>437</v>
       </c>
-      <c r="L23" s="219" t="s">
+      <c r="L23" s="218" t="s">
         <v>433</v>
       </c>
-      <c r="M23" s="220">
+      <c r="M23" s="219">
         <v>3500000</v>
       </c>
       <c r="N23" s="136" t="str">
@@ -5336,23 +5376,23 @@
       <c r="E24" s="153">
         <v>1985</v>
       </c>
-      <c r="H24" s="217">
+      <c r="H24" s="216">
         <v>21</v>
       </c>
-      <c r="I24" s="218" t="s">
+      <c r="I24" s="217" t="s">
         <v>453</v>
       </c>
-      <c r="J24" s="218">
+      <c r="J24" s="217">
         <f t="shared" si="0"/>
         <v>1985</v>
       </c>
-      <c r="K24" s="217" t="s">
+      <c r="K24" s="216" t="s">
         <v>432</v>
       </c>
-      <c r="L24" s="219" t="s">
+      <c r="L24" s="218" t="s">
         <v>433</v>
       </c>
-      <c r="M24" s="220">
+      <c r="M24" s="219">
         <v>2000000</v>
       </c>
       <c r="N24" s="136" t="str">
@@ -5376,23 +5416,23 @@
       <c r="E25" s="153">
         <v>1981</v>
       </c>
-      <c r="H25" s="217">
+      <c r="H25" s="216">
         <v>22</v>
       </c>
-      <c r="I25" s="218" t="s">
+      <c r="I25" s="217" t="s">
         <v>454</v>
       </c>
-      <c r="J25" s="218">
+      <c r="J25" s="217">
         <f t="shared" si="0"/>
         <v>1981</v>
       </c>
-      <c r="K25" s="217" t="s">
+      <c r="K25" s="216" t="s">
         <v>432</v>
       </c>
-      <c r="L25" s="219" t="s">
+      <c r="L25" s="218" t="s">
         <v>433</v>
       </c>
-      <c r="M25" s="220">
+      <c r="M25" s="219">
         <v>2000000</v>
       </c>
       <c r="N25" s="136" t="str">
@@ -5416,23 +5456,23 @@
       <c r="E26" s="153">
         <v>1987</v>
       </c>
-      <c r="H26" s="217">
+      <c r="H26" s="216">
         <v>23</v>
       </c>
-      <c r="I26" s="218" t="s">
+      <c r="I26" s="217" t="s">
         <v>455</v>
       </c>
-      <c r="J26" s="218">
+      <c r="J26" s="217">
         <f t="shared" si="0"/>
         <v>1987</v>
       </c>
-      <c r="K26" s="217" t="s">
+      <c r="K26" s="216" t="s">
         <v>437</v>
       </c>
-      <c r="L26" s="219" t="s">
+      <c r="L26" s="218" t="s">
         <v>433</v>
       </c>
-      <c r="M26" s="220">
+      <c r="M26" s="219">
         <v>3500000</v>
       </c>
       <c r="N26" s="136" t="str">
@@ -5456,23 +5496,23 @@
       <c r="E27" s="153">
         <v>1990</v>
       </c>
-      <c r="H27" s="217">
+      <c r="H27" s="216">
         <v>24</v>
       </c>
-      <c r="I27" s="218" t="s">
+      <c r="I27" s="217" t="s">
         <v>456</v>
       </c>
-      <c r="J27" s="218">
+      <c r="J27" s="217">
         <f t="shared" si="0"/>
         <v>1990</v>
       </c>
-      <c r="K27" s="217" t="s">
+      <c r="K27" s="216" t="s">
         <v>432</v>
       </c>
-      <c r="L27" s="219" t="s">
+      <c r="L27" s="218" t="s">
         <v>433</v>
       </c>
-      <c r="M27" s="220">
+      <c r="M27" s="219">
         <v>2000000</v>
       </c>
       <c r="N27" s="136" t="str">
@@ -5496,23 +5536,23 @@
       <c r="E28" s="153">
         <v>1988</v>
       </c>
-      <c r="H28" s="217">
+      <c r="H28" s="216">
         <v>25</v>
       </c>
-      <c r="I28" s="218" t="s">
+      <c r="I28" s="217" t="s">
         <v>457</v>
       </c>
-      <c r="J28" s="218">
+      <c r="J28" s="217">
         <f t="shared" si="0"/>
         <v>1988</v>
       </c>
-      <c r="K28" s="217" t="s">
+      <c r="K28" s="216" t="s">
         <v>437</v>
       </c>
-      <c r="L28" s="219" t="s">
+      <c r="L28" s="218" t="s">
         <v>433</v>
       </c>
-      <c r="M28" s="220">
+      <c r="M28" s="219">
         <v>3500000</v>
       </c>
       <c r="N28" s="136" t="str">
@@ -5536,23 +5576,23 @@
       <c r="E29" s="153">
         <v>1987</v>
       </c>
-      <c r="H29" s="217">
+      <c r="H29" s="216">
         <v>26</v>
       </c>
-      <c r="I29" s="218" t="s">
+      <c r="I29" s="217" t="s">
         <v>458</v>
       </c>
-      <c r="J29" s="218">
+      <c r="J29" s="217">
         <f t="shared" si="0"/>
         <v>1987</v>
       </c>
-      <c r="K29" s="217" t="s">
+      <c r="K29" s="216" t="s">
         <v>432</v>
       </c>
-      <c r="L29" s="219" t="s">
+      <c r="L29" s="218" t="s">
         <v>433</v>
       </c>
-      <c r="M29" s="220">
+      <c r="M29" s="219">
         <v>2000000</v>
       </c>
       <c r="N29" s="136" t="str">
@@ -5576,23 +5616,23 @@
       <c r="E30" s="153">
         <v>1991</v>
       </c>
-      <c r="H30" s="217">
+      <c r="H30" s="216">
         <v>27</v>
       </c>
-      <c r="I30" s="218" t="s">
+      <c r="I30" s="217" t="s">
         <v>459</v>
       </c>
-      <c r="J30" s="218">
+      <c r="J30" s="217">
         <f t="shared" si="0"/>
         <v>1991</v>
       </c>
-      <c r="K30" s="217" t="s">
+      <c r="K30" s="216" t="s">
         <v>437</v>
       </c>
-      <c r="L30" s="219" t="s">
+      <c r="L30" s="218" t="s">
         <v>433</v>
       </c>
-      <c r="M30" s="220">
+      <c r="M30" s="219">
         <v>3500000</v>
       </c>
       <c r="N30" s="136" t="str">
@@ -5616,23 +5656,23 @@
       <c r="E31" s="153">
         <v>2001</v>
       </c>
-      <c r="H31" s="217">
+      <c r="H31" s="216">
         <v>28</v>
       </c>
-      <c r="I31" s="218" t="s">
+      <c r="I31" s="217" t="s">
         <v>460</v>
       </c>
-      <c r="J31" s="218">
+      <c r="J31" s="217">
         <f t="shared" si="0"/>
         <v>2001</v>
       </c>
-      <c r="K31" s="217" t="s">
+      <c r="K31" s="216" t="s">
         <v>437</v>
       </c>
-      <c r="L31" s="219" t="s">
+      <c r="L31" s="218" t="s">
         <v>433</v>
       </c>
-      <c r="M31" s="220">
+      <c r="M31" s="219">
         <v>3500000</v>
       </c>
       <c r="N31" s="136" t="str">
@@ -5656,23 +5696,23 @@
       <c r="E32" s="153">
         <v>1990</v>
       </c>
-      <c r="H32" s="217">
+      <c r="H32" s="216">
         <v>29</v>
       </c>
-      <c r="I32" s="218" t="s">
+      <c r="I32" s="217" t="s">
         <v>461</v>
       </c>
-      <c r="J32" s="218">
+      <c r="J32" s="217">
         <f t="shared" si="0"/>
         <v>1990</v>
       </c>
-      <c r="K32" s="217" t="s">
+      <c r="K32" s="216" t="s">
         <v>437</v>
       </c>
-      <c r="L32" s="219" t="s">
+      <c r="L32" s="218" t="s">
         <v>433</v>
       </c>
-      <c r="M32" s="220">
+      <c r="M32" s="219">
         <v>3500000</v>
       </c>
       <c r="N32" s="136" t="str">
@@ -5696,23 +5736,23 @@
       <c r="E33" s="153">
         <v>1986</v>
       </c>
-      <c r="H33" s="217">
+      <c r="H33" s="216">
         <v>30</v>
       </c>
-      <c r="I33" s="218" t="s">
+      <c r="I33" s="217" t="s">
         <v>462</v>
       </c>
-      <c r="J33" s="218">
+      <c r="J33" s="217">
         <f t="shared" si="0"/>
         <v>1986</v>
       </c>
-      <c r="K33" s="217" t="s">
+      <c r="K33" s="216" t="s">
         <v>437</v>
       </c>
-      <c r="L33" s="219" t="s">
+      <c r="L33" s="218" t="s">
         <v>433</v>
       </c>
-      <c r="M33" s="220">
+      <c r="M33" s="219">
         <v>3500000</v>
       </c>
       <c r="N33" s="136" t="str">
@@ -5736,23 +5776,23 @@
       <c r="E34" s="153">
         <v>1989</v>
       </c>
-      <c r="H34" s="217">
+      <c r="H34" s="216">
         <v>31</v>
       </c>
-      <c r="I34" s="218" t="s">
+      <c r="I34" s="217" t="s">
         <v>463</v>
       </c>
-      <c r="J34" s="218">
+      <c r="J34" s="217">
         <f t="shared" si="0"/>
         <v>1989</v>
       </c>
-      <c r="K34" s="217" t="s">
+      <c r="K34" s="216" t="s">
         <v>437</v>
       </c>
-      <c r="L34" s="219" t="s">
+      <c r="L34" s="218" t="s">
         <v>433</v>
       </c>
-      <c r="M34" s="220">
+      <c r="M34" s="219">
         <v>3500000</v>
       </c>
       <c r="N34" s="136" t="str">
@@ -5776,23 +5816,23 @@
       <c r="E35" s="153">
         <v>1991</v>
       </c>
-      <c r="H35" s="217">
+      <c r="H35" s="216">
         <v>32</v>
       </c>
-      <c r="I35" s="218" t="s">
+      <c r="I35" s="217" t="s">
         <v>464</v>
       </c>
-      <c r="J35" s="218">
+      <c r="J35" s="217">
         <f t="shared" si="0"/>
         <v>1991</v>
       </c>
-      <c r="K35" s="217" t="s">
+      <c r="K35" s="216" t="s">
         <v>437</v>
       </c>
-      <c r="L35" s="219" t="s">
+      <c r="L35" s="218" t="s">
         <v>433</v>
       </c>
-      <c r="M35" s="220">
+      <c r="M35" s="219">
         <v>3500000</v>
       </c>
       <c r="N35" s="136" t="str">
@@ -5816,23 +5856,23 @@
       <c r="E36" s="153">
         <v>1990</v>
       </c>
-      <c r="H36" s="217">
+      <c r="H36" s="216">
         <v>33</v>
       </c>
-      <c r="I36" s="218" t="s">
+      <c r="I36" s="217" t="s">
         <v>465</v>
       </c>
-      <c r="J36" s="218">
+      <c r="J36" s="217">
         <f t="shared" si="0"/>
         <v>1990</v>
       </c>
-      <c r="K36" s="217" t="s">
+      <c r="K36" s="216" t="s">
         <v>437</v>
       </c>
-      <c r="L36" s="219" t="s">
+      <c r="L36" s="218" t="s">
         <v>433</v>
       </c>
-      <c r="M36" s="220">
+      <c r="M36" s="219">
         <v>3500000</v>
       </c>
       <c r="N36" s="136" t="str">
@@ -5856,23 +5896,23 @@
       <c r="E37" s="153">
         <v>1999</v>
       </c>
-      <c r="H37" s="217">
+      <c r="H37" s="216">
         <v>34</v>
       </c>
-      <c r="I37" s="218" t="s">
+      <c r="I37" s="217" t="s">
         <v>466</v>
       </c>
-      <c r="J37" s="218">
+      <c r="J37" s="217">
         <f t="shared" si="0"/>
         <v>1999</v>
       </c>
-      <c r="K37" s="217" t="s">
+      <c r="K37" s="216" t="s">
         <v>437</v>
       </c>
-      <c r="L37" s="219" t="s">
+      <c r="L37" s="218" t="s">
         <v>433</v>
       </c>
-      <c r="M37" s="220">
+      <c r="M37" s="219">
         <v>3500000</v>
       </c>
       <c r="N37" s="136" t="str">
@@ -5896,23 +5936,23 @@
       <c r="E38" s="153">
         <v>1978</v>
       </c>
-      <c r="H38" s="217">
+      <c r="H38" s="216">
         <v>35</v>
       </c>
-      <c r="I38" s="218" t="s">
+      <c r="I38" s="217" t="s">
         <v>467</v>
       </c>
-      <c r="J38" s="218">
+      <c r="J38" s="217">
         <f t="shared" si="0"/>
         <v>1978</v>
       </c>
-      <c r="K38" s="217" t="s">
+      <c r="K38" s="216" t="s">
         <v>432</v>
       </c>
-      <c r="L38" s="219" t="s">
+      <c r="L38" s="218" t="s">
         <v>433</v>
       </c>
-      <c r="M38" s="220">
+      <c r="M38" s="219">
         <v>2000000</v>
       </c>
       <c r="N38" s="136" t="str">
@@ -5936,23 +5976,23 @@
       <c r="E39" s="153">
         <v>1982</v>
       </c>
-      <c r="H39" s="217">
+      <c r="H39" s="216">
         <v>36</v>
       </c>
-      <c r="I39" s="218" t="s">
+      <c r="I39" s="217" t="s">
         <v>468</v>
       </c>
-      <c r="J39" s="218">
+      <c r="J39" s="217">
         <f t="shared" si="0"/>
         <v>1982</v>
       </c>
-      <c r="K39" s="217" t="s">
+      <c r="K39" s="216" t="s">
         <v>437</v>
       </c>
-      <c r="L39" s="219" t="s">
+      <c r="L39" s="218" t="s">
         <v>433</v>
       </c>
-      <c r="M39" s="220">
+      <c r="M39" s="219">
         <v>3500000</v>
       </c>
       <c r="N39" s="136" t="str">
@@ -5976,23 +6016,23 @@
       <c r="E40" s="153">
         <v>1994</v>
       </c>
-      <c r="H40" s="217">
+      <c r="H40" s="216">
         <v>37</v>
       </c>
-      <c r="I40" s="218" t="s">
+      <c r="I40" s="217" t="s">
         <v>469</v>
       </c>
-      <c r="J40" s="218">
+      <c r="J40" s="217">
         <f t="shared" si="0"/>
         <v>1994</v>
       </c>
-      <c r="K40" s="217" t="s">
+      <c r="K40" s="216" t="s">
         <v>437</v>
       </c>
-      <c r="L40" s="219" t="s">
+      <c r="L40" s="218" t="s">
         <v>433</v>
       </c>
-      <c r="M40" s="220">
+      <c r="M40" s="219">
         <v>3500000</v>
       </c>
       <c r="N40" s="136" t="str">
@@ -6016,23 +6056,23 @@
       <c r="E41" s="153">
         <v>1994</v>
       </c>
-      <c r="H41" s="217">
+      <c r="H41" s="216">
         <v>38</v>
       </c>
-      <c r="I41" s="218" t="s">
+      <c r="I41" s="217" t="s">
         <v>470</v>
       </c>
-      <c r="J41" s="218">
+      <c r="J41" s="217">
         <f t="shared" si="0"/>
         <v>1994</v>
       </c>
-      <c r="K41" s="217" t="s">
+      <c r="K41" s="216" t="s">
         <v>432</v>
       </c>
-      <c r="L41" s="219" t="s">
+      <c r="L41" s="218" t="s">
         <v>433</v>
       </c>
-      <c r="M41" s="220">
+      <c r="M41" s="219">
         <v>2000000</v>
       </c>
       <c r="N41" s="136" t="str">
@@ -6056,23 +6096,23 @@
       <c r="E42" s="153">
         <v>1996</v>
       </c>
-      <c r="H42" s="217">
+      <c r="H42" s="216">
         <v>39</v>
       </c>
-      <c r="I42" s="218" t="s">
+      <c r="I42" s="217" t="s">
         <v>471</v>
       </c>
-      <c r="J42" s="218">
+      <c r="J42" s="217">
         <f t="shared" si="0"/>
         <v>1996</v>
       </c>
-      <c r="K42" s="217" t="s">
+      <c r="K42" s="216" t="s">
         <v>437</v>
       </c>
-      <c r="L42" s="219" t="s">
+      <c r="L42" s="218" t="s">
         <v>433</v>
       </c>
-      <c r="M42" s="220">
+      <c r="M42" s="219">
         <v>3500000</v>
       </c>
       <c r="N42" s="136" t="str">
@@ -6096,23 +6136,23 @@
       <c r="E43" s="153">
         <v>1989</v>
       </c>
-      <c r="H43" s="217">
+      <c r="H43" s="216">
         <v>40</v>
       </c>
-      <c r="I43" s="218" t="s">
+      <c r="I43" s="217" t="s">
         <v>472</v>
       </c>
-      <c r="J43" s="218">
+      <c r="J43" s="217">
         <f t="shared" si="0"/>
         <v>1989</v>
       </c>
-      <c r="K43" s="217" t="s">
+      <c r="K43" s="216" t="s">
         <v>432</v>
       </c>
-      <c r="L43" s="219" t="s">
+      <c r="L43" s="218" t="s">
         <v>433</v>
       </c>
-      <c r="M43" s="220">
+      <c r="M43" s="219">
         <v>2000000</v>
       </c>
       <c r="N43" s="136" t="str">
@@ -6136,23 +6176,23 @@
       <c r="E44" s="153">
         <v>1987</v>
       </c>
-      <c r="H44" s="217">
+      <c r="H44" s="216">
         <v>41</v>
       </c>
-      <c r="I44" s="218" t="s">
+      <c r="I44" s="217" t="s">
         <v>473</v>
       </c>
-      <c r="J44" s="218">
+      <c r="J44" s="217">
         <f t="shared" si="0"/>
         <v>1987</v>
       </c>
-      <c r="K44" s="217" t="s">
+      <c r="K44" s="216" t="s">
         <v>437</v>
       </c>
-      <c r="L44" s="219" t="s">
+      <c r="L44" s="218" t="s">
         <v>433</v>
       </c>
-      <c r="M44" s="220">
+      <c r="M44" s="219">
         <v>3500000</v>
       </c>
       <c r="N44" s="136" t="str">
@@ -6176,23 +6216,23 @@
       <c r="E45" s="153">
         <v>1993</v>
       </c>
-      <c r="H45" s="217">
+      <c r="H45" s="216">
         <v>42</v>
       </c>
-      <c r="I45" s="218" t="s">
+      <c r="I45" s="217" t="s">
         <v>474</v>
       </c>
-      <c r="J45" s="218">
+      <c r="J45" s="217">
         <f t="shared" si="0"/>
         <v>1993</v>
       </c>
-      <c r="K45" s="217" t="s">
+      <c r="K45" s="216" t="s">
         <v>432</v>
       </c>
-      <c r="L45" s="219" t="s">
+      <c r="L45" s="218" t="s">
         <v>433</v>
       </c>
-      <c r="M45" s="220">
+      <c r="M45" s="219">
         <v>2000000</v>
       </c>
       <c r="N45" s="136" t="str">
@@ -6216,23 +6256,23 @@
       <c r="E46" s="153">
         <v>1994</v>
       </c>
-      <c r="H46" s="217">
+      <c r="H46" s="216">
         <v>43</v>
       </c>
-      <c r="I46" s="218" t="s">
+      <c r="I46" s="217" t="s">
         <v>475</v>
       </c>
-      <c r="J46" s="218">
+      <c r="J46" s="217">
         <f t="shared" si="0"/>
         <v>1994</v>
       </c>
-      <c r="K46" s="217" t="s">
+      <c r="K46" s="216" t="s">
         <v>432</v>
       </c>
-      <c r="L46" s="219" t="s">
+      <c r="L46" s="218" t="s">
         <v>433</v>
       </c>
-      <c r="M46" s="220">
+      <c r="M46" s="219">
         <v>2000000</v>
       </c>
       <c r="N46" s="136" t="str">
@@ -6256,23 +6296,23 @@
       <c r="E47" s="153">
         <v>1996</v>
       </c>
-      <c r="H47" s="217">
+      <c r="H47" s="216">
         <v>44</v>
       </c>
-      <c r="I47" s="218" t="s">
+      <c r="I47" s="217" t="s">
         <v>476</v>
       </c>
-      <c r="J47" s="218">
+      <c r="J47" s="217">
         <f t="shared" si="0"/>
         <v>1996</v>
       </c>
-      <c r="K47" s="217" t="s">
+      <c r="K47" s="216" t="s">
         <v>437</v>
       </c>
-      <c r="L47" s="219" t="s">
+      <c r="L47" s="218" t="s">
         <v>433</v>
       </c>
-      <c r="M47" s="220">
+      <c r="M47" s="219">
         <v>3500000</v>
       </c>
       <c r="N47" s="136" t="str">
@@ -6296,23 +6336,23 @@
       <c r="E48" s="153">
         <v>1979</v>
       </c>
-      <c r="H48" s="217">
+      <c r="H48" s="216">
         <v>45</v>
       </c>
-      <c r="I48" s="218" t="s">
+      <c r="I48" s="217" t="s">
         <v>477</v>
       </c>
-      <c r="J48" s="218">
+      <c r="J48" s="217">
         <f t="shared" si="0"/>
         <v>1979</v>
       </c>
-      <c r="K48" s="217" t="s">
+      <c r="K48" s="216" t="s">
         <v>437</v>
       </c>
-      <c r="L48" s="219" t="s">
+      <c r="L48" s="218" t="s">
         <v>433</v>
       </c>
-      <c r="M48" s="220">
+      <c r="M48" s="219">
         <v>3500000</v>
       </c>
       <c r="N48" s="136" t="str">
@@ -6320,39 +6360,39 @@
         <v>Ngô Thị Lan</v>
       </c>
     </row>
-    <row r="49" spans="1:14" s="202" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="191">
+    <row r="49" spans="1:14" s="201" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="190">
         <v>46</v>
       </c>
-      <c r="B49" s="191" t="s">
+      <c r="B49" s="190" t="s">
         <v>700</v>
       </c>
-      <c r="C49" s="192" t="s">
+      <c r="C49" s="191" t="s">
         <v>478</v>
       </c>
-      <c r="D49" s="191" t="s">
+      <c r="D49" s="190" t="s">
         <v>437</v>
       </c>
-      <c r="E49" s="191">
+      <c r="E49" s="190">
         <v>1983</v>
       </c>
-      <c r="H49" s="217">
+      <c r="H49" s="216">
         <v>46</v>
       </c>
-      <c r="I49" s="218" t="s">
+      <c r="I49" s="217" t="s">
         <v>478</v>
       </c>
-      <c r="J49" s="218">
+      <c r="J49" s="217">
         <f t="shared" si="0"/>
         <v>1983</v>
       </c>
-      <c r="K49" s="217" t="s">
+      <c r="K49" s="216" t="s">
         <v>437</v>
       </c>
-      <c r="L49" s="219" t="s">
+      <c r="L49" s="218" t="s">
         <v>433</v>
       </c>
-      <c r="M49" s="220">
+      <c r="M49" s="219">
         <v>3500000</v>
       </c>
       <c r="N49" s="136" t="str">
@@ -6376,23 +6416,23 @@
       <c r="E50" s="153">
         <v>1979</v>
       </c>
-      <c r="H50" s="217">
+      <c r="H50" s="216">
         <v>47</v>
       </c>
-      <c r="I50" s="218" t="s">
+      <c r="I50" s="217" t="s">
         <v>479</v>
       </c>
-      <c r="J50" s="218">
+      <c r="J50" s="217">
         <f t="shared" si="0"/>
         <v>1979</v>
       </c>
-      <c r="K50" s="217" t="s">
+      <c r="K50" s="216" t="s">
         <v>437</v>
       </c>
-      <c r="L50" s="219" t="s">
+      <c r="L50" s="218" t="s">
         <v>433</v>
       </c>
-      <c r="M50" s="220">
+      <c r="M50" s="219">
         <v>3500000</v>
       </c>
       <c r="N50" s="136" t="str">
@@ -6416,23 +6456,23 @@
       <c r="E51" s="153">
         <v>1994</v>
       </c>
-      <c r="H51" s="217">
+      <c r="H51" s="216">
         <v>48</v>
       </c>
-      <c r="I51" s="218" t="s">
+      <c r="I51" s="217" t="s">
         <v>480</v>
       </c>
-      <c r="J51" s="218">
+      <c r="J51" s="217">
         <f t="shared" si="0"/>
         <v>1994</v>
       </c>
-      <c r="K51" s="217" t="s">
+      <c r="K51" s="216" t="s">
         <v>437</v>
       </c>
-      <c r="L51" s="219" t="s">
+      <c r="L51" s="218" t="s">
         <v>433</v>
       </c>
-      <c r="M51" s="220">
+      <c r="M51" s="219">
         <v>3500000</v>
       </c>
       <c r="N51" s="136" t="str">
@@ -6456,23 +6496,23 @@
       <c r="E52" s="153">
         <v>1981</v>
       </c>
-      <c r="H52" s="217">
+      <c r="H52" s="216">
         <v>49</v>
       </c>
-      <c r="I52" s="218" t="s">
+      <c r="I52" s="217" t="s">
         <v>481</v>
       </c>
-      <c r="J52" s="218">
+      <c r="J52" s="217">
         <f t="shared" si="0"/>
         <v>1981</v>
       </c>
-      <c r="K52" s="217" t="s">
+      <c r="K52" s="216" t="s">
         <v>432</v>
       </c>
-      <c r="L52" s="219" t="s">
+      <c r="L52" s="218" t="s">
         <v>433</v>
       </c>
-      <c r="M52" s="220">
+      <c r="M52" s="219">
         <v>2000000</v>
       </c>
       <c r="N52" s="136" t="str">
@@ -6496,23 +6536,23 @@
       <c r="E53" s="153">
         <v>2001</v>
       </c>
-      <c r="H53" s="217">
+      <c r="H53" s="216">
         <v>50</v>
       </c>
-      <c r="I53" s="218" t="s">
+      <c r="I53" s="217" t="s">
         <v>482</v>
       </c>
-      <c r="J53" s="218">
+      <c r="J53" s="217">
         <f t="shared" si="0"/>
         <v>2001</v>
       </c>
-      <c r="K53" s="217" t="s">
+      <c r="K53" s="216" t="s">
         <v>437</v>
       </c>
-      <c r="L53" s="219" t="s">
+      <c r="L53" s="218" t="s">
         <v>433</v>
       </c>
-      <c r="M53" s="220">
+      <c r="M53" s="219">
         <v>3500000</v>
       </c>
       <c r="N53" s="136" t="str">
@@ -6536,23 +6576,23 @@
       <c r="E54" s="153">
         <v>1998</v>
       </c>
-      <c r="H54" s="217">
+      <c r="H54" s="216">
         <v>51</v>
       </c>
-      <c r="I54" s="218" t="s">
+      <c r="I54" s="217" t="s">
         <v>483</v>
       </c>
-      <c r="J54" s="218">
+      <c r="J54" s="217">
         <f t="shared" si="0"/>
         <v>1998</v>
       </c>
-      <c r="K54" s="217" t="s">
+      <c r="K54" s="216" t="s">
         <v>437</v>
       </c>
-      <c r="L54" s="219" t="s">
+      <c r="L54" s="218" t="s">
         <v>433</v>
       </c>
-      <c r="M54" s="220">
+      <c r="M54" s="219">
         <v>3500000</v>
       </c>
       <c r="N54" s="136" t="str">
@@ -6567,32 +6607,32 @@
       <c r="B55" s="153" t="s">
         <v>706</v>
       </c>
-      <c r="C55" s="184" t="s">
+      <c r="C55" s="183" t="s">
         <v>484</v>
       </c>
-      <c r="D55" s="185" t="s">
+      <c r="D55" s="184" t="s">
         <v>437</v>
       </c>
       <c r="E55" s="153">
         <v>1988</v>
       </c>
-      <c r="H55" s="217">
+      <c r="H55" s="216">
         <v>52</v>
       </c>
-      <c r="I55" s="218" t="s">
+      <c r="I55" s="217" t="s">
         <v>484</v>
       </c>
-      <c r="J55" s="218">
+      <c r="J55" s="217">
         <f t="shared" si="0"/>
         <v>1988</v>
       </c>
-      <c r="K55" s="217" t="s">
+      <c r="K55" s="216" t="s">
         <v>437</v>
       </c>
-      <c r="L55" s="219" t="s">
+      <c r="L55" s="218" t="s">
         <v>433</v>
       </c>
-      <c r="M55" s="220">
+      <c r="M55" s="219">
         <v>3500000</v>
       </c>
       <c r="N55" s="136" t="str">
@@ -6607,32 +6647,32 @@
       <c r="B56" s="153" t="s">
         <v>707</v>
       </c>
-      <c r="C56" s="183" t="s">
+      <c r="C56" s="182" t="s">
         <v>485</v>
       </c>
-      <c r="D56" s="182" t="s">
+      <c r="D56" s="181" t="s">
         <v>437</v>
       </c>
       <c r="E56" s="153">
         <v>1991</v>
       </c>
-      <c r="H56" s="217">
+      <c r="H56" s="216">
         <v>53</v>
       </c>
-      <c r="I56" s="218" t="s">
+      <c r="I56" s="217" t="s">
         <v>485</v>
       </c>
-      <c r="J56" s="218">
+      <c r="J56" s="217">
         <f t="shared" si="0"/>
         <v>1991</v>
       </c>
-      <c r="K56" s="217" t="s">
+      <c r="K56" s="216" t="s">
         <v>437</v>
       </c>
-      <c r="L56" s="219" t="s">
+      <c r="L56" s="218" t="s">
         <v>433</v>
       </c>
-      <c r="M56" s="220">
+      <c r="M56" s="219">
         <v>3500000</v>
       </c>
       <c r="N56" s="136" t="str">
@@ -6656,23 +6696,23 @@
       <c r="E57" s="153">
         <v>1989</v>
       </c>
-      <c r="H57" s="217">
+      <c r="H57" s="216">
         <v>54</v>
       </c>
-      <c r="I57" s="218" t="s">
+      <c r="I57" s="217" t="s">
         <v>486</v>
       </c>
-      <c r="J57" s="218">
+      <c r="J57" s="217">
         <f t="shared" si="0"/>
         <v>1989</v>
       </c>
-      <c r="K57" s="217" t="s">
+      <c r="K57" s="216" t="s">
         <v>437</v>
       </c>
-      <c r="L57" s="219" t="s">
+      <c r="L57" s="218" t="s">
         <v>433</v>
       </c>
-      <c r="M57" s="220">
+      <c r="M57" s="219">
         <v>3500000</v>
       </c>
       <c r="N57" s="136" t="str">
@@ -6696,23 +6736,23 @@
       <c r="E58" s="153">
         <v>1969</v>
       </c>
-      <c r="H58" s="217">
+      <c r="H58" s="216">
         <v>55</v>
       </c>
-      <c r="I58" s="218" t="s">
+      <c r="I58" s="217" t="s">
         <v>487</v>
       </c>
-      <c r="J58" s="218">
+      <c r="J58" s="217">
         <f t="shared" si="0"/>
         <v>1969</v>
       </c>
-      <c r="K58" s="217" t="s">
+      <c r="K58" s="216" t="s">
         <v>432</v>
       </c>
-      <c r="L58" s="219" t="s">
+      <c r="L58" s="218" t="s">
         <v>433</v>
       </c>
-      <c r="M58" s="220">
+      <c r="M58" s="219">
         <v>2000000</v>
       </c>
       <c r="N58" s="136" t="str">
@@ -6736,23 +6776,23 @@
       <c r="E59" s="153">
         <v>1977</v>
       </c>
-      <c r="H59" s="217">
+      <c r="H59" s="216">
         <v>56</v>
       </c>
-      <c r="I59" s="218" t="s">
+      <c r="I59" s="217" t="s">
         <v>488</v>
       </c>
-      <c r="J59" s="218">
+      <c r="J59" s="217">
         <f t="shared" si="0"/>
         <v>1977</v>
       </c>
-      <c r="K59" s="217" t="s">
+      <c r="K59" s="216" t="s">
         <v>432</v>
       </c>
-      <c r="L59" s="219" t="s">
+      <c r="L59" s="218" t="s">
         <v>433</v>
       </c>
-      <c r="M59" s="220">
+      <c r="M59" s="219">
         <v>2000000</v>
       </c>
       <c r="N59" s="136" t="str">
@@ -6776,23 +6816,23 @@
       <c r="E60" s="153">
         <v>1977</v>
       </c>
-      <c r="H60" s="217">
+      <c r="H60" s="216">
         <v>57</v>
       </c>
-      <c r="I60" s="218" t="s">
+      <c r="I60" s="217" t="s">
         <v>489</v>
       </c>
-      <c r="J60" s="218">
+      <c r="J60" s="217">
         <f t="shared" si="0"/>
         <v>1977</v>
       </c>
-      <c r="K60" s="217" t="s">
+      <c r="K60" s="216" t="s">
         <v>432</v>
       </c>
-      <c r="L60" s="219" t="s">
+      <c r="L60" s="218" t="s">
         <v>433</v>
       </c>
-      <c r="M60" s="220">
+      <c r="M60" s="219">
         <v>2000000</v>
       </c>
       <c r="N60" s="136" t="str">
@@ -6816,23 +6856,23 @@
       <c r="E61" s="153">
         <v>1991</v>
       </c>
-      <c r="H61" s="217">
+      <c r="H61" s="216">
         <v>58</v>
       </c>
-      <c r="I61" s="218" t="s">
+      <c r="I61" s="217" t="s">
         <v>490</v>
       </c>
-      <c r="J61" s="218">
+      <c r="J61" s="217">
         <f t="shared" si="0"/>
         <v>1991</v>
       </c>
-      <c r="K61" s="217" t="s">
+      <c r="K61" s="216" t="s">
         <v>437</v>
       </c>
-      <c r="L61" s="219" t="s">
+      <c r="L61" s="218" t="s">
         <v>433</v>
       </c>
-      <c r="M61" s="220">
+      <c r="M61" s="219">
         <v>3500000</v>
       </c>
       <c r="N61" s="136" t="str">
@@ -6856,23 +6896,23 @@
       <c r="E62" s="153">
         <v>1993</v>
       </c>
-      <c r="H62" s="217">
+      <c r="H62" s="216">
         <v>59</v>
       </c>
-      <c r="I62" s="218" t="s">
+      <c r="I62" s="217" t="s">
         <v>491</v>
       </c>
-      <c r="J62" s="218">
+      <c r="J62" s="217">
         <f t="shared" si="0"/>
         <v>1993</v>
       </c>
-      <c r="K62" s="217" t="s">
+      <c r="K62" s="216" t="s">
         <v>437</v>
       </c>
-      <c r="L62" s="219" t="s">
+      <c r="L62" s="218" t="s">
         <v>433</v>
       </c>
-      <c r="M62" s="220">
+      <c r="M62" s="219">
         <v>3500000</v>
       </c>
       <c r="N62" s="136" t="str">
@@ -6880,39 +6920,39 @@
         <v>Trần Bảo Ngọc</v>
       </c>
     </row>
-    <row r="63" spans="1:14" s="202" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="191">
+    <row r="63" spans="1:14" s="201" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="190">
         <v>60</v>
       </c>
-      <c r="B63" s="191" t="s">
+      <c r="B63" s="190" t="s">
         <v>714</v>
       </c>
-      <c r="C63" s="192" t="s">
+      <c r="C63" s="191" t="s">
         <v>492</v>
       </c>
-      <c r="D63" s="191" t="s">
+      <c r="D63" s="190" t="s">
         <v>437</v>
       </c>
-      <c r="E63" s="191">
+      <c r="E63" s="190">
         <v>1997</v>
       </c>
-      <c r="H63" s="217">
+      <c r="H63" s="216">
         <v>60</v>
       </c>
-      <c r="I63" s="218" t="s">
+      <c r="I63" s="217" t="s">
         <v>492</v>
       </c>
-      <c r="J63" s="218">
+      <c r="J63" s="217">
         <f t="shared" si="0"/>
         <v>1997</v>
       </c>
-      <c r="K63" s="217" t="s">
+      <c r="K63" s="216" t="s">
         <v>437</v>
       </c>
-      <c r="L63" s="219" t="s">
+      <c r="L63" s="218" t="s">
         <v>433</v>
       </c>
-      <c r="M63" s="220">
+      <c r="M63" s="219">
         <v>3500000</v>
       </c>
       <c r="N63" s="136" t="str">
@@ -6936,23 +6976,23 @@
       <c r="E64" s="153">
         <v>1978</v>
       </c>
-      <c r="H64" s="217">
+      <c r="H64" s="216">
         <v>61</v>
       </c>
-      <c r="I64" s="218" t="s">
+      <c r="I64" s="217" t="s">
         <v>493</v>
       </c>
-      <c r="J64" s="218">
+      <c r="J64" s="217">
         <f t="shared" si="0"/>
         <v>1978</v>
       </c>
-      <c r="K64" s="217" t="s">
+      <c r="K64" s="216" t="s">
         <v>437</v>
       </c>
-      <c r="L64" s="219" t="s">
+      <c r="L64" s="218" t="s">
         <v>433</v>
       </c>
-      <c r="M64" s="220">
+      <c r="M64" s="219">
         <v>3500000</v>
       </c>
       <c r="N64" s="136" t="str">
@@ -6976,23 +7016,23 @@
       <c r="E65" s="153">
         <v>1981</v>
       </c>
-      <c r="H65" s="217">
+      <c r="H65" s="216">
         <v>62</v>
       </c>
-      <c r="I65" s="218" t="s">
+      <c r="I65" s="217" t="s">
         <v>494</v>
       </c>
-      <c r="J65" s="218">
+      <c r="J65" s="217">
         <f t="shared" si="0"/>
         <v>1981</v>
       </c>
-      <c r="K65" s="217" t="s">
+      <c r="K65" s="216" t="s">
         <v>437</v>
       </c>
-      <c r="L65" s="219" t="s">
+      <c r="L65" s="218" t="s">
         <v>433</v>
       </c>
-      <c r="M65" s="220">
+      <c r="M65" s="219">
         <v>3500000</v>
       </c>
       <c r="N65" s="136" t="str">
@@ -7016,23 +7056,23 @@
       <c r="E66" s="153">
         <v>1985</v>
       </c>
-      <c r="H66" s="217">
+      <c r="H66" s="216">
         <v>63</v>
       </c>
-      <c r="I66" s="218" t="s">
+      <c r="I66" s="217" t="s">
         <v>495</v>
       </c>
-      <c r="J66" s="218">
+      <c r="J66" s="217">
         <f t="shared" si="0"/>
         <v>1985</v>
       </c>
-      <c r="K66" s="217" t="s">
+      <c r="K66" s="216" t="s">
         <v>432</v>
       </c>
-      <c r="L66" s="219" t="s">
+      <c r="L66" s="218" t="s">
         <v>433</v>
       </c>
-      <c r="M66" s="220">
+      <c r="M66" s="219">
         <v>2000000</v>
       </c>
       <c r="N66" s="136" t="str">
@@ -7056,23 +7096,23 @@
       <c r="E67" s="153">
         <v>1986</v>
       </c>
-      <c r="H67" s="217">
+      <c r="H67" s="216">
         <v>64</v>
       </c>
-      <c r="I67" s="218" t="s">
+      <c r="I67" s="217" t="s">
         <v>496</v>
       </c>
-      <c r="J67" s="218">
+      <c r="J67" s="217">
         <f t="shared" si="0"/>
         <v>1986</v>
       </c>
-      <c r="K67" s="217" t="s">
+      <c r="K67" s="216" t="s">
         <v>437</v>
       </c>
-      <c r="L67" s="219" t="s">
+      <c r="L67" s="218" t="s">
         <v>433</v>
       </c>
-      <c r="M67" s="220">
+      <c r="M67" s="219">
         <v>3500000</v>
       </c>
       <c r="N67" s="136" t="str">
@@ -7096,23 +7136,23 @@
       <c r="E68" s="153">
         <v>1975</v>
       </c>
-      <c r="H68" s="217">
+      <c r="H68" s="216">
         <v>65</v>
       </c>
-      <c r="I68" s="218" t="s">
+      <c r="I68" s="217" t="s">
         <v>497</v>
       </c>
-      <c r="J68" s="218">
+      <c r="J68" s="217">
         <f t="shared" si="0"/>
         <v>1975</v>
       </c>
-      <c r="K68" s="217" t="s">
+      <c r="K68" s="216" t="s">
         <v>432</v>
       </c>
-      <c r="L68" s="219" t="s">
+      <c r="L68" s="218" t="s">
         <v>433</v>
       </c>
-      <c r="M68" s="220">
+      <c r="M68" s="219">
         <v>2000000</v>
       </c>
       <c r="N68" s="136" t="str">
@@ -7136,23 +7176,23 @@
       <c r="E69" s="153">
         <v>1978</v>
       </c>
-      <c r="H69" s="217">
+      <c r="H69" s="216">
         <v>66</v>
       </c>
-      <c r="I69" s="218" t="s">
+      <c r="I69" s="217" t="s">
         <v>498</v>
       </c>
-      <c r="J69" s="218">
+      <c r="J69" s="217">
         <f t="shared" ref="J69:J83" si="2">VLOOKUP(I69,$C$4:$E$83,3,0)</f>
         <v>1978</v>
       </c>
-      <c r="K69" s="217" t="s">
+      <c r="K69" s="216" t="s">
         <v>437</v>
       </c>
-      <c r="L69" s="219" t="s">
+      <c r="L69" s="218" t="s">
         <v>433</v>
       </c>
-      <c r="M69" s="220">
+      <c r="M69" s="219">
         <v>3500000</v>
       </c>
       <c r="N69" s="136" t="str">
@@ -7176,23 +7216,23 @@
       <c r="E70" s="153">
         <v>1977</v>
       </c>
-      <c r="H70" s="217">
+      <c r="H70" s="216">
         <v>67</v>
       </c>
-      <c r="I70" s="218" t="s">
+      <c r="I70" s="217" t="s">
         <v>499</v>
       </c>
-      <c r="J70" s="218">
+      <c r="J70" s="217">
         <f t="shared" si="2"/>
         <v>1977</v>
       </c>
-      <c r="K70" s="217" t="s">
+      <c r="K70" s="216" t="s">
         <v>437</v>
       </c>
-      <c r="L70" s="219" t="s">
+      <c r="L70" s="218" t="s">
         <v>433</v>
       </c>
-      <c r="M70" s="220">
+      <c r="M70" s="219">
         <v>3500000</v>
       </c>
       <c r="N70" s="136" t="str">
@@ -7216,23 +7256,23 @@
       <c r="E71" s="153">
         <v>1985</v>
       </c>
-      <c r="H71" s="217">
+      <c r="H71" s="216">
         <v>68</v>
       </c>
-      <c r="I71" s="218" t="s">
+      <c r="I71" s="217" t="s">
         <v>500</v>
       </c>
-      <c r="J71" s="218">
+      <c r="J71" s="217">
         <f t="shared" si="2"/>
         <v>1985</v>
       </c>
-      <c r="K71" s="217" t="s">
+      <c r="K71" s="216" t="s">
         <v>432</v>
       </c>
-      <c r="L71" s="219" t="s">
+      <c r="L71" s="218" t="s">
         <v>433</v>
       </c>
-      <c r="M71" s="220">
+      <c r="M71" s="219">
         <v>2000000</v>
       </c>
       <c r="N71" s="136" t="str">
@@ -7256,23 +7296,23 @@
       <c r="E72" s="153">
         <v>1978</v>
       </c>
-      <c r="H72" s="217">
+      <c r="H72" s="216">
         <v>69</v>
       </c>
-      <c r="I72" s="218" t="s">
+      <c r="I72" s="217" t="s">
         <v>501</v>
       </c>
-      <c r="J72" s="218">
+      <c r="J72" s="217">
         <f t="shared" si="2"/>
         <v>1978</v>
       </c>
-      <c r="K72" s="217" t="s">
+      <c r="K72" s="216" t="s">
         <v>437</v>
       </c>
-      <c r="L72" s="219" t="s">
+      <c r="L72" s="218" t="s">
         <v>433</v>
       </c>
-      <c r="M72" s="220">
+      <c r="M72" s="219">
         <v>3500000</v>
       </c>
       <c r="N72" s="136" t="str">
@@ -7296,23 +7336,23 @@
       <c r="E73" s="153">
         <v>1977</v>
       </c>
-      <c r="H73" s="217">
+      <c r="H73" s="216">
         <v>70</v>
       </c>
-      <c r="I73" s="218" t="s">
+      <c r="I73" s="217" t="s">
         <v>502</v>
       </c>
-      <c r="J73" s="218">
+      <c r="J73" s="217">
         <f t="shared" si="2"/>
         <v>1977</v>
       </c>
-      <c r="K73" s="217" t="s">
+      <c r="K73" s="216" t="s">
         <v>437</v>
       </c>
-      <c r="L73" s="219" t="s">
+      <c r="L73" s="218" t="s">
         <v>433</v>
       </c>
-      <c r="M73" s="220">
+      <c r="M73" s="219">
         <v>3500000</v>
       </c>
       <c r="N73" s="136" t="str">
@@ -7336,23 +7376,23 @@
       <c r="E74" s="153">
         <v>1965</v>
       </c>
-      <c r="H74" s="217">
+      <c r="H74" s="216">
         <v>71</v>
       </c>
-      <c r="I74" s="219" t="s">
+      <c r="I74" s="218" t="s">
         <v>503</v>
       </c>
-      <c r="J74" s="218">
+      <c r="J74" s="217">
         <f t="shared" si="2"/>
         <v>1965</v>
       </c>
-      <c r="K74" s="217" t="s">
+      <c r="K74" s="216" t="s">
         <v>437</v>
       </c>
-      <c r="L74" s="219" t="s">
+      <c r="L74" s="218" t="s">
         <v>504</v>
       </c>
-      <c r="M74" s="220">
+      <c r="M74" s="219">
         <v>2000000</v>
       </c>
       <c r="N74" s="136" t="str">
@@ -7376,23 +7416,23 @@
       <c r="E75" s="153">
         <v>1962</v>
       </c>
-      <c r="H75" s="217">
+      <c r="H75" s="216">
         <v>72</v>
       </c>
-      <c r="I75" s="219" t="s">
+      <c r="I75" s="218" t="s">
         <v>505</v>
       </c>
-      <c r="J75" s="218">
+      <c r="J75" s="217">
         <f t="shared" si="2"/>
         <v>1962</v>
       </c>
-      <c r="K75" s="217" t="s">
+      <c r="K75" s="216" t="s">
         <v>437</v>
       </c>
-      <c r="L75" s="219" t="s">
+      <c r="L75" s="218" t="s">
         <v>504</v>
       </c>
-      <c r="M75" s="220">
+      <c r="M75" s="219">
         <v>2000000</v>
       </c>
       <c r="N75" s="136" t="str">
@@ -7416,23 +7456,23 @@
       <c r="E76" s="153">
         <v>1964</v>
       </c>
-      <c r="H76" s="217">
+      <c r="H76" s="216">
         <v>73</v>
       </c>
-      <c r="I76" s="219" t="s">
+      <c r="I76" s="218" t="s">
         <v>506</v>
       </c>
-      <c r="J76" s="218">
+      <c r="J76" s="217">
         <f t="shared" si="2"/>
         <v>1964</v>
       </c>
-      <c r="K76" s="217" t="s">
+      <c r="K76" s="216" t="s">
         <v>437</v>
       </c>
-      <c r="L76" s="219" t="s">
+      <c r="L76" s="218" t="s">
         <v>504</v>
       </c>
-      <c r="M76" s="220">
+      <c r="M76" s="219">
         <v>2000000</v>
       </c>
       <c r="N76" s="136" t="str">
@@ -7456,23 +7496,23 @@
       <c r="E77" s="153">
         <v>1962</v>
       </c>
-      <c r="H77" s="217">
+      <c r="H77" s="216">
         <v>74</v>
       </c>
-      <c r="I77" s="219" t="s">
+      <c r="I77" s="218" t="s">
         <v>507</v>
       </c>
-      <c r="J77" s="218">
+      <c r="J77" s="217">
         <f t="shared" si="2"/>
         <v>1962</v>
       </c>
-      <c r="K77" s="217" t="s">
+      <c r="K77" s="216" t="s">
         <v>432</v>
       </c>
-      <c r="L77" s="219" t="s">
+      <c r="L77" s="218" t="s">
         <v>504</v>
       </c>
-      <c r="M77" s="220">
+      <c r="M77" s="219">
         <v>2000000</v>
       </c>
       <c r="N77" s="136" t="str">
@@ -7496,23 +7536,23 @@
       <c r="E78" s="153">
         <v>1962</v>
       </c>
-      <c r="H78" s="217">
+      <c r="H78" s="216">
         <v>75</v>
       </c>
-      <c r="I78" s="219" t="s">
+      <c r="I78" s="218" t="s">
         <v>508</v>
       </c>
-      <c r="J78" s="218">
+      <c r="J78" s="217">
         <f t="shared" si="2"/>
         <v>1962</v>
       </c>
-      <c r="K78" s="217" t="s">
+      <c r="K78" s="216" t="s">
         <v>437</v>
       </c>
-      <c r="L78" s="219" t="s">
+      <c r="L78" s="218" t="s">
         <v>504</v>
       </c>
-      <c r="M78" s="220">
+      <c r="M78" s="219">
         <v>2000000</v>
       </c>
       <c r="N78" s="136" t="str">
@@ -7536,23 +7576,23 @@
       <c r="E79" s="153">
         <v>1957</v>
       </c>
-      <c r="H79" s="217">
+      <c r="H79" s="216">
         <v>76</v>
       </c>
-      <c r="I79" s="219" t="s">
+      <c r="I79" s="218" t="s">
         <v>509</v>
       </c>
-      <c r="J79" s="218">
+      <c r="J79" s="217">
         <f t="shared" si="2"/>
         <v>1957</v>
       </c>
-      <c r="K79" s="217" t="s">
+      <c r="K79" s="216" t="s">
         <v>437</v>
       </c>
-      <c r="L79" s="219" t="s">
+      <c r="L79" s="218" t="s">
         <v>504</v>
       </c>
-      <c r="M79" s="220">
+      <c r="M79" s="219">
         <v>2000000</v>
       </c>
       <c r="N79" s="136" t="str">
@@ -7576,23 +7616,23 @@
       <c r="E80" s="153">
         <v>1956</v>
       </c>
-      <c r="H80" s="217">
+      <c r="H80" s="216">
         <v>77</v>
       </c>
-      <c r="I80" s="219" t="s">
+      <c r="I80" s="218" t="s">
         <v>510</v>
       </c>
-      <c r="J80" s="218">
+      <c r="J80" s="217">
         <f t="shared" si="2"/>
         <v>1956</v>
       </c>
-      <c r="K80" s="217" t="s">
+      <c r="K80" s="216" t="s">
         <v>437</v>
       </c>
-      <c r="L80" s="219" t="s">
+      <c r="L80" s="218" t="s">
         <v>504</v>
       </c>
-      <c r="M80" s="220">
+      <c r="M80" s="219">
         <v>2000000</v>
       </c>
       <c r="N80" s="136" t="str">
@@ -7616,23 +7656,23 @@
       <c r="E81" s="153">
         <v>1954</v>
       </c>
-      <c r="H81" s="217">
+      <c r="H81" s="216">
         <v>78</v>
       </c>
-      <c r="I81" s="219" t="s">
+      <c r="I81" s="218" t="s">
         <v>511</v>
       </c>
-      <c r="J81" s="218">
+      <c r="J81" s="217">
         <f t="shared" si="2"/>
         <v>1954</v>
       </c>
-      <c r="K81" s="217" t="s">
+      <c r="K81" s="216" t="s">
         <v>437</v>
       </c>
-      <c r="L81" s="219" t="s">
+      <c r="L81" s="218" t="s">
         <v>504</v>
       </c>
-      <c r="M81" s="220">
+      <c r="M81" s="219">
         <v>2000000</v>
       </c>
       <c r="N81" s="136" t="str">
@@ -7656,23 +7696,23 @@
       <c r="E82" s="153">
         <v>1961</v>
       </c>
-      <c r="H82" s="217">
+      <c r="H82" s="216">
         <v>79</v>
       </c>
-      <c r="I82" s="219" t="s">
+      <c r="I82" s="218" t="s">
         <v>512</v>
       </c>
-      <c r="J82" s="218">
+      <c r="J82" s="217">
         <f t="shared" si="2"/>
         <v>1961</v>
       </c>
-      <c r="K82" s="217" t="s">
+      <c r="K82" s="216" t="s">
         <v>432</v>
       </c>
-      <c r="L82" s="219" t="s">
+      <c r="L82" s="218" t="s">
         <v>504</v>
       </c>
-      <c r="M82" s="220">
+      <c r="M82" s="219">
         <v>2000000</v>
       </c>
       <c r="N82" s="136" t="str">
@@ -7696,23 +7736,23 @@
       <c r="E83" s="153">
         <v>1958</v>
       </c>
-      <c r="H83" s="217">
+      <c r="H83" s="216">
         <v>80</v>
       </c>
-      <c r="I83" s="219" t="s">
+      <c r="I83" s="218" t="s">
         <v>513</v>
       </c>
-      <c r="J83" s="218">
+      <c r="J83" s="217">
         <f t="shared" si="2"/>
         <v>1958</v>
       </c>
-      <c r="K83" s="217" t="s">
+      <c r="K83" s="216" t="s">
         <v>437</v>
       </c>
-      <c r="L83" s="219" t="s">
+      <c r="L83" s="218" t="s">
         <v>504</v>
       </c>
-      <c r="M83" s="220">
+      <c r="M83" s="219">
         <v>2000000</v>
       </c>
       <c r="N83" s="136" t="str">
@@ -7721,14 +7761,14 @@
       </c>
     </row>
     <row r="84" spans="1:14" s="137" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="228" t="s">
+      <c r="A84" s="287" t="s">
         <v>414</v>
       </c>
-      <c r="B84" s="229"/>
-      <c r="C84" s="229"/>
-      <c r="D84" s="229"/>
-      <c r="E84" s="229"/>
-      <c r="M84" s="214"/>
+      <c r="B84" s="288"/>
+      <c r="C84" s="288"/>
+      <c r="D84" s="288"/>
+      <c r="E84" s="288"/>
+      <c r="M84" s="213"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:E84" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
@@ -7773,43 +7813,43 @@
       <c r="A1" s="22"/>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
-      <c r="D1" s="234" t="s">
+      <c r="D1" s="337" t="s">
         <v>313</v>
       </c>
-      <c r="E1" s="234"/>
-      <c r="F1" s="234"/>
+      <c r="E1" s="337"/>
+      <c r="F1" s="337"/>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="24"/>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
-      <c r="D2" s="235"/>
-      <c r="E2" s="235"/>
-      <c r="F2" s="235"/>
+      <c r="D2" s="338"/>
+      <c r="E2" s="338"/>
+      <c r="F2" s="338"/>
     </row>
     <row r="3" spans="1:11" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="24"/>
       <c r="B3" s="24"/>
       <c r="C3" s="24"/>
-      <c r="D3" s="235"/>
-      <c r="E3" s="235"/>
-      <c r="F3" s="235"/>
+      <c r="D3" s="338"/>
+      <c r="E3" s="338"/>
+      <c r="F3" s="338"/>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
       <c r="B4" s="24"/>
       <c r="C4" s="24"/>
-      <c r="D4" s="235"/>
-      <c r="E4" s="235"/>
-      <c r="F4" s="235"/>
+      <c r="D4" s="338"/>
+      <c r="E4" s="338"/>
+      <c r="F4" s="338"/>
     </row>
     <row r="5" spans="1:11" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="24"/>
       <c r="B5" s="24"/>
       <c r="C5" s="24"/>
-      <c r="D5" s="235"/>
-      <c r="E5" s="235"/>
-      <c r="F5" s="235"/>
+      <c r="D5" s="338"/>
+      <c r="E5" s="338"/>
+      <c r="F5" s="338"/>
     </row>
     <row r="6" spans="1:11" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="23"/>
@@ -7820,14 +7860,14 @@
       <c r="F6" s="23"/>
     </row>
     <row r="7" spans="1:11" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="236" t="s">
+      <c r="A7" s="339" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="236"/>
-      <c r="C7" s="236"/>
-      <c r="D7" s="236"/>
-      <c r="E7" s="236"/>
-      <c r="F7" s="236"/>
+      <c r="B7" s="339"/>
+      <c r="C7" s="339"/>
+      <c r="D7" s="339"/>
+      <c r="E7" s="339"/>
+      <c r="F7" s="339"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -7849,27 +7889,27 @@
     </row>
     <row r="9" spans="1:11" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="28"/>
-      <c r="B9" s="244" t="s">
+      <c r="B9" s="345" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="244"/>
-      <c r="D9" s="244"/>
-      <c r="E9" s="244"/>
-      <c r="F9" s="244"/>
+      <c r="C9" s="345"/>
+      <c r="D9" s="345"/>
+      <c r="E9" s="345"/>
+      <c r="F9" s="345"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="245" t="s">
+      <c r="A10" s="346" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="246"/>
-      <c r="C10" s="246"/>
-      <c r="D10" s="246"/>
-      <c r="E10" s="246"/>
-      <c r="F10" s="247"/>
+      <c r="B10" s="347"/>
+      <c r="C10" s="347"/>
+      <c r="D10" s="347"/>
+      <c r="E10" s="347"/>
+      <c r="F10" s="348"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
@@ -7877,12 +7917,12 @@
       <c r="K10" s="8"/>
     </row>
     <row r="11" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="248"/>
-      <c r="B11" s="249"/>
-      <c r="C11" s="249"/>
-      <c r="D11" s="249"/>
-      <c r="E11" s="249"/>
-      <c r="F11" s="250"/>
+      <c r="A11" s="349"/>
+      <c r="B11" s="350"/>
+      <c r="C11" s="350"/>
+      <c r="D11" s="350"/>
+      <c r="E11" s="350"/>
+      <c r="F11" s="351"/>
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
@@ -7901,10 +7941,10 @@
       <c r="A13" s="33" t="s">
         <v>260</v>
       </c>
-      <c r="B13" s="242" t="s">
+      <c r="B13" s="343" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="242"/>
+      <c r="C13" s="343"/>
       <c r="D13" s="33" t="s">
         <v>4</v>
       </c>
@@ -7917,77 +7957,77 @@
       <c r="G13" s="10"/>
     </row>
     <row r="14" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="251">
+      <c r="A14" s="352">
         <v>1</v>
       </c>
-      <c r="B14" s="254" t="s">
+      <c r="B14" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="251" t="s">
+      <c r="C14" s="352" t="s">
         <v>328</v>
       </c>
       <c r="D14" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="257">
+      <c r="E14" s="332">
         <v>200000</v>
       </c>
-      <c r="F14" s="260"/>
+      <c r="F14" s="355"/>
       <c r="G14" s="11"/>
     </row>
     <row r="15" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="252"/>
-      <c r="B15" s="255"/>
-      <c r="C15" s="252"/>
+      <c r="A15" s="353"/>
+      <c r="B15" s="316"/>
+      <c r="C15" s="353"/>
       <c r="D15" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="258"/>
-      <c r="F15" s="261"/>
+      <c r="E15" s="333"/>
+      <c r="F15" s="356"/>
       <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:11" ht="33" x14ac:dyDescent="0.25">
-      <c r="A16" s="252"/>
-      <c r="B16" s="255"/>
-      <c r="C16" s="252"/>
+      <c r="A16" s="353"/>
+      <c r="B16" s="316"/>
+      <c r="C16" s="353"/>
       <c r="D16" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="258"/>
-      <c r="F16" s="261"/>
+      <c r="E16" s="333"/>
+      <c r="F16" s="356"/>
       <c r="G16" s="11"/>
     </row>
     <row r="17" spans="1:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="A17" s="252"/>
-      <c r="B17" s="255"/>
-      <c r="C17" s="252"/>
+      <c r="A17" s="353"/>
+      <c r="B17" s="316"/>
+      <c r="C17" s="353"/>
       <c r="D17" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="258"/>
-      <c r="F17" s="261"/>
+      <c r="E17" s="333"/>
+      <c r="F17" s="356"/>
       <c r="G17" s="12"/>
     </row>
     <row r="18" spans="1:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="A18" s="252"/>
-      <c r="B18" s="255"/>
-      <c r="C18" s="252"/>
+      <c r="A18" s="353"/>
+      <c r="B18" s="316"/>
+      <c r="C18" s="353"/>
       <c r="D18" s="36" t="s">
         <v>413</v>
       </c>
-      <c r="E18" s="258"/>
-      <c r="F18" s="261"/>
+      <c r="E18" s="333"/>
+      <c r="F18" s="356"/>
       <c r="G18" s="12"/>
     </row>
     <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="253"/>
-      <c r="B19" s="256"/>
-      <c r="C19" s="253"/>
+      <c r="A19" s="354"/>
+      <c r="B19" s="296"/>
+      <c r="C19" s="354"/>
       <c r="D19" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="259"/>
-      <c r="F19" s="262"/>
+      <c r="E19" s="334"/>
+      <c r="F19" s="357"/>
       <c r="G19" s="12"/>
     </row>
     <row r="20" spans="1:7" ht="33" x14ac:dyDescent="0.25">
@@ -8070,7 +8110,7 @@
       <c r="A24" s="38">
         <v>6</v>
       </c>
-      <c r="B24" s="233" t="s">
+      <c r="B24" s="336" t="s">
         <v>41</v>
       </c>
       <c r="C24" s="42" t="s">
@@ -8079,10 +8119,10 @@
       <c r="D24" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="239">
+      <c r="E24" s="342">
         <v>60000</v>
       </c>
-      <c r="F24" s="240" t="s">
+      <c r="F24" s="300" t="s">
         <v>383</v>
       </c>
       <c r="G24" s="12"/>
@@ -8091,15 +8131,15 @@
       <c r="A25" s="38">
         <v>7</v>
       </c>
-      <c r="B25" s="233"/>
+      <c r="B25" s="336"/>
       <c r="C25" s="42" t="s">
         <v>44</v>
       </c>
       <c r="D25" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="239"/>
-      <c r="F25" s="241"/>
+      <c r="E25" s="342"/>
+      <c r="F25" s="301"/>
       <c r="G25" s="12"/>
     </row>
     <row r="26" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
@@ -8139,12 +8179,12 @@
       <c r="G27" s="12"/>
     </row>
     <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="237" t="s">
+      <c r="A28" s="340" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="243"/>
-      <c r="C28" s="243"/>
-      <c r="D28" s="238"/>
+      <c r="B28" s="344"/>
+      <c r="C28" s="344"/>
+      <c r="D28" s="341"/>
       <c r="E28" s="34">
         <f>SUM(E14:E27)</f>
         <v>564000</v>
@@ -8185,10 +8225,10 @@
       <c r="A32" s="63" t="s">
         <v>260</v>
       </c>
-      <c r="B32" s="237" t="s">
+      <c r="B32" s="340" t="s">
         <v>3</v>
       </c>
-      <c r="C32" s="238"/>
+      <c r="C32" s="341"/>
       <c r="D32" s="63" t="s">
         <v>4</v>
       </c>
@@ -8291,7 +8331,7 @@
       <c r="A38" s="38">
         <v>5</v>
       </c>
-      <c r="B38" s="254" t="s">
+      <c r="B38" s="295" t="s">
         <v>45</v>
       </c>
       <c r="C38" s="42" t="s">
@@ -8312,7 +8352,7 @@
       <c r="A39" s="38">
         <v>6</v>
       </c>
-      <c r="B39" s="256"/>
+      <c r="B39" s="296"/>
       <c r="C39" s="42" t="s">
         <v>275</v>
       </c>
@@ -8331,7 +8371,7 @@
       <c r="A40" s="38">
         <v>7</v>
       </c>
-      <c r="B40" s="274" t="s">
+      <c r="B40" s="309" t="s">
         <v>61</v>
       </c>
       <c r="C40" s="42" t="s">
@@ -8343,7 +8383,7 @@
       <c r="E40" s="72">
         <v>41000</v>
       </c>
-      <c r="F40" s="271" t="s">
+      <c r="F40" s="297" t="s">
         <v>379</v>
       </c>
       <c r="G40" s="12"/>
@@ -8352,7 +8392,7 @@
       <c r="A41" s="38">
         <v>8</v>
       </c>
-      <c r="B41" s="274"/>
+      <c r="B41" s="309"/>
       <c r="C41" s="42" t="s">
         <v>64</v>
       </c>
@@ -8362,14 +8402,14 @@
       <c r="E41" s="72">
         <v>59000</v>
       </c>
-      <c r="F41" s="272"/>
+      <c r="F41" s="298"/>
       <c r="G41" s="12"/>
     </row>
     <row r="42" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A42" s="38">
         <v>9</v>
       </c>
-      <c r="B42" s="274"/>
+      <c r="B42" s="309"/>
       <c r="C42" s="42" t="s">
         <v>66</v>
       </c>
@@ -8379,14 +8419,14 @@
       <c r="E42" s="72">
         <v>59000</v>
       </c>
-      <c r="F42" s="272"/>
+      <c r="F42" s="298"/>
       <c r="G42" s="12"/>
     </row>
     <row r="43" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A43" s="38">
         <v>10</v>
       </c>
-      <c r="B43" s="274"/>
+      <c r="B43" s="309"/>
       <c r="C43" s="42" t="s">
         <v>68</v>
       </c>
@@ -8396,14 +8436,14 @@
       <c r="E43" s="72">
         <v>47000</v>
       </c>
-      <c r="F43" s="272"/>
+      <c r="F43" s="298"/>
       <c r="G43" s="12"/>
     </row>
     <row r="44" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A44" s="38">
         <v>11</v>
       </c>
-      <c r="B44" s="274"/>
+      <c r="B44" s="309"/>
       <c r="C44" s="42" t="s">
         <v>70</v>
       </c>
@@ -8413,7 +8453,7 @@
       <c r="E44" s="72">
         <v>41000</v>
       </c>
-      <c r="F44" s="273"/>
+      <c r="F44" s="299"/>
       <c r="G44" s="12"/>
     </row>
     <row r="45" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
@@ -8439,7 +8479,7 @@
       <c r="A46" s="38">
         <v>13</v>
       </c>
-      <c r="B46" s="254" t="s">
+      <c r="B46" s="295" t="s">
         <v>278</v>
       </c>
       <c r="C46" s="36" t="s">
@@ -8451,7 +8491,7 @@
       <c r="E46" s="75">
         <v>62000</v>
       </c>
-      <c r="F46" s="271" t="s">
+      <c r="F46" s="297" t="s">
         <v>380</v>
       </c>
       <c r="G46" s="12"/>
@@ -8460,7 +8500,7 @@
       <c r="A47" s="38">
         <v>14</v>
       </c>
-      <c r="B47" s="255"/>
+      <c r="B47" s="316"/>
       <c r="C47" s="36" t="s">
         <v>197</v>
       </c>
@@ -8470,14 +8510,14 @@
       <c r="E47" s="75">
         <v>165000</v>
       </c>
-      <c r="F47" s="272"/>
+      <c r="F47" s="298"/>
       <c r="G47" s="12"/>
     </row>
     <row r="48" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A48" s="38">
         <v>15</v>
       </c>
-      <c r="B48" s="256"/>
+      <c r="B48" s="296"/>
       <c r="C48" s="36" t="s">
         <v>202</v>
       </c>
@@ -8487,14 +8527,14 @@
       <c r="E48" s="75">
         <v>116000</v>
       </c>
-      <c r="F48" s="273"/>
+      <c r="F48" s="299"/>
       <c r="G48" s="12"/>
     </row>
     <row r="49" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A49" s="38">
         <v>16</v>
       </c>
-      <c r="B49" s="254" t="s">
+      <c r="B49" s="295" t="s">
         <v>273</v>
       </c>
       <c r="C49" s="36" t="s">
@@ -8513,7 +8553,7 @@
       <c r="A50" s="38">
         <v>17</v>
       </c>
-      <c r="B50" s="255"/>
+      <c r="B50" s="316"/>
       <c r="C50" s="36" t="s">
         <v>270</v>
       </c>
@@ -8523,7 +8563,7 @@
       <c r="E50" s="75">
         <v>130000</v>
       </c>
-      <c r="F50" s="271" t="s">
+      <c r="F50" s="297" t="s">
         <v>380</v>
       </c>
       <c r="G50" s="12"/>
@@ -8532,7 +8572,7 @@
       <c r="A51" s="38">
         <v>18</v>
       </c>
-      <c r="B51" s="255"/>
+      <c r="B51" s="316"/>
       <c r="C51" s="36" t="s">
         <v>271</v>
       </c>
@@ -8542,14 +8582,14 @@
       <c r="E51" s="75">
         <v>120000</v>
       </c>
-      <c r="F51" s="272"/>
+      <c r="F51" s="298"/>
       <c r="G51" s="12"/>
     </row>
     <row r="52" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A52" s="38">
         <v>19</v>
       </c>
-      <c r="B52" s="256"/>
+      <c r="B52" s="296"/>
       <c r="C52" s="36" t="s">
         <v>272</v>
       </c>
@@ -8559,7 +8599,7 @@
       <c r="E52" s="75">
         <v>282000</v>
       </c>
-      <c r="F52" s="273"/>
+      <c r="F52" s="299"/>
       <c r="G52" s="12"/>
     </row>
     <row r="53" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
@@ -8585,7 +8625,7 @@
       <c r="A54" s="38">
         <v>21</v>
       </c>
-      <c r="B54" s="277" t="s">
+      <c r="B54" s="311" t="s">
         <v>131</v>
       </c>
       <c r="C54" s="36" t="s">
@@ -8597,7 +8637,7 @@
       <c r="E54" s="75">
         <v>71000</v>
       </c>
-      <c r="F54" s="240" t="s">
+      <c r="F54" s="300" t="s">
         <v>382</v>
       </c>
       <c r="G54" s="12"/>
@@ -8606,7 +8646,7 @@
       <c r="A55" s="38">
         <v>22</v>
       </c>
-      <c r="B55" s="279"/>
+      <c r="B55" s="312"/>
       <c r="C55" s="36" t="s">
         <v>134</v>
       </c>
@@ -8616,7 +8656,7 @@
       <c r="E55" s="71">
         <v>138000</v>
       </c>
-      <c r="F55" s="241"/>
+      <c r="F55" s="301"/>
       <c r="G55" s="12"/>
     </row>
     <row r="56" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
@@ -8642,7 +8682,7 @@
       <c r="A57" s="38">
         <v>24</v>
       </c>
-      <c r="B57" s="295" t="s">
+      <c r="B57" s="310" t="s">
         <v>206</v>
       </c>
       <c r="C57" s="36" t="s">
@@ -8654,7 +8694,7 @@
       <c r="E57" s="75">
         <v>30000</v>
       </c>
-      <c r="F57" s="288" t="s">
+      <c r="F57" s="302" t="s">
         <v>384</v>
       </c>
       <c r="G57" s="13"/>
@@ -8663,7 +8703,7 @@
       <c r="A58" s="38">
         <v>25</v>
       </c>
-      <c r="B58" s="295"/>
+      <c r="B58" s="310"/>
       <c r="C58" s="36" t="s">
         <v>279</v>
       </c>
@@ -8673,16 +8713,16 @@
       <c r="E58" s="75">
         <v>20000</v>
       </c>
-      <c r="F58" s="289"/>
+      <c r="F58" s="303"/>
       <c r="G58" s="13"/>
     </row>
     <row r="59" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="267" t="s">
+      <c r="A59" s="292" t="s">
         <v>209</v>
       </c>
-      <c r="B59" s="268"/>
-      <c r="C59" s="268"/>
-      <c r="D59" s="269"/>
+      <c r="B59" s="293"/>
+      <c r="C59" s="293"/>
+      <c r="D59" s="294"/>
       <c r="E59" s="69"/>
       <c r="F59" s="70"/>
       <c r="G59" s="12"/>
@@ -8691,7 +8731,7 @@
       <c r="A60" s="38">
         <v>26</v>
       </c>
-      <c r="B60" s="290" t="s">
+      <c r="B60" s="304" t="s">
         <v>261</v>
       </c>
       <c r="C60" s="76" t="s">
@@ -8710,7 +8750,7 @@
       <c r="A61" s="38">
         <v>27</v>
       </c>
-      <c r="B61" s="291"/>
+      <c r="B61" s="305"/>
       <c r="C61" s="76" t="s">
         <v>84</v>
       </c>
@@ -8727,7 +8767,7 @@
       <c r="A62" s="38">
         <v>28</v>
       </c>
-      <c r="B62" s="291"/>
+      <c r="B62" s="305"/>
       <c r="C62" s="76" t="s">
         <v>86</v>
       </c>
@@ -8744,7 +8784,7 @@
       <c r="A63" s="38">
         <v>29</v>
       </c>
-      <c r="B63" s="291"/>
+      <c r="B63" s="305"/>
       <c r="C63" s="76" t="s">
         <v>80</v>
       </c>
@@ -8761,7 +8801,7 @@
       <c r="A64" s="38">
         <v>30</v>
       </c>
-      <c r="B64" s="291"/>
+      <c r="B64" s="305"/>
       <c r="C64" s="76" t="s">
         <v>94</v>
       </c>
@@ -8778,7 +8818,7 @@
       <c r="A65" s="38">
         <v>31</v>
       </c>
-      <c r="B65" s="291"/>
+      <c r="B65" s="305"/>
       <c r="C65" s="76" t="s">
         <v>81</v>
       </c>
@@ -8795,7 +8835,7 @@
       <c r="A66" s="38">
         <v>32</v>
       </c>
-      <c r="B66" s="291"/>
+      <c r="B66" s="305"/>
       <c r="C66" s="76" t="s">
         <v>83</v>
       </c>
@@ -8814,7 +8854,7 @@
       <c r="A67" s="38">
         <v>33</v>
       </c>
-      <c r="B67" s="291"/>
+      <c r="B67" s="305"/>
       <c r="C67" s="80" t="s">
         <v>235</v>
       </c>
@@ -8831,7 +8871,7 @@
       <c r="A68" s="38">
         <v>34</v>
       </c>
-      <c r="B68" s="291"/>
+      <c r="B68" s="305"/>
       <c r="C68" s="76" t="s">
         <v>74</v>
       </c>
@@ -8850,7 +8890,7 @@
       <c r="A69" s="38">
         <v>35</v>
       </c>
-      <c r="B69" s="291"/>
+      <c r="B69" s="305"/>
       <c r="C69" s="76" t="s">
         <v>76</v>
       </c>
@@ -8867,7 +8907,7 @@
       <c r="A70" s="38">
         <v>36</v>
       </c>
-      <c r="B70" s="291"/>
+      <c r="B70" s="305"/>
       <c r="C70" s="76" t="s">
         <v>78</v>
       </c>
@@ -8884,7 +8924,7 @@
       <c r="A71" s="38">
         <v>37</v>
       </c>
-      <c r="B71" s="291"/>
+      <c r="B71" s="305"/>
       <c r="C71" s="76" t="s">
         <v>88</v>
       </c>
@@ -8901,7 +8941,7 @@
       <c r="A72" s="38">
         <v>38</v>
       </c>
-      <c r="B72" s="292"/>
+      <c r="B72" s="306"/>
       <c r="C72" s="76" t="s">
         <v>96</v>
       </c>
@@ -8918,19 +8958,19 @@
       <c r="A73" s="38">
         <v>39</v>
       </c>
-      <c r="B73" s="290" t="s">
+      <c r="B73" s="304" t="s">
         <v>91</v>
       </c>
       <c r="C73" s="76" t="s">
         <v>90</v>
       </c>
-      <c r="D73" s="296" t="s">
+      <c r="D73" s="313" t="s">
         <v>398</v>
       </c>
       <c r="E73" s="78">
         <v>137000</v>
       </c>
-      <c r="F73" s="271" t="s">
+      <c r="F73" s="297" t="s">
         <v>381</v>
       </c>
       <c r="G73" s="13"/>
@@ -8939,43 +8979,43 @@
       <c r="A74" s="38">
         <v>40</v>
       </c>
-      <c r="B74" s="291"/>
+      <c r="B74" s="305"/>
       <c r="C74" s="76" t="s">
         <v>92</v>
       </c>
-      <c r="D74" s="297"/>
+      <c r="D74" s="314"/>
       <c r="E74" s="78">
         <v>137000</v>
       </c>
-      <c r="F74" s="272"/>
+      <c r="F74" s="298"/>
       <c r="G74" s="13"/>
     </row>
     <row r="75" spans="1:7" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A75" s="38">
         <v>41</v>
       </c>
-      <c r="B75" s="292"/>
+      <c r="B75" s="306"/>
       <c r="C75" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="D75" s="298"/>
+      <c r="D75" s="315"/>
       <c r="E75" s="78">
         <v>208000</v>
       </c>
-      <c r="F75" s="273"/>
+      <c r="F75" s="299"/>
       <c r="G75" s="13"/>
     </row>
     <row r="76" spans="1:7" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A76" s="38">
         <v>42</v>
       </c>
-      <c r="B76" s="290" t="s">
+      <c r="B76" s="304" t="s">
         <v>399</v>
       </c>
       <c r="C76" s="76" t="s">
         <v>400</v>
       </c>
-      <c r="D76" s="293" t="s">
+      <c r="D76" s="307" t="s">
         <v>402</v>
       </c>
       <c r="E76" s="78">
@@ -8988,11 +9028,11 @@
       <c r="A77" s="38">
         <v>43</v>
       </c>
-      <c r="B77" s="291"/>
+      <c r="B77" s="305"/>
       <c r="C77" s="76" t="s">
         <v>401</v>
       </c>
-      <c r="D77" s="294"/>
+      <c r="D77" s="308"/>
       <c r="E77" s="78">
         <v>323000</v>
       </c>
@@ -9003,7 +9043,7 @@
       <c r="A78" s="38">
         <v>44</v>
       </c>
-      <c r="B78" s="291"/>
+      <c r="B78" s="305"/>
       <c r="C78" s="76" t="s">
         <v>404</v>
       </c>
@@ -9020,7 +9060,7 @@
       <c r="A79" s="38">
         <v>45</v>
       </c>
-      <c r="B79" s="292"/>
+      <c r="B79" s="306"/>
       <c r="C79" s="76" t="s">
         <v>405</v>
       </c>
@@ -9034,12 +9074,12 @@
       <c r="G79" s="13"/>
     </row>
     <row r="80" spans="1:7" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A80" s="267" t="s">
+      <c r="A80" s="292" t="s">
         <v>208</v>
       </c>
-      <c r="B80" s="268"/>
-      <c r="C80" s="268"/>
-      <c r="D80" s="269"/>
+      <c r="B80" s="293"/>
+      <c r="C80" s="293"/>
+      <c r="D80" s="294"/>
       <c r="E80" s="69"/>
       <c r="F80" s="70"/>
       <c r="G80" s="13"/>
@@ -9048,7 +9088,7 @@
       <c r="A81" s="38">
         <v>46</v>
       </c>
-      <c r="B81" s="274" t="s">
+      <c r="B81" s="309" t="s">
         <v>98</v>
       </c>
       <c r="C81" s="36" t="s">
@@ -9067,7 +9107,7 @@
       <c r="A82" s="38">
         <v>47</v>
       </c>
-      <c r="B82" s="274"/>
+      <c r="B82" s="309"/>
       <c r="C82" s="36" t="s">
         <v>101</v>
       </c>
@@ -9084,7 +9124,7 @@
       <c r="A83" s="38">
         <v>48</v>
       </c>
-      <c r="B83" s="274"/>
+      <c r="B83" s="309"/>
       <c r="C83" s="36" t="s">
         <v>103</v>
       </c>
@@ -9103,7 +9143,7 @@
       <c r="A84" s="38">
         <v>49</v>
       </c>
-      <c r="B84" s="274"/>
+      <c r="B84" s="309"/>
       <c r="C84" s="36" t="s">
         <v>106</v>
       </c>
@@ -9122,7 +9162,7 @@
       <c r="A85" s="38">
         <v>50</v>
       </c>
-      <c r="B85" s="274"/>
+      <c r="B85" s="309"/>
       <c r="C85" s="36" t="s">
         <v>407</v>
       </c>
@@ -9139,7 +9179,7 @@
       <c r="A86" s="38">
         <v>51</v>
       </c>
-      <c r="B86" s="274"/>
+      <c r="B86" s="309"/>
       <c r="C86" s="36" t="s">
         <v>108</v>
       </c>
@@ -9158,7 +9198,7 @@
       <c r="A87" s="38">
         <v>52</v>
       </c>
-      <c r="B87" s="274"/>
+      <c r="B87" s="309"/>
       <c r="C87" s="36" t="s">
         <v>111</v>
       </c>
@@ -9177,7 +9217,7 @@
       <c r="A88" s="38">
         <v>53</v>
       </c>
-      <c r="B88" s="274"/>
+      <c r="B88" s="309"/>
       <c r="C88" s="36" t="s">
         <v>114</v>
       </c>
@@ -9196,7 +9236,7 @@
       <c r="A89" s="38">
         <v>54</v>
       </c>
-      <c r="B89" s="274" t="s">
+      <c r="B89" s="309" t="s">
         <v>117</v>
       </c>
       <c r="C89" s="36" t="s">
@@ -9215,7 +9255,7 @@
       <c r="A90" s="38">
         <v>55</v>
       </c>
-      <c r="B90" s="274"/>
+      <c r="B90" s="309"/>
       <c r="C90" s="36" t="s">
         <v>120</v>
       </c>
@@ -9232,7 +9272,7 @@
       <c r="A91" s="38">
         <v>56</v>
       </c>
-      <c r="B91" s="277" t="s">
+      <c r="B91" s="311" t="s">
         <v>122</v>
       </c>
       <c r="C91" s="36" t="s">
@@ -9251,7 +9291,7 @@
       <c r="A92" s="38">
         <v>57</v>
       </c>
-      <c r="B92" s="278"/>
+      <c r="B92" s="319"/>
       <c r="C92" s="36" t="s">
         <v>390</v>
       </c>
@@ -9268,7 +9308,7 @@
       <c r="A93" s="38">
         <v>58</v>
       </c>
-      <c r="B93" s="279"/>
+      <c r="B93" s="312"/>
       <c r="C93" s="36" t="s">
         <v>126</v>
       </c>
@@ -9282,12 +9322,12 @@
       <c r="G93" s="12"/>
     </row>
     <row r="94" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A94" s="267" t="s">
+      <c r="A94" s="292" t="s">
         <v>262</v>
       </c>
-      <c r="B94" s="268"/>
-      <c r="C94" s="268"/>
-      <c r="D94" s="269"/>
+      <c r="B94" s="293"/>
+      <c r="C94" s="293"/>
+      <c r="D94" s="294"/>
       <c r="E94" s="83"/>
       <c r="F94" s="70"/>
       <c r="G94" s="12"/>
@@ -9296,7 +9336,7 @@
       <c r="A95" s="38">
         <v>59</v>
       </c>
-      <c r="B95" s="277" t="s">
+      <c r="B95" s="311" t="s">
         <v>241</v>
       </c>
       <c r="C95" s="36" t="s">
@@ -9315,7 +9355,7 @@
       <c r="A96" s="38">
         <v>60</v>
       </c>
-      <c r="B96" s="279"/>
+      <c r="B96" s="312"/>
       <c r="C96" s="36" t="s">
         <v>240</v>
       </c>
@@ -9332,7 +9372,7 @@
       <c r="A97" s="38">
         <v>61</v>
       </c>
-      <c r="B97" s="277" t="s">
+      <c r="B97" s="311" t="s">
         <v>244</v>
       </c>
       <c r="C97" s="36" t="s">
@@ -9349,7 +9389,7 @@
       <c r="A98" s="38">
         <v>62</v>
       </c>
-      <c r="B98" s="279"/>
+      <c r="B98" s="312"/>
       <c r="C98" s="36" t="s">
         <v>243</v>
       </c>
@@ -9383,7 +9423,7 @@
       <c r="A100" s="38">
         <v>64</v>
       </c>
-      <c r="B100" s="277" t="s">
+      <c r="B100" s="311" t="s">
         <v>259</v>
       </c>
       <c r="C100" s="36" t="s">
@@ -9400,7 +9440,7 @@
       <c r="A101" s="38">
         <v>65</v>
       </c>
-      <c r="B101" s="278"/>
+      <c r="B101" s="319"/>
       <c r="C101" s="36" t="s">
         <v>246</v>
       </c>
@@ -9415,7 +9455,7 @@
       <c r="A102" s="38">
         <v>66</v>
       </c>
-      <c r="B102" s="278"/>
+      <c r="B102" s="319"/>
       <c r="C102" s="36" t="s">
         <v>247</v>
       </c>
@@ -9430,7 +9470,7 @@
       <c r="A103" s="38">
         <v>67</v>
       </c>
-      <c r="B103" s="278"/>
+      <c r="B103" s="319"/>
       <c r="C103" s="36" t="s">
         <v>248</v>
       </c>
@@ -9445,7 +9485,7 @@
       <c r="A104" s="38">
         <v>68</v>
       </c>
-      <c r="B104" s="278"/>
+      <c r="B104" s="319"/>
       <c r="C104" s="36" t="s">
         <v>249</v>
       </c>
@@ -9460,7 +9500,7 @@
       <c r="A105" s="38">
         <v>69</v>
       </c>
-      <c r="B105" s="278"/>
+      <c r="B105" s="319"/>
       <c r="C105" s="36" t="s">
         <v>250</v>
       </c>
@@ -9475,7 +9515,7 @@
       <c r="A106" s="38">
         <v>70</v>
       </c>
-      <c r="B106" s="278"/>
+      <c r="B106" s="319"/>
       <c r="C106" s="36" t="s">
         <v>251</v>
       </c>
@@ -9490,7 +9530,7 @@
       <c r="A107" s="38">
         <v>71</v>
       </c>
-      <c r="B107" s="278"/>
+      <c r="B107" s="319"/>
       <c r="C107" s="36" t="s">
         <v>252</v>
       </c>
@@ -9505,7 +9545,7 @@
       <c r="A108" s="38">
         <v>72</v>
       </c>
-      <c r="B108" s="278"/>
+      <c r="B108" s="319"/>
       <c r="C108" s="36" t="s">
         <v>253</v>
       </c>
@@ -9520,7 +9560,7 @@
       <c r="A109" s="38">
         <v>73</v>
       </c>
-      <c r="B109" s="278"/>
+      <c r="B109" s="319"/>
       <c r="C109" s="36" t="s">
         <v>254</v>
       </c>
@@ -9535,7 +9575,7 @@
       <c r="A110" s="38">
         <v>74</v>
       </c>
-      <c r="B110" s="278"/>
+      <c r="B110" s="319"/>
       <c r="C110" s="36" t="s">
         <v>255</v>
       </c>
@@ -9550,7 +9590,7 @@
       <c r="A111" s="38">
         <v>75</v>
       </c>
-      <c r="B111" s="278"/>
+      <c r="B111" s="319"/>
       <c r="C111" s="36" t="s">
         <v>256</v>
       </c>
@@ -9565,7 +9605,7 @@
       <c r="A112" s="38">
         <v>76</v>
       </c>
-      <c r="B112" s="278"/>
+      <c r="B112" s="319"/>
       <c r="C112" s="36" t="s">
         <v>257</v>
       </c>
@@ -9580,7 +9620,7 @@
       <c r="A113" s="38">
         <v>77</v>
       </c>
-      <c r="B113" s="279"/>
+      <c r="B113" s="312"/>
       <c r="C113" s="36" t="s">
         <v>258</v>
       </c>
@@ -9592,12 +9632,12 @@
       <c r="G113" s="12"/>
     </row>
     <row r="114" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A114" s="267" t="s">
+      <c r="A114" s="292" t="s">
         <v>227</v>
       </c>
-      <c r="B114" s="268"/>
-      <c r="C114" s="268"/>
-      <c r="D114" s="269"/>
+      <c r="B114" s="293"/>
+      <c r="C114" s="293"/>
+      <c r="D114" s="294"/>
       <c r="E114" s="69"/>
       <c r="F114" s="70"/>
       <c r="G114" s="12"/>
@@ -9641,12 +9681,12 @@
       <c r="G116" s="12"/>
     </row>
     <row r="117" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="264" t="s">
+      <c r="A117" s="320" t="s">
         <v>263</v>
       </c>
-      <c r="B117" s="264"/>
-      <c r="C117" s="264"/>
-      <c r="D117" s="264"/>
+      <c r="B117" s="320"/>
+      <c r="C117" s="320"/>
+      <c r="D117" s="320"/>
       <c r="E117" s="84"/>
       <c r="F117" s="70"/>
       <c r="G117" s="12"/>
@@ -9655,7 +9695,7 @@
       <c r="A118" s="38">
         <v>80</v>
       </c>
-      <c r="B118" s="285" t="s">
+      <c r="B118" s="326" t="s">
         <v>205</v>
       </c>
       <c r="C118" s="37" t="s">
@@ -9674,7 +9714,7 @@
       <c r="A119" s="38">
         <v>81</v>
       </c>
-      <c r="B119" s="286"/>
+      <c r="B119" s="327"/>
       <c r="C119" s="37" t="s">
         <v>35</v>
       </c>
@@ -9691,7 +9731,7 @@
       <c r="A120" s="38">
         <v>82</v>
       </c>
-      <c r="B120" s="286"/>
+      <c r="B120" s="327"/>
       <c r="C120" s="37" t="s">
         <v>326</v>
       </c>
@@ -9705,10 +9745,10 @@
       <c r="G120" s="12"/>
     </row>
     <row r="121" spans="1:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="A121" s="280">
+      <c r="A121" s="321">
         <v>83</v>
       </c>
-      <c r="B121" s="286"/>
+      <c r="B121" s="327"/>
       <c r="C121" s="36" t="s">
         <v>409</v>
       </c>
@@ -9720,8 +9760,8 @@
       <c r="G121" s="12"/>
     </row>
     <row r="122" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A122" s="281"/>
-      <c r="B122" s="286"/>
+      <c r="A122" s="322"/>
+      <c r="B122" s="327"/>
       <c r="C122" s="36" t="s">
         <v>410</v>
       </c>
@@ -9733,8 +9773,8 @@
       <c r="G122" s="12"/>
     </row>
     <row r="123" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A123" s="282"/>
-      <c r="B123" s="286"/>
+      <c r="A123" s="323"/>
+      <c r="B123" s="327"/>
       <c r="C123" s="36" t="s">
         <v>411</v>
       </c>
@@ -9749,7 +9789,7 @@
       <c r="A124" s="38">
         <v>84</v>
       </c>
-      <c r="B124" s="286"/>
+      <c r="B124" s="327"/>
       <c r="C124" s="37" t="s">
         <v>412</v>
       </c>
@@ -9766,7 +9806,7 @@
       <c r="A125" s="38">
         <v>85</v>
       </c>
-      <c r="B125" s="286"/>
+      <c r="B125" s="327"/>
       <c r="C125" s="37" t="s">
         <v>139</v>
       </c>
@@ -9783,7 +9823,7 @@
       <c r="A126" s="38">
         <v>86</v>
       </c>
-      <c r="B126" s="287"/>
+      <c r="B126" s="328"/>
       <c r="C126" s="37" t="s">
         <v>140</v>
       </c>
@@ -9800,7 +9840,7 @@
       <c r="A127" s="38">
         <v>87</v>
       </c>
-      <c r="B127" s="254" t="s">
+      <c r="B127" s="295" t="s">
         <v>283</v>
       </c>
       <c r="C127" s="36" t="s">
@@ -9819,7 +9859,7 @@
       <c r="A128" s="38">
         <v>88</v>
       </c>
-      <c r="B128" s="255"/>
+      <c r="B128" s="316"/>
       <c r="C128" s="36" t="s">
         <v>144</v>
       </c>
@@ -9836,7 +9876,7 @@
       <c r="A129" s="38">
         <v>89</v>
       </c>
-      <c r="B129" s="255"/>
+      <c r="B129" s="316"/>
       <c r="C129" s="36" t="s">
         <v>394</v>
       </c>
@@ -9853,7 +9893,7 @@
       <c r="A130" s="38">
         <v>90</v>
       </c>
-      <c r="B130" s="255"/>
+      <c r="B130" s="316"/>
       <c r="C130" s="36" t="s">
         <v>396</v>
       </c>
@@ -9870,7 +9910,7 @@
       <c r="A131" s="38">
         <v>91</v>
       </c>
-      <c r="B131" s="255"/>
+      <c r="B131" s="316"/>
       <c r="C131" s="36" t="s">
         <v>371</v>
       </c>
@@ -9887,7 +9927,7 @@
       <c r="A132" s="38">
         <v>92</v>
       </c>
-      <c r="B132" s="256"/>
+      <c r="B132" s="296"/>
       <c r="C132" s="36" t="s">
         <v>146</v>
       </c>
@@ -9902,7 +9942,7 @@
       <c r="A133" s="38">
         <v>93</v>
       </c>
-      <c r="B133" s="255" t="s">
+      <c r="B133" s="316" t="s">
         <v>284</v>
       </c>
       <c r="C133" s="36" t="s">
@@ -9919,7 +9959,7 @@
       <c r="A134" s="38">
         <v>94</v>
       </c>
-      <c r="B134" s="255"/>
+      <c r="B134" s="316"/>
       <c r="C134" s="36" t="s">
         <v>332</v>
       </c>
@@ -9936,7 +9976,7 @@
       <c r="A135" s="38">
         <v>95</v>
       </c>
-      <c r="B135" s="255"/>
+      <c r="B135" s="316"/>
       <c r="C135" s="36" t="s">
         <v>152</v>
       </c>
@@ -9953,7 +9993,7 @@
       <c r="A136" s="38">
         <v>96</v>
       </c>
-      <c r="B136" s="255"/>
+      <c r="B136" s="316"/>
       <c r="C136" s="36" t="s">
         <v>154</v>
       </c>
@@ -9970,7 +10010,7 @@
       <c r="A137" s="38">
         <v>97</v>
       </c>
-      <c r="B137" s="255"/>
+      <c r="B137" s="316"/>
       <c r="C137" s="36" t="s">
         <v>156</v>
       </c>
@@ -9987,7 +10027,7 @@
       <c r="A138" s="38">
         <v>98</v>
       </c>
-      <c r="B138" s="255"/>
+      <c r="B138" s="316"/>
       <c r="C138" s="36" t="s">
         <v>158</v>
       </c>
@@ -10004,7 +10044,7 @@
       <c r="A139" s="38">
         <v>99</v>
       </c>
-      <c r="B139" s="255"/>
+      <c r="B139" s="316"/>
       <c r="C139" s="36" t="s">
         <v>159</v>
       </c>
@@ -10019,7 +10059,7 @@
       <c r="A140" s="38">
         <v>100</v>
       </c>
-      <c r="B140" s="233" t="s">
+      <c r="B140" s="336" t="s">
         <v>305</v>
       </c>
       <c r="C140" s="36" t="s">
@@ -10032,16 +10072,16 @@
         <v>3420000</v>
       </c>
       <c r="F140" s="41"/>
-      <c r="G140" s="275" t="s">
+      <c r="G140" s="317" t="s">
         <v>336</v>
       </c>
-      <c r="H140" s="276"/>
+      <c r="H140" s="318"/>
     </row>
     <row r="141" spans="1:8" ht="33" x14ac:dyDescent="0.25">
       <c r="A141" s="38">
         <v>101</v>
       </c>
-      <c r="B141" s="233"/>
+      <c r="B141" s="336"/>
       <c r="C141" s="36" t="s">
         <v>344</v>
       </c>
@@ -10058,7 +10098,7 @@
       <c r="A142" s="38">
         <v>102</v>
       </c>
-      <c r="B142" s="233"/>
+      <c r="B142" s="336"/>
       <c r="C142" s="36" t="s">
         <v>345</v>
       </c>
@@ -10069,16 +10109,16 @@
         <v>3420000</v>
       </c>
       <c r="F142" s="41"/>
-      <c r="G142" s="275" t="s">
+      <c r="G142" s="317" t="s">
         <v>336</v>
       </c>
-      <c r="H142" s="276"/>
+      <c r="H142" s="318"/>
     </row>
     <row r="143" spans="1:8" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A143" s="38">
         <v>103</v>
       </c>
-      <c r="B143" s="233"/>
+      <c r="B143" s="336"/>
       <c r="C143" s="36" t="s">
         <v>346</v>
       </c>
@@ -10095,7 +10135,7 @@
       <c r="A144" s="38">
         <v>104</v>
       </c>
-      <c r="B144" s="233"/>
+      <c r="B144" s="336"/>
       <c r="C144" s="36" t="s">
         <v>347</v>
       </c>
@@ -10112,7 +10152,7 @@
       <c r="A145" s="38">
         <v>105</v>
       </c>
-      <c r="B145" s="233"/>
+      <c r="B145" s="336"/>
       <c r="C145" s="118" t="s">
         <v>374</v>
       </c>
@@ -10129,7 +10169,7 @@
       <c r="A146" s="38">
         <v>106</v>
       </c>
-      <c r="B146" s="233"/>
+      <c r="B146" s="336"/>
       <c r="C146" s="36" t="s">
         <v>348</v>
       </c>
@@ -10146,7 +10186,7 @@
       <c r="A147" s="38">
         <v>107</v>
       </c>
-      <c r="B147" s="233"/>
+      <c r="B147" s="336"/>
       <c r="C147" s="36" t="s">
         <v>349</v>
       </c>
@@ -10163,7 +10203,7 @@
       <c r="A148" s="38">
         <v>108</v>
       </c>
-      <c r="B148" s="233"/>
+      <c r="B148" s="336"/>
       <c r="C148" s="36" t="s">
         <v>350</v>
       </c>
@@ -10180,7 +10220,7 @@
       <c r="A149" s="38">
         <v>109</v>
       </c>
-      <c r="B149" s="233"/>
+      <c r="B149" s="336"/>
       <c r="C149" s="118" t="s">
         <v>373</v>
       </c>
@@ -10197,7 +10237,7 @@
       <c r="A150" s="38">
         <v>110</v>
       </c>
-      <c r="B150" s="233"/>
+      <c r="B150" s="336"/>
       <c r="C150" s="36" t="s">
         <v>351</v>
       </c>
@@ -10216,7 +10256,7 @@
       <c r="A151" s="38">
         <v>111</v>
       </c>
-      <c r="B151" s="233"/>
+      <c r="B151" s="336"/>
       <c r="C151" s="36" t="s">
         <v>352</v>
       </c>
@@ -10233,7 +10273,7 @@
       <c r="A152" s="38">
         <v>112</v>
       </c>
-      <c r="B152" s="233"/>
+      <c r="B152" s="336"/>
       <c r="C152" s="36" t="s">
         <v>353</v>
       </c>
@@ -10250,7 +10290,7 @@
       <c r="A153" s="38">
         <v>113</v>
       </c>
-      <c r="B153" s="233"/>
+      <c r="B153" s="336"/>
       <c r="C153" s="36" t="s">
         <v>354</v>
       </c>
@@ -10267,7 +10307,7 @@
       <c r="A154" s="38">
         <v>114</v>
       </c>
-      <c r="B154" s="233"/>
+      <c r="B154" s="336"/>
       <c r="C154" s="36" t="s">
         <v>355</v>
       </c>
@@ -10284,7 +10324,7 @@
       <c r="A155" s="38">
         <v>115</v>
       </c>
-      <c r="B155" s="233"/>
+      <c r="B155" s="336"/>
       <c r="C155" s="36" t="s">
         <v>356</v>
       </c>
@@ -10301,7 +10341,7 @@
       <c r="A156" s="38">
         <v>116</v>
       </c>
-      <c r="B156" s="233"/>
+      <c r="B156" s="336"/>
       <c r="C156" s="36" t="s">
         <v>357</v>
       </c>
@@ -10318,7 +10358,7 @@
       <c r="A157" s="38">
         <v>117</v>
       </c>
-      <c r="B157" s="233"/>
+      <c r="B157" s="336"/>
       <c r="C157" s="36" t="s">
         <v>358</v>
       </c>
@@ -10335,7 +10375,7 @@
       <c r="A158" s="38">
         <v>118</v>
       </c>
-      <c r="B158" s="233"/>
+      <c r="B158" s="336"/>
       <c r="C158" s="36" t="s">
         <v>359</v>
       </c>
@@ -10352,7 +10392,7 @@
       <c r="A159" s="38">
         <v>119</v>
       </c>
-      <c r="B159" s="233"/>
+      <c r="B159" s="336"/>
       <c r="C159" s="36" t="s">
         <v>360</v>
       </c>
@@ -10369,7 +10409,7 @@
       <c r="A160" s="38">
         <v>120</v>
       </c>
-      <c r="B160" s="233"/>
+      <c r="B160" s="336"/>
       <c r="C160" s="36" t="s">
         <v>361</v>
       </c>
@@ -10386,7 +10426,7 @@
       <c r="A161" s="38">
         <v>121</v>
       </c>
-      <c r="B161" s="233"/>
+      <c r="B161" s="336"/>
       <c r="C161" s="36" t="s">
         <v>362</v>
       </c>
@@ -10403,7 +10443,7 @@
       <c r="A162" s="38">
         <v>122</v>
       </c>
-      <c r="B162" s="233"/>
+      <c r="B162" s="336"/>
       <c r="C162" s="36" t="s">
         <v>363</v>
       </c>
@@ -10420,7 +10460,7 @@
       <c r="A163" s="38">
         <v>123</v>
       </c>
-      <c r="B163" s="233"/>
+      <c r="B163" s="336"/>
       <c r="C163" s="36" t="s">
         <v>364</v>
       </c>
@@ -10437,7 +10477,7 @@
       <c r="A164" s="38">
         <v>124</v>
       </c>
-      <c r="B164" s="233"/>
+      <c r="B164" s="336"/>
       <c r="C164" s="36" t="s">
         <v>365</v>
       </c>
@@ -10452,7 +10492,7 @@
       <c r="A165" s="38">
         <v>125</v>
       </c>
-      <c r="B165" s="233"/>
+      <c r="B165" s="336"/>
       <c r="C165" s="36" t="s">
         <v>366</v>
       </c>
@@ -10467,7 +10507,7 @@
       <c r="A166" s="38">
         <v>126</v>
       </c>
-      <c r="B166" s="233"/>
+      <c r="B166" s="336"/>
       <c r="C166" s="36" t="s">
         <v>367</v>
       </c>
@@ -10484,7 +10524,7 @@
       <c r="A167" s="38">
         <v>127</v>
       </c>
-      <c r="B167" s="233"/>
+      <c r="B167" s="336"/>
       <c r="C167" s="36" t="s">
         <v>368</v>
       </c>
@@ -10501,7 +10541,7 @@
       <c r="A168" s="38">
         <v>128</v>
       </c>
-      <c r="B168" s="233"/>
+      <c r="B168" s="336"/>
       <c r="C168" s="36" t="s">
         <v>369</v>
       </c>
@@ -10518,7 +10558,7 @@
       <c r="A169" s="38">
         <v>129</v>
       </c>
-      <c r="B169" s="233"/>
+      <c r="B169" s="336"/>
       <c r="C169" s="36" t="s">
         <v>370</v>
       </c>
@@ -10532,12 +10572,12 @@
       <c r="G169" s="12"/>
     </row>
     <row r="170" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A170" s="264" t="s">
+      <c r="A170" s="320" t="s">
         <v>207</v>
       </c>
-      <c r="B170" s="264"/>
-      <c r="C170" s="264"/>
-      <c r="D170" s="264"/>
+      <c r="B170" s="320"/>
+      <c r="C170" s="320"/>
+      <c r="D170" s="320"/>
       <c r="E170" s="84"/>
       <c r="F170" s="70"/>
       <c r="G170" s="12"/>
@@ -10598,7 +10638,7 @@
       <c r="A174" s="38">
         <v>133</v>
       </c>
-      <c r="B174" s="254" t="s">
+      <c r="B174" s="295" t="s">
         <v>204</v>
       </c>
       <c r="C174" s="36" t="s">
@@ -10616,7 +10656,7 @@
       <c r="A175" s="38">
         <v>134</v>
       </c>
-      <c r="B175" s="256"/>
+      <c r="B175" s="296"/>
       <c r="C175" s="36" t="s">
         <v>225</v>
       </c>
@@ -10629,12 +10669,12 @@
       <c r="F175" s="41"/>
     </row>
     <row r="176" spans="1:8" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A176" s="267" t="s">
+      <c r="A176" s="292" t="s">
         <v>164</v>
       </c>
-      <c r="B176" s="268"/>
-      <c r="C176" s="268"/>
-      <c r="D176" s="269"/>
+      <c r="B176" s="293"/>
+      <c r="C176" s="293"/>
+      <c r="D176" s="294"/>
       <c r="E176" s="65"/>
       <c r="F176" s="65"/>
     </row>
@@ -10652,7 +10692,7 @@
       <c r="E177" s="90">
         <v>71000</v>
       </c>
-      <c r="F177" s="283" t="s">
+      <c r="F177" s="324" t="s">
         <v>385</v>
       </c>
     </row>
@@ -10670,15 +10710,15 @@
       <c r="E178" s="90">
         <v>86000</v>
       </c>
-      <c r="F178" s="284"/>
+      <c r="F178" s="325"/>
     </row>
     <row r="179" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A179" s="264" t="s">
+      <c r="A179" s="320" t="s">
         <v>169</v>
       </c>
-      <c r="B179" s="264"/>
-      <c r="C179" s="264"/>
-      <c r="D179" s="264"/>
+      <c r="B179" s="320"/>
+      <c r="C179" s="320"/>
+      <c r="D179" s="320"/>
       <c r="E179" s="84"/>
       <c r="F179" s="70"/>
       <c r="G179" s="12"/>
@@ -10697,7 +10737,7 @@
       <c r="E180" s="116">
         <v>1968000</v>
       </c>
-      <c r="F180" s="265" t="s">
+      <c r="F180" s="330" t="s">
         <v>327</v>
       </c>
       <c r="G180" s="12"/>
@@ -10716,7 +10756,7 @@
       <c r="E181" s="116">
         <v>2952000</v>
       </c>
-      <c r="F181" s="265"/>
+      <c r="F181" s="330"/>
       <c r="G181" s="12"/>
     </row>
     <row r="182" spans="1:7" ht="66" x14ac:dyDescent="0.25">
@@ -10733,7 +10773,7 @@
       <c r="E182" s="116">
         <v>4100000</v>
       </c>
-      <c r="F182" s="265"/>
+      <c r="F182" s="330"/>
       <c r="G182" s="12"/>
     </row>
     <row r="183" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
@@ -10824,12 +10864,12 @@
       <c r="G187" s="12"/>
     </row>
     <row r="188" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A188" s="264" t="s">
+      <c r="A188" s="320" t="s">
         <v>264</v>
       </c>
-      <c r="B188" s="264"/>
-      <c r="C188" s="264"/>
-      <c r="D188" s="264"/>
+      <c r="B188" s="320"/>
+      <c r="C188" s="320"/>
+      <c r="D188" s="320"/>
       <c r="E188" s="84"/>
       <c r="F188" s="70"/>
       <c r="G188" s="12"/>
@@ -10852,12 +10892,12 @@
       <c r="G189" s="12"/>
     </row>
     <row r="190" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A190" s="264" t="s">
+      <c r="A190" s="320" t="s">
         <v>234</v>
       </c>
-      <c r="B190" s="264"/>
-      <c r="C190" s="264"/>
-      <c r="D190" s="264"/>
+      <c r="B190" s="320"/>
+      <c r="C190" s="320"/>
+      <c r="D190" s="320"/>
       <c r="E190" s="84"/>
       <c r="F190" s="70"/>
       <c r="G190" s="12"/>
@@ -11033,12 +11073,12 @@
       <c r="G200" s="12"/>
     </row>
     <row r="201" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A201" s="267" t="s">
+      <c r="A201" s="292" t="s">
         <v>323</v>
       </c>
-      <c r="B201" s="268"/>
-      <c r="C201" s="268"/>
-      <c r="D201" s="269"/>
+      <c r="B201" s="293"/>
+      <c r="C201" s="293"/>
+      <c r="D201" s="294"/>
       <c r="E201" s="69"/>
       <c r="F201" s="70"/>
       <c r="G201" s="12"/>
@@ -11127,12 +11167,12 @@
       <c r="G206" s="12"/>
     </row>
     <row r="207" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A207" s="267" t="s">
+      <c r="A207" s="292" t="s">
         <v>222</v>
       </c>
-      <c r="B207" s="268"/>
-      <c r="C207" s="268"/>
-      <c r="D207" s="269"/>
+      <c r="B207" s="293"/>
+      <c r="C207" s="293"/>
+      <c r="D207" s="294"/>
       <c r="E207" s="69"/>
       <c r="F207" s="70"/>
       <c r="G207" s="12"/>
@@ -11189,12 +11229,12 @@
       <c r="G210" s="12"/>
     </row>
     <row r="211" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A211" s="267" t="s">
+      <c r="A211" s="292" t="s">
         <v>211</v>
       </c>
-      <c r="B211" s="268"/>
-      <c r="C211" s="268"/>
-      <c r="D211" s="269"/>
+      <c r="B211" s="293"/>
+      <c r="C211" s="293"/>
+      <c r="D211" s="294"/>
       <c r="E211" s="98"/>
       <c r="F211" s="70"/>
       <c r="G211" s="12"/>
@@ -11208,7 +11248,7 @@
         <v>212</v>
       </c>
       <c r="D212" s="36"/>
-      <c r="E212" s="257">
+      <c r="E212" s="332">
         <v>183000</v>
       </c>
       <c r="F212" s="41"/>
@@ -11223,7 +11263,7 @@
         <v>213</v>
       </c>
       <c r="D213" s="36"/>
-      <c r="E213" s="258"/>
+      <c r="E213" s="333"/>
       <c r="F213" s="41"/>
       <c r="G213" s="12"/>
     </row>
@@ -11236,7 +11276,7 @@
         <v>214</v>
       </c>
       <c r="D214" s="36"/>
-      <c r="E214" s="258"/>
+      <c r="E214" s="333"/>
       <c r="F214" s="41"/>
       <c r="G214" s="12"/>
     </row>
@@ -11249,17 +11289,17 @@
         <v>215</v>
       </c>
       <c r="D215" s="36"/>
-      <c r="E215" s="259"/>
+      <c r="E215" s="334"/>
       <c r="F215" s="41"/>
       <c r="G215" s="12"/>
     </row>
     <row r="216" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A216" s="267" t="s">
+      <c r="A216" s="292" t="s">
         <v>415</v>
       </c>
-      <c r="B216" s="268"/>
-      <c r="C216" s="268"/>
-      <c r="D216" s="269"/>
+      <c r="B216" s="293"/>
+      <c r="C216" s="293"/>
+      <c r="D216" s="294"/>
       <c r="E216" s="98"/>
       <c r="F216" s="70"/>
       <c r="G216" s="12"/>
@@ -11333,64 +11373,64 @@
       <c r="F221" s="102"/>
     </row>
     <row r="222" spans="1:7" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A222" s="266" t="s">
+      <c r="A222" s="331" t="s">
         <v>28</v>
       </c>
-      <c r="B222" s="266"/>
-      <c r="C222" s="266"/>
-      <c r="D222" s="266"/>
+      <c r="B222" s="331"/>
+      <c r="C222" s="331"/>
+      <c r="D222" s="331"/>
       <c r="E222" s="26"/>
       <c r="F222" s="103"/>
     </row>
     <row r="223" spans="1:7" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A223" s="104"/>
-      <c r="B223" s="263" t="s">
+      <c r="B223" s="329" t="s">
         <v>267</v>
       </c>
-      <c r="C223" s="263"/>
-      <c r="D223" s="263"/>
-      <c r="E223" s="263"/>
-      <c r="F223" s="263"/>
+      <c r="C223" s="329"/>
+      <c r="D223" s="329"/>
+      <c r="E223" s="329"/>
+      <c r="F223" s="329"/>
     </row>
     <row r="224" spans="1:7" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A224" s="104"/>
-      <c r="B224" s="263" t="s">
+      <c r="B224" s="329" t="s">
         <v>420</v>
       </c>
-      <c r="C224" s="263"/>
-      <c r="D224" s="263"/>
-      <c r="E224" s="263"/>
-      <c r="F224" s="263"/>
+      <c r="C224" s="329"/>
+      <c r="D224" s="329"/>
+      <c r="E224" s="329"/>
+      <c r="F224" s="329"/>
     </row>
     <row r="225" spans="1:6" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A225" s="105"/>
-      <c r="B225" s="263" t="s">
+      <c r="B225" s="329" t="s">
         <v>29</v>
       </c>
-      <c r="C225" s="263"/>
-      <c r="D225" s="263"/>
-      <c r="E225" s="263"/>
-      <c r="F225" s="263"/>
+      <c r="C225" s="329"/>
+      <c r="D225" s="329"/>
+      <c r="E225" s="329"/>
+      <c r="F225" s="329"/>
     </row>
     <row r="226" spans="1:6" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A226" s="106"/>
-      <c r="B226" s="270" t="s">
+      <c r="B226" s="335" t="s">
         <v>30</v>
       </c>
-      <c r="C226" s="270"/>
-      <c r="D226" s="270"/>
-      <c r="E226" s="270"/>
-      <c r="F226" s="270"/>
+      <c r="C226" s="335"/>
+      <c r="D226" s="335"/>
+      <c r="E226" s="335"/>
+      <c r="F226" s="335"/>
     </row>
     <row r="227" spans="1:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A227" s="103"/>
-      <c r="B227" s="263" t="s">
+      <c r="B227" s="329" t="s">
         <v>31</v>
       </c>
-      <c r="C227" s="263"/>
-      <c r="D227" s="263"/>
-      <c r="E227" s="263"/>
-      <c r="F227" s="263"/>
+      <c r="C227" s="329"/>
+      <c r="D227" s="329"/>
+      <c r="E227" s="329"/>
+      <c r="F227" s="329"/>
     </row>
     <row r="228" spans="1:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A228" s="103"/>
@@ -11454,6 +11494,59 @@
     </row>
   </sheetData>
   <mergeCells count="69">
+    <mergeCell ref="B140:B169"/>
+    <mergeCell ref="D1:F5"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="A10:F11"/>
+    <mergeCell ref="C14:C19"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="E14:E19"/>
+    <mergeCell ref="F14:F19"/>
+    <mergeCell ref="B227:F227"/>
+    <mergeCell ref="A179:D179"/>
+    <mergeCell ref="F180:F182"/>
+    <mergeCell ref="A190:D190"/>
+    <mergeCell ref="A222:D222"/>
+    <mergeCell ref="B223:F223"/>
+    <mergeCell ref="A211:D211"/>
+    <mergeCell ref="E212:E215"/>
+    <mergeCell ref="A207:D207"/>
+    <mergeCell ref="A188:D188"/>
+    <mergeCell ref="B224:F224"/>
+    <mergeCell ref="B225:F225"/>
+    <mergeCell ref="B226:F226"/>
+    <mergeCell ref="A201:D201"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="F46:F48"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="B40:B44"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="F40:F44"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="G140:H140"/>
+    <mergeCell ref="A216:D216"/>
+    <mergeCell ref="G142:H142"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="B127:B132"/>
+    <mergeCell ref="B91:B93"/>
+    <mergeCell ref="A117:D117"/>
+    <mergeCell ref="A121:A123"/>
+    <mergeCell ref="F177:F178"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="B100:B113"/>
+    <mergeCell ref="A170:D170"/>
+    <mergeCell ref="B118:B126"/>
+    <mergeCell ref="A114:D114"/>
     <mergeCell ref="A176:D176"/>
     <mergeCell ref="B174:B175"/>
     <mergeCell ref="F73:F75"/>
@@ -11470,59 +11563,6 @@
     <mergeCell ref="A59:D59"/>
     <mergeCell ref="D73:D75"/>
     <mergeCell ref="B133:B139"/>
-    <mergeCell ref="G140:H140"/>
-    <mergeCell ref="A216:D216"/>
-    <mergeCell ref="G142:H142"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="B127:B132"/>
-    <mergeCell ref="B91:B93"/>
-    <mergeCell ref="A117:D117"/>
-    <mergeCell ref="A121:A123"/>
-    <mergeCell ref="F177:F178"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="B100:B113"/>
-    <mergeCell ref="A170:D170"/>
-    <mergeCell ref="B118:B126"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="F46:F48"/>
-    <mergeCell ref="F50:F52"/>
-    <mergeCell ref="B40:B44"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="F40:F44"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="B227:F227"/>
-    <mergeCell ref="A179:D179"/>
-    <mergeCell ref="F180:F182"/>
-    <mergeCell ref="A190:D190"/>
-    <mergeCell ref="A222:D222"/>
-    <mergeCell ref="B223:F223"/>
-    <mergeCell ref="A211:D211"/>
-    <mergeCell ref="E212:E215"/>
-    <mergeCell ref="A207:D207"/>
-    <mergeCell ref="A188:D188"/>
-    <mergeCell ref="B224:F224"/>
-    <mergeCell ref="B225:F225"/>
-    <mergeCell ref="B226:F226"/>
-    <mergeCell ref="A201:D201"/>
-    <mergeCell ref="B140:B169"/>
-    <mergeCell ref="D1:F5"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="A10:F11"/>
-    <mergeCell ref="C14:C19"/>
-    <mergeCell ref="B14:B19"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="E14:E19"/>
-    <mergeCell ref="F14:F19"/>
   </mergeCells>
   <pageMargins left="0.35433070866141736" right="0.15748031496062992" top="0.23622047244094491" bottom="0.19685039370078741" header="0.15748031496062992" footer="0.15748031496062992"/>
   <pageSetup paperSize="9" scale="65" orientation="portrait" r:id="rId1"/>
@@ -11548,10 +11588,10 @@
   <dimension ref="A1:DW84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="10" ySplit="3" topLeftCell="DQ10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="3" topLeftCell="DQ7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11581,34 +11621,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:127" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="230" t="s">
+      <c r="A1" s="289" t="s">
         <v>260</v>
       </c>
-      <c r="B1" s="231" t="s">
+      <c r="B1" s="290" t="s">
         <v>654</v>
       </c>
-      <c r="C1" s="230" t="s">
+      <c r="C1" s="289" t="s">
         <v>421</v>
       </c>
-      <c r="D1" s="230" t="s">
+      <c r="D1" s="289" t="s">
         <v>422</v>
       </c>
-      <c r="E1" s="231" t="s">
+      <c r="E1" s="290" t="s">
         <v>735</v>
       </c>
-      <c r="F1" s="230" t="s">
+      <c r="F1" s="289" t="s">
         <v>423</v>
       </c>
-      <c r="G1" s="303" t="s">
+      <c r="G1" s="362" t="s">
         <v>514</v>
       </c>
-      <c r="H1" s="303" t="s">
+      <c r="H1" s="362" t="s">
         <v>424</v>
       </c>
-      <c r="I1" s="230" t="s">
+      <c r="I1" s="289" t="s">
         <v>425</v>
       </c>
-      <c r="J1" s="230" t="s">
+      <c r="J1" s="289" t="s">
         <v>426</v>
       </c>
       <c r="K1" s="125">
@@ -11821,11 +11861,11 @@
       <c r="CB1" s="126">
         <v>82</v>
       </c>
-      <c r="CC1" s="301">
+      <c r="CC1" s="360">
         <v>83</v>
       </c>
-      <c r="CD1" s="301"/>
-      <c r="CE1" s="301"/>
+      <c r="CD1" s="360"/>
+      <c r="CE1" s="360"/>
       <c r="CF1" s="126">
         <v>84</v>
       </c>
@@ -11943,21 +11983,21 @@
       <c r="DR1" s="126">
         <v>164</v>
       </c>
-      <c r="DS1" s="300" t="s">
+      <c r="DS1" s="359" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="2" spans="1:127" s="129" customFormat="1" ht="195.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="230"/>
-      <c r="B2" s="232"/>
-      <c r="C2" s="230"/>
-      <c r="D2" s="230"/>
-      <c r="E2" s="232"/>
-      <c r="F2" s="230"/>
-      <c r="G2" s="303"/>
-      <c r="H2" s="303"/>
-      <c r="I2" s="230"/>
-      <c r="J2" s="230"/>
+      <c r="A2" s="289"/>
+      <c r="B2" s="291"/>
+      <c r="C2" s="289"/>
+      <c r="D2" s="289"/>
+      <c r="E2" s="291"/>
+      <c r="F2" s="289"/>
+      <c r="G2" s="362"/>
+      <c r="H2" s="362"/>
+      <c r="I2" s="289"/>
+      <c r="J2" s="289"/>
       <c r="K2" s="128" t="s">
         <v>1</v>
       </c>
@@ -12294,8 +12334,8 @@
       <c r="DR2" s="128" t="s">
         <v>416</v>
       </c>
-      <c r="DS2" s="300"/>
-      <c r="DW2" s="211" t="s">
+      <c r="DS2" s="359"/>
+      <c r="DW2" s="210" t="s">
         <v>738</v>
       </c>
     </row>
@@ -12327,10 +12367,10 @@
       <c r="O3" s="131">
         <v>27000</v>
       </c>
-      <c r="P3" s="299">
+      <c r="P3" s="358">
         <v>60000</v>
       </c>
-      <c r="Q3" s="299"/>
+      <c r="Q3" s="358"/>
       <c r="R3" s="132">
         <v>41000</v>
       </c>
@@ -12644,7 +12684,7 @@
       <c r="DR3" s="131">
         <v>205000</v>
       </c>
-      <c r="DS3" s="300"/>
+      <c r="DS3" s="359"/>
     </row>
     <row r="4" spans="1:127" s="136" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="153">
@@ -12817,13 +12857,13 @@
       </c>
     </row>
     <row r="5" spans="1:127" s="136" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="210">
+      <c r="A5" s="209">
         <v>2</v>
       </c>
       <c r="B5" s="153" t="s">
         <v>656</v>
       </c>
-      <c r="C5" s="209" t="s">
+      <c r="C5" s="208" t="s">
         <v>431</v>
       </c>
       <c r="D5" s="153" t="s">
@@ -13408,180 +13448,180 @@
         <v>-743000</v>
       </c>
     </row>
-    <row r="8" spans="1:127" s="327" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="317">
+    <row r="8" spans="1:127" s="249" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="239">
         <v>5</v>
       </c>
-      <c r="B8" s="317" t="s">
+      <c r="B8" s="239" t="s">
         <v>659</v>
       </c>
-      <c r="C8" s="318" t="s">
+      <c r="C8" s="240" t="s">
         <v>436</v>
       </c>
-      <c r="D8" s="317" t="s">
+      <c r="D8" s="239" t="s">
         <v>437</v>
       </c>
-      <c r="E8" s="317">
+      <c r="E8" s="239">
         <v>1987</v>
       </c>
-      <c r="F8" s="319">
+      <c r="F8" s="241">
         <v>31952</v>
       </c>
-      <c r="G8" s="320" t="s">
+      <c r="G8" s="242" t="s">
         <v>433</v>
       </c>
-      <c r="H8" s="321" t="s">
+      <c r="H8" s="243" t="s">
         <v>531</v>
       </c>
-      <c r="I8" s="322">
+      <c r="I8" s="244">
         <v>935195953</v>
       </c>
-      <c r="J8" s="323" t="s">
+      <c r="J8" s="245" t="s">
         <v>532</v>
       </c>
-      <c r="K8" s="324" t="s">
-        <v>519</v>
-      </c>
-      <c r="L8" s="324" t="s">
-        <v>519</v>
-      </c>
-      <c r="M8" s="324" t="s">
-        <v>519</v>
-      </c>
-      <c r="N8" s="324" t="s">
-        <v>519</v>
-      </c>
-      <c r="O8" s="324" t="s">
-        <v>519</v>
-      </c>
-      <c r="P8" s="324" t="s">
-        <v>519</v>
-      </c>
-      <c r="Q8" s="324" t="s">
-        <v>519</v>
-      </c>
-      <c r="R8" s="324" t="s">
-        <v>519</v>
-      </c>
-      <c r="S8" s="324" t="s">
-        <v>519</v>
-      </c>
-      <c r="T8" s="320"/>
-      <c r="U8" s="320"/>
-      <c r="V8" s="320"/>
-      <c r="W8" s="320"/>
-      <c r="X8" s="320"/>
-      <c r="Y8" s="322"/>
-      <c r="Z8" s="322"/>
-      <c r="AA8" s="322"/>
-      <c r="AB8" s="322"/>
-      <c r="AC8" s="322"/>
-      <c r="AD8" s="322"/>
-      <c r="AE8" s="322"/>
-      <c r="AF8" s="322"/>
-      <c r="AG8" s="322"/>
-      <c r="AH8" s="322"/>
-      <c r="AI8" s="322"/>
-      <c r="AJ8" s="322"/>
-      <c r="AK8" s="322"/>
-      <c r="AL8" s="322"/>
-      <c r="AM8" s="322"/>
-      <c r="AN8" s="322"/>
-      <c r="AO8" s="322"/>
-      <c r="AP8" s="322"/>
-      <c r="AQ8" s="322"/>
-      <c r="AR8" s="322"/>
-      <c r="AS8" s="322"/>
-      <c r="AT8" s="322"/>
-      <c r="AU8" s="322"/>
-      <c r="AV8" s="322"/>
-      <c r="AW8" s="322"/>
-      <c r="AX8" s="322"/>
-      <c r="AY8" s="322"/>
-      <c r="AZ8" s="322"/>
-      <c r="BA8" s="322"/>
-      <c r="BB8" s="322"/>
-      <c r="BC8" s="322"/>
-      <c r="BD8" s="322"/>
-      <c r="BE8" s="322"/>
-      <c r="BF8" s="322"/>
-      <c r="BG8" s="322"/>
-      <c r="BH8" s="322"/>
-      <c r="BI8" s="322"/>
-      <c r="BJ8" s="322"/>
-      <c r="BK8" s="322"/>
-      <c r="BL8" s="322"/>
-      <c r="BM8" s="322"/>
-      <c r="BN8" s="322"/>
-      <c r="BO8" s="322"/>
-      <c r="BP8" s="322"/>
-      <c r="BQ8" s="322"/>
-      <c r="BR8" s="322"/>
-      <c r="BS8" s="322"/>
-      <c r="BT8" s="322"/>
-      <c r="BU8" s="322"/>
-      <c r="BV8" s="322"/>
-      <c r="BW8" s="322"/>
-      <c r="BX8" s="322"/>
-      <c r="BY8" s="322"/>
-      <c r="BZ8" s="322"/>
-      <c r="CA8" s="322"/>
-      <c r="CB8" s="322"/>
-      <c r="CC8" s="322"/>
-      <c r="CD8" s="322"/>
-      <c r="CE8" s="322"/>
-      <c r="CF8" s="322"/>
-      <c r="CG8" s="322"/>
-      <c r="CH8" s="322"/>
-      <c r="CI8" s="322"/>
-      <c r="CJ8" s="322"/>
-      <c r="CK8" s="322"/>
-      <c r="CL8" s="322"/>
-      <c r="CM8" s="322"/>
-      <c r="CN8" s="322"/>
-      <c r="CO8" s="322"/>
-      <c r="CP8" s="322"/>
-      <c r="CQ8" s="322"/>
-      <c r="CR8" s="322"/>
-      <c r="CS8" s="322" t="s">
-        <v>519</v>
-      </c>
-      <c r="CT8" s="322"/>
-      <c r="CU8" s="322" t="s">
-        <v>519</v>
-      </c>
-      <c r="CV8" s="322"/>
-      <c r="CW8" s="322"/>
-      <c r="CX8" s="322"/>
-      <c r="CY8" s="322"/>
-      <c r="CZ8" s="322"/>
-      <c r="DA8" s="322"/>
-      <c r="DB8" s="322"/>
-      <c r="DC8" s="322"/>
-      <c r="DD8" s="322"/>
-      <c r="DE8" s="322"/>
-      <c r="DF8" s="322"/>
-      <c r="DG8" s="322"/>
-      <c r="DH8" s="322"/>
-      <c r="DI8" s="322"/>
-      <c r="DJ8" s="322"/>
-      <c r="DK8" s="322"/>
-      <c r="DL8" s="322"/>
-      <c r="DM8" s="322"/>
-      <c r="DN8" s="322"/>
-      <c r="DO8" s="322"/>
-      <c r="DP8" s="322"/>
-      <c r="DQ8" s="322"/>
-      <c r="DR8" s="322"/>
-      <c r="DS8" s="325">
+      <c r="K8" s="246" t="s">
+        <v>519</v>
+      </c>
+      <c r="L8" s="246" t="s">
+        <v>519</v>
+      </c>
+      <c r="M8" s="246" t="s">
+        <v>519</v>
+      </c>
+      <c r="N8" s="246" t="s">
+        <v>519</v>
+      </c>
+      <c r="O8" s="246" t="s">
+        <v>519</v>
+      </c>
+      <c r="P8" s="246" t="s">
+        <v>519</v>
+      </c>
+      <c r="Q8" s="246" t="s">
+        <v>519</v>
+      </c>
+      <c r="R8" s="246" t="s">
+        <v>519</v>
+      </c>
+      <c r="S8" s="246" t="s">
+        <v>519</v>
+      </c>
+      <c r="T8" s="242"/>
+      <c r="U8" s="242"/>
+      <c r="V8" s="242"/>
+      <c r="W8" s="242"/>
+      <c r="X8" s="242"/>
+      <c r="Y8" s="244"/>
+      <c r="Z8" s="244"/>
+      <c r="AA8" s="244"/>
+      <c r="AB8" s="244"/>
+      <c r="AC8" s="244"/>
+      <c r="AD8" s="244"/>
+      <c r="AE8" s="244"/>
+      <c r="AF8" s="244"/>
+      <c r="AG8" s="244"/>
+      <c r="AH8" s="244"/>
+      <c r="AI8" s="244"/>
+      <c r="AJ8" s="244"/>
+      <c r="AK8" s="244"/>
+      <c r="AL8" s="244"/>
+      <c r="AM8" s="244"/>
+      <c r="AN8" s="244"/>
+      <c r="AO8" s="244"/>
+      <c r="AP8" s="244"/>
+      <c r="AQ8" s="244"/>
+      <c r="AR8" s="244"/>
+      <c r="AS8" s="244"/>
+      <c r="AT8" s="244"/>
+      <c r="AU8" s="244"/>
+      <c r="AV8" s="244"/>
+      <c r="AW8" s="244"/>
+      <c r="AX8" s="244"/>
+      <c r="AY8" s="244"/>
+      <c r="AZ8" s="244"/>
+      <c r="BA8" s="244"/>
+      <c r="BB8" s="244"/>
+      <c r="BC8" s="244"/>
+      <c r="BD8" s="244"/>
+      <c r="BE8" s="244"/>
+      <c r="BF8" s="244"/>
+      <c r="BG8" s="244"/>
+      <c r="BH8" s="244"/>
+      <c r="BI8" s="244"/>
+      <c r="BJ8" s="244"/>
+      <c r="BK8" s="244"/>
+      <c r="BL8" s="244"/>
+      <c r="BM8" s="244"/>
+      <c r="BN8" s="244"/>
+      <c r="BO8" s="244"/>
+      <c r="BP8" s="244"/>
+      <c r="BQ8" s="244"/>
+      <c r="BR8" s="244"/>
+      <c r="BS8" s="244"/>
+      <c r="BT8" s="244"/>
+      <c r="BU8" s="244"/>
+      <c r="BV8" s="244"/>
+      <c r="BW8" s="244"/>
+      <c r="BX8" s="244"/>
+      <c r="BY8" s="244"/>
+      <c r="BZ8" s="244"/>
+      <c r="CA8" s="244"/>
+      <c r="CB8" s="244"/>
+      <c r="CC8" s="244"/>
+      <c r="CD8" s="244"/>
+      <c r="CE8" s="244"/>
+      <c r="CF8" s="244"/>
+      <c r="CG8" s="244"/>
+      <c r="CH8" s="244"/>
+      <c r="CI8" s="244"/>
+      <c r="CJ8" s="244"/>
+      <c r="CK8" s="244"/>
+      <c r="CL8" s="244"/>
+      <c r="CM8" s="244"/>
+      <c r="CN8" s="244"/>
+      <c r="CO8" s="244"/>
+      <c r="CP8" s="244"/>
+      <c r="CQ8" s="244"/>
+      <c r="CR8" s="244"/>
+      <c r="CS8" s="244" t="s">
+        <v>519</v>
+      </c>
+      <c r="CT8" s="244"/>
+      <c r="CU8" s="244" t="s">
+        <v>519</v>
+      </c>
+      <c r="CV8" s="244"/>
+      <c r="CW8" s="244"/>
+      <c r="CX8" s="244"/>
+      <c r="CY8" s="244"/>
+      <c r="CZ8" s="244"/>
+      <c r="DA8" s="244"/>
+      <c r="DB8" s="244"/>
+      <c r="DC8" s="244"/>
+      <c r="DD8" s="244"/>
+      <c r="DE8" s="244"/>
+      <c r="DF8" s="244"/>
+      <c r="DG8" s="244"/>
+      <c r="DH8" s="244"/>
+      <c r="DI8" s="244"/>
+      <c r="DJ8" s="244"/>
+      <c r="DK8" s="244"/>
+      <c r="DL8" s="244"/>
+      <c r="DM8" s="244"/>
+      <c r="DN8" s="244"/>
+      <c r="DO8" s="244"/>
+      <c r="DP8" s="244"/>
+      <c r="DQ8" s="244"/>
+      <c r="DR8" s="244"/>
+      <c r="DS8" s="247">
         <f t="shared" si="0"/>
         <v>1102000</v>
       </c>
-      <c r="DT8" s="326">
+      <c r="DT8" s="248">
         <f>3000000-DS8</f>
         <v>1898000</v>
       </c>
-      <c r="DW8" s="327" t="s">
+      <c r="DW8" s="249" t="s">
         <v>744</v>
       </c>
     </row>
@@ -13966,13 +14006,13 @@
       </c>
     </row>
     <row r="11" spans="1:127" s="136" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="210">
+      <c r="A11" s="209">
         <v>8</v>
       </c>
       <c r="B11" s="153" t="s">
         <v>662</v>
       </c>
-      <c r="C11" s="209" t="s">
+      <c r="C11" s="208" t="s">
         <v>440</v>
       </c>
       <c r="D11" s="153" t="s">
@@ -14368,206 +14408,206 @@
         <v>-562000</v>
       </c>
     </row>
-    <row r="13" spans="1:127" s="327" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="317">
+    <row r="13" spans="1:127" s="249" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="239">
         <v>10</v>
       </c>
-      <c r="B13" s="317" t="s">
+      <c r="B13" s="239" t="s">
         <v>664</v>
       </c>
-      <c r="C13" s="318" t="s">
+      <c r="C13" s="240" t="s">
         <v>442</v>
       </c>
-      <c r="D13" s="317" t="s">
+      <c r="D13" s="239" t="s">
         <v>437</v>
       </c>
-      <c r="E13" s="317">
+      <c r="E13" s="239">
         <v>1997</v>
       </c>
-      <c r="F13" s="319">
+      <c r="F13" s="241">
         <v>35473</v>
       </c>
-      <c r="G13" s="320" t="s">
+      <c r="G13" s="242" t="s">
         <v>433</v>
       </c>
-      <c r="H13" s="321" t="s">
+      <c r="H13" s="243" t="s">
         <v>531</v>
       </c>
-      <c r="I13" s="322">
+      <c r="I13" s="244">
         <v>335115486</v>
       </c>
-      <c r="J13" s="323" t="s">
+      <c r="J13" s="245" t="s">
         <v>533</v>
       </c>
-      <c r="K13" s="324" t="s">
-        <v>519</v>
-      </c>
-      <c r="L13" s="324" t="s">
-        <v>519</v>
-      </c>
-      <c r="M13" s="324" t="s">
-        <v>519</v>
-      </c>
-      <c r="N13" s="324" t="s">
-        <v>519</v>
-      </c>
-      <c r="O13" s="324" t="s">
-        <v>519</v>
-      </c>
-      <c r="P13" s="324" t="s">
-        <v>519</v>
-      </c>
-      <c r="Q13" s="324" t="s">
-        <v>519</v>
-      </c>
-      <c r="R13" s="324" t="s">
-        <v>519</v>
-      </c>
-      <c r="S13" s="324" t="s">
-        <v>519</v>
-      </c>
-      <c r="T13" s="320"/>
-      <c r="U13" s="320"/>
-      <c r="V13" s="320"/>
-      <c r="W13" s="320"/>
-      <c r="X13" s="320" t="s">
-        <v>519</v>
-      </c>
-      <c r="Y13" s="322" t="s">
-        <v>519</v>
-      </c>
-      <c r="Z13" s="322"/>
-      <c r="AA13" s="322"/>
-      <c r="AB13" s="322"/>
-      <c r="AC13" s="322"/>
-      <c r="AD13" s="322"/>
-      <c r="AE13" s="322"/>
-      <c r="AF13" s="322"/>
-      <c r="AG13" s="322"/>
-      <c r="AH13" s="322"/>
-      <c r="AI13" s="322"/>
-      <c r="AJ13" s="322"/>
-      <c r="AK13" s="322"/>
-      <c r="AL13" s="322"/>
-      <c r="AM13" s="322"/>
-      <c r="AN13" s="322"/>
-      <c r="AO13" s="322"/>
-      <c r="AP13" s="322"/>
-      <c r="AQ13" s="322"/>
-      <c r="AR13" s="322"/>
-      <c r="AS13" s="322"/>
-      <c r="AT13" s="322" t="s">
-        <v>519</v>
-      </c>
-      <c r="AU13" s="322"/>
-      <c r="AV13" s="322" t="s">
-        <v>519</v>
-      </c>
-      <c r="AW13" s="322"/>
-      <c r="AX13" s="322"/>
-      <c r="AY13" s="322"/>
-      <c r="AZ13" s="322" t="s">
-        <v>519</v>
-      </c>
-      <c r="BA13" s="322"/>
-      <c r="BB13" s="322" t="s">
-        <v>519</v>
-      </c>
-      <c r="BC13" s="322" t="s">
-        <v>519</v>
-      </c>
-      <c r="BD13" s="322" t="s">
-        <v>519</v>
-      </c>
-      <c r="BE13" s="322" t="s">
-        <v>519</v>
-      </c>
-      <c r="BF13" s="322"/>
-      <c r="BG13" s="322"/>
-      <c r="BH13" s="322"/>
-      <c r="BI13" s="322"/>
-      <c r="BJ13" s="322" t="s">
-        <v>519</v>
-      </c>
-      <c r="BK13" s="322"/>
-      <c r="BL13" s="322"/>
-      <c r="BM13" s="322"/>
-      <c r="BN13" s="322"/>
-      <c r="BO13" s="322"/>
-      <c r="BP13" s="322"/>
-      <c r="BQ13" s="322"/>
-      <c r="BR13" s="322"/>
-      <c r="BS13" s="322"/>
-      <c r="BT13" s="322"/>
-      <c r="BU13" s="322"/>
-      <c r="BV13" s="322"/>
-      <c r="BW13" s="322"/>
-      <c r="BX13" s="322"/>
-      <c r="BY13" s="322"/>
-      <c r="BZ13" s="322" t="s">
-        <v>519</v>
-      </c>
-      <c r="CA13" s="322" t="s">
-        <v>519</v>
-      </c>
-      <c r="CB13" s="322"/>
-      <c r="CC13" s="322"/>
-      <c r="CD13" s="322"/>
-      <c r="CE13" s="322"/>
-      <c r="CF13" s="322"/>
-      <c r="CG13" s="322"/>
-      <c r="CH13" s="322"/>
-      <c r="CI13" s="322"/>
-      <c r="CJ13" s="322"/>
-      <c r="CK13" s="322"/>
-      <c r="CL13" s="322"/>
-      <c r="CM13" s="322"/>
-      <c r="CN13" s="322"/>
-      <c r="CO13" s="322"/>
-      <c r="CP13" s="322"/>
-      <c r="CQ13" s="322"/>
-      <c r="CR13" s="322"/>
-      <c r="CS13" s="322"/>
-      <c r="CT13" s="322"/>
-      <c r="CU13" s="322"/>
-      <c r="CV13" s="322"/>
-      <c r="CW13" s="322"/>
-      <c r="CX13" s="322"/>
-      <c r="CY13" s="322"/>
-      <c r="CZ13" s="322"/>
-      <c r="DA13" s="322"/>
-      <c r="DB13" s="322"/>
-      <c r="DC13" s="322"/>
-      <c r="DD13" s="322"/>
-      <c r="DE13" s="322"/>
-      <c r="DF13" s="322"/>
-      <c r="DG13" s="322"/>
-      <c r="DH13" s="322" t="s">
-        <v>519</v>
-      </c>
-      <c r="DI13" s="322" t="s">
-        <v>519</v>
-      </c>
-      <c r="DJ13" s="322"/>
-      <c r="DK13" s="322" t="s">
-        <v>519</v>
-      </c>
-      <c r="DL13" s="322"/>
-      <c r="DM13" s="322"/>
-      <c r="DN13" s="322"/>
-      <c r="DO13" s="322"/>
-      <c r="DP13" s="322"/>
-      <c r="DQ13" s="322"/>
-      <c r="DR13" s="322"/>
-      <c r="DS13" s="325">
+      <c r="K13" s="246" t="s">
+        <v>519</v>
+      </c>
+      <c r="L13" s="246" t="s">
+        <v>519</v>
+      </c>
+      <c r="M13" s="246" t="s">
+        <v>519</v>
+      </c>
+      <c r="N13" s="246" t="s">
+        <v>519</v>
+      </c>
+      <c r="O13" s="246" t="s">
+        <v>519</v>
+      </c>
+      <c r="P13" s="246" t="s">
+        <v>519</v>
+      </c>
+      <c r="Q13" s="246" t="s">
+        <v>519</v>
+      </c>
+      <c r="R13" s="246" t="s">
+        <v>519</v>
+      </c>
+      <c r="S13" s="246" t="s">
+        <v>519</v>
+      </c>
+      <c r="T13" s="242"/>
+      <c r="U13" s="242"/>
+      <c r="V13" s="242"/>
+      <c r="W13" s="242"/>
+      <c r="X13" s="242" t="s">
+        <v>519</v>
+      </c>
+      <c r="Y13" s="244" t="s">
+        <v>519</v>
+      </c>
+      <c r="Z13" s="244"/>
+      <c r="AA13" s="244"/>
+      <c r="AB13" s="244"/>
+      <c r="AC13" s="244"/>
+      <c r="AD13" s="244"/>
+      <c r="AE13" s="244"/>
+      <c r="AF13" s="244"/>
+      <c r="AG13" s="244"/>
+      <c r="AH13" s="244"/>
+      <c r="AI13" s="244"/>
+      <c r="AJ13" s="244"/>
+      <c r="AK13" s="244"/>
+      <c r="AL13" s="244"/>
+      <c r="AM13" s="244"/>
+      <c r="AN13" s="244"/>
+      <c r="AO13" s="244"/>
+      <c r="AP13" s="244"/>
+      <c r="AQ13" s="244"/>
+      <c r="AR13" s="244"/>
+      <c r="AS13" s="244"/>
+      <c r="AT13" s="244" t="s">
+        <v>519</v>
+      </c>
+      <c r="AU13" s="244"/>
+      <c r="AV13" s="244" t="s">
+        <v>519</v>
+      </c>
+      <c r="AW13" s="244"/>
+      <c r="AX13" s="244"/>
+      <c r="AY13" s="244"/>
+      <c r="AZ13" s="244" t="s">
+        <v>519</v>
+      </c>
+      <c r="BA13" s="244"/>
+      <c r="BB13" s="244" t="s">
+        <v>519</v>
+      </c>
+      <c r="BC13" s="244" t="s">
+        <v>519</v>
+      </c>
+      <c r="BD13" s="244" t="s">
+        <v>519</v>
+      </c>
+      <c r="BE13" s="244" t="s">
+        <v>519</v>
+      </c>
+      <c r="BF13" s="244"/>
+      <c r="BG13" s="244"/>
+      <c r="BH13" s="244"/>
+      <c r="BI13" s="244"/>
+      <c r="BJ13" s="244" t="s">
+        <v>519</v>
+      </c>
+      <c r="BK13" s="244"/>
+      <c r="BL13" s="244"/>
+      <c r="BM13" s="244"/>
+      <c r="BN13" s="244"/>
+      <c r="BO13" s="244"/>
+      <c r="BP13" s="244"/>
+      <c r="BQ13" s="244"/>
+      <c r="BR13" s="244"/>
+      <c r="BS13" s="244"/>
+      <c r="BT13" s="244"/>
+      <c r="BU13" s="244"/>
+      <c r="BV13" s="244"/>
+      <c r="BW13" s="244"/>
+      <c r="BX13" s="244"/>
+      <c r="BY13" s="244"/>
+      <c r="BZ13" s="244" t="s">
+        <v>519</v>
+      </c>
+      <c r="CA13" s="244" t="s">
+        <v>519</v>
+      </c>
+      <c r="CB13" s="244"/>
+      <c r="CC13" s="244"/>
+      <c r="CD13" s="244"/>
+      <c r="CE13" s="244"/>
+      <c r="CF13" s="244"/>
+      <c r="CG13" s="244"/>
+      <c r="CH13" s="244"/>
+      <c r="CI13" s="244"/>
+      <c r="CJ13" s="244"/>
+      <c r="CK13" s="244"/>
+      <c r="CL13" s="244"/>
+      <c r="CM13" s="244"/>
+      <c r="CN13" s="244"/>
+      <c r="CO13" s="244"/>
+      <c r="CP13" s="244"/>
+      <c r="CQ13" s="244"/>
+      <c r="CR13" s="244"/>
+      <c r="CS13" s="244"/>
+      <c r="CT13" s="244"/>
+      <c r="CU13" s="244"/>
+      <c r="CV13" s="244"/>
+      <c r="CW13" s="244"/>
+      <c r="CX13" s="244"/>
+      <c r="CY13" s="244"/>
+      <c r="CZ13" s="244"/>
+      <c r="DA13" s="244"/>
+      <c r="DB13" s="244"/>
+      <c r="DC13" s="244"/>
+      <c r="DD13" s="244"/>
+      <c r="DE13" s="244"/>
+      <c r="DF13" s="244"/>
+      <c r="DG13" s="244"/>
+      <c r="DH13" s="244" t="s">
+        <v>519</v>
+      </c>
+      <c r="DI13" s="244" t="s">
+        <v>519</v>
+      </c>
+      <c r="DJ13" s="244"/>
+      <c r="DK13" s="244" t="s">
+        <v>519</v>
+      </c>
+      <c r="DL13" s="244"/>
+      <c r="DM13" s="244"/>
+      <c r="DN13" s="244"/>
+      <c r="DO13" s="244"/>
+      <c r="DP13" s="244"/>
+      <c r="DQ13" s="244"/>
+      <c r="DR13" s="244"/>
+      <c r="DS13" s="247">
         <f t="shared" si="0"/>
         <v>3577000</v>
       </c>
-      <c r="DT13" s="326">
+      <c r="DT13" s="248">
         <f t="shared" si="2"/>
         <v>-577000</v>
       </c>
-      <c r="DW13" s="327" t="s">
+      <c r="DW13" s="249" t="s">
         <v>751</v>
       </c>
     </row>
@@ -14763,211 +14803,211 @@
         <v>-631000</v>
       </c>
     </row>
-    <row r="15" spans="1:127" s="340" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="328">
+    <row r="15" spans="1:127" s="262" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="250">
         <v>12</v>
       </c>
-      <c r="B15" s="328" t="s">
+      <c r="B15" s="250" t="s">
         <v>666</v>
       </c>
-      <c r="C15" s="329" t="s">
+      <c r="C15" s="251" t="s">
         <v>444</v>
       </c>
-      <c r="D15" s="328" t="s">
+      <c r="D15" s="250" t="s">
         <v>437</v>
       </c>
-      <c r="E15" s="328">
+      <c r="E15" s="250">
         <v>1989</v>
       </c>
-      <c r="F15" s="328">
+      <c r="F15" s="250">
         <v>1989</v>
       </c>
-      <c r="G15" s="330" t="s">
+      <c r="G15" s="274" t="s">
         <v>433</v>
       </c>
-      <c r="H15" s="331" t="s">
+      <c r="H15" s="253" t="s">
         <v>552</v>
       </c>
-      <c r="I15" s="332" t="s">
+      <c r="I15" s="254" t="s">
         <v>555</v>
       </c>
-      <c r="J15" s="333"/>
-      <c r="K15" s="334" t="s">
-        <v>519</v>
-      </c>
-      <c r="L15" s="334" t="s">
-        <v>519</v>
-      </c>
-      <c r="M15" s="334" t="s">
-        <v>519</v>
-      </c>
-      <c r="N15" s="334" t="s">
-        <v>519</v>
-      </c>
-      <c r="O15" s="334" t="s">
-        <v>519</v>
-      </c>
-      <c r="P15" s="334" t="s">
-        <v>519</v>
-      </c>
-      <c r="Q15" s="334" t="s">
-        <v>519</v>
-      </c>
-      <c r="R15" s="334" t="s">
-        <v>519</v>
-      </c>
-      <c r="S15" s="334" t="s">
-        <v>519</v>
-      </c>
-      <c r="T15" s="330"/>
-      <c r="U15" s="330"/>
-      <c r="V15" s="330"/>
-      <c r="W15" s="330"/>
-      <c r="X15" s="330"/>
-      <c r="Y15" s="335"/>
-      <c r="Z15" s="332" t="s">
-        <v>519</v>
-      </c>
-      <c r="AA15" s="332" t="s">
-        <v>519</v>
-      </c>
-      <c r="AB15" s="332"/>
-      <c r="AC15" s="332" t="s">
-        <v>519</v>
-      </c>
-      <c r="AD15" s="332" t="s">
-        <v>519</v>
-      </c>
-      <c r="AE15" s="336"/>
-      <c r="AF15" s="332"/>
-      <c r="AG15" s="332"/>
-      <c r="AH15" s="332"/>
-      <c r="AI15" s="332" t="s">
+      <c r="J15" s="255"/>
+      <c r="K15" s="256" t="s">
+        <v>519</v>
+      </c>
+      <c r="L15" s="256" t="s">
+        <v>519</v>
+      </c>
+      <c r="M15" s="256" t="s">
+        <v>519</v>
+      </c>
+      <c r="N15" s="256" t="s">
+        <v>519</v>
+      </c>
+      <c r="O15" s="256" t="s">
+        <v>519</v>
+      </c>
+      <c r="P15" s="256" t="s">
+        <v>519</v>
+      </c>
+      <c r="Q15" s="256" t="s">
+        <v>519</v>
+      </c>
+      <c r="R15" s="256" t="s">
+        <v>519</v>
+      </c>
+      <c r="S15" s="256" t="s">
+        <v>519</v>
+      </c>
+      <c r="T15" s="252"/>
+      <c r="U15" s="252"/>
+      <c r="V15" s="252"/>
+      <c r="W15" s="252"/>
+      <c r="X15" s="252"/>
+      <c r="Y15" s="257"/>
+      <c r="Z15" s="254" t="s">
+        <v>519</v>
+      </c>
+      <c r="AA15" s="254" t="s">
+        <v>519</v>
+      </c>
+      <c r="AB15" s="254"/>
+      <c r="AC15" s="254" t="s">
+        <v>519</v>
+      </c>
+      <c r="AD15" s="254" t="s">
+        <v>519</v>
+      </c>
+      <c r="AE15" s="258"/>
+      <c r="AF15" s="254"/>
+      <c r="AG15" s="254"/>
+      <c r="AH15" s="254"/>
+      <c r="AI15" s="254" t="s">
         <v>647</v>
       </c>
-      <c r="AJ15" s="332"/>
-      <c r="AK15" s="332"/>
-      <c r="AL15" s="332"/>
-      <c r="AM15" s="332"/>
-      <c r="AN15" s="332"/>
-      <c r="AO15" s="332"/>
-      <c r="AP15" s="332"/>
-      <c r="AQ15" s="332" t="s">
-        <v>519</v>
-      </c>
-      <c r="AR15" s="332" t="s">
-        <v>519</v>
-      </c>
-      <c r="AS15" s="332"/>
-      <c r="AT15" s="332"/>
-      <c r="AU15" s="332"/>
-      <c r="AV15" s="332"/>
-      <c r="AW15" s="332"/>
-      <c r="AX15" s="332"/>
-      <c r="AY15" s="332"/>
-      <c r="AZ15" s="332"/>
-      <c r="BA15" s="332"/>
-      <c r="BB15" s="332"/>
-      <c r="BC15" s="332"/>
-      <c r="BD15" s="332"/>
-      <c r="BE15" s="332"/>
-      <c r="BF15" s="332"/>
-      <c r="BG15" s="332"/>
-      <c r="BH15" s="332"/>
-      <c r="BI15" s="332"/>
-      <c r="BJ15" s="332"/>
-      <c r="BK15" s="332" t="s">
-        <v>519</v>
-      </c>
-      <c r="BL15" s="332"/>
-      <c r="BM15" s="332"/>
-      <c r="BN15" s="332"/>
-      <c r="BO15" s="332"/>
-      <c r="BP15" s="332"/>
-      <c r="BQ15" s="332" t="s">
-        <v>519</v>
-      </c>
-      <c r="BR15" s="332"/>
-      <c r="BS15" s="332"/>
-      <c r="BT15" s="332"/>
-      <c r="BU15" s="332"/>
-      <c r="BV15" s="332"/>
-      <c r="BW15" s="332"/>
-      <c r="BX15" s="332"/>
-      <c r="BY15" s="332"/>
-      <c r="BZ15" s="332" t="s">
-        <v>519</v>
-      </c>
-      <c r="CA15" s="332" t="s">
-        <v>519</v>
-      </c>
-      <c r="CB15" s="332" t="s">
-        <v>519</v>
-      </c>
-      <c r="CC15" s="332"/>
-      <c r="CD15" s="332"/>
-      <c r="CE15" s="332"/>
-      <c r="CF15" s="332"/>
-      <c r="CG15" s="332"/>
-      <c r="CH15" s="332"/>
-      <c r="CI15" s="332"/>
-      <c r="CJ15" s="332"/>
-      <c r="CK15" s="332"/>
-      <c r="CL15" s="332"/>
-      <c r="CM15" s="332"/>
-      <c r="CN15" s="332"/>
-      <c r="CO15" s="332"/>
-      <c r="CP15" s="332"/>
-      <c r="CQ15" s="332"/>
-      <c r="CR15" s="332"/>
-      <c r="CS15" s="332"/>
-      <c r="CT15" s="328" t="s">
+      <c r="AJ15" s="254"/>
+      <c r="AK15" s="254"/>
+      <c r="AL15" s="254"/>
+      <c r="AM15" s="254"/>
+      <c r="AN15" s="254"/>
+      <c r="AO15" s="254"/>
+      <c r="AP15" s="254"/>
+      <c r="AQ15" s="254" t="s">
+        <v>519</v>
+      </c>
+      <c r="AR15" s="254" t="s">
+        <v>519</v>
+      </c>
+      <c r="AS15" s="254"/>
+      <c r="AT15" s="254"/>
+      <c r="AU15" s="254"/>
+      <c r="AV15" s="254"/>
+      <c r="AW15" s="254"/>
+      <c r="AX15" s="254"/>
+      <c r="AY15" s="254"/>
+      <c r="AZ15" s="254"/>
+      <c r="BA15" s="254"/>
+      <c r="BB15" s="254"/>
+      <c r="BC15" s="254"/>
+      <c r="BD15" s="254"/>
+      <c r="BE15" s="254"/>
+      <c r="BF15" s="254"/>
+      <c r="BG15" s="254"/>
+      <c r="BH15" s="254"/>
+      <c r="BI15" s="254"/>
+      <c r="BJ15" s="254"/>
+      <c r="BK15" s="254" t="s">
+        <v>519</v>
+      </c>
+      <c r="BL15" s="254"/>
+      <c r="BM15" s="254"/>
+      <c r="BN15" s="254"/>
+      <c r="BO15" s="254"/>
+      <c r="BP15" s="254"/>
+      <c r="BQ15" s="254" t="s">
+        <v>519</v>
+      </c>
+      <c r="BR15" s="254"/>
+      <c r="BS15" s="254"/>
+      <c r="BT15" s="254"/>
+      <c r="BU15" s="254"/>
+      <c r="BV15" s="254"/>
+      <c r="BW15" s="254"/>
+      <c r="BX15" s="254"/>
+      <c r="BY15" s="254"/>
+      <c r="BZ15" s="254" t="s">
+        <v>519</v>
+      </c>
+      <c r="CA15" s="254" t="s">
+        <v>519</v>
+      </c>
+      <c r="CB15" s="254" t="s">
+        <v>519</v>
+      </c>
+      <c r="CC15" s="254"/>
+      <c r="CD15" s="254"/>
+      <c r="CE15" s="254"/>
+      <c r="CF15" s="254"/>
+      <c r="CG15" s="254"/>
+      <c r="CH15" s="254"/>
+      <c r="CI15" s="254"/>
+      <c r="CJ15" s="254"/>
+      <c r="CK15" s="254"/>
+      <c r="CL15" s="254"/>
+      <c r="CM15" s="254"/>
+      <c r="CN15" s="254"/>
+      <c r="CO15" s="254"/>
+      <c r="CP15" s="254"/>
+      <c r="CQ15" s="254"/>
+      <c r="CR15" s="254"/>
+      <c r="CS15" s="254"/>
+      <c r="CT15" s="250" t="s">
         <v>648</v>
       </c>
-      <c r="CU15" s="332"/>
-      <c r="CV15" s="332"/>
-      <c r="CW15" s="332"/>
-      <c r="CX15" s="332"/>
-      <c r="CY15" s="332"/>
-      <c r="CZ15" s="332" t="s">
-        <v>519</v>
-      </c>
-      <c r="DA15" s="332"/>
-      <c r="DB15" s="332"/>
-      <c r="DC15" s="332"/>
-      <c r="DD15" s="332"/>
-      <c r="DE15" s="332"/>
-      <c r="DF15" s="332"/>
-      <c r="DG15" s="332"/>
-      <c r="DH15" s="332" t="s">
-        <v>519</v>
-      </c>
-      <c r="DI15" s="332" t="s">
-        <v>519</v>
-      </c>
-      <c r="DJ15" s="332"/>
-      <c r="DK15" s="337"/>
-      <c r="DL15" s="332"/>
-      <c r="DM15" s="332" t="s">
-        <v>519</v>
-      </c>
-      <c r="DN15" s="332"/>
-      <c r="DO15" s="332"/>
-      <c r="DP15" s="332"/>
-      <c r="DQ15" s="332"/>
-      <c r="DR15" s="332"/>
-      <c r="DS15" s="338">
+      <c r="CU15" s="254"/>
+      <c r="CV15" s="254"/>
+      <c r="CW15" s="254"/>
+      <c r="CX15" s="254"/>
+      <c r="CY15" s="254"/>
+      <c r="CZ15" s="254" t="s">
+        <v>519</v>
+      </c>
+      <c r="DA15" s="254"/>
+      <c r="DB15" s="254"/>
+      <c r="DC15" s="254"/>
+      <c r="DD15" s="254"/>
+      <c r="DE15" s="254"/>
+      <c r="DF15" s="254"/>
+      <c r="DG15" s="254"/>
+      <c r="DH15" s="254" t="s">
+        <v>519</v>
+      </c>
+      <c r="DI15" s="254" t="s">
+        <v>519</v>
+      </c>
+      <c r="DJ15" s="254"/>
+      <c r="DK15" s="259"/>
+      <c r="DL15" s="254"/>
+      <c r="DM15" s="254" t="s">
+        <v>519</v>
+      </c>
+      <c r="DN15" s="254"/>
+      <c r="DO15" s="254"/>
+      <c r="DP15" s="254"/>
+      <c r="DQ15" s="254"/>
+      <c r="DR15" s="254"/>
+      <c r="DS15" s="260">
         <f t="shared" si="0"/>
         <v>4273000</v>
       </c>
-      <c r="DT15" s="339">
+      <c r="DT15" s="261">
         <f t="shared" si="2"/>
         <v>-1273000</v>
       </c>
-      <c r="DU15" s="340" t="s">
+      <c r="DU15" s="262" t="s">
         <v>649</v>
       </c>
-      <c r="DW15" s="340" t="s">
+      <c r="DW15" s="273" t="s">
         <v>754</v>
       </c>
     </row>
@@ -15175,381 +15215,381 @@
         <v>-318000</v>
       </c>
     </row>
-    <row r="17" spans="1:127" s="350" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="341">
+    <row r="17" spans="1:127" s="272" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="263">
         <v>14</v>
       </c>
-      <c r="B17" s="341" t="s">
+      <c r="B17" s="263" t="s">
         <v>668</v>
       </c>
-      <c r="C17" s="342" t="s">
+      <c r="C17" s="264" t="s">
         <v>446</v>
       </c>
-      <c r="D17" s="341" t="s">
+      <c r="D17" s="263" t="s">
         <v>432</v>
       </c>
-      <c r="E17" s="341">
+      <c r="E17" s="263">
         <v>1992</v>
       </c>
-      <c r="F17" s="341">
+      <c r="F17" s="263">
         <v>1992</v>
       </c>
-      <c r="G17" s="343" t="s">
+      <c r="G17" s="265" t="s">
         <v>433</v>
       </c>
-      <c r="H17" s="344" t="s">
+      <c r="H17" s="266" t="s">
         <v>552</v>
       </c>
-      <c r="I17" s="345" t="s">
+      <c r="I17" s="267" t="s">
         <v>556</v>
       </c>
-      <c r="J17" s="346"/>
-      <c r="K17" s="347" t="s">
-        <v>519</v>
-      </c>
-      <c r="L17" s="347" t="s">
-        <v>519</v>
-      </c>
-      <c r="M17" s="347" t="s">
-        <v>519</v>
-      </c>
-      <c r="N17" s="347" t="s">
-        <v>519</v>
-      </c>
-      <c r="O17" s="347" t="s">
-        <v>519</v>
-      </c>
-      <c r="P17" s="347" t="s">
-        <v>519</v>
-      </c>
-      <c r="Q17" s="347" t="s">
-        <v>519</v>
-      </c>
-      <c r="R17" s="347" t="s">
-        <v>519</v>
-      </c>
-      <c r="S17" s="347" t="s">
-        <v>519</v>
-      </c>
-      <c r="T17" s="343"/>
-      <c r="U17" s="343"/>
-      <c r="V17" s="343"/>
-      <c r="W17" s="343"/>
-      <c r="X17" s="343"/>
-      <c r="Y17" s="345"/>
-      <c r="Z17" s="345"/>
-      <c r="AA17" s="345"/>
-      <c r="AB17" s="345"/>
-      <c r="AC17" s="345"/>
-      <c r="AD17" s="345"/>
-      <c r="AE17" s="345"/>
-      <c r="AF17" s="345"/>
-      <c r="AG17" s="345"/>
-      <c r="AH17" s="345"/>
-      <c r="AI17" s="345"/>
-      <c r="AJ17" s="345"/>
-      <c r="AK17" s="345"/>
-      <c r="AL17" s="345"/>
-      <c r="AM17" s="345"/>
-      <c r="AN17" s="345"/>
-      <c r="AO17" s="345"/>
-      <c r="AP17" s="345"/>
-      <c r="AQ17" s="345"/>
-      <c r="AR17" s="345"/>
-      <c r="AS17" s="345"/>
-      <c r="AT17" s="345"/>
-      <c r="AU17" s="345"/>
-      <c r="AV17" s="345"/>
-      <c r="AW17" s="345"/>
-      <c r="AX17" s="345"/>
-      <c r="AY17" s="345"/>
-      <c r="AZ17" s="345"/>
-      <c r="BA17" s="345"/>
-      <c r="BB17" s="345"/>
-      <c r="BC17" s="345"/>
-      <c r="BD17" s="345"/>
-      <c r="BE17" s="345"/>
-      <c r="BF17" s="345"/>
-      <c r="BG17" s="345"/>
-      <c r="BH17" s="345"/>
-      <c r="BI17" s="345"/>
-      <c r="BJ17" s="345"/>
-      <c r="BK17" s="345"/>
-      <c r="BL17" s="345"/>
-      <c r="BM17" s="345"/>
-      <c r="BN17" s="345"/>
-      <c r="BO17" s="345"/>
-      <c r="BP17" s="345"/>
-      <c r="BQ17" s="345"/>
-      <c r="BR17" s="345"/>
-      <c r="BS17" s="345"/>
-      <c r="BT17" s="345"/>
-      <c r="BU17" s="345"/>
-      <c r="BV17" s="345"/>
-      <c r="BW17" s="345"/>
-      <c r="BX17" s="345" t="s">
-        <v>519</v>
-      </c>
-      <c r="BY17" s="345"/>
-      <c r="BZ17" s="345" t="s">
-        <v>519</v>
-      </c>
-      <c r="CA17" s="345"/>
-      <c r="CB17" s="345" t="s">
-        <v>519</v>
-      </c>
-      <c r="CC17" s="345"/>
-      <c r="CD17" s="345"/>
-      <c r="CE17" s="345"/>
-      <c r="CF17" s="345" t="s">
-        <v>519</v>
-      </c>
-      <c r="CG17" s="345"/>
-      <c r="CH17" s="345"/>
-      <c r="CI17" s="345"/>
-      <c r="CJ17" s="345"/>
-      <c r="CK17" s="345"/>
-      <c r="CL17" s="345"/>
-      <c r="CM17" s="345"/>
-      <c r="CN17" s="345"/>
-      <c r="CO17" s="345"/>
-      <c r="CP17" s="345"/>
-      <c r="CQ17" s="345"/>
-      <c r="CR17" s="345"/>
-      <c r="CS17" s="345"/>
-      <c r="CT17" s="345"/>
-      <c r="CU17" s="345"/>
-      <c r="CV17" s="345" t="s">
-        <v>519</v>
-      </c>
-      <c r="CW17" s="345"/>
-      <c r="CX17" s="345"/>
-      <c r="CY17" s="345"/>
-      <c r="CZ17" s="345"/>
-      <c r="DA17" s="345"/>
-      <c r="DB17" s="345"/>
-      <c r="DC17" s="345"/>
-      <c r="DD17" s="345"/>
-      <c r="DE17" s="345"/>
-      <c r="DF17" s="345"/>
-      <c r="DG17" s="345"/>
-      <c r="DH17" s="345"/>
-      <c r="DI17" s="345"/>
-      <c r="DJ17" s="345"/>
-      <c r="DK17" s="345"/>
-      <c r="DL17" s="345"/>
-      <c r="DM17" s="345"/>
-      <c r="DN17" s="345"/>
-      <c r="DO17" s="345"/>
-      <c r="DP17" s="345"/>
-      <c r="DQ17" s="345"/>
-      <c r="DR17" s="345"/>
-      <c r="DS17" s="348">
+      <c r="J17" s="268"/>
+      <c r="K17" s="269" t="s">
+        <v>519</v>
+      </c>
+      <c r="L17" s="269" t="s">
+        <v>519</v>
+      </c>
+      <c r="M17" s="269" t="s">
+        <v>519</v>
+      </c>
+      <c r="N17" s="269" t="s">
+        <v>519</v>
+      </c>
+      <c r="O17" s="269" t="s">
+        <v>519</v>
+      </c>
+      <c r="P17" s="269" t="s">
+        <v>519</v>
+      </c>
+      <c r="Q17" s="269" t="s">
+        <v>519</v>
+      </c>
+      <c r="R17" s="269" t="s">
+        <v>519</v>
+      </c>
+      <c r="S17" s="269" t="s">
+        <v>519</v>
+      </c>
+      <c r="T17" s="265"/>
+      <c r="U17" s="265"/>
+      <c r="V17" s="265"/>
+      <c r="W17" s="265"/>
+      <c r="X17" s="265"/>
+      <c r="Y17" s="267"/>
+      <c r="Z17" s="267"/>
+      <c r="AA17" s="267"/>
+      <c r="AB17" s="267"/>
+      <c r="AC17" s="267"/>
+      <c r="AD17" s="267"/>
+      <c r="AE17" s="267"/>
+      <c r="AF17" s="267"/>
+      <c r="AG17" s="267"/>
+      <c r="AH17" s="267"/>
+      <c r="AI17" s="267"/>
+      <c r="AJ17" s="267"/>
+      <c r="AK17" s="267"/>
+      <c r="AL17" s="267"/>
+      <c r="AM17" s="267"/>
+      <c r="AN17" s="267"/>
+      <c r="AO17" s="267"/>
+      <c r="AP17" s="267"/>
+      <c r="AQ17" s="267"/>
+      <c r="AR17" s="267"/>
+      <c r="AS17" s="267"/>
+      <c r="AT17" s="267"/>
+      <c r="AU17" s="267"/>
+      <c r="AV17" s="267"/>
+      <c r="AW17" s="267"/>
+      <c r="AX17" s="267"/>
+      <c r="AY17" s="267"/>
+      <c r="AZ17" s="267"/>
+      <c r="BA17" s="267"/>
+      <c r="BB17" s="267"/>
+      <c r="BC17" s="267"/>
+      <c r="BD17" s="267"/>
+      <c r="BE17" s="267"/>
+      <c r="BF17" s="267"/>
+      <c r="BG17" s="267"/>
+      <c r="BH17" s="267"/>
+      <c r="BI17" s="267"/>
+      <c r="BJ17" s="267"/>
+      <c r="BK17" s="267"/>
+      <c r="BL17" s="267"/>
+      <c r="BM17" s="267"/>
+      <c r="BN17" s="267"/>
+      <c r="BO17" s="267"/>
+      <c r="BP17" s="267"/>
+      <c r="BQ17" s="267"/>
+      <c r="BR17" s="267"/>
+      <c r="BS17" s="267"/>
+      <c r="BT17" s="267"/>
+      <c r="BU17" s="267"/>
+      <c r="BV17" s="267"/>
+      <c r="BW17" s="267"/>
+      <c r="BX17" s="267" t="s">
+        <v>519</v>
+      </c>
+      <c r="BY17" s="267"/>
+      <c r="BZ17" s="267" t="s">
+        <v>519</v>
+      </c>
+      <c r="CA17" s="267"/>
+      <c r="CB17" s="267" t="s">
+        <v>519</v>
+      </c>
+      <c r="CC17" s="267"/>
+      <c r="CD17" s="267"/>
+      <c r="CE17" s="267"/>
+      <c r="CF17" s="267" t="s">
+        <v>519</v>
+      </c>
+      <c r="CG17" s="267"/>
+      <c r="CH17" s="267"/>
+      <c r="CI17" s="267"/>
+      <c r="CJ17" s="267"/>
+      <c r="CK17" s="267"/>
+      <c r="CL17" s="267"/>
+      <c r="CM17" s="267"/>
+      <c r="CN17" s="267"/>
+      <c r="CO17" s="267"/>
+      <c r="CP17" s="267"/>
+      <c r="CQ17" s="267"/>
+      <c r="CR17" s="267"/>
+      <c r="CS17" s="267"/>
+      <c r="CT17" s="267"/>
+      <c r="CU17" s="267"/>
+      <c r="CV17" s="267" t="s">
+        <v>519</v>
+      </c>
+      <c r="CW17" s="267"/>
+      <c r="CX17" s="267"/>
+      <c r="CY17" s="267"/>
+      <c r="CZ17" s="267"/>
+      <c r="DA17" s="267"/>
+      <c r="DB17" s="267"/>
+      <c r="DC17" s="267"/>
+      <c r="DD17" s="267"/>
+      <c r="DE17" s="267"/>
+      <c r="DF17" s="267"/>
+      <c r="DG17" s="267"/>
+      <c r="DH17" s="267"/>
+      <c r="DI17" s="267"/>
+      <c r="DJ17" s="267"/>
+      <c r="DK17" s="267"/>
+      <c r="DL17" s="267"/>
+      <c r="DM17" s="267"/>
+      <c r="DN17" s="267"/>
+      <c r="DO17" s="267"/>
+      <c r="DP17" s="267"/>
+      <c r="DQ17" s="267"/>
+      <c r="DR17" s="267"/>
+      <c r="DS17" s="270">
         <f t="shared" si="0"/>
         <v>2103000</v>
       </c>
-      <c r="DT17" s="349">
+      <c r="DT17" s="271">
         <f>2000000-DS17</f>
         <v>-103000</v>
       </c>
-      <c r="DW17" s="350" t="s">
+      <c r="DW17" s="272" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="18" spans="1:127" s="202" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="191">
+    <row r="18" spans="1:127" s="201" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="190">
         <v>15</v>
       </c>
-      <c r="B18" s="191" t="s">
+      <c r="B18" s="190" t="s">
         <v>669</v>
       </c>
-      <c r="C18" s="192" t="s">
+      <c r="C18" s="191" t="s">
         <v>447</v>
       </c>
-      <c r="D18" s="191" t="s">
+      <c r="D18" s="190" t="s">
         <v>437</v>
       </c>
-      <c r="E18" s="191">
+      <c r="E18" s="190">
         <v>1986</v>
       </c>
-      <c r="F18" s="191">
+      <c r="F18" s="190">
         <v>1986</v>
       </c>
-      <c r="G18" s="193" t="s">
+      <c r="G18" s="192" t="s">
         <v>433</v>
       </c>
-      <c r="H18" s="203" t="s">
+      <c r="H18" s="202" t="s">
         <v>552</v>
       </c>
-      <c r="I18" s="198" t="s">
+      <c r="I18" s="197" t="s">
         <v>561</v>
       </c>
-      <c r="J18" s="204"/>
-      <c r="K18" s="196" t="s">
-        <v>519</v>
-      </c>
-      <c r="L18" s="196" t="s">
-        <v>519</v>
-      </c>
-      <c r="M18" s="196" t="s">
-        <v>519</v>
-      </c>
-      <c r="N18" s="196" t="s">
-        <v>519</v>
-      </c>
-      <c r="O18" s="196" t="s">
-        <v>519</v>
-      </c>
-      <c r="P18" s="196" t="s">
-        <v>519</v>
-      </c>
-      <c r="Q18" s="196" t="s">
-        <v>519</v>
-      </c>
-      <c r="R18" s="196" t="s">
-        <v>519</v>
-      </c>
-      <c r="S18" s="196" t="s">
-        <v>519</v>
-      </c>
-      <c r="T18" s="193"/>
-      <c r="U18" s="193"/>
-      <c r="V18" s="193"/>
-      <c r="W18" s="193"/>
-      <c r="X18" s="193"/>
-      <c r="Y18" s="197"/>
-      <c r="Z18" s="198" t="s">
-        <v>519</v>
-      </c>
-      <c r="AA18" s="198" t="s">
-        <v>519</v>
-      </c>
-      <c r="AB18" s="198"/>
-      <c r="AC18" s="198" t="s">
-        <v>519</v>
-      </c>
-      <c r="AD18" s="198" t="s">
-        <v>519</v>
-      </c>
-      <c r="AE18" s="199"/>
-      <c r="AF18" s="198"/>
-      <c r="AG18" s="198"/>
-      <c r="AH18" s="198"/>
-      <c r="AI18" s="198" t="s">
+      <c r="J18" s="203"/>
+      <c r="K18" s="195" t="s">
+        <v>519</v>
+      </c>
+      <c r="L18" s="195" t="s">
+        <v>519</v>
+      </c>
+      <c r="M18" s="195" t="s">
+        <v>519</v>
+      </c>
+      <c r="N18" s="195" t="s">
+        <v>519</v>
+      </c>
+      <c r="O18" s="195" t="s">
+        <v>519</v>
+      </c>
+      <c r="P18" s="195" t="s">
+        <v>519</v>
+      </c>
+      <c r="Q18" s="195" t="s">
+        <v>519</v>
+      </c>
+      <c r="R18" s="195" t="s">
+        <v>519</v>
+      </c>
+      <c r="S18" s="195" t="s">
+        <v>519</v>
+      </c>
+      <c r="T18" s="192"/>
+      <c r="U18" s="192"/>
+      <c r="V18" s="192"/>
+      <c r="W18" s="192"/>
+      <c r="X18" s="192"/>
+      <c r="Y18" s="196"/>
+      <c r="Z18" s="197" t="s">
+        <v>519</v>
+      </c>
+      <c r="AA18" s="197" t="s">
+        <v>519</v>
+      </c>
+      <c r="AB18" s="197"/>
+      <c r="AC18" s="197" t="s">
+        <v>519</v>
+      </c>
+      <c r="AD18" s="197" t="s">
+        <v>519</v>
+      </c>
+      <c r="AE18" s="198"/>
+      <c r="AF18" s="197"/>
+      <c r="AG18" s="197"/>
+      <c r="AH18" s="197"/>
+      <c r="AI18" s="197" t="s">
         <v>647</v>
       </c>
-      <c r="AJ18" s="198"/>
-      <c r="AK18" s="198"/>
-      <c r="AL18" s="198"/>
-      <c r="AM18" s="198"/>
-      <c r="AN18" s="198"/>
-      <c r="AO18" s="198"/>
-      <c r="AP18" s="198"/>
-      <c r="AQ18" s="198" t="s">
-        <v>519</v>
-      </c>
-      <c r="AR18" s="198" t="s">
-        <v>519</v>
-      </c>
-      <c r="AS18" s="198"/>
-      <c r="AT18" s="198"/>
-      <c r="AU18" s="198"/>
-      <c r="AV18" s="198"/>
-      <c r="AW18" s="198"/>
-      <c r="AX18" s="198"/>
-      <c r="AY18" s="198"/>
-      <c r="AZ18" s="198"/>
-      <c r="BA18" s="198"/>
-      <c r="BB18" s="198"/>
-      <c r="BC18" s="198"/>
-      <c r="BD18" s="198"/>
-      <c r="BE18" s="198"/>
-      <c r="BF18" s="198"/>
-      <c r="BG18" s="198"/>
-      <c r="BH18" s="198"/>
-      <c r="BI18" s="198"/>
-      <c r="BJ18" s="198"/>
-      <c r="BK18" s="198" t="s">
-        <v>519</v>
-      </c>
-      <c r="BL18" s="198"/>
-      <c r="BM18" s="198"/>
-      <c r="BN18" s="198"/>
-      <c r="BO18" s="198"/>
-      <c r="BP18" s="198"/>
-      <c r="BQ18" s="198"/>
-      <c r="BR18" s="198"/>
-      <c r="BS18" s="198"/>
-      <c r="BT18" s="198"/>
-      <c r="BU18" s="198"/>
-      <c r="BV18" s="198"/>
-      <c r="BW18" s="198"/>
-      <c r="BX18" s="198"/>
-      <c r="BY18" s="198"/>
-      <c r="BZ18" s="198" t="s">
-        <v>519</v>
-      </c>
-      <c r="CA18" s="198"/>
-      <c r="CB18" s="198" t="s">
-        <v>519</v>
-      </c>
-      <c r="CC18" s="198" t="s">
-        <v>519</v>
-      </c>
-      <c r="CD18" s="198"/>
-      <c r="CE18" s="198"/>
-      <c r="CF18" s="198"/>
-      <c r="CG18" s="198"/>
-      <c r="CH18" s="198"/>
-      <c r="CI18" s="198"/>
-      <c r="CJ18" s="198"/>
-      <c r="CK18" s="198"/>
-      <c r="CL18" s="198"/>
-      <c r="CM18" s="198"/>
-      <c r="CN18" s="198"/>
-      <c r="CO18" s="198"/>
-      <c r="CP18" s="198"/>
-      <c r="CQ18" s="198"/>
-      <c r="CR18" s="198"/>
-      <c r="CS18" s="198"/>
-      <c r="CT18" s="198" t="s">
+      <c r="AJ18" s="197"/>
+      <c r="AK18" s="197"/>
+      <c r="AL18" s="197"/>
+      <c r="AM18" s="197"/>
+      <c r="AN18" s="197"/>
+      <c r="AO18" s="197"/>
+      <c r="AP18" s="197"/>
+      <c r="AQ18" s="197" t="s">
+        <v>519</v>
+      </c>
+      <c r="AR18" s="197" t="s">
+        <v>519</v>
+      </c>
+      <c r="AS18" s="197"/>
+      <c r="AT18" s="197"/>
+      <c r="AU18" s="197"/>
+      <c r="AV18" s="197"/>
+      <c r="AW18" s="197"/>
+      <c r="AX18" s="197"/>
+      <c r="AY18" s="197"/>
+      <c r="AZ18" s="197"/>
+      <c r="BA18" s="197"/>
+      <c r="BB18" s="197"/>
+      <c r="BC18" s="197"/>
+      <c r="BD18" s="197"/>
+      <c r="BE18" s="197"/>
+      <c r="BF18" s="197"/>
+      <c r="BG18" s="197"/>
+      <c r="BH18" s="197"/>
+      <c r="BI18" s="197"/>
+      <c r="BJ18" s="197"/>
+      <c r="BK18" s="197" t="s">
+        <v>519</v>
+      </c>
+      <c r="BL18" s="197"/>
+      <c r="BM18" s="197"/>
+      <c r="BN18" s="197"/>
+      <c r="BO18" s="197"/>
+      <c r="BP18" s="197"/>
+      <c r="BQ18" s="197"/>
+      <c r="BR18" s="197"/>
+      <c r="BS18" s="197"/>
+      <c r="BT18" s="197"/>
+      <c r="BU18" s="197"/>
+      <c r="BV18" s="197"/>
+      <c r="BW18" s="197"/>
+      <c r="BX18" s="197"/>
+      <c r="BY18" s="197"/>
+      <c r="BZ18" s="197" t="s">
+        <v>519</v>
+      </c>
+      <c r="CA18" s="197"/>
+      <c r="CB18" s="197" t="s">
+        <v>519</v>
+      </c>
+      <c r="CC18" s="197" t="s">
+        <v>519</v>
+      </c>
+      <c r="CD18" s="197"/>
+      <c r="CE18" s="197"/>
+      <c r="CF18" s="197"/>
+      <c r="CG18" s="197"/>
+      <c r="CH18" s="197"/>
+      <c r="CI18" s="197"/>
+      <c r="CJ18" s="197"/>
+      <c r="CK18" s="197"/>
+      <c r="CL18" s="197"/>
+      <c r="CM18" s="197"/>
+      <c r="CN18" s="197"/>
+      <c r="CO18" s="197"/>
+      <c r="CP18" s="197"/>
+      <c r="CQ18" s="197"/>
+      <c r="CR18" s="197"/>
+      <c r="CS18" s="197"/>
+      <c r="CT18" s="197" t="s">
         <v>647</v>
       </c>
-      <c r="CU18" s="198"/>
-      <c r="CV18" s="198"/>
-      <c r="CW18" s="198"/>
-      <c r="CX18" s="198"/>
-      <c r="CY18" s="198"/>
-      <c r="CZ18" s="198" t="s">
-        <v>519</v>
-      </c>
-      <c r="DA18" s="198"/>
-      <c r="DB18" s="198"/>
-      <c r="DC18" s="198"/>
-      <c r="DD18" s="198"/>
-      <c r="DE18" s="198"/>
-      <c r="DF18" s="198"/>
-      <c r="DG18" s="198"/>
-      <c r="DH18" s="198"/>
-      <c r="DI18" s="198"/>
-      <c r="DJ18" s="198"/>
-      <c r="DK18" s="198"/>
-      <c r="DL18" s="198"/>
-      <c r="DM18" s="198"/>
-      <c r="DN18" s="198"/>
-      <c r="DO18" s="198"/>
-      <c r="DP18" s="198"/>
-      <c r="DQ18" s="198"/>
-      <c r="DR18" s="198"/>
-      <c r="DS18" s="200">
+      <c r="CU18" s="197"/>
+      <c r="CV18" s="197"/>
+      <c r="CW18" s="197"/>
+      <c r="CX18" s="197"/>
+      <c r="CY18" s="197"/>
+      <c r="CZ18" s="197" t="s">
+        <v>519</v>
+      </c>
+      <c r="DA18" s="197"/>
+      <c r="DB18" s="197"/>
+      <c r="DC18" s="197"/>
+      <c r="DD18" s="197"/>
+      <c r="DE18" s="197"/>
+      <c r="DF18" s="197"/>
+      <c r="DG18" s="197"/>
+      <c r="DH18" s="197"/>
+      <c r="DI18" s="197"/>
+      <c r="DJ18" s="197"/>
+      <c r="DK18" s="197"/>
+      <c r="DL18" s="197"/>
+      <c r="DM18" s="197"/>
+      <c r="DN18" s="197"/>
+      <c r="DO18" s="197"/>
+      <c r="DP18" s="197"/>
+      <c r="DQ18" s="197"/>
+      <c r="DR18" s="197"/>
+      <c r="DS18" s="199">
         <f t="shared" si="0"/>
         <v>3769000</v>
       </c>
-      <c r="DT18" s="201">
+      <c r="DT18" s="200">
         <f t="shared" ref="DT18:DT19" si="3">3000000-DS18</f>
         <v>-769000</v>
       </c>
-      <c r="DU18" s="202" t="s">
+      <c r="DU18" s="201" t="s">
         <v>650</v>
       </c>
     </row>
@@ -16289,205 +16329,208 @@
         <v>-3000</v>
       </c>
     </row>
-    <row r="23" spans="1:127" s="202" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="191">
+    <row r="23" spans="1:127" s="201" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="190">
         <v>20</v>
       </c>
-      <c r="B23" s="191" t="s">
+      <c r="B23" s="190" t="s">
         <v>674</v>
       </c>
-      <c r="C23" s="192" t="s">
+      <c r="C23" s="191" t="s">
         <v>452</v>
       </c>
-      <c r="D23" s="191" t="s">
+      <c r="D23" s="190" t="s">
         <v>437</v>
       </c>
-      <c r="E23" s="191">
+      <c r="E23" s="190">
         <v>1982</v>
       </c>
-      <c r="F23" s="191">
+      <c r="F23" s="190">
         <v>1982</v>
       </c>
-      <c r="G23" s="193" t="s">
+      <c r="G23" s="192" t="s">
         <v>433</v>
       </c>
-      <c r="H23" s="194" t="s">
+      <c r="H23" s="193" t="s">
         <v>551</v>
       </c>
-      <c r="I23" s="195" t="s">
+      <c r="I23" s="194" t="s">
         <v>560</v>
       </c>
-      <c r="J23" s="194"/>
-      <c r="K23" s="196" t="s">
-        <v>519</v>
-      </c>
-      <c r="L23" s="196" t="s">
-        <v>519</v>
-      </c>
-      <c r="M23" s="196" t="s">
-        <v>519</v>
-      </c>
-      <c r="N23" s="196" t="s">
-        <v>519</v>
-      </c>
-      <c r="O23" s="196" t="s">
-        <v>519</v>
-      </c>
-      <c r="P23" s="196" t="s">
-        <v>519</v>
-      </c>
-      <c r="Q23" s="196" t="s">
-        <v>519</v>
-      </c>
-      <c r="R23" s="196" t="s">
-        <v>519</v>
-      </c>
-      <c r="S23" s="196" t="s">
-        <v>519</v>
-      </c>
-      <c r="T23" s="193"/>
-      <c r="U23" s="193"/>
-      <c r="V23" s="193"/>
-      <c r="W23" s="193"/>
-      <c r="X23" s="193"/>
-      <c r="Y23" s="197"/>
-      <c r="Z23" s="198" t="s">
-        <v>519</v>
-      </c>
-      <c r="AA23" s="198" t="s">
-        <v>519</v>
-      </c>
-      <c r="AB23" s="198"/>
-      <c r="AC23" s="198" t="s">
-        <v>519</v>
-      </c>
-      <c r="AD23" s="198" t="s">
-        <v>519</v>
-      </c>
-      <c r="AE23" s="199"/>
-      <c r="AF23" s="198"/>
-      <c r="AG23" s="198"/>
-      <c r="AH23" s="198"/>
-      <c r="AI23" s="198" t="s">
-        <v>519</v>
-      </c>
-      <c r="AJ23" s="198"/>
-      <c r="AK23" s="198"/>
-      <c r="AL23" s="198"/>
-      <c r="AM23" s="198"/>
-      <c r="AN23" s="198"/>
-      <c r="AO23" s="198"/>
-      <c r="AP23" s="198"/>
-      <c r="AQ23" s="198"/>
-      <c r="AR23" s="198"/>
-      <c r="AS23" s="198"/>
-      <c r="AT23" s="198"/>
-      <c r="AU23" s="198"/>
-      <c r="AV23" s="198"/>
-      <c r="AW23" s="198"/>
-      <c r="AX23" s="198"/>
-      <c r="AY23" s="198"/>
-      <c r="AZ23" s="198"/>
-      <c r="BA23" s="198"/>
-      <c r="BB23" s="198"/>
-      <c r="BC23" s="198"/>
-      <c r="BD23" s="198"/>
-      <c r="BE23" s="198"/>
-      <c r="BF23" s="198"/>
-      <c r="BG23" s="198"/>
-      <c r="BH23" s="198"/>
-      <c r="BI23" s="198"/>
-      <c r="BJ23" s="198"/>
-      <c r="BK23" s="198" t="s">
-        <v>519</v>
-      </c>
-      <c r="BL23" s="198"/>
-      <c r="BM23" s="198"/>
-      <c r="BN23" s="198"/>
-      <c r="BO23" s="198"/>
-      <c r="BP23" s="198"/>
-      <c r="BQ23" s="198"/>
-      <c r="BR23" s="198"/>
-      <c r="BS23" s="198"/>
-      <c r="BT23" s="198"/>
-      <c r="BU23" s="198"/>
-      <c r="BV23" s="198"/>
-      <c r="BW23" s="198" t="s">
-        <v>519</v>
-      </c>
-      <c r="BX23" s="198"/>
-      <c r="BY23" s="198"/>
-      <c r="BZ23" s="198" t="s">
-        <v>519</v>
-      </c>
-      <c r="CA23" s="198" t="s">
-        <v>519</v>
-      </c>
-      <c r="CB23" s="198" t="s">
-        <v>519</v>
-      </c>
-      <c r="CC23" s="198"/>
-      <c r="CD23" s="198"/>
-      <c r="CE23" s="198"/>
-      <c r="CF23" s="198"/>
-      <c r="CG23" s="198"/>
-      <c r="CH23" s="198"/>
-      <c r="CI23" s="198"/>
-      <c r="CJ23" s="198"/>
-      <c r="CK23" s="198"/>
-      <c r="CL23" s="198"/>
-      <c r="CM23" s="198"/>
-      <c r="CN23" s="198"/>
-      <c r="CO23" s="198"/>
-      <c r="CP23" s="198"/>
-      <c r="CQ23" s="198"/>
-      <c r="CR23" s="198"/>
-      <c r="CS23" s="198"/>
-      <c r="CT23" s="198" t="s">
-        <v>519</v>
-      </c>
-      <c r="CU23" s="198"/>
-      <c r="CV23" s="198"/>
-      <c r="CW23" s="198"/>
-      <c r="CX23" s="198"/>
-      <c r="CY23" s="198"/>
-      <c r="CZ23" s="198" t="s">
-        <v>519</v>
-      </c>
-      <c r="DA23" s="198"/>
-      <c r="DB23" s="198"/>
-      <c r="DC23" s="198"/>
-      <c r="DD23" s="198"/>
-      <c r="DE23" s="198"/>
-      <c r="DF23" s="198"/>
-      <c r="DG23" s="198"/>
-      <c r="DH23" s="198" t="s">
-        <v>519</v>
-      </c>
-      <c r="DI23" s="198" t="s">
-        <v>519</v>
-      </c>
-      <c r="DJ23" s="198"/>
-      <c r="DK23" s="198"/>
-      <c r="DL23" s="198"/>
-      <c r="DM23" s="198" t="s">
-        <v>519</v>
-      </c>
-      <c r="DN23" s="198"/>
-      <c r="DO23" s="198"/>
-      <c r="DP23" s="198"/>
-      <c r="DQ23" s="198"/>
-      <c r="DR23" s="198"/>
-      <c r="DS23" s="200">
+      <c r="J23" s="193"/>
+      <c r="K23" s="195" t="s">
+        <v>519</v>
+      </c>
+      <c r="L23" s="195" t="s">
+        <v>519</v>
+      </c>
+      <c r="M23" s="195" t="s">
+        <v>519</v>
+      </c>
+      <c r="N23" s="195" t="s">
+        <v>519</v>
+      </c>
+      <c r="O23" s="195" t="s">
+        <v>519</v>
+      </c>
+      <c r="P23" s="195" t="s">
+        <v>519</v>
+      </c>
+      <c r="Q23" s="195" t="s">
+        <v>519</v>
+      </c>
+      <c r="R23" s="195" t="s">
+        <v>519</v>
+      </c>
+      <c r="S23" s="195" t="s">
+        <v>519</v>
+      </c>
+      <c r="T23" s="192"/>
+      <c r="U23" s="192"/>
+      <c r="V23" s="192"/>
+      <c r="W23" s="192"/>
+      <c r="X23" s="192"/>
+      <c r="Y23" s="196"/>
+      <c r="Z23" s="197" t="s">
+        <v>519</v>
+      </c>
+      <c r="AA23" s="197" t="s">
+        <v>519</v>
+      </c>
+      <c r="AB23" s="197"/>
+      <c r="AC23" s="197" t="s">
+        <v>519</v>
+      </c>
+      <c r="AD23" s="197" t="s">
+        <v>519</v>
+      </c>
+      <c r="AE23" s="198"/>
+      <c r="AF23" s="197"/>
+      <c r="AG23" s="197"/>
+      <c r="AH23" s="197"/>
+      <c r="AI23" s="197" t="s">
+        <v>519</v>
+      </c>
+      <c r="AJ23" s="197"/>
+      <c r="AK23" s="197"/>
+      <c r="AL23" s="197"/>
+      <c r="AM23" s="197"/>
+      <c r="AN23" s="197"/>
+      <c r="AO23" s="197"/>
+      <c r="AP23" s="197"/>
+      <c r="AQ23" s="197"/>
+      <c r="AR23" s="197"/>
+      <c r="AS23" s="197"/>
+      <c r="AT23" s="197"/>
+      <c r="AU23" s="197"/>
+      <c r="AV23" s="197"/>
+      <c r="AW23" s="197"/>
+      <c r="AX23" s="197"/>
+      <c r="AY23" s="197"/>
+      <c r="AZ23" s="197"/>
+      <c r="BA23" s="197"/>
+      <c r="BB23" s="197"/>
+      <c r="BC23" s="197"/>
+      <c r="BD23" s="197"/>
+      <c r="BE23" s="197"/>
+      <c r="BF23" s="197"/>
+      <c r="BG23" s="197"/>
+      <c r="BH23" s="197"/>
+      <c r="BI23" s="197"/>
+      <c r="BJ23" s="197"/>
+      <c r="BK23" s="197" t="s">
+        <v>519</v>
+      </c>
+      <c r="BL23" s="197"/>
+      <c r="BM23" s="197"/>
+      <c r="BN23" s="197"/>
+      <c r="BO23" s="197"/>
+      <c r="BP23" s="197"/>
+      <c r="BQ23" s="197"/>
+      <c r="BR23" s="197"/>
+      <c r="BS23" s="197"/>
+      <c r="BT23" s="197"/>
+      <c r="BU23" s="197"/>
+      <c r="BV23" s="197"/>
+      <c r="BW23" s="197" t="s">
+        <v>519</v>
+      </c>
+      <c r="BX23" s="197"/>
+      <c r="BY23" s="197"/>
+      <c r="BZ23" s="197" t="s">
+        <v>519</v>
+      </c>
+      <c r="CA23" s="197" t="s">
+        <v>519</v>
+      </c>
+      <c r="CB23" s="197" t="s">
+        <v>519</v>
+      </c>
+      <c r="CC23" s="197"/>
+      <c r="CD23" s="197"/>
+      <c r="CE23" s="197"/>
+      <c r="CF23" s="197"/>
+      <c r="CG23" s="197"/>
+      <c r="CH23" s="197"/>
+      <c r="CI23" s="197"/>
+      <c r="CJ23" s="197"/>
+      <c r="CK23" s="197"/>
+      <c r="CL23" s="197"/>
+      <c r="CM23" s="197"/>
+      <c r="CN23" s="197"/>
+      <c r="CO23" s="197"/>
+      <c r="CP23" s="197"/>
+      <c r="CQ23" s="197"/>
+      <c r="CR23" s="197"/>
+      <c r="CS23" s="197"/>
+      <c r="CT23" s="197" t="s">
+        <v>519</v>
+      </c>
+      <c r="CU23" s="197"/>
+      <c r="CV23" s="197"/>
+      <c r="CW23" s="197"/>
+      <c r="CX23" s="197"/>
+      <c r="CY23" s="197"/>
+      <c r="CZ23" s="197" t="s">
+        <v>519</v>
+      </c>
+      <c r="DA23" s="197"/>
+      <c r="DB23" s="197"/>
+      <c r="DC23" s="197"/>
+      <c r="DD23" s="197"/>
+      <c r="DE23" s="197"/>
+      <c r="DF23" s="197"/>
+      <c r="DG23" s="197"/>
+      <c r="DH23" s="197" t="s">
+        <v>519</v>
+      </c>
+      <c r="DI23" s="197" t="s">
+        <v>519</v>
+      </c>
+      <c r="DJ23" s="197"/>
+      <c r="DK23" s="197"/>
+      <c r="DL23" s="197"/>
+      <c r="DM23" s="197" t="s">
+        <v>519</v>
+      </c>
+      <c r="DN23" s="197"/>
+      <c r="DO23" s="197"/>
+      <c r="DP23" s="197"/>
+      <c r="DQ23" s="197"/>
+      <c r="DR23" s="197"/>
+      <c r="DS23" s="199">
         <f t="shared" si="0"/>
         <v>4300000</v>
       </c>
-      <c r="DT23" s="201">
+      <c r="DT23" s="200">
         <f>3000000-DS23</f>
         <v>-1300000</v>
       </c>
-      <c r="DU23" s="202" t="s">
+      <c r="DU23" s="201" t="s">
         <v>651</v>
+      </c>
+      <c r="DW23" s="201" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="24" spans="1:127" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -18906,198 +18949,198 @@
         <v>1303000</v>
       </c>
     </row>
-    <row r="37" spans="1:127" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="153">
+    <row r="37" spans="1:127" s="286" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="275">
         <v>34</v>
       </c>
-      <c r="B37" s="153" t="s">
+      <c r="B37" s="275" t="s">
         <v>688</v>
       </c>
-      <c r="C37" s="163" t="s">
+      <c r="C37" s="276" t="s">
         <v>466</v>
       </c>
-      <c r="D37" s="153" t="s">
+      <c r="D37" s="275" t="s">
         <v>437</v>
       </c>
-      <c r="E37" s="153">
+      <c r="E37" s="275">
         <v>1999</v>
       </c>
-      <c r="F37" s="155">
+      <c r="F37" s="277">
         <v>36207</v>
       </c>
-      <c r="G37" s="160" t="s">
+      <c r="G37" s="278" t="s">
         <v>433</v>
       </c>
-      <c r="H37" s="164" t="s">
+      <c r="H37" s="279" t="s">
         <v>579</v>
       </c>
-      <c r="I37" s="178" t="s">
+      <c r="I37" s="280" t="s">
         <v>582</v>
       </c>
-      <c r="J37" s="179" t="s">
+      <c r="J37" s="281" t="s">
         <v>583</v>
       </c>
-      <c r="K37" s="159" t="s">
-        <v>519</v>
-      </c>
-      <c r="L37" s="159" t="s">
-        <v>519</v>
-      </c>
-      <c r="M37" s="159" t="s">
-        <v>519</v>
-      </c>
-      <c r="N37" s="159" t="s">
-        <v>519</v>
-      </c>
-      <c r="O37" s="159" t="s">
-        <v>519</v>
-      </c>
-      <c r="P37" s="159" t="s">
-        <v>519</v>
-      </c>
-      <c r="Q37" s="159" t="s">
-        <v>519</v>
-      </c>
-      <c r="R37" s="159" t="s">
-        <v>519</v>
-      </c>
-      <c r="S37" s="159" t="s">
-        <v>519</v>
-      </c>
-      <c r="T37" s="160" t="s">
-        <v>519</v>
-      </c>
-      <c r="U37" s="160"/>
-      <c r="V37" s="160"/>
-      <c r="W37" s="160"/>
-      <c r="X37" s="160"/>
-      <c r="Y37" s="157"/>
-      <c r="Z37" s="157"/>
-      <c r="AA37" s="157"/>
-      <c r="AB37" s="157"/>
-      <c r="AC37" s="157"/>
-      <c r="AD37" s="157"/>
-      <c r="AE37" s="157"/>
-      <c r="AF37" s="157"/>
-      <c r="AG37" s="157"/>
-      <c r="AH37" s="157"/>
-      <c r="AI37" s="157"/>
-      <c r="AJ37" s="157"/>
-      <c r="AK37" s="157"/>
-      <c r="AL37" s="157"/>
-      <c r="AM37" s="157"/>
-      <c r="AN37" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="AO37" s="157"/>
-      <c r="AP37" s="157"/>
-      <c r="AQ37" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="AR37" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="AS37" s="157"/>
-      <c r="AT37" s="157"/>
-      <c r="AU37" s="157"/>
-      <c r="AV37" s="157"/>
-      <c r="AW37" s="157"/>
-      <c r="AX37" s="157"/>
-      <c r="AY37" s="157"/>
-      <c r="AZ37" s="157"/>
-      <c r="BA37" s="157"/>
-      <c r="BB37" s="157"/>
-      <c r="BC37" s="157"/>
-      <c r="BD37" s="157"/>
-      <c r="BE37" s="157"/>
-      <c r="BF37" s="157"/>
-      <c r="BG37" s="157"/>
-      <c r="BH37" s="157"/>
-      <c r="BI37" s="157"/>
-      <c r="BJ37" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="BK37" s="157"/>
-      <c r="BL37" s="157"/>
-      <c r="BM37" s="157"/>
-      <c r="BN37" s="157"/>
-      <c r="BO37" s="157"/>
-      <c r="BP37" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="BQ37" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="BR37" s="157"/>
-      <c r="BS37" s="157"/>
-      <c r="BT37" s="157"/>
-      <c r="BU37" s="157"/>
-      <c r="BV37" s="157"/>
-      <c r="BW37" s="157"/>
-      <c r="BX37" s="157"/>
-      <c r="BY37" s="157"/>
-      <c r="BZ37" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="CA37" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="CB37" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="CC37" s="157"/>
-      <c r="CD37" s="157"/>
-      <c r="CE37" s="157"/>
-      <c r="CF37" s="157"/>
-      <c r="CG37" s="157"/>
-      <c r="CH37" s="157"/>
-      <c r="CI37" s="157"/>
-      <c r="CJ37" s="157"/>
-      <c r="CK37" s="157"/>
-      <c r="CL37" s="157"/>
-      <c r="CM37" s="157"/>
-      <c r="CN37" s="157"/>
-      <c r="CO37" s="157"/>
-      <c r="CP37" s="157"/>
-      <c r="CQ37" s="157"/>
-      <c r="CR37" s="157"/>
-      <c r="CS37" s="157"/>
-      <c r="CT37" s="157"/>
-      <c r="CU37" s="157"/>
-      <c r="CV37" s="157"/>
-      <c r="CW37" s="157"/>
-      <c r="CX37" s="157"/>
-      <c r="CY37" s="157"/>
-      <c r="CZ37" s="157"/>
-      <c r="DA37" s="157"/>
-      <c r="DB37" s="157"/>
-      <c r="DC37" s="157"/>
-      <c r="DD37" s="157"/>
-      <c r="DE37" s="157"/>
-      <c r="DF37" s="157"/>
-      <c r="DG37" s="157"/>
-      <c r="DH37" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="DI37" s="157"/>
-      <c r="DJ37" s="157"/>
-      <c r="DK37" s="157"/>
-      <c r="DL37" s="157"/>
-      <c r="DM37" s="157"/>
-      <c r="DN37" s="157"/>
-      <c r="DO37" s="157"/>
-      <c r="DP37" s="157"/>
-      <c r="DQ37" s="157"/>
-      <c r="DR37" s="157"/>
-      <c r="DS37" s="161">
+      <c r="K37" s="282" t="s">
+        <v>519</v>
+      </c>
+      <c r="L37" s="282" t="s">
+        <v>519</v>
+      </c>
+      <c r="M37" s="282" t="s">
+        <v>519</v>
+      </c>
+      <c r="N37" s="282" t="s">
+        <v>519</v>
+      </c>
+      <c r="O37" s="282" t="s">
+        <v>519</v>
+      </c>
+      <c r="P37" s="282" t="s">
+        <v>519</v>
+      </c>
+      <c r="Q37" s="282" t="s">
+        <v>519</v>
+      </c>
+      <c r="R37" s="282" t="s">
+        <v>519</v>
+      </c>
+      <c r="S37" s="282" t="s">
+        <v>519</v>
+      </c>
+      <c r="T37" s="278" t="s">
+        <v>519</v>
+      </c>
+      <c r="U37" s="278"/>
+      <c r="V37" s="278"/>
+      <c r="W37" s="278"/>
+      <c r="X37" s="278"/>
+      <c r="Y37" s="283"/>
+      <c r="Z37" s="283"/>
+      <c r="AA37" s="283"/>
+      <c r="AB37" s="283"/>
+      <c r="AC37" s="283"/>
+      <c r="AD37" s="283"/>
+      <c r="AE37" s="283"/>
+      <c r="AF37" s="283"/>
+      <c r="AG37" s="283"/>
+      <c r="AH37" s="283"/>
+      <c r="AI37" s="283"/>
+      <c r="AJ37" s="283"/>
+      <c r="AK37" s="283"/>
+      <c r="AL37" s="283"/>
+      <c r="AM37" s="283"/>
+      <c r="AN37" s="283" t="s">
+        <v>519</v>
+      </c>
+      <c r="AO37" s="283"/>
+      <c r="AP37" s="283"/>
+      <c r="AQ37" s="283" t="s">
+        <v>519</v>
+      </c>
+      <c r="AR37" s="283" t="s">
+        <v>519</v>
+      </c>
+      <c r="AS37" s="283"/>
+      <c r="AT37" s="283"/>
+      <c r="AU37" s="283"/>
+      <c r="AV37" s="283"/>
+      <c r="AW37" s="283"/>
+      <c r="AX37" s="283"/>
+      <c r="AY37" s="283"/>
+      <c r="AZ37" s="283"/>
+      <c r="BA37" s="283"/>
+      <c r="BB37" s="283"/>
+      <c r="BC37" s="283"/>
+      <c r="BD37" s="283"/>
+      <c r="BE37" s="283"/>
+      <c r="BF37" s="283"/>
+      <c r="BG37" s="283"/>
+      <c r="BH37" s="283"/>
+      <c r="BI37" s="283"/>
+      <c r="BJ37" s="283" t="s">
+        <v>519</v>
+      </c>
+      <c r="BK37" s="283"/>
+      <c r="BL37" s="283"/>
+      <c r="BM37" s="283"/>
+      <c r="BN37" s="283"/>
+      <c r="BO37" s="283"/>
+      <c r="BP37" s="283" t="s">
+        <v>519</v>
+      </c>
+      <c r="BQ37" s="283" t="s">
+        <v>519</v>
+      </c>
+      <c r="BR37" s="283"/>
+      <c r="BS37" s="283"/>
+      <c r="BT37" s="283"/>
+      <c r="BU37" s="283"/>
+      <c r="BV37" s="283"/>
+      <c r="BW37" s="283"/>
+      <c r="BX37" s="283"/>
+      <c r="BY37" s="283"/>
+      <c r="BZ37" s="283" t="s">
+        <v>519</v>
+      </c>
+      <c r="CA37" s="283" t="s">
+        <v>519</v>
+      </c>
+      <c r="CB37" s="283" t="s">
+        <v>519</v>
+      </c>
+      <c r="CC37" s="283"/>
+      <c r="CD37" s="283"/>
+      <c r="CE37" s="283"/>
+      <c r="CF37" s="283"/>
+      <c r="CG37" s="283"/>
+      <c r="CH37" s="283"/>
+      <c r="CI37" s="283"/>
+      <c r="CJ37" s="283"/>
+      <c r="CK37" s="283"/>
+      <c r="CL37" s="283"/>
+      <c r="CM37" s="283"/>
+      <c r="CN37" s="283"/>
+      <c r="CO37" s="283"/>
+      <c r="CP37" s="283"/>
+      <c r="CQ37" s="283"/>
+      <c r="CR37" s="283"/>
+      <c r="CS37" s="283"/>
+      <c r="CT37" s="283"/>
+      <c r="CU37" s="283"/>
+      <c r="CV37" s="283"/>
+      <c r="CW37" s="283"/>
+      <c r="CX37" s="283"/>
+      <c r="CY37" s="283"/>
+      <c r="CZ37" s="283"/>
+      <c r="DA37" s="283"/>
+      <c r="DB37" s="283"/>
+      <c r="DC37" s="283"/>
+      <c r="DD37" s="283"/>
+      <c r="DE37" s="283"/>
+      <c r="DF37" s="283"/>
+      <c r="DG37" s="283"/>
+      <c r="DH37" s="283" t="s">
+        <v>519</v>
+      </c>
+      <c r="DI37" s="283"/>
+      <c r="DJ37" s="283"/>
+      <c r="DK37" s="283"/>
+      <c r="DL37" s="283"/>
+      <c r="DM37" s="283"/>
+      <c r="DN37" s="283"/>
+      <c r="DO37" s="283"/>
+      <c r="DP37" s="283"/>
+      <c r="DQ37" s="283"/>
+      <c r="DR37" s="283"/>
+      <c r="DS37" s="284">
         <f t="shared" si="0"/>
         <v>2341000</v>
       </c>
-      <c r="DT37" s="162">
+      <c r="DT37" s="285">
         <f t="shared" si="6"/>
         <v>659000</v>
       </c>
-      <c r="DW37" s="136" t="s">
+      <c r="DW37" s="286" t="s">
         <v>753</v>
       </c>
     </row>
@@ -20103,7 +20146,7 @@
       <c r="E43" s="153">
         <v>1989</v>
       </c>
-      <c r="F43" s="180" t="s">
+      <c r="F43" s="179" t="s">
         <v>520</v>
       </c>
       <c r="G43" s="160" t="s">
@@ -20285,216 +20328,216 @@
         <v>-910000</v>
       </c>
     </row>
-    <row r="44" spans="1:127" s="316" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="305">
+    <row r="44" spans="1:127" s="238" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="227">
         <v>41</v>
       </c>
-      <c r="B44" s="305" t="s">
+      <c r="B44" s="227" t="s">
         <v>695</v>
       </c>
-      <c r="C44" s="306" t="s">
+      <c r="C44" s="228" t="s">
         <v>473</v>
       </c>
-      <c r="D44" s="305" t="s">
+      <c r="D44" s="227" t="s">
         <v>437</v>
       </c>
-      <c r="E44" s="305">
+      <c r="E44" s="227">
         <v>1987</v>
       </c>
-      <c r="F44" s="307" t="s">
+      <c r="F44" s="229" t="s">
         <v>523</v>
       </c>
-      <c r="G44" s="308" t="s">
+      <c r="G44" s="230" t="s">
         <v>433</v>
       </c>
-      <c r="H44" s="309" t="s">
+      <c r="H44" s="231" t="s">
         <v>521</v>
       </c>
-      <c r="I44" s="310" t="s">
+      <c r="I44" s="232" t="s">
         <v>524</v>
       </c>
-      <c r="J44" s="311"/>
-      <c r="K44" s="312" t="s">
-        <v>519</v>
-      </c>
-      <c r="L44" s="312" t="s">
-        <v>519</v>
-      </c>
-      <c r="M44" s="312" t="s">
-        <v>519</v>
-      </c>
-      <c r="N44" s="312" t="s">
-        <v>519</v>
-      </c>
-      <c r="O44" s="312" t="s">
-        <v>519</v>
-      </c>
-      <c r="P44" s="312" t="s">
-        <v>519</v>
-      </c>
-      <c r="Q44" s="312" t="s">
-        <v>519</v>
-      </c>
-      <c r="R44" s="312" t="s">
-        <v>519</v>
-      </c>
-      <c r="S44" s="312" t="s">
-        <v>519</v>
-      </c>
-      <c r="T44" s="308" t="s">
-        <v>519</v>
-      </c>
-      <c r="U44" s="308"/>
-      <c r="V44" s="308" t="s">
-        <v>519</v>
-      </c>
-      <c r="W44" s="308"/>
-      <c r="X44" s="308" t="s">
-        <v>519</v>
-      </c>
-      <c r="Y44" s="313"/>
-      <c r="Z44" s="313" t="s">
-        <v>519</v>
-      </c>
-      <c r="AA44" s="313" t="s">
-        <v>519</v>
-      </c>
-      <c r="AB44" s="313" t="s">
-        <v>519</v>
-      </c>
-      <c r="AC44" s="313" t="s">
-        <v>519</v>
-      </c>
-      <c r="AD44" s="313" t="s">
-        <v>519</v>
-      </c>
-      <c r="AE44" s="313" t="s">
-        <v>519</v>
-      </c>
-      <c r="AF44" s="313"/>
-      <c r="AG44" s="313"/>
-      <c r="AH44" s="313"/>
-      <c r="AI44" s="313"/>
-      <c r="AJ44" s="313"/>
-      <c r="AK44" s="313"/>
-      <c r="AL44" s="313"/>
-      <c r="AM44" s="313"/>
-      <c r="AN44" s="313"/>
-      <c r="AO44" s="313"/>
-      <c r="AP44" s="313"/>
-      <c r="AQ44" s="313" t="s">
-        <v>519</v>
-      </c>
-      <c r="AR44" s="313" t="s">
-        <v>519</v>
-      </c>
-      <c r="AS44" s="313"/>
-      <c r="AT44" s="313" t="s">
-        <v>519</v>
-      </c>
-      <c r="AU44" s="313"/>
-      <c r="AV44" s="313"/>
-      <c r="AW44" s="313"/>
-      <c r="AX44" s="313"/>
-      <c r="AY44" s="313"/>
-      <c r="AZ44" s="313" t="s">
-        <v>519</v>
-      </c>
-      <c r="BA44" s="313"/>
-      <c r="BB44" s="313" t="s">
-        <v>519</v>
-      </c>
-      <c r="BC44" s="313"/>
-      <c r="BD44" s="313"/>
-      <c r="BE44" s="313"/>
-      <c r="BF44" s="313"/>
-      <c r="BG44" s="313"/>
-      <c r="BH44" s="313"/>
-      <c r="BI44" s="313"/>
-      <c r="BJ44" s="313" t="s">
-        <v>519</v>
-      </c>
-      <c r="BK44" s="313"/>
-      <c r="BL44" s="313"/>
-      <c r="BM44" s="313"/>
-      <c r="BN44" s="313"/>
-      <c r="BO44" s="313"/>
-      <c r="BP44" s="313"/>
-      <c r="BQ44" s="313"/>
-      <c r="BR44" s="313"/>
-      <c r="BS44" s="313" t="s">
-        <v>519</v>
-      </c>
-      <c r="BT44" s="313"/>
-      <c r="BU44" s="313"/>
-      <c r="BV44" s="313"/>
-      <c r="BW44" s="313" t="s">
-        <v>519</v>
-      </c>
-      <c r="BX44" s="313"/>
-      <c r="BY44" s="313"/>
-      <c r="BZ44" s="313" t="s">
-        <v>519</v>
-      </c>
-      <c r="CA44" s="313" t="s">
-        <v>519</v>
-      </c>
-      <c r="CB44" s="313" t="s">
-        <v>519</v>
-      </c>
-      <c r="CC44" s="313"/>
-      <c r="CD44" s="313"/>
-      <c r="CE44" s="313"/>
-      <c r="CF44" s="313"/>
-      <c r="CG44" s="313"/>
-      <c r="CH44" s="313"/>
-      <c r="CI44" s="313"/>
-      <c r="CJ44" s="313"/>
-      <c r="CK44" s="313"/>
-      <c r="CL44" s="313"/>
-      <c r="CM44" s="313"/>
-      <c r="CN44" s="313"/>
-      <c r="CO44" s="313"/>
-      <c r="CP44" s="313"/>
-      <c r="CQ44" s="313"/>
-      <c r="CR44" s="313"/>
-      <c r="CS44" s="313"/>
-      <c r="CT44" s="313"/>
-      <c r="CU44" s="313"/>
-      <c r="CV44" s="313"/>
-      <c r="CW44" s="313"/>
-      <c r="CX44" s="313"/>
-      <c r="CY44" s="313"/>
-      <c r="CZ44" s="313"/>
-      <c r="DA44" s="313"/>
-      <c r="DB44" s="313"/>
-      <c r="DC44" s="313" t="s">
-        <v>519</v>
-      </c>
-      <c r="DD44" s="313"/>
-      <c r="DE44" s="313"/>
-      <c r="DF44" s="313"/>
-      <c r="DG44" s="313"/>
-      <c r="DH44" s="313"/>
-      <c r="DI44" s="313"/>
-      <c r="DJ44" s="313"/>
-      <c r="DK44" s="313"/>
-      <c r="DL44" s="313"/>
-      <c r="DM44" s="313"/>
-      <c r="DN44" s="313"/>
-      <c r="DO44" s="313"/>
-      <c r="DP44" s="313"/>
-      <c r="DQ44" s="313"/>
-      <c r="DR44" s="313"/>
-      <c r="DS44" s="314">
+      <c r="J44" s="233"/>
+      <c r="K44" s="234" t="s">
+        <v>519</v>
+      </c>
+      <c r="L44" s="234" t="s">
+        <v>519</v>
+      </c>
+      <c r="M44" s="234" t="s">
+        <v>519</v>
+      </c>
+      <c r="N44" s="234" t="s">
+        <v>519</v>
+      </c>
+      <c r="O44" s="234" t="s">
+        <v>519</v>
+      </c>
+      <c r="P44" s="234" t="s">
+        <v>519</v>
+      </c>
+      <c r="Q44" s="234" t="s">
+        <v>519</v>
+      </c>
+      <c r="R44" s="234" t="s">
+        <v>519</v>
+      </c>
+      <c r="S44" s="234" t="s">
+        <v>519</v>
+      </c>
+      <c r="T44" s="230" t="s">
+        <v>519</v>
+      </c>
+      <c r="U44" s="230"/>
+      <c r="V44" s="230" t="s">
+        <v>519</v>
+      </c>
+      <c r="W44" s="230"/>
+      <c r="X44" s="230" t="s">
+        <v>519</v>
+      </c>
+      <c r="Y44" s="235"/>
+      <c r="Z44" s="235" t="s">
+        <v>519</v>
+      </c>
+      <c r="AA44" s="235" t="s">
+        <v>519</v>
+      </c>
+      <c r="AB44" s="235" t="s">
+        <v>519</v>
+      </c>
+      <c r="AC44" s="235" t="s">
+        <v>519</v>
+      </c>
+      <c r="AD44" s="235" t="s">
+        <v>519</v>
+      </c>
+      <c r="AE44" s="235" t="s">
+        <v>519</v>
+      </c>
+      <c r="AF44" s="235"/>
+      <c r="AG44" s="235"/>
+      <c r="AH44" s="235"/>
+      <c r="AI44" s="235"/>
+      <c r="AJ44" s="235"/>
+      <c r="AK44" s="235"/>
+      <c r="AL44" s="235"/>
+      <c r="AM44" s="235"/>
+      <c r="AN44" s="235"/>
+      <c r="AO44" s="235"/>
+      <c r="AP44" s="235"/>
+      <c r="AQ44" s="235" t="s">
+        <v>519</v>
+      </c>
+      <c r="AR44" s="235" t="s">
+        <v>519</v>
+      </c>
+      <c r="AS44" s="235"/>
+      <c r="AT44" s="235" t="s">
+        <v>519</v>
+      </c>
+      <c r="AU44" s="235"/>
+      <c r="AV44" s="235"/>
+      <c r="AW44" s="235"/>
+      <c r="AX44" s="235"/>
+      <c r="AY44" s="235"/>
+      <c r="AZ44" s="235" t="s">
+        <v>519</v>
+      </c>
+      <c r="BA44" s="235"/>
+      <c r="BB44" s="235" t="s">
+        <v>519</v>
+      </c>
+      <c r="BC44" s="235"/>
+      <c r="BD44" s="235"/>
+      <c r="BE44" s="235"/>
+      <c r="BF44" s="235"/>
+      <c r="BG44" s="235"/>
+      <c r="BH44" s="235"/>
+      <c r="BI44" s="235"/>
+      <c r="BJ44" s="235" t="s">
+        <v>519</v>
+      </c>
+      <c r="BK44" s="235"/>
+      <c r="BL44" s="235"/>
+      <c r="BM44" s="235"/>
+      <c r="BN44" s="235"/>
+      <c r="BO44" s="235"/>
+      <c r="BP44" s="235"/>
+      <c r="BQ44" s="235"/>
+      <c r="BR44" s="235"/>
+      <c r="BS44" s="235" t="s">
+        <v>519</v>
+      </c>
+      <c r="BT44" s="235"/>
+      <c r="BU44" s="235"/>
+      <c r="BV44" s="235"/>
+      <c r="BW44" s="235" t="s">
+        <v>519</v>
+      </c>
+      <c r="BX44" s="235"/>
+      <c r="BY44" s="235"/>
+      <c r="BZ44" s="235" t="s">
+        <v>519</v>
+      </c>
+      <c r="CA44" s="235" t="s">
+        <v>519</v>
+      </c>
+      <c r="CB44" s="235" t="s">
+        <v>519</v>
+      </c>
+      <c r="CC44" s="235"/>
+      <c r="CD44" s="235"/>
+      <c r="CE44" s="235"/>
+      <c r="CF44" s="235"/>
+      <c r="CG44" s="235"/>
+      <c r="CH44" s="235"/>
+      <c r="CI44" s="235"/>
+      <c r="CJ44" s="235"/>
+      <c r="CK44" s="235"/>
+      <c r="CL44" s="235"/>
+      <c r="CM44" s="235"/>
+      <c r="CN44" s="235"/>
+      <c r="CO44" s="235"/>
+      <c r="CP44" s="235"/>
+      <c r="CQ44" s="235"/>
+      <c r="CR44" s="235"/>
+      <c r="CS44" s="235"/>
+      <c r="CT44" s="235"/>
+      <c r="CU44" s="235"/>
+      <c r="CV44" s="235"/>
+      <c r="CW44" s="235"/>
+      <c r="CX44" s="235"/>
+      <c r="CY44" s="235"/>
+      <c r="CZ44" s="235"/>
+      <c r="DA44" s="235"/>
+      <c r="DB44" s="235"/>
+      <c r="DC44" s="235" t="s">
+        <v>519</v>
+      </c>
+      <c r="DD44" s="235"/>
+      <c r="DE44" s="235"/>
+      <c r="DF44" s="235"/>
+      <c r="DG44" s="235"/>
+      <c r="DH44" s="235"/>
+      <c r="DI44" s="235"/>
+      <c r="DJ44" s="235"/>
+      <c r="DK44" s="235"/>
+      <c r="DL44" s="235"/>
+      <c r="DM44" s="235"/>
+      <c r="DN44" s="235"/>
+      <c r="DO44" s="235"/>
+      <c r="DP44" s="235"/>
+      <c r="DQ44" s="235"/>
+      <c r="DR44" s="235"/>
+      <c r="DS44" s="236">
         <f t="shared" si="0"/>
         <v>3595000</v>
       </c>
-      <c r="DT44" s="315">
+      <c r="DT44" s="237">
         <f>3000000-DS44</f>
         <v>-595000</v>
       </c>
-      <c r="DW44" s="316" t="s">
+      <c r="DW44" s="238" t="s">
         <v>745</v>
       </c>
     </row>
@@ -20514,7 +20557,7 @@
       <c r="E45" s="153">
         <v>1993</v>
       </c>
-      <c r="F45" s="180" t="s">
+      <c r="F45" s="179" t="s">
         <v>525</v>
       </c>
       <c r="G45" s="160" t="s">
@@ -20706,7 +20749,7 @@
       <c r="E46" s="153">
         <v>1994</v>
       </c>
-      <c r="F46" s="180" t="s">
+      <c r="F46" s="179" t="s">
         <v>527</v>
       </c>
       <c r="G46" s="160" t="s">
@@ -20906,7 +20949,7 @@
       <c r="E47" s="153">
         <v>1996</v>
       </c>
-      <c r="F47" s="180" t="s">
+      <c r="F47" s="179" t="s">
         <v>529</v>
       </c>
       <c r="G47" s="164" t="s">
@@ -21288,216 +21331,216 @@
         <v>-595000</v>
       </c>
     </row>
-    <row r="49" spans="1:127" s="202" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="191">
+    <row r="49" spans="1:127" s="201" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="190">
         <v>46</v>
       </c>
-      <c r="B49" s="191" t="s">
+      <c r="B49" s="190" t="s">
         <v>700</v>
       </c>
-      <c r="C49" s="192" t="s">
+      <c r="C49" s="191" t="s">
         <v>478</v>
       </c>
-      <c r="D49" s="191" t="s">
+      <c r="D49" s="190" t="s">
         <v>437</v>
       </c>
-      <c r="E49" s="191">
+      <c r="E49" s="190">
         <v>1983</v>
       </c>
-      <c r="F49" s="191">
+      <c r="F49" s="190">
         <v>1983</v>
       </c>
-      <c r="G49" s="193" t="s">
+      <c r="G49" s="192" t="s">
         <v>433</v>
       </c>
-      <c r="H49" s="194" t="s">
+      <c r="H49" s="193" t="s">
         <v>598</v>
       </c>
-      <c r="I49" s="195" t="s">
+      <c r="I49" s="194" t="s">
         <v>600</v>
       </c>
-      <c r="J49" s="205"/>
-      <c r="K49" s="196" t="s">
-        <v>519</v>
-      </c>
-      <c r="L49" s="196" t="s">
-        <v>519</v>
-      </c>
-      <c r="M49" s="196" t="s">
-        <v>519</v>
-      </c>
-      <c r="N49" s="196" t="s">
-        <v>519</v>
-      </c>
-      <c r="O49" s="196" t="s">
-        <v>519</v>
-      </c>
-      <c r="P49" s="196" t="s">
-        <v>519</v>
-      </c>
-      <c r="Q49" s="196" t="s">
-        <v>519</v>
-      </c>
-      <c r="R49" s="196" t="s">
-        <v>519</v>
-      </c>
-      <c r="S49" s="196" t="s">
-        <v>519</v>
-      </c>
-      <c r="T49" s="193"/>
-      <c r="U49" s="193"/>
-      <c r="V49" s="193"/>
-      <c r="W49" s="193"/>
-      <c r="X49" s="193"/>
-      <c r="Y49" s="198"/>
-      <c r="Z49" s="198"/>
-      <c r="AA49" s="198" t="s">
-        <v>519</v>
-      </c>
-      <c r="AB49" s="198"/>
-      <c r="AC49" s="198"/>
-      <c r="AD49" s="198" t="s">
-        <v>519</v>
-      </c>
-      <c r="AE49" s="198"/>
-      <c r="AF49" s="198"/>
-      <c r="AG49" s="198"/>
-      <c r="AH49" s="198"/>
-      <c r="AI49" s="198" t="s">
-        <v>519</v>
-      </c>
-      <c r="AJ49" s="198"/>
-      <c r="AK49" s="198"/>
-      <c r="AL49" s="198"/>
-      <c r="AM49" s="198"/>
-      <c r="AN49" s="198"/>
-      <c r="AO49" s="198"/>
-      <c r="AP49" s="198"/>
-      <c r="AQ49" s="198" t="s">
-        <v>519</v>
-      </c>
-      <c r="AR49" s="198" t="s">
-        <v>519</v>
-      </c>
-      <c r="AS49" s="198" t="s">
-        <v>519</v>
-      </c>
-      <c r="AT49" s="198"/>
-      <c r="AU49" s="198"/>
-      <c r="AV49" s="198"/>
-      <c r="AW49" s="198"/>
-      <c r="AX49" s="198"/>
-      <c r="AY49" s="198"/>
-      <c r="AZ49" s="198"/>
-      <c r="BA49" s="198"/>
-      <c r="BB49" s="198"/>
-      <c r="BC49" s="198"/>
-      <c r="BD49" s="198"/>
-      <c r="BE49" s="198"/>
-      <c r="BF49" s="198"/>
-      <c r="BG49" s="198"/>
-      <c r="BH49" s="198"/>
-      <c r="BI49" s="198"/>
-      <c r="BJ49" s="198"/>
-      <c r="BK49" s="198"/>
-      <c r="BL49" s="198"/>
-      <c r="BM49" s="198"/>
-      <c r="BN49" s="198"/>
-      <c r="BO49" s="198"/>
-      <c r="BP49" s="198"/>
-      <c r="BQ49" s="198"/>
-      <c r="BR49" s="198"/>
-      <c r="BS49" s="198"/>
-      <c r="BT49" s="198"/>
-      <c r="BU49" s="198"/>
-      <c r="BV49" s="198"/>
-      <c r="BW49" s="198"/>
-      <c r="BX49" s="198"/>
-      <c r="BY49" s="198"/>
-      <c r="BZ49" s="198" t="s">
-        <v>519</v>
-      </c>
-      <c r="CA49" s="198" t="s">
-        <v>519</v>
-      </c>
-      <c r="CB49" s="198" t="s">
-        <v>519</v>
-      </c>
-      <c r="CC49" s="198"/>
-      <c r="CD49" s="198"/>
-      <c r="CE49" s="198"/>
-      <c r="CF49" s="198"/>
-      <c r="CG49" s="198"/>
-      <c r="CH49" s="198"/>
-      <c r="CI49" s="198"/>
-      <c r="CJ49" s="198"/>
-      <c r="CK49" s="198"/>
-      <c r="CL49" s="198"/>
-      <c r="CM49" s="198"/>
-      <c r="CN49" s="198" t="s">
+      <c r="J49" s="204"/>
+      <c r="K49" s="195" t="s">
+        <v>519</v>
+      </c>
+      <c r="L49" s="195" t="s">
+        <v>519</v>
+      </c>
+      <c r="M49" s="195" t="s">
+        <v>519</v>
+      </c>
+      <c r="N49" s="195" t="s">
+        <v>519</v>
+      </c>
+      <c r="O49" s="195" t="s">
+        <v>519</v>
+      </c>
+      <c r="P49" s="195" t="s">
+        <v>519</v>
+      </c>
+      <c r="Q49" s="195" t="s">
+        <v>519</v>
+      </c>
+      <c r="R49" s="195" t="s">
+        <v>519</v>
+      </c>
+      <c r="S49" s="195" t="s">
+        <v>519</v>
+      </c>
+      <c r="T49" s="192"/>
+      <c r="U49" s="192"/>
+      <c r="V49" s="192"/>
+      <c r="W49" s="192"/>
+      <c r="X49" s="192"/>
+      <c r="Y49" s="197"/>
+      <c r="Z49" s="197"/>
+      <c r="AA49" s="197" t="s">
+        <v>519</v>
+      </c>
+      <c r="AB49" s="197"/>
+      <c r="AC49" s="197"/>
+      <c r="AD49" s="197" t="s">
+        <v>519</v>
+      </c>
+      <c r="AE49" s="197"/>
+      <c r="AF49" s="197"/>
+      <c r="AG49" s="197"/>
+      <c r="AH49" s="197"/>
+      <c r="AI49" s="197" t="s">
+        <v>519</v>
+      </c>
+      <c r="AJ49" s="197"/>
+      <c r="AK49" s="197"/>
+      <c r="AL49" s="197"/>
+      <c r="AM49" s="197"/>
+      <c r="AN49" s="197"/>
+      <c r="AO49" s="197"/>
+      <c r="AP49" s="197"/>
+      <c r="AQ49" s="197" t="s">
+        <v>519</v>
+      </c>
+      <c r="AR49" s="197" t="s">
+        <v>519</v>
+      </c>
+      <c r="AS49" s="197" t="s">
+        <v>519</v>
+      </c>
+      <c r="AT49" s="197"/>
+      <c r="AU49" s="197"/>
+      <c r="AV49" s="197"/>
+      <c r="AW49" s="197"/>
+      <c r="AX49" s="197"/>
+      <c r="AY49" s="197"/>
+      <c r="AZ49" s="197"/>
+      <c r="BA49" s="197"/>
+      <c r="BB49" s="197"/>
+      <c r="BC49" s="197"/>
+      <c r="BD49" s="197"/>
+      <c r="BE49" s="197"/>
+      <c r="BF49" s="197"/>
+      <c r="BG49" s="197"/>
+      <c r="BH49" s="197"/>
+      <c r="BI49" s="197"/>
+      <c r="BJ49" s="197"/>
+      <c r="BK49" s="197"/>
+      <c r="BL49" s="197"/>
+      <c r="BM49" s="197"/>
+      <c r="BN49" s="197"/>
+      <c r="BO49" s="197"/>
+      <c r="BP49" s="197"/>
+      <c r="BQ49" s="197"/>
+      <c r="BR49" s="197"/>
+      <c r="BS49" s="197"/>
+      <c r="BT49" s="197"/>
+      <c r="BU49" s="197"/>
+      <c r="BV49" s="197"/>
+      <c r="BW49" s="197"/>
+      <c r="BX49" s="197"/>
+      <c r="BY49" s="197"/>
+      <c r="BZ49" s="197" t="s">
+        <v>519</v>
+      </c>
+      <c r="CA49" s="197" t="s">
+        <v>519</v>
+      </c>
+      <c r="CB49" s="197" t="s">
+        <v>519</v>
+      </c>
+      <c r="CC49" s="197"/>
+      <c r="CD49" s="197"/>
+      <c r="CE49" s="197"/>
+      <c r="CF49" s="197"/>
+      <c r="CG49" s="197"/>
+      <c r="CH49" s="197"/>
+      <c r="CI49" s="197"/>
+      <c r="CJ49" s="197"/>
+      <c r="CK49" s="197"/>
+      <c r="CL49" s="197"/>
+      <c r="CM49" s="197"/>
+      <c r="CN49" s="197" t="s">
         <v>645</v>
       </c>
-      <c r="CO49" s="198"/>
-      <c r="CP49" s="198"/>
-      <c r="CQ49" s="198"/>
-      <c r="CR49" s="198"/>
-      <c r="CS49" s="198" t="s">
-        <v>519</v>
-      </c>
-      <c r="CT49" s="198" t="s">
-        <v>519</v>
-      </c>
-      <c r="CU49" s="198" t="s">
-        <v>519</v>
-      </c>
-      <c r="CV49" s="198" t="s">
-        <v>519</v>
-      </c>
-      <c r="CW49" s="198" t="s">
-        <v>519</v>
-      </c>
-      <c r="CX49" s="198" t="s">
-        <v>519</v>
-      </c>
-      <c r="CY49" s="198" t="s">
-        <v>519</v>
-      </c>
-      <c r="CZ49" s="198" t="s">
-        <v>519</v>
-      </c>
-      <c r="DA49" s="198"/>
-      <c r="DB49" s="198"/>
-      <c r="DC49" s="198"/>
-      <c r="DD49" s="198"/>
-      <c r="DE49" s="198"/>
-      <c r="DF49" s="198"/>
-      <c r="DG49" s="198"/>
-      <c r="DH49" s="198"/>
-      <c r="DI49" s="198" t="s">
-        <v>519</v>
-      </c>
-      <c r="DJ49" s="198"/>
-      <c r="DK49" s="198"/>
-      <c r="DL49" s="198"/>
-      <c r="DM49" s="198" t="s">
-        <v>519</v>
-      </c>
-      <c r="DN49" s="198" t="s">
-        <v>519</v>
-      </c>
-      <c r="DO49" s="198"/>
-      <c r="DP49" s="198"/>
-      <c r="DQ49" s="198"/>
-      <c r="DR49" s="198"/>
-      <c r="DS49" s="200">
+      <c r="CO49" s="197"/>
+      <c r="CP49" s="197"/>
+      <c r="CQ49" s="197"/>
+      <c r="CR49" s="197"/>
+      <c r="CS49" s="197" t="s">
+        <v>519</v>
+      </c>
+      <c r="CT49" s="197" t="s">
+        <v>519</v>
+      </c>
+      <c r="CU49" s="197" t="s">
+        <v>519</v>
+      </c>
+      <c r="CV49" s="197" t="s">
+        <v>519</v>
+      </c>
+      <c r="CW49" s="197" t="s">
+        <v>519</v>
+      </c>
+      <c r="CX49" s="197" t="s">
+        <v>519</v>
+      </c>
+      <c r="CY49" s="197" t="s">
+        <v>519</v>
+      </c>
+      <c r="CZ49" s="197" t="s">
+        <v>519</v>
+      </c>
+      <c r="DA49" s="197"/>
+      <c r="DB49" s="197"/>
+      <c r="DC49" s="197"/>
+      <c r="DD49" s="197"/>
+      <c r="DE49" s="197"/>
+      <c r="DF49" s="197"/>
+      <c r="DG49" s="197"/>
+      <c r="DH49" s="197"/>
+      <c r="DI49" s="197" t="s">
+        <v>519</v>
+      </c>
+      <c r="DJ49" s="197"/>
+      <c r="DK49" s="197"/>
+      <c r="DL49" s="197"/>
+      <c r="DM49" s="197" t="s">
+        <v>519</v>
+      </c>
+      <c r="DN49" s="197" t="s">
+        <v>519</v>
+      </c>
+      <c r="DO49" s="197"/>
+      <c r="DP49" s="197"/>
+      <c r="DQ49" s="197"/>
+      <c r="DR49" s="197"/>
+      <c r="DS49" s="199">
         <f t="shared" si="0"/>
         <v>5238000</v>
       </c>
-      <c r="DT49" s="201">
+      <c r="DT49" s="200">
         <f t="shared" si="9"/>
         <v>-2238000</v>
       </c>
-      <c r="DU49" s="202" t="s">
+      <c r="DU49" s="201" t="s">
         <v>736</v>
       </c>
     </row>
@@ -21894,10 +21937,10 @@
       <c r="H52" s="171" t="s">
         <v>598</v>
       </c>
-      <c r="I52" s="182" t="s">
+      <c r="I52" s="181" t="s">
         <v>603</v>
       </c>
-      <c r="J52" s="183"/>
+      <c r="J52" s="182"/>
       <c r="K52" s="159" t="s">
         <v>519</v>
       </c>
@@ -22442,196 +22485,196 @@
       <c r="B55" s="153" t="s">
         <v>706</v>
       </c>
-      <c r="C55" s="184" t="s">
+      <c r="C55" s="183" t="s">
         <v>484</v>
       </c>
-      <c r="D55" s="185" t="s">
+      <c r="D55" s="184" t="s">
         <v>437</v>
       </c>
       <c r="E55" s="153">
         <v>1988</v>
       </c>
-      <c r="F55" s="185">
+      <c r="F55" s="184">
         <v>1988</v>
       </c>
-      <c r="G55" s="186" t="s">
+      <c r="G55" s="185" t="s">
         <v>433</v>
       </c>
       <c r="H55" s="171" t="s">
         <v>598</v>
       </c>
-      <c r="I55" s="187" t="s">
+      <c r="I55" s="186" t="s">
         <v>564</v>
       </c>
-      <c r="J55" s="188"/>
-      <c r="K55" s="189" t="s">
-        <v>519</v>
-      </c>
-      <c r="L55" s="189" t="s">
-        <v>519</v>
-      </c>
-      <c r="M55" s="189" t="s">
-        <v>519</v>
-      </c>
-      <c r="N55" s="189" t="s">
-        <v>519</v>
-      </c>
-      <c r="O55" s="189" t="s">
-        <v>519</v>
-      </c>
-      <c r="P55" s="189" t="s">
-        <v>519</v>
-      </c>
-      <c r="Q55" s="189" t="s">
-        <v>519</v>
-      </c>
-      <c r="R55" s="189" t="s">
-        <v>519</v>
-      </c>
-      <c r="S55" s="189" t="s">
-        <v>519</v>
-      </c>
-      <c r="T55" s="186"/>
-      <c r="U55" s="186" t="s">
-        <v>519</v>
-      </c>
-      <c r="V55" s="186"/>
-      <c r="W55" s="186"/>
-      <c r="X55" s="186" t="s">
-        <v>519</v>
-      </c>
-      <c r="Y55" s="190" t="s">
-        <v>519</v>
-      </c>
-      <c r="Z55" s="190"/>
-      <c r="AA55" s="190" t="s">
-        <v>519</v>
-      </c>
-      <c r="AB55" s="190" t="s">
-        <v>519</v>
-      </c>
-      <c r="AC55" s="190" t="s">
+      <c r="J55" s="187"/>
+      <c r="K55" s="188" t="s">
+        <v>519</v>
+      </c>
+      <c r="L55" s="188" t="s">
+        <v>519</v>
+      </c>
+      <c r="M55" s="188" t="s">
+        <v>519</v>
+      </c>
+      <c r="N55" s="188" t="s">
+        <v>519</v>
+      </c>
+      <c r="O55" s="188" t="s">
+        <v>519</v>
+      </c>
+      <c r="P55" s="188" t="s">
+        <v>519</v>
+      </c>
+      <c r="Q55" s="188" t="s">
+        <v>519</v>
+      </c>
+      <c r="R55" s="188" t="s">
+        <v>519</v>
+      </c>
+      <c r="S55" s="188" t="s">
+        <v>519</v>
+      </c>
+      <c r="T55" s="185"/>
+      <c r="U55" s="185" t="s">
+        <v>519</v>
+      </c>
+      <c r="V55" s="185"/>
+      <c r="W55" s="185"/>
+      <c r="X55" s="185" t="s">
+        <v>519</v>
+      </c>
+      <c r="Y55" s="189" t="s">
+        <v>519</v>
+      </c>
+      <c r="Z55" s="189"/>
+      <c r="AA55" s="189" t="s">
+        <v>519</v>
+      </c>
+      <c r="AB55" s="189" t="s">
+        <v>519</v>
+      </c>
+      <c r="AC55" s="189" t="s">
         <v>519</v>
       </c>
       <c r="AD55" s="157" t="s">
         <v>519</v>
       </c>
-      <c r="AE55" s="190" t="s">
-        <v>519</v>
-      </c>
-      <c r="AF55" s="190"/>
-      <c r="AG55" s="190"/>
-      <c r="AH55" s="190"/>
-      <c r="AI55" s="190"/>
-      <c r="AJ55" s="190"/>
-      <c r="AK55" s="190"/>
-      <c r="AL55" s="190"/>
-      <c r="AM55" s="190"/>
-      <c r="AN55" s="190"/>
-      <c r="AO55" s="190"/>
-      <c r="AP55" s="190"/>
-      <c r="AQ55" s="190" t="s">
-        <v>519</v>
-      </c>
-      <c r="AR55" s="190" t="s">
-        <v>519</v>
-      </c>
-      <c r="AS55" s="190"/>
-      <c r="AT55" s="190"/>
-      <c r="AU55" s="190"/>
-      <c r="AV55" s="190"/>
-      <c r="AW55" s="190"/>
-      <c r="AX55" s="190"/>
-      <c r="AY55" s="190"/>
-      <c r="AZ55" s="190"/>
-      <c r="BA55" s="190" t="s">
-        <v>519</v>
-      </c>
-      <c r="BB55" s="190"/>
-      <c r="BC55" s="190"/>
-      <c r="BD55" s="190"/>
-      <c r="BE55" s="190"/>
-      <c r="BF55" s="190"/>
-      <c r="BG55" s="190"/>
-      <c r="BH55" s="190" t="s">
-        <v>519</v>
-      </c>
-      <c r="BI55" s="190"/>
-      <c r="BJ55" s="190"/>
-      <c r="BK55" s="190"/>
-      <c r="BL55" s="190"/>
-      <c r="BM55" s="190"/>
-      <c r="BN55" s="190"/>
-      <c r="BO55" s="190" t="s">
-        <v>519</v>
-      </c>
-      <c r="BP55" s="190"/>
-      <c r="BQ55" s="190"/>
-      <c r="BR55" s="190"/>
-      <c r="BS55" s="190" t="s">
-        <v>519</v>
-      </c>
-      <c r="BT55" s="190"/>
-      <c r="BU55" s="190"/>
-      <c r="BV55" s="190"/>
-      <c r="BW55" s="190"/>
-      <c r="BX55" s="190"/>
-      <c r="BY55" s="190"/>
-      <c r="BZ55" s="190"/>
-      <c r="CA55" s="190" t="s">
-        <v>519</v>
-      </c>
-      <c r="CB55" s="190"/>
-      <c r="CC55" s="190"/>
-      <c r="CD55" s="190"/>
-      <c r="CE55" s="190"/>
-      <c r="CF55" s="190"/>
-      <c r="CG55" s="190"/>
-      <c r="CH55" s="190"/>
-      <c r="CI55" s="190"/>
-      <c r="CJ55" s="190"/>
-      <c r="CK55" s="190"/>
-      <c r="CL55" s="190"/>
-      <c r="CM55" s="190"/>
-      <c r="CN55" s="190"/>
-      <c r="CO55" s="190"/>
-      <c r="CP55" s="190"/>
-      <c r="CQ55" s="190"/>
-      <c r="CR55" s="190"/>
-      <c r="CS55" s="190"/>
-      <c r="CT55" s="190"/>
-      <c r="CU55" s="190"/>
-      <c r="CV55" s="190"/>
-      <c r="CW55" s="190"/>
-      <c r="CX55" s="190"/>
-      <c r="CY55" s="190"/>
-      <c r="CZ55" s="190"/>
-      <c r="DA55" s="190"/>
-      <c r="DB55" s="190"/>
-      <c r="DC55" s="190"/>
-      <c r="DD55" s="190"/>
-      <c r="DE55" s="190"/>
-      <c r="DF55" s="190"/>
-      <c r="DG55" s="190"/>
-      <c r="DH55" s="190" t="s">
-        <v>519</v>
-      </c>
-      <c r="DI55" s="190"/>
-      <c r="DJ55" s="190" t="s">
-        <v>519</v>
-      </c>
-      <c r="DK55" s="190"/>
-      <c r="DL55" s="190"/>
-      <c r="DM55" s="190" t="s">
-        <v>519</v>
-      </c>
-      <c r="DN55" s="190" t="s">
-        <v>519</v>
-      </c>
-      <c r="DO55" s="190"/>
-      <c r="DP55" s="190"/>
-      <c r="DQ55" s="190"/>
-      <c r="DR55" s="190"/>
+      <c r="AE55" s="189" t="s">
+        <v>519</v>
+      </c>
+      <c r="AF55" s="189"/>
+      <c r="AG55" s="189"/>
+      <c r="AH55" s="189"/>
+      <c r="AI55" s="189"/>
+      <c r="AJ55" s="189"/>
+      <c r="AK55" s="189"/>
+      <c r="AL55" s="189"/>
+      <c r="AM55" s="189"/>
+      <c r="AN55" s="189"/>
+      <c r="AO55" s="189"/>
+      <c r="AP55" s="189"/>
+      <c r="AQ55" s="189" t="s">
+        <v>519</v>
+      </c>
+      <c r="AR55" s="189" t="s">
+        <v>519</v>
+      </c>
+      <c r="AS55" s="189"/>
+      <c r="AT55" s="189"/>
+      <c r="AU55" s="189"/>
+      <c r="AV55" s="189"/>
+      <c r="AW55" s="189"/>
+      <c r="AX55" s="189"/>
+      <c r="AY55" s="189"/>
+      <c r="AZ55" s="189"/>
+      <c r="BA55" s="189" t="s">
+        <v>519</v>
+      </c>
+      <c r="BB55" s="189"/>
+      <c r="BC55" s="189"/>
+      <c r="BD55" s="189"/>
+      <c r="BE55" s="189"/>
+      <c r="BF55" s="189"/>
+      <c r="BG55" s="189"/>
+      <c r="BH55" s="189" t="s">
+        <v>519</v>
+      </c>
+      <c r="BI55" s="189"/>
+      <c r="BJ55" s="189"/>
+      <c r="BK55" s="189"/>
+      <c r="BL55" s="189"/>
+      <c r="BM55" s="189"/>
+      <c r="BN55" s="189"/>
+      <c r="BO55" s="189" t="s">
+        <v>519</v>
+      </c>
+      <c r="BP55" s="189"/>
+      <c r="BQ55" s="189"/>
+      <c r="BR55" s="189"/>
+      <c r="BS55" s="189" t="s">
+        <v>519</v>
+      </c>
+      <c r="BT55" s="189"/>
+      <c r="BU55" s="189"/>
+      <c r="BV55" s="189"/>
+      <c r="BW55" s="189"/>
+      <c r="BX55" s="189"/>
+      <c r="BY55" s="189"/>
+      <c r="BZ55" s="189"/>
+      <c r="CA55" s="189" t="s">
+        <v>519</v>
+      </c>
+      <c r="CB55" s="189"/>
+      <c r="CC55" s="189"/>
+      <c r="CD55" s="189"/>
+      <c r="CE55" s="189"/>
+      <c r="CF55" s="189"/>
+      <c r="CG55" s="189"/>
+      <c r="CH55" s="189"/>
+      <c r="CI55" s="189"/>
+      <c r="CJ55" s="189"/>
+      <c r="CK55" s="189"/>
+      <c r="CL55" s="189"/>
+      <c r="CM55" s="189"/>
+      <c r="CN55" s="189"/>
+      <c r="CO55" s="189"/>
+      <c r="CP55" s="189"/>
+      <c r="CQ55" s="189"/>
+      <c r="CR55" s="189"/>
+      <c r="CS55" s="189"/>
+      <c r="CT55" s="189"/>
+      <c r="CU55" s="189"/>
+      <c r="CV55" s="189"/>
+      <c r="CW55" s="189"/>
+      <c r="CX55" s="189"/>
+      <c r="CY55" s="189"/>
+      <c r="CZ55" s="189"/>
+      <c r="DA55" s="189"/>
+      <c r="DB55" s="189"/>
+      <c r="DC55" s="189"/>
+      <c r="DD55" s="189"/>
+      <c r="DE55" s="189"/>
+      <c r="DF55" s="189"/>
+      <c r="DG55" s="189"/>
+      <c r="DH55" s="189" t="s">
+        <v>519</v>
+      </c>
+      <c r="DI55" s="189"/>
+      <c r="DJ55" s="189" t="s">
+        <v>519</v>
+      </c>
+      <c r="DK55" s="189"/>
+      <c r="DL55" s="189"/>
+      <c r="DM55" s="189" t="s">
+        <v>519</v>
+      </c>
+      <c r="DN55" s="189" t="s">
+        <v>519</v>
+      </c>
+      <c r="DO55" s="189"/>
+      <c r="DP55" s="189"/>
+      <c r="DQ55" s="189"/>
+      <c r="DR55" s="189"/>
       <c r="DS55" s="161">
         <f t="shared" si="0"/>
         <v>3180000</v>
@@ -22648,10 +22691,10 @@
       <c r="B56" s="153" t="s">
         <v>707</v>
       </c>
-      <c r="C56" s="183" t="s">
+      <c r="C56" s="182" t="s">
         <v>485</v>
       </c>
-      <c r="D56" s="182" t="s">
+      <c r="D56" s="181" t="s">
         <v>437</v>
       </c>
       <c r="E56" s="153">
@@ -22660,16 +22703,16 @@
       <c r="F56" s="170">
         <v>1991</v>
       </c>
-      <c r="G56" s="183" t="s">
+      <c r="G56" s="182" t="s">
         <v>433</v>
       </c>
       <c r="H56" s="171" t="s">
         <v>598</v>
       </c>
-      <c r="I56" s="182" t="s">
+      <c r="I56" s="181" t="s">
         <v>605</v>
       </c>
-      <c r="J56" s="183"/>
+      <c r="J56" s="182"/>
       <c r="K56" s="159" t="s">
         <v>519</v>
       </c>
@@ -23244,7 +23287,7 @@
       <c r="H59" s="171" t="s">
         <v>584</v>
       </c>
-      <c r="I59" s="181" t="s">
+      <c r="I59" s="180" t="s">
         <v>585</v>
       </c>
       <c r="J59" s="177" t="s">
@@ -23430,7 +23473,7 @@
       <c r="H60" s="171" t="s">
         <v>587</v>
       </c>
-      <c r="I60" s="181" t="s">
+      <c r="I60" s="180" t="s">
         <v>588</v>
       </c>
       <c r="J60" s="177" t="s">
@@ -23632,7 +23675,7 @@
       <c r="H61" s="171" t="s">
         <v>587</v>
       </c>
-      <c r="I61" s="181" t="s">
+      <c r="I61" s="180" t="s">
         <v>590</v>
       </c>
       <c r="J61" s="177" t="s">
@@ -23822,7 +23865,7 @@
       <c r="H62" s="171" t="s">
         <v>584</v>
       </c>
-      <c r="I62" s="181" t="s">
+      <c r="I62" s="180" t="s">
         <v>592</v>
       </c>
       <c r="J62" s="177" t="s">
@@ -23983,214 +24026,214 @@
         <v>-654000</v>
       </c>
     </row>
-    <row r="63" spans="1:127" s="202" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="191">
+    <row r="63" spans="1:127" s="201" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="190">
         <v>60</v>
       </c>
-      <c r="B63" s="191" t="s">
+      <c r="B63" s="190" t="s">
         <v>714</v>
       </c>
-      <c r="C63" s="192" t="s">
+      <c r="C63" s="191" t="s">
         <v>492</v>
       </c>
-      <c r="D63" s="191" t="s">
+      <c r="D63" s="190" t="s">
         <v>437</v>
       </c>
-      <c r="E63" s="191">
+      <c r="E63" s="190">
         <v>1997</v>
       </c>
-      <c r="F63" s="206">
+      <c r="F63" s="205">
         <v>35738</v>
       </c>
-      <c r="G63" s="193" t="s">
+      <c r="G63" s="192" t="s">
         <v>433</v>
       </c>
-      <c r="H63" s="194" t="s">
+      <c r="H63" s="193" t="s">
         <v>584</v>
       </c>
-      <c r="I63" s="207" t="s">
+      <c r="I63" s="206" t="s">
         <v>594</v>
       </c>
-      <c r="J63" s="208" t="s">
+      <c r="J63" s="207" t="s">
         <v>595</v>
       </c>
-      <c r="K63" s="196" t="s">
-        <v>519</v>
-      </c>
-      <c r="L63" s="196" t="s">
-        <v>519</v>
-      </c>
-      <c r="M63" s="196" t="s">
-        <v>519</v>
-      </c>
-      <c r="N63" s="196" t="s">
-        <v>519</v>
-      </c>
-      <c r="O63" s="196" t="s">
-        <v>519</v>
-      </c>
-      <c r="P63" s="196" t="s">
-        <v>519</v>
-      </c>
-      <c r="Q63" s="196" t="s">
-        <v>519</v>
-      </c>
-      <c r="R63" s="196" t="s">
-        <v>519</v>
-      </c>
-      <c r="S63" s="196" t="s">
-        <v>519</v>
-      </c>
-      <c r="T63" s="193"/>
-      <c r="U63" s="193" t="s">
-        <v>519</v>
-      </c>
-      <c r="V63" s="193" t="s">
-        <v>519</v>
-      </c>
-      <c r="W63" s="193"/>
-      <c r="X63" s="193" t="s">
-        <v>519</v>
-      </c>
-      <c r="Y63" s="198" t="s">
-        <v>519</v>
-      </c>
-      <c r="Z63" s="198" t="s">
-        <v>519</v>
-      </c>
-      <c r="AA63" s="198" t="s">
-        <v>519</v>
-      </c>
-      <c r="AB63" s="198" t="s">
-        <v>519</v>
-      </c>
-      <c r="AC63" s="198" t="s">
-        <v>519</v>
-      </c>
-      <c r="AD63" s="198" t="s">
-        <v>519</v>
-      </c>
-      <c r="AE63" s="198"/>
-      <c r="AF63" s="198"/>
-      <c r="AG63" s="198"/>
-      <c r="AH63" s="198"/>
-      <c r="AI63" s="198" t="s">
-        <v>519</v>
-      </c>
-      <c r="AJ63" s="198"/>
-      <c r="AK63" s="198"/>
-      <c r="AL63" s="198"/>
-      <c r="AM63" s="198"/>
-      <c r="AN63" s="198"/>
-      <c r="AO63" s="198"/>
-      <c r="AP63" s="198"/>
-      <c r="AQ63" s="198"/>
-      <c r="AR63" s="198"/>
-      <c r="AS63" s="198"/>
-      <c r="AT63" s="198"/>
-      <c r="AU63" s="198"/>
-      <c r="AV63" s="198"/>
-      <c r="AW63" s="198"/>
-      <c r="AX63" s="198"/>
-      <c r="AY63" s="198"/>
-      <c r="AZ63" s="198"/>
-      <c r="BA63" s="198"/>
-      <c r="BB63" s="198"/>
-      <c r="BC63" s="198"/>
-      <c r="BD63" s="198"/>
-      <c r="BE63" s="198"/>
-      <c r="BF63" s="198"/>
-      <c r="BG63" s="198"/>
-      <c r="BH63" s="198"/>
-      <c r="BI63" s="198"/>
-      <c r="BJ63" s="198"/>
-      <c r="BK63" s="198"/>
-      <c r="BL63" s="198"/>
-      <c r="BM63" s="198"/>
-      <c r="BN63" s="198"/>
-      <c r="BO63" s="198"/>
-      <c r="BP63" s="198"/>
-      <c r="BQ63" s="198"/>
-      <c r="BR63" s="198"/>
-      <c r="BS63" s="198"/>
-      <c r="BT63" s="198"/>
-      <c r="BU63" s="198"/>
-      <c r="BV63" s="198"/>
-      <c r="BW63" s="198"/>
-      <c r="BX63" s="198"/>
-      <c r="BY63" s="198"/>
-      <c r="BZ63" s="198"/>
-      <c r="CA63" s="198"/>
-      <c r="CB63" s="198"/>
-      <c r="CC63" s="198"/>
-      <c r="CD63" s="198"/>
-      <c r="CE63" s="198"/>
-      <c r="CF63" s="198"/>
-      <c r="CG63" s="198"/>
-      <c r="CH63" s="198"/>
-      <c r="CI63" s="198"/>
-      <c r="CJ63" s="198"/>
-      <c r="CK63" s="198"/>
-      <c r="CL63" s="198"/>
-      <c r="CM63" s="198"/>
-      <c r="CN63" s="198"/>
-      <c r="CO63" s="198"/>
-      <c r="CP63" s="198"/>
-      <c r="CQ63" s="198"/>
-      <c r="CR63" s="198"/>
-      <c r="CS63" s="198"/>
-      <c r="CT63" s="198" t="s">
-        <v>519</v>
-      </c>
-      <c r="CU63" s="198"/>
-      <c r="CV63" s="198"/>
-      <c r="CW63" s="198"/>
-      <c r="CX63" s="198"/>
-      <c r="CY63" s="198"/>
-      <c r="CZ63" s="198" t="s">
-        <v>519</v>
-      </c>
-      <c r="DA63" s="198"/>
-      <c r="DB63" s="198"/>
-      <c r="DC63" s="198"/>
-      <c r="DD63" s="198" t="s">
-        <v>519</v>
-      </c>
-      <c r="DE63" s="198"/>
-      <c r="DF63" s="198"/>
-      <c r="DG63" s="198"/>
-      <c r="DH63" s="198" t="s">
-        <v>519</v>
-      </c>
-      <c r="DI63" s="198" t="s">
-        <v>519</v>
-      </c>
-      <c r="DJ63" s="198"/>
-      <c r="DK63" s="198"/>
-      <c r="DL63" s="198"/>
-      <c r="DM63" s="198"/>
-      <c r="DN63" s="198" t="s">
-        <v>519</v>
-      </c>
-      <c r="DO63" s="198"/>
-      <c r="DP63" s="198"/>
-      <c r="DQ63" s="198"/>
-      <c r="DR63" s="198"/>
-      <c r="DS63" s="200">
+      <c r="K63" s="195" t="s">
+        <v>519</v>
+      </c>
+      <c r="L63" s="195" t="s">
+        <v>519</v>
+      </c>
+      <c r="M63" s="195" t="s">
+        <v>519</v>
+      </c>
+      <c r="N63" s="195" t="s">
+        <v>519</v>
+      </c>
+      <c r="O63" s="195" t="s">
+        <v>519</v>
+      </c>
+      <c r="P63" s="195" t="s">
+        <v>519</v>
+      </c>
+      <c r="Q63" s="195" t="s">
+        <v>519</v>
+      </c>
+      <c r="R63" s="195" t="s">
+        <v>519</v>
+      </c>
+      <c r="S63" s="195" t="s">
+        <v>519</v>
+      </c>
+      <c r="T63" s="192"/>
+      <c r="U63" s="192" t="s">
+        <v>519</v>
+      </c>
+      <c r="V63" s="192" t="s">
+        <v>519</v>
+      </c>
+      <c r="W63" s="192"/>
+      <c r="X63" s="192" t="s">
+        <v>519</v>
+      </c>
+      <c r="Y63" s="197" t="s">
+        <v>519</v>
+      </c>
+      <c r="Z63" s="197" t="s">
+        <v>519</v>
+      </c>
+      <c r="AA63" s="197" t="s">
+        <v>519</v>
+      </c>
+      <c r="AB63" s="197" t="s">
+        <v>519</v>
+      </c>
+      <c r="AC63" s="197" t="s">
+        <v>519</v>
+      </c>
+      <c r="AD63" s="197" t="s">
+        <v>519</v>
+      </c>
+      <c r="AE63" s="197"/>
+      <c r="AF63" s="197"/>
+      <c r="AG63" s="197"/>
+      <c r="AH63" s="197"/>
+      <c r="AI63" s="197" t="s">
+        <v>519</v>
+      </c>
+      <c r="AJ63" s="197"/>
+      <c r="AK63" s="197"/>
+      <c r="AL63" s="197"/>
+      <c r="AM63" s="197"/>
+      <c r="AN63" s="197"/>
+      <c r="AO63" s="197"/>
+      <c r="AP63" s="197"/>
+      <c r="AQ63" s="197"/>
+      <c r="AR63" s="197"/>
+      <c r="AS63" s="197"/>
+      <c r="AT63" s="197"/>
+      <c r="AU63" s="197"/>
+      <c r="AV63" s="197"/>
+      <c r="AW63" s="197"/>
+      <c r="AX63" s="197"/>
+      <c r="AY63" s="197"/>
+      <c r="AZ63" s="197"/>
+      <c r="BA63" s="197"/>
+      <c r="BB63" s="197"/>
+      <c r="BC63" s="197"/>
+      <c r="BD63" s="197"/>
+      <c r="BE63" s="197"/>
+      <c r="BF63" s="197"/>
+      <c r="BG63" s="197"/>
+      <c r="BH63" s="197"/>
+      <c r="BI63" s="197"/>
+      <c r="BJ63" s="197"/>
+      <c r="BK63" s="197"/>
+      <c r="BL63" s="197"/>
+      <c r="BM63" s="197"/>
+      <c r="BN63" s="197"/>
+      <c r="BO63" s="197"/>
+      <c r="BP63" s="197"/>
+      <c r="BQ63" s="197"/>
+      <c r="BR63" s="197"/>
+      <c r="BS63" s="197"/>
+      <c r="BT63" s="197"/>
+      <c r="BU63" s="197"/>
+      <c r="BV63" s="197"/>
+      <c r="BW63" s="197"/>
+      <c r="BX63" s="197"/>
+      <c r="BY63" s="197"/>
+      <c r="BZ63" s="197"/>
+      <c r="CA63" s="197"/>
+      <c r="CB63" s="197"/>
+      <c r="CC63" s="197"/>
+      <c r="CD63" s="197"/>
+      <c r="CE63" s="197"/>
+      <c r="CF63" s="197"/>
+      <c r="CG63" s="197"/>
+      <c r="CH63" s="197"/>
+      <c r="CI63" s="197"/>
+      <c r="CJ63" s="197"/>
+      <c r="CK63" s="197"/>
+      <c r="CL63" s="197"/>
+      <c r="CM63" s="197"/>
+      <c r="CN63" s="197"/>
+      <c r="CO63" s="197"/>
+      <c r="CP63" s="197"/>
+      <c r="CQ63" s="197"/>
+      <c r="CR63" s="197"/>
+      <c r="CS63" s="197"/>
+      <c r="CT63" s="197" t="s">
+        <v>519</v>
+      </c>
+      <c r="CU63" s="197"/>
+      <c r="CV63" s="197"/>
+      <c r="CW63" s="197"/>
+      <c r="CX63" s="197"/>
+      <c r="CY63" s="197"/>
+      <c r="CZ63" s="197" t="s">
+        <v>519</v>
+      </c>
+      <c r="DA63" s="197"/>
+      <c r="DB63" s="197"/>
+      <c r="DC63" s="197"/>
+      <c r="DD63" s="197" t="s">
+        <v>519</v>
+      </c>
+      <c r="DE63" s="197"/>
+      <c r="DF63" s="197"/>
+      <c r="DG63" s="197"/>
+      <c r="DH63" s="197" t="s">
+        <v>519</v>
+      </c>
+      <c r="DI63" s="197" t="s">
+        <v>519</v>
+      </c>
+      <c r="DJ63" s="197"/>
+      <c r="DK63" s="197"/>
+      <c r="DL63" s="197"/>
+      <c r="DM63" s="197"/>
+      <c r="DN63" s="197" t="s">
+        <v>519</v>
+      </c>
+      <c r="DO63" s="197"/>
+      <c r="DP63" s="197"/>
+      <c r="DQ63" s="197"/>
+      <c r="DR63" s="197"/>
+      <c r="DS63" s="199">
         <f t="shared" si="0"/>
         <v>3891000</v>
       </c>
-      <c r="DT63" s="201">
+      <c r="DT63" s="200">
         <f t="shared" si="12"/>
         <v>-891000</v>
       </c>
-      <c r="DU63" s="202" t="s">
+      <c r="DU63" s="201" t="s">
         <v>653</v>
       </c>
-      <c r="DV63" s="202" t="s">
+      <c r="DV63" s="201" t="s">
         <v>737</v>
       </c>
-      <c r="DW63" s="202" t="s">
+      <c r="DW63" s="201" t="s">
         <v>739</v>
       </c>
     </row>
@@ -27645,18 +27688,18 @@
       </c>
     </row>
     <row r="84" spans="1:124" s="137" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="228" t="s">
+      <c r="A84" s="287" t="s">
         <v>414</v>
       </c>
-      <c r="B84" s="229"/>
-      <c r="C84" s="229"/>
-      <c r="D84" s="229"/>
-      <c r="E84" s="229"/>
-      <c r="F84" s="229"/>
-      <c r="G84" s="229"/>
-      <c r="H84" s="229"/>
-      <c r="I84" s="229"/>
-      <c r="J84" s="302"/>
+      <c r="B84" s="288"/>
+      <c r="C84" s="288"/>
+      <c r="D84" s="288"/>
+      <c r="E84" s="288"/>
+      <c r="F84" s="288"/>
+      <c r="G84" s="288"/>
+      <c r="H84" s="288"/>
+      <c r="I84" s="288"/>
+      <c r="J84" s="361"/>
       <c r="K84" s="138">
         <f>COUNTA(K4:K83)</f>
         <v>70</v>
@@ -28179,44 +28222,44 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="304" t="s">
+      <c r="A3" s="363" t="s">
         <v>746</v>
       </c>
-      <c r="B3" s="304"/>
-      <c r="C3" s="304"/>
-      <c r="D3" s="304"/>
-      <c r="E3" s="304"/>
-      <c r="F3" s="304"/>
-      <c r="G3" s="304"/>
-      <c r="H3" s="304"/>
-      <c r="I3" s="304"/>
+      <c r="B3" s="363"/>
+      <c r="C3" s="363"/>
+      <c r="D3" s="363"/>
+      <c r="E3" s="363"/>
+      <c r="F3" s="363"/>
+      <c r="G3" s="363"/>
+      <c r="H3" s="363"/>
+      <c r="I3" s="363"/>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="222" t="s">
+      <c r="A4" s="221" t="s">
         <v>260</v>
       </c>
-      <c r="B4" s="222" t="s">
+      <c r="B4" s="221" t="s">
         <v>654</v>
       </c>
-      <c r="C4" s="222" t="s">
+      <c r="C4" s="221" t="s">
         <v>421</v>
       </c>
-      <c r="D4" s="222" t="s">
+      <c r="D4" s="221" t="s">
         <v>422</v>
       </c>
-      <c r="E4" s="222" t="s">
+      <c r="E4" s="221" t="s">
         <v>735</v>
       </c>
-      <c r="F4" s="222" t="s">
+      <c r="F4" s="221" t="s">
         <v>514</v>
       </c>
-      <c r="G4" s="222" t="s">
+      <c r="G4" s="221" t="s">
         <v>424</v>
       </c>
-      <c r="H4" s="222" t="s">
+      <c r="H4" s="221" t="s">
         <v>425</v>
       </c>
-      <c r="I4" s="222" t="s">
+      <c r="I4" s="221" t="s">
         <v>750</v>
       </c>
     </row>
@@ -28227,7 +28270,7 @@
       <c r="B5" s="157" t="s">
         <v>668</v>
       </c>
-      <c r="C5" s="221" t="s">
+      <c r="C5" s="220" t="s">
         <v>446</v>
       </c>
       <c r="D5" s="157" t="s">
@@ -28249,32 +28292,32 @@
         <v>749</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="225" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="223">
+    <row r="6" spans="1:9" s="224" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="222">
         <v>20</v>
       </c>
-      <c r="B6" s="223" t="s">
+      <c r="B6" s="222" t="s">
         <v>674</v>
       </c>
-      <c r="C6" s="224" t="s">
+      <c r="C6" s="223" t="s">
         <v>452</v>
       </c>
-      <c r="D6" s="223" t="s">
+      <c r="D6" s="222" t="s">
         <v>437</v>
       </c>
-      <c r="E6" s="223">
+      <c r="E6" s="222">
         <v>1982</v>
       </c>
-      <c r="F6" s="227" t="s">
+      <c r="F6" s="226" t="s">
         <v>433</v>
       </c>
-      <c r="G6" s="227" t="s">
+      <c r="G6" s="226" t="s">
         <v>551</v>
       </c>
-      <c r="H6" s="223" t="s">
+      <c r="H6" s="222" t="s">
         <v>560</v>
       </c>
-      <c r="I6" s="223" t="s">
+      <c r="I6" s="222" t="s">
         <v>748</v>
       </c>
     </row>
@@ -28285,7 +28328,7 @@
       <c r="B7" s="157" t="s">
         <v>688</v>
       </c>
-      <c r="C7" s="221" t="s">
+      <c r="C7" s="220" t="s">
         <v>466</v>
       </c>
       <c r="D7" s="157" t="s">
@@ -28303,7 +28346,7 @@
       <c r="H7" s="178" t="s">
         <v>582</v>
       </c>
-      <c r="I7" s="226" t="s">
+      <c r="I7" s="225" t="s">
         <v>747</v>
       </c>
     </row>
